--- a/result/NCDC_weather_data/stations_imputed/54823099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/54823099999.xlsx
@@ -581,7 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
-      <c r="R2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -639,7 +641,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
-      <c r="R3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -697,7 +701,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -755,7 +761,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
-      <c r="R5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -813,7 +821,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -871,7 +881,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -929,7 +941,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
-      <c r="R8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -987,7 +1001,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
-      <c r="R9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1045,7 +1061,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
-      <c r="R10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1103,7 +1121,9 @@
       <c r="Q11" t="n">
         <v>0.001524</v>
       </c>
-      <c r="R11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1161,7 +1181,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
-      <c r="R12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1219,7 +1241,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
-      <c r="R13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1277,7 +1301,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1335,7 +1361,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1393,7 +1421,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
-      <c r="R16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1451,7 +1481,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
-      <c r="R17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1509,7 +1541,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
-      <c r="R18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1567,7 +1601,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
-      <c r="R19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1625,7 +1661,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
-      <c r="R20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1683,7 +1721,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
-      <c r="R21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1741,7 +1781,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
-      <c r="R22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1799,7 +1841,9 @@
       <c r="Q23" t="n">
         <v>0.00381</v>
       </c>
-      <c r="R23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1857,7 +1901,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
-      <c r="R24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1915,7 +1961,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
-      <c r="R25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1973,7 +2021,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
-      <c r="R26" t="inlineStr"/>
+      <c r="R26" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2031,7 +2081,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
-      <c r="R27" t="inlineStr"/>
+      <c r="R27" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2089,7 +2141,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
-      <c r="R28" t="inlineStr"/>
+      <c r="R28" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2147,7 +2201,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
-      <c r="R29" t="inlineStr"/>
+      <c r="R29" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2205,7 +2261,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
-      <c r="R30" t="inlineStr"/>
+      <c r="R30" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2263,7 +2321,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
-      <c r="R31" t="inlineStr"/>
+      <c r="R31" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2321,7 +2381,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2379,7 +2441,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
-      <c r="R33" t="inlineStr"/>
+      <c r="R33" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2437,7 +2501,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2495,7 +2561,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2553,7 +2621,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
-      <c r="R36" t="inlineStr"/>
+      <c r="R36" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2611,7 +2681,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
-      <c r="R37" t="inlineStr"/>
+      <c r="R37" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2669,7 +2741,9 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
-      <c r="R38" t="inlineStr"/>
+      <c r="R38" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2727,7 +2801,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
-      <c r="R39" t="inlineStr"/>
+      <c r="R39" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2785,7 +2861,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
-      <c r="R40" t="inlineStr"/>
+      <c r="R40" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2843,7 +2921,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
-      <c r="R41" t="inlineStr"/>
+      <c r="R41" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2901,7 +2981,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
-      <c r="R42" t="inlineStr"/>
+      <c r="R42" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2959,7 +3041,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
-      <c r="R43" t="inlineStr"/>
+      <c r="R43" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3017,7 +3101,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
-      <c r="R44" t="inlineStr"/>
+      <c r="R44" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3075,7 +3161,9 @@
       <c r="Q45" t="n">
         <v>0.000254</v>
       </c>
-      <c r="R45" t="inlineStr"/>
+      <c r="R45" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3133,7 +3221,9 @@
       <c r="Q46" t="n">
         <v>0.000254</v>
       </c>
-      <c r="R46" t="inlineStr"/>
+      <c r="R46" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3191,7 +3281,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
-      <c r="R47" t="inlineStr"/>
+      <c r="R47" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3249,7 +3341,9 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
-      <c r="R48" t="inlineStr"/>
+      <c r="R48" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3307,7 +3401,9 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
-      <c r="R49" t="inlineStr"/>
+      <c r="R49" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3365,7 +3461,9 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
-      <c r="R50" t="inlineStr"/>
+      <c r="R50" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3423,7 +3521,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
-      <c r="R51" t="inlineStr"/>
+      <c r="R51" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3481,7 +3581,9 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
-      <c r="R52" t="inlineStr"/>
+      <c r="R52" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3539,7 +3641,9 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
-      <c r="R53" t="inlineStr"/>
+      <c r="R53" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3597,7 +3701,9 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
-      <c r="R54" t="inlineStr"/>
+      <c r="R54" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3655,7 +3761,9 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
-      <c r="R55" t="inlineStr"/>
+      <c r="R55" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3713,7 +3821,9 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
-      <c r="R56" t="inlineStr"/>
+      <c r="R56" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3771,7 +3881,9 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
-      <c r="R57" t="inlineStr"/>
+      <c r="R57" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3829,7 +3941,9 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
-      <c r="R58" t="inlineStr"/>
+      <c r="R58" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3887,7 +4001,9 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
-      <c r="R59" t="inlineStr"/>
+      <c r="R59" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3945,7 +4061,9 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
-      <c r="R60" t="inlineStr"/>
+      <c r="R60" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4003,7 +4121,9 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
-      <c r="R61" t="inlineStr"/>
+      <c r="R61" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4061,7 +4181,9 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
-      <c r="R62" t="inlineStr"/>
+      <c r="R62" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4119,7 +4241,9 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
-      <c r="R63" t="inlineStr"/>
+      <c r="R63" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4177,7 +4301,9 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
-      <c r="R64" t="inlineStr"/>
+      <c r="R64" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4235,7 +4361,9 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
-      <c r="R65" t="inlineStr"/>
+      <c r="R65" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4293,7 +4421,9 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
-      <c r="R66" t="inlineStr"/>
+      <c r="R66" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4351,7 +4481,9 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
-      <c r="R67" t="inlineStr"/>
+      <c r="R67" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -4409,7 +4541,9 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
-      <c r="R68" t="inlineStr"/>
+      <c r="R68" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -4467,7 +4601,9 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
-      <c r="R69" t="inlineStr"/>
+      <c r="R69" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -4525,7 +4661,9 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
-      <c r="R70" t="inlineStr"/>
+      <c r="R70" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -4583,7 +4721,9 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
-      <c r="R71" t="inlineStr"/>
+      <c r="R71" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -4641,7 +4781,9 @@
       <c r="Q72" t="n">
         <v>0.002032</v>
       </c>
-      <c r="R72" t="inlineStr"/>
+      <c r="R72" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -4699,7 +4841,9 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
-      <c r="R73" t="inlineStr"/>
+      <c r="R73" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -4757,7 +4901,9 @@
       <c r="Q74" t="n">
         <v>0</v>
       </c>
-      <c r="R74" t="inlineStr"/>
+      <c r="R74" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -4815,7 +4961,9 @@
       <c r="Q75" t="n">
         <v>0</v>
       </c>
-      <c r="R75" t="inlineStr"/>
+      <c r="R75" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -4873,7 +5021,9 @@
       <c r="Q76" t="n">
         <v>0.002032</v>
       </c>
-      <c r="R76" t="inlineStr"/>
+      <c r="R76" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -4931,7 +5081,9 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
-      <c r="R77" t="inlineStr"/>
+      <c r="R77" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -4989,7 +5141,9 @@
       <c r="Q78" t="n">
         <v>0.000508</v>
       </c>
-      <c r="R78" t="inlineStr"/>
+      <c r="R78" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -5047,7 +5201,9 @@
       <c r="Q79" t="n">
         <v>0</v>
       </c>
-      <c r="R79" t="inlineStr"/>
+      <c r="R79" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -5105,7 +5261,9 @@
       <c r="Q80" t="n">
         <v>0</v>
       </c>
-      <c r="R80" t="inlineStr"/>
+      <c r="R80" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -5163,7 +5321,9 @@
       <c r="Q81" t="n">
         <v>0</v>
       </c>
-      <c r="R81" t="inlineStr"/>
+      <c r="R81" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -5221,7 +5381,9 @@
       <c r="Q82" t="n">
         <v>0</v>
       </c>
-      <c r="R82" t="inlineStr"/>
+      <c r="R82" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -5279,7 +5441,9 @@
       <c r="Q83" t="n">
         <v>0</v>
       </c>
-      <c r="R83" t="inlineStr"/>
+      <c r="R83" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -5337,7 +5501,9 @@
       <c r="Q84" t="n">
         <v>0.00127</v>
       </c>
-      <c r="R84" t="inlineStr"/>
+      <c r="R84" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -5395,7 +5561,9 @@
       <c r="Q85" t="n">
         <v>0.034798</v>
       </c>
-      <c r="R85" t="inlineStr"/>
+      <c r="R85" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -5453,7 +5621,9 @@
       <c r="Q86" t="n">
         <v>0</v>
       </c>
-      <c r="R86" t="inlineStr"/>
+      <c r="R86" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -5511,7 +5681,9 @@
       <c r="Q87" t="n">
         <v>0</v>
       </c>
-      <c r="R87" t="inlineStr"/>
+      <c r="R87" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -5569,7 +5741,9 @@
       <c r="Q88" t="n">
         <v>0</v>
       </c>
-      <c r="R88" t="inlineStr"/>
+      <c r="R88" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -5627,7 +5801,9 @@
       <c r="Q89" t="n">
         <v>0.00508</v>
       </c>
-      <c r="R89" t="inlineStr"/>
+      <c r="R89" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -5685,7 +5861,9 @@
       <c r="Q90" t="n">
         <v>0</v>
       </c>
-      <c r="R90" t="inlineStr"/>
+      <c r="R90" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -5743,7 +5921,9 @@
       <c r="Q91" t="n">
         <v>0</v>
       </c>
-      <c r="R91" t="inlineStr"/>
+      <c r="R91" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -5801,7 +5981,9 @@
       <c r="Q92" t="n">
         <v>0</v>
       </c>
-      <c r="R92" t="inlineStr"/>
+      <c r="R92" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -5859,7 +6041,9 @@
       <c r="Q93" t="n">
         <v>0</v>
       </c>
-      <c r="R93" t="inlineStr"/>
+      <c r="R93" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -5917,7 +6101,9 @@
       <c r="Q94" t="n">
         <v>0</v>
       </c>
-      <c r="R94" t="inlineStr"/>
+      <c r="R94" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -5975,7 +6161,9 @@
       <c r="Q95" t="n">
         <v>0</v>
       </c>
-      <c r="R95" t="inlineStr"/>
+      <c r="R95" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -6033,7 +6221,9 @@
       <c r="Q96" t="n">
         <v>0</v>
       </c>
-      <c r="R96" t="inlineStr"/>
+      <c r="R96" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -6091,7 +6281,9 @@
       <c r="Q97" t="n">
         <v>0</v>
       </c>
-      <c r="R97" t="inlineStr"/>
+      <c r="R97" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -6149,7 +6341,9 @@
       <c r="Q98" t="n">
         <v>0</v>
       </c>
-      <c r="R98" t="inlineStr"/>
+      <c r="R98" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -6207,7 +6401,9 @@
       <c r="Q99" t="n">
         <v>0</v>
       </c>
-      <c r="R99" t="inlineStr"/>
+      <c r="R99" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -6265,7 +6461,9 @@
       <c r="Q100" t="n">
         <v>0</v>
       </c>
-      <c r="R100" t="inlineStr"/>
+      <c r="R100" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -6323,7 +6521,9 @@
       <c r="Q101" t="n">
         <v>0</v>
       </c>
-      <c r="R101" t="inlineStr"/>
+      <c r="R101" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -6381,7 +6581,9 @@
       <c r="Q102" t="n">
         <v>0.014732</v>
       </c>
-      <c r="R102" t="inlineStr"/>
+      <c r="R102" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -6439,7 +6641,9 @@
       <c r="Q103" t="n">
         <v>0.003302</v>
       </c>
-      <c r="R103" t="inlineStr"/>
+      <c r="R103" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -6497,7 +6701,9 @@
       <c r="Q104" t="n">
         <v>0</v>
       </c>
-      <c r="R104" t="inlineStr"/>
+      <c r="R104" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -6555,7 +6761,9 @@
       <c r="Q105" t="n">
         <v>0</v>
       </c>
-      <c r="R105" t="inlineStr"/>
+      <c r="R105" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -6613,7 +6821,9 @@
       <c r="Q106" t="n">
         <v>0</v>
       </c>
-      <c r="R106" t="inlineStr"/>
+      <c r="R106" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -6671,7 +6881,9 @@
       <c r="Q107" t="n">
         <v>0</v>
       </c>
-      <c r="R107" t="inlineStr"/>
+      <c r="R107" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -6729,7 +6941,9 @@
       <c r="Q108" t="n">
         <v>0</v>
       </c>
-      <c r="R108" t="inlineStr"/>
+      <c r="R108" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -6787,7 +7001,9 @@
       <c r="Q109" t="n">
         <v>0</v>
       </c>
-      <c r="R109" t="inlineStr"/>
+      <c r="R109" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -6845,7 +7061,9 @@
       <c r="Q110" t="n">
         <v>0</v>
       </c>
-      <c r="R110" t="inlineStr"/>
+      <c r="R110" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -6903,7 +7121,9 @@
       <c r="Q111" t="n">
         <v>0</v>
       </c>
-      <c r="R111" t="inlineStr"/>
+      <c r="R111" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -6961,7 +7181,9 @@
       <c r="Q112" t="n">
         <v>0</v>
       </c>
-      <c r="R112" t="inlineStr"/>
+      <c r="R112" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -7019,7 +7241,9 @@
       <c r="Q113" t="n">
         <v>0</v>
       </c>
-      <c r="R113" t="inlineStr"/>
+      <c r="R113" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -7077,7 +7301,9 @@
       <c r="Q114" t="n">
         <v>0</v>
       </c>
-      <c r="R114" t="inlineStr"/>
+      <c r="R114" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -7135,7 +7361,9 @@
       <c r="Q115" t="n">
         <v>0</v>
       </c>
-      <c r="R115" t="inlineStr"/>
+      <c r="R115" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -7193,7 +7421,9 @@
       <c r="Q116" t="n">
         <v>0.003302</v>
       </c>
-      <c r="R116" t="inlineStr"/>
+      <c r="R116" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -7251,7 +7481,9 @@
       <c r="Q117" t="n">
         <v>0</v>
       </c>
-      <c r="R117" t="inlineStr"/>
+      <c r="R117" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -7309,7 +7541,9 @@
       <c r="Q118" t="n">
         <v>0</v>
       </c>
-      <c r="R118" t="inlineStr"/>
+      <c r="R118" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -7367,7 +7601,9 @@
       <c r="Q119" t="n">
         <v>0</v>
       </c>
-      <c r="R119" t="inlineStr"/>
+      <c r="R119" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -7425,7 +7661,9 @@
       <c r="Q120" t="n">
         <v>0</v>
       </c>
-      <c r="R120" t="inlineStr"/>
+      <c r="R120" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -7483,7 +7721,9 @@
       <c r="Q121" t="n">
         <v>0</v>
       </c>
-      <c r="R121" t="inlineStr"/>
+      <c r="R121" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -7541,7 +7781,9 @@
       <c r="Q122" t="n">
         <v>0</v>
       </c>
-      <c r="R122" t="inlineStr"/>
+      <c r="R122" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -7599,7 +7841,9 @@
       <c r="Q123" t="n">
         <v>0</v>
       </c>
-      <c r="R123" t="inlineStr"/>
+      <c r="R123" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -7657,7 +7901,9 @@
       <c r="Q124" t="n">
         <v>0.000254</v>
       </c>
-      <c r="R124" t="inlineStr"/>
+      <c r="R124" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -7715,7 +7961,9 @@
       <c r="Q125" t="n">
         <v>0.010922</v>
       </c>
-      <c r="R125" t="inlineStr"/>
+      <c r="R125" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -7773,7 +8021,9 @@
       <c r="Q126" t="n">
         <v>0</v>
       </c>
-      <c r="R126" t="inlineStr"/>
+      <c r="R126" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -7831,7 +8081,9 @@
       <c r="Q127" t="n">
         <v>0</v>
       </c>
-      <c r="R127" t="inlineStr"/>
+      <c r="R127" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -7889,7 +8141,9 @@
       <c r="Q128" t="n">
         <v>0</v>
       </c>
-      <c r="R128" t="inlineStr"/>
+      <c r="R128" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -7947,7 +8201,9 @@
       <c r="Q129" t="n">
         <v>0</v>
       </c>
-      <c r="R129" t="inlineStr"/>
+      <c r="R129" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -8005,7 +8261,9 @@
       <c r="Q130" t="n">
         <v>0</v>
       </c>
-      <c r="R130" t="inlineStr"/>
+      <c r="R130" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -8063,7 +8321,9 @@
       <c r="Q131" t="n">
         <v>0</v>
       </c>
-      <c r="R131" t="inlineStr"/>
+      <c r="R131" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -8121,7 +8381,9 @@
       <c r="Q132" t="n">
         <v>0</v>
       </c>
-      <c r="R132" t="inlineStr"/>
+      <c r="R132" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -8179,7 +8441,9 @@
       <c r="Q133" t="n">
         <v>0</v>
       </c>
-      <c r="R133" t="inlineStr"/>
+      <c r="R133" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -8237,7 +8501,9 @@
       <c r="Q134" t="n">
         <v>0</v>
       </c>
-      <c r="R134" t="inlineStr"/>
+      <c r="R134" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -8295,7 +8561,9 @@
       <c r="Q135" t="n">
         <v>0</v>
       </c>
-      <c r="R135" t="inlineStr"/>
+      <c r="R135" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -8353,7 +8621,9 @@
       <c r="Q136" t="n">
         <v>0</v>
       </c>
-      <c r="R136" t="inlineStr"/>
+      <c r="R136" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -8411,7 +8681,9 @@
       <c r="Q137" t="n">
         <v>0</v>
       </c>
-      <c r="R137" t="inlineStr"/>
+      <c r="R137" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -8469,7 +8741,9 @@
       <c r="Q138" t="n">
         <v>0</v>
       </c>
-      <c r="R138" t="inlineStr"/>
+      <c r="R138" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -8527,7 +8801,9 @@
       <c r="Q139" t="n">
         <v>0</v>
       </c>
-      <c r="R139" t="inlineStr"/>
+      <c r="R139" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -8585,7 +8861,9 @@
       <c r="Q140" t="n">
         <v>0</v>
       </c>
-      <c r="R140" t="inlineStr"/>
+      <c r="R140" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -8643,7 +8921,9 @@
       <c r="Q141" t="n">
         <v>0</v>
       </c>
-      <c r="R141" t="inlineStr"/>
+      <c r="R141" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -8701,7 +8981,9 @@
       <c r="Q142" t="n">
         <v>0</v>
       </c>
-      <c r="R142" t="inlineStr"/>
+      <c r="R142" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -8759,7 +9041,9 @@
       <c r="Q143" t="n">
         <v>0</v>
       </c>
-      <c r="R143" t="inlineStr"/>
+      <c r="R143" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -8817,7 +9101,9 @@
       <c r="Q144" t="n">
         <v>0</v>
       </c>
-      <c r="R144" t="inlineStr"/>
+      <c r="R144" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -8875,7 +9161,9 @@
       <c r="Q145" t="n">
         <v>0</v>
       </c>
-      <c r="R145" t="inlineStr"/>
+      <c r="R145" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -8933,7 +9221,9 @@
       <c r="Q146" t="n">
         <v>0.003556</v>
       </c>
-      <c r="R146" t="inlineStr"/>
+      <c r="R146" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -8991,7 +9281,9 @@
       <c r="Q147" t="n">
         <v>0</v>
       </c>
-      <c r="R147" t="inlineStr"/>
+      <c r="R147" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -9049,7 +9341,9 @@
       <c r="Q148" t="n">
         <v>0</v>
       </c>
-      <c r="R148" t="inlineStr"/>
+      <c r="R148" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -9107,7 +9401,9 @@
       <c r="Q149" t="n">
         <v>0.022098</v>
       </c>
-      <c r="R149" t="inlineStr"/>
+      <c r="R149" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -9165,7 +9461,9 @@
       <c r="Q150" t="n">
         <v>0</v>
       </c>
-      <c r="R150" t="inlineStr"/>
+      <c r="R150" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -9223,7 +9521,9 @@
       <c r="Q151" t="n">
         <v>0.00381</v>
       </c>
-      <c r="R151" t="inlineStr"/>
+      <c r="R151" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -9281,7 +9581,9 @@
       <c r="Q152" t="n">
         <v>0</v>
       </c>
-      <c r="R152" t="inlineStr"/>
+      <c r="R152" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -9339,7 +9641,9 @@
       <c r="Q153" t="n">
         <v>0</v>
       </c>
-      <c r="R153" t="inlineStr"/>
+      <c r="R153" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -9397,7 +9701,9 @@
       <c r="Q154" t="n">
         <v>0</v>
       </c>
-      <c r="R154" t="inlineStr"/>
+      <c r="R154" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -9455,7 +9761,9 @@
       <c r="Q155" t="n">
         <v>0</v>
       </c>
-      <c r="R155" t="inlineStr"/>
+      <c r="R155" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -9513,7 +9821,9 @@
       <c r="Q156" t="n">
         <v>0</v>
       </c>
-      <c r="R156" t="inlineStr"/>
+      <c r="R156" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -9571,7 +9881,9 @@
       <c r="Q157" t="n">
         <v>0</v>
       </c>
-      <c r="R157" t="inlineStr"/>
+      <c r="R157" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -9629,7 +9941,9 @@
       <c r="Q158" t="n">
         <v>0.006604</v>
       </c>
-      <c r="R158" t="inlineStr"/>
+      <c r="R158" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -9687,7 +10001,9 @@
       <c r="Q159" t="n">
         <v>0.000254</v>
       </c>
-      <c r="R159" t="inlineStr"/>
+      <c r="R159" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -9745,7 +10061,9 @@
       <c r="Q160" t="n">
         <v>0</v>
       </c>
-      <c r="R160" t="inlineStr"/>
+      <c r="R160" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -9803,7 +10121,9 @@
       <c r="Q161" t="n">
         <v>0.001778</v>
       </c>
-      <c r="R161" t="inlineStr"/>
+      <c r="R161" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -9861,7 +10181,9 @@
       <c r="Q162" t="n">
         <v>0</v>
       </c>
-      <c r="R162" t="inlineStr"/>
+      <c r="R162" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -9919,7 +10241,9 @@
       <c r="Q163" t="n">
         <v>0</v>
       </c>
-      <c r="R163" t="inlineStr"/>
+      <c r="R163" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -9977,7 +10301,9 @@
       <c r="Q164" t="n">
         <v>0.000254</v>
       </c>
-      <c r="R164" t="inlineStr"/>
+      <c r="R164" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -10035,7 +10361,9 @@
       <c r="Q165" t="n">
         <v>0.072898</v>
       </c>
-      <c r="R165" t="inlineStr"/>
+      <c r="R165" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -10093,7 +10421,9 @@
       <c r="Q166" t="n">
         <v>0</v>
       </c>
-      <c r="R166" t="inlineStr"/>
+      <c r="R166" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -10151,7 +10481,9 @@
       <c r="Q167" t="n">
         <v>0</v>
       </c>
-      <c r="R167" t="inlineStr"/>
+      <c r="R167" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -10209,7 +10541,9 @@
       <c r="Q168" t="n">
         <v>0</v>
       </c>
-      <c r="R168" t="inlineStr"/>
+      <c r="R168" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -10267,7 +10601,9 @@
       <c r="Q169" t="n">
         <v>0.011176</v>
       </c>
-      <c r="R169" t="inlineStr"/>
+      <c r="R169" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -10325,7 +10661,9 @@
       <c r="Q170" t="n">
         <v>0.07721599999999999</v>
       </c>
-      <c r="R170" t="inlineStr"/>
+      <c r="R170" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -10383,7 +10721,9 @@
       <c r="Q171" t="n">
         <v>0.000508</v>
       </c>
-      <c r="R171" t="inlineStr"/>
+      <c r="R171" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -10441,7 +10781,9 @@
       <c r="Q172" t="n">
         <v>0</v>
       </c>
-      <c r="R172" t="inlineStr"/>
+      <c r="R172" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -10499,7 +10841,9 @@
       <c r="Q173" t="n">
         <v>0</v>
       </c>
-      <c r="R173" t="inlineStr"/>
+      <c r="R173" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -10557,7 +10901,9 @@
       <c r="Q174" t="n">
         <v>0</v>
       </c>
-      <c r="R174" t="inlineStr"/>
+      <c r="R174" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -10615,7 +10961,9 @@
       <c r="Q175" t="n">
         <v>0.001016</v>
       </c>
-      <c r="R175" t="inlineStr"/>
+      <c r="R175" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -10673,7 +11021,9 @@
       <c r="Q176" t="n">
         <v>0.004826</v>
       </c>
-      <c r="R176" t="inlineStr"/>
+      <c r="R176" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -10731,7 +11081,9 @@
       <c r="Q177" t="n">
         <v>0</v>
       </c>
-      <c r="R177" t="inlineStr"/>
+      <c r="R177" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -10789,7 +11141,9 @@
       <c r="Q178" t="n">
         <v>0.022606</v>
       </c>
-      <c r="R178" t="inlineStr"/>
+      <c r="R178" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -10847,7 +11201,9 @@
       <c r="Q179" t="n">
         <v>0</v>
       </c>
-      <c r="R179" t="inlineStr"/>
+      <c r="R179" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -10905,7 +11261,9 @@
       <c r="Q180" t="n">
         <v>0.00127</v>
       </c>
-      <c r="R180" t="inlineStr"/>
+      <c r="R180" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -10963,7 +11321,9 @@
       <c r="Q181" t="n">
         <v>0.00381</v>
       </c>
-      <c r="R181" t="inlineStr"/>
+      <c r="R181" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -11021,7 +11381,9 @@
       <c r="Q182" t="n">
         <v>0</v>
       </c>
-      <c r="R182" t="inlineStr"/>
+      <c r="R182" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -11079,7 +11441,9 @@
       <c r="Q183" t="n">
         <v>0</v>
       </c>
-      <c r="R183" t="inlineStr"/>
+      <c r="R183" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -11137,7 +11501,9 @@
       <c r="Q184" t="n">
         <v>0.000508</v>
       </c>
-      <c r="R184" t="inlineStr"/>
+      <c r="R184" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -11195,7 +11561,9 @@
       <c r="Q185" t="n">
         <v>0</v>
       </c>
-      <c r="R185" t="inlineStr"/>
+      <c r="R185" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -11253,7 +11621,9 @@
       <c r="Q186" t="n">
         <v>0</v>
       </c>
-      <c r="R186" t="inlineStr"/>
+      <c r="R186" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -11311,7 +11681,9 @@
       <c r="Q187" t="n">
         <v>0</v>
       </c>
-      <c r="R187" t="inlineStr"/>
+      <c r="R187" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -11369,7 +11741,9 @@
       <c r="Q188" t="n">
         <v>0</v>
       </c>
-      <c r="R188" t="inlineStr"/>
+      <c r="R188" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -11427,7 +11801,9 @@
       <c r="Q189" t="n">
         <v>0.021336</v>
       </c>
-      <c r="R189" t="inlineStr"/>
+      <c r="R189" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -11485,7 +11861,9 @@
       <c r="Q190" t="n">
         <v>0.034798</v>
       </c>
-      <c r="R190" t="inlineStr"/>
+      <c r="R190" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -11543,7 +11921,9 @@
       <c r="Q191" t="n">
         <v>0.001524</v>
       </c>
-      <c r="R191" t="inlineStr"/>
+      <c r="R191" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -11601,7 +11981,9 @@
       <c r="Q192" t="n">
         <v>0.018288</v>
       </c>
-      <c r="R192" t="inlineStr"/>
+      <c r="R192" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -11659,7 +12041,9 @@
       <c r="Q193" t="n">
         <v>0.02921</v>
       </c>
-      <c r="R193" t="inlineStr"/>
+      <c r="R193" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -11717,7 +12101,9 @@
       <c r="Q194" t="n">
         <v>0</v>
       </c>
-      <c r="R194" t="inlineStr"/>
+      <c r="R194" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -11775,7 +12161,9 @@
       <c r="Q195" t="n">
         <v>0</v>
       </c>
-      <c r="R195" t="inlineStr"/>
+      <c r="R195" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -11833,7 +12221,9 @@
       <c r="Q196" t="n">
         <v>0</v>
       </c>
-      <c r="R196" t="inlineStr"/>
+      <c r="R196" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -11891,7 +12281,9 @@
       <c r="Q197" t="n">
         <v>0.011176</v>
       </c>
-      <c r="R197" t="inlineStr"/>
+      <c r="R197" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -11949,7 +12341,9 @@
       <c r="Q198" t="n">
         <v>0.004064</v>
       </c>
-      <c r="R198" t="inlineStr"/>
+      <c r="R198" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -12007,7 +12401,9 @@
       <c r="Q199" t="n">
         <v>0.001524</v>
       </c>
-      <c r="R199" t="inlineStr"/>
+      <c r="R199" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -12065,7 +12461,9 @@
       <c r="Q200" t="n">
         <v>0.026162</v>
       </c>
-      <c r="R200" t="inlineStr"/>
+      <c r="R200" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -12123,7 +12521,9 @@
       <c r="Q201" t="n">
         <v>0.008889999999999999</v>
       </c>
-      <c r="R201" t="inlineStr"/>
+      <c r="R201" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -12181,7 +12581,9 @@
       <c r="Q202" t="n">
         <v>0.000254</v>
       </c>
-      <c r="R202" t="inlineStr"/>
+      <c r="R202" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -12239,7 +12641,9 @@
       <c r="Q203" t="n">
         <v>0</v>
       </c>
-      <c r="R203" t="inlineStr"/>
+      <c r="R203" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -12297,7 +12701,9 @@
       <c r="Q204" t="n">
         <v>0</v>
       </c>
-      <c r="R204" t="inlineStr"/>
+      <c r="R204" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -12355,7 +12761,9 @@
       <c r="Q205" t="n">
         <v>0</v>
       </c>
-      <c r="R205" t="inlineStr"/>
+      <c r="R205" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -12413,7 +12821,9 @@
       <c r="Q206" t="n">
         <v>0</v>
       </c>
-      <c r="R206" t="inlineStr"/>
+      <c r="R206" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -12471,7 +12881,9 @@
       <c r="Q207" t="n">
         <v>0</v>
       </c>
-      <c r="R207" t="inlineStr"/>
+      <c r="R207" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -12529,7 +12941,9 @@
       <c r="Q208" t="n">
         <v>0</v>
       </c>
-      <c r="R208" t="inlineStr"/>
+      <c r="R208" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -12587,7 +13001,9 @@
       <c r="Q209" t="n">
         <v>0</v>
       </c>
-      <c r="R209" t="inlineStr"/>
+      <c r="R209" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -12645,7 +13061,9 @@
       <c r="Q210" t="n">
         <v>0</v>
       </c>
-      <c r="R210" t="inlineStr"/>
+      <c r="R210" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -12703,7 +13121,9 @@
       <c r="Q211" t="n">
         <v>0</v>
       </c>
-      <c r="R211" t="inlineStr"/>
+      <c r="R211" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -12761,7 +13181,9 @@
       <c r="Q212" t="n">
         <v>0</v>
       </c>
-      <c r="R212" t="inlineStr"/>
+      <c r="R212" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -12819,7 +13241,9 @@
       <c r="Q213" t="n">
         <v>0</v>
       </c>
-      <c r="R213" t="inlineStr"/>
+      <c r="R213" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -12877,7 +13301,9 @@
       <c r="Q214" t="n">
         <v>0</v>
       </c>
-      <c r="R214" t="inlineStr"/>
+      <c r="R214" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -12935,7 +13361,9 @@
       <c r="Q215" t="n">
         <v>0</v>
       </c>
-      <c r="R215" t="inlineStr"/>
+      <c r="R215" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -12993,7 +13421,9 @@
       <c r="Q216" t="n">
         <v>0</v>
       </c>
-      <c r="R216" t="inlineStr"/>
+      <c r="R216" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -13051,7 +13481,9 @@
       <c r="Q217" t="n">
         <v>0</v>
       </c>
-      <c r="R217" t="inlineStr"/>
+      <c r="R217" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -13109,7 +13541,9 @@
       <c r="Q218" t="n">
         <v>0</v>
       </c>
-      <c r="R218" t="inlineStr"/>
+      <c r="R218" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -13167,7 +13601,9 @@
       <c r="Q219" t="n">
         <v>0</v>
       </c>
-      <c r="R219" t="inlineStr"/>
+      <c r="R219" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -13225,7 +13661,9 @@
       <c r="Q220" t="n">
         <v>0</v>
       </c>
-      <c r="R220" t="inlineStr"/>
+      <c r="R220" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -13283,7 +13721,9 @@
       <c r="Q221" t="n">
         <v>0</v>
       </c>
-      <c r="R221" t="inlineStr"/>
+      <c r="R221" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -13341,7 +13781,9 @@
       <c r="Q222" t="n">
         <v>0</v>
       </c>
-      <c r="R222" t="inlineStr"/>
+      <c r="R222" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -13399,7 +13841,9 @@
       <c r="Q223" t="n">
         <v>0</v>
       </c>
-      <c r="R223" t="inlineStr"/>
+      <c r="R223" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -13457,7 +13901,9 @@
       <c r="Q224" t="n">
         <v>0</v>
       </c>
-      <c r="R224" t="inlineStr"/>
+      <c r="R224" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -13515,7 +13961,9 @@
       <c r="Q225" t="n">
         <v>0</v>
       </c>
-      <c r="R225" t="inlineStr"/>
+      <c r="R225" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -13573,7 +14021,9 @@
       <c r="Q226" t="n">
         <v>0</v>
       </c>
-      <c r="R226" t="inlineStr"/>
+      <c r="R226" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -13631,7 +14081,9 @@
       <c r="Q227" t="n">
         <v>0</v>
       </c>
-      <c r="R227" t="inlineStr"/>
+      <c r="R227" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -13689,7 +14141,9 @@
       <c r="Q228" t="n">
         <v>0.07696199999999999</v>
       </c>
-      <c r="R228" t="inlineStr"/>
+      <c r="R228" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -13747,7 +14201,9 @@
       <c r="Q229" t="n">
         <v>0.000508</v>
       </c>
-      <c r="R229" t="inlineStr"/>
+      <c r="R229" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -13805,7 +14261,9 @@
       <c r="Q230" t="n">
         <v>0</v>
       </c>
-      <c r="R230" t="inlineStr"/>
+      <c r="R230" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -13863,7 +14321,9 @@
       <c r="Q231" t="n">
         <v>0</v>
       </c>
-      <c r="R231" t="inlineStr"/>
+      <c r="R231" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -13921,7 +14381,9 @@
       <c r="Q232" t="n">
         <v>0</v>
       </c>
-      <c r="R232" t="inlineStr"/>
+      <c r="R232" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -13979,7 +14441,9 @@
       <c r="Q233" t="n">
         <v>0.001778</v>
       </c>
-      <c r="R233" t="inlineStr"/>
+      <c r="R233" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -14037,7 +14501,9 @@
       <c r="Q234" t="n">
         <v>0</v>
       </c>
-      <c r="R234" t="inlineStr"/>
+      <c r="R234" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -14095,7 +14561,9 @@
       <c r="Q235" t="n">
         <v>0</v>
       </c>
-      <c r="R235" t="inlineStr"/>
+      <c r="R235" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -14153,7 +14621,9 @@
       <c r="Q236" t="n">
         <v>0</v>
       </c>
-      <c r="R236" t="inlineStr"/>
+      <c r="R236" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -14211,7 +14681,9 @@
       <c r="Q237" t="n">
         <v>0</v>
       </c>
-      <c r="R237" t="inlineStr"/>
+      <c r="R237" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -14269,7 +14741,9 @@
       <c r="Q238" t="n">
         <v>0</v>
       </c>
-      <c r="R238" t="inlineStr"/>
+      <c r="R238" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -14327,7 +14801,9 @@
       <c r="Q239" t="n">
         <v>0</v>
       </c>
-      <c r="R239" t="inlineStr"/>
+      <c r="R239" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -14385,7 +14861,9 @@
       <c r="Q240" t="n">
         <v>0</v>
       </c>
-      <c r="R240" t="inlineStr"/>
+      <c r="R240" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -14443,7 +14921,9 @@
       <c r="Q241" t="n">
         <v>0</v>
       </c>
-      <c r="R241" t="inlineStr"/>
+      <c r="R241" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -14501,7 +14981,9 @@
       <c r="Q242" t="n">
         <v>0</v>
       </c>
-      <c r="R242" t="inlineStr"/>
+      <c r="R242" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -14559,7 +15041,9 @@
       <c r="Q243" t="n">
         <v>0</v>
       </c>
-      <c r="R243" t="inlineStr"/>
+      <c r="R243" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -14617,7 +15101,9 @@
       <c r="Q244" t="n">
         <v>0</v>
       </c>
-      <c r="R244" t="inlineStr"/>
+      <c r="R244" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -14675,7 +15161,9 @@
       <c r="Q245" t="n">
         <v>0</v>
       </c>
-      <c r="R245" t="inlineStr"/>
+      <c r="R245" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -14733,7 +15221,9 @@
       <c r="Q246" t="n">
         <v>0</v>
       </c>
-      <c r="R246" t="inlineStr"/>
+      <c r="R246" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -14791,7 +15281,9 @@
       <c r="Q247" t="n">
         <v>0</v>
       </c>
-      <c r="R247" t="inlineStr"/>
+      <c r="R247" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -14849,7 +15341,9 @@
       <c r="Q248" t="n">
         <v>0</v>
       </c>
-      <c r="R248" t="inlineStr"/>
+      <c r="R248" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -14907,7 +15401,9 @@
       <c r="Q249" t="n">
         <v>0</v>
       </c>
-      <c r="R249" t="inlineStr"/>
+      <c r="R249" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -14965,7 +15461,9 @@
       <c r="Q250" t="n">
         <v>0</v>
       </c>
-      <c r="R250" t="inlineStr"/>
+      <c r="R250" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -15023,7 +15521,9 @@
       <c r="Q251" t="n">
         <v>0</v>
       </c>
-      <c r="R251" t="inlineStr"/>
+      <c r="R251" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -15081,7 +15581,9 @@
       <c r="Q252" t="n">
         <v>0</v>
       </c>
-      <c r="R252" t="inlineStr"/>
+      <c r="R252" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -15139,7 +15641,9 @@
       <c r="Q253" t="n">
         <v>0</v>
       </c>
-      <c r="R253" t="inlineStr"/>
+      <c r="R253" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -15197,7 +15701,9 @@
       <c r="Q254" t="n">
         <v>0</v>
       </c>
-      <c r="R254" t="inlineStr"/>
+      <c r="R254" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -15255,7 +15761,9 @@
       <c r="Q255" t="n">
         <v>0</v>
       </c>
-      <c r="R255" t="inlineStr"/>
+      <c r="R255" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -15313,7 +15821,9 @@
       <c r="Q256" t="n">
         <v>0</v>
       </c>
-      <c r="R256" t="inlineStr"/>
+      <c r="R256" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -15371,7 +15881,9 @@
       <c r="Q257" t="n">
         <v>0</v>
       </c>
-      <c r="R257" t="inlineStr"/>
+      <c r="R257" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -15429,7 +15941,9 @@
       <c r="Q258" t="n">
         <v>0</v>
       </c>
-      <c r="R258" t="inlineStr"/>
+      <c r="R258" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -15487,7 +16001,9 @@
       <c r="Q259" t="n">
         <v>0</v>
       </c>
-      <c r="R259" t="inlineStr"/>
+      <c r="R259" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -15545,7 +16061,9 @@
       <c r="Q260" t="n">
         <v>0</v>
       </c>
-      <c r="R260" t="inlineStr"/>
+      <c r="R260" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -15603,7 +16121,9 @@
       <c r="Q261" t="n">
         <v>0.000508</v>
       </c>
-      <c r="R261" t="inlineStr"/>
+      <c r="R261" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -15661,7 +16181,9 @@
       <c r="Q262" t="n">
         <v>0</v>
       </c>
-      <c r="R262" t="inlineStr"/>
+      <c r="R262" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -15719,7 +16241,9 @@
       <c r="Q263" t="n">
         <v>0.004826</v>
       </c>
-      <c r="R263" t="inlineStr"/>
+      <c r="R263" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -15777,7 +16301,9 @@
       <c r="Q264" t="n">
         <v>0</v>
       </c>
-      <c r="R264" t="inlineStr"/>
+      <c r="R264" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -15835,7 +16361,9 @@
       <c r="Q265" t="n">
         <v>0</v>
       </c>
-      <c r="R265" t="inlineStr"/>
+      <c r="R265" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -15893,7 +16421,9 @@
       <c r="Q266" t="n">
         <v>0</v>
       </c>
-      <c r="R266" t="inlineStr"/>
+      <c r="R266" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -15951,7 +16481,9 @@
       <c r="Q267" t="n">
         <v>0</v>
       </c>
-      <c r="R267" t="inlineStr"/>
+      <c r="R267" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -16009,7 +16541,9 @@
       <c r="Q268" t="n">
         <v>0</v>
       </c>
-      <c r="R268" t="inlineStr"/>
+      <c r="R268" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -16067,7 +16601,9 @@
       <c r="Q269" t="n">
         <v>0</v>
       </c>
-      <c r="R269" t="inlineStr"/>
+      <c r="R269" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -16125,7 +16661,9 @@
       <c r="Q270" t="n">
         <v>0.001778</v>
       </c>
-      <c r="R270" t="inlineStr"/>
+      <c r="R270" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -16183,7 +16721,9 @@
       <c r="Q271" t="n">
         <v>0.006096</v>
       </c>
-      <c r="R271" t="inlineStr"/>
+      <c r="R271" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -16241,7 +16781,9 @@
       <c r="Q272" t="n">
         <v>0</v>
       </c>
-      <c r="R272" t="inlineStr"/>
+      <c r="R272" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -16299,7 +16841,9 @@
       <c r="Q273" t="n">
         <v>0</v>
       </c>
-      <c r="R273" t="inlineStr"/>
+      <c r="R273" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -16357,7 +16901,9 @@
       <c r="Q274" t="n">
         <v>0</v>
       </c>
-      <c r="R274" t="inlineStr"/>
+      <c r="R274" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -16415,7 +16961,9 @@
       <c r="Q275" t="n">
         <v>0</v>
       </c>
-      <c r="R275" t="inlineStr"/>
+      <c r="R275" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -16473,7 +17021,9 @@
       <c r="Q276" t="n">
         <v>0</v>
       </c>
-      <c r="R276" t="inlineStr"/>
+      <c r="R276" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -16531,7 +17081,9 @@
       <c r="Q277" t="n">
         <v>0</v>
       </c>
-      <c r="R277" t="inlineStr"/>
+      <c r="R277" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -16589,7 +17141,9 @@
       <c r="Q278" t="n">
         <v>0</v>
       </c>
-      <c r="R278" t="inlineStr"/>
+      <c r="R278" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -16647,7 +17201,9 @@
       <c r="Q279" t="n">
         <v>0</v>
       </c>
-      <c r="R279" t="inlineStr"/>
+      <c r="R279" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -16705,7 +17261,9 @@
       <c r="Q280" t="n">
         <v>0</v>
       </c>
-      <c r="R280" t="inlineStr"/>
+      <c r="R280" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -16763,7 +17321,9 @@
       <c r="Q281" t="n">
         <v>0</v>
       </c>
-      <c r="R281" t="inlineStr"/>
+      <c r="R281" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -16821,7 +17381,9 @@
       <c r="Q282" t="n">
         <v>0</v>
       </c>
-      <c r="R282" t="inlineStr"/>
+      <c r="R282" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -16879,7 +17441,9 @@
       <c r="Q283" t="n">
         <v>0</v>
       </c>
-      <c r="R283" t="inlineStr"/>
+      <c r="R283" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -16937,7 +17501,9 @@
       <c r="Q284" t="n">
         <v>0</v>
       </c>
-      <c r="R284" t="inlineStr"/>
+      <c r="R284" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -16995,7 +17561,9 @@
       <c r="Q285" t="n">
         <v>0</v>
       </c>
-      <c r="R285" t="inlineStr"/>
+      <c r="R285" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -17053,7 +17621,9 @@
       <c r="Q286" t="n">
         <v>0</v>
       </c>
-      <c r="R286" t="inlineStr"/>
+      <c r="R286" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -17111,7 +17681,9 @@
       <c r="Q287" t="n">
         <v>0</v>
       </c>
-      <c r="R287" t="inlineStr"/>
+      <c r="R287" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -17169,7 +17741,9 @@
       <c r="Q288" t="n">
         <v>0</v>
       </c>
-      <c r="R288" t="inlineStr"/>
+      <c r="R288" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -17227,7 +17801,9 @@
       <c r="Q289" t="n">
         <v>0</v>
       </c>
-      <c r="R289" t="inlineStr"/>
+      <c r="R289" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -17285,7 +17861,9 @@
       <c r="Q290" t="n">
         <v>0</v>
       </c>
-      <c r="R290" t="inlineStr"/>
+      <c r="R290" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -17343,7 +17921,9 @@
       <c r="Q291" t="n">
         <v>0</v>
       </c>
-      <c r="R291" t="inlineStr"/>
+      <c r="R291" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -17401,7 +17981,9 @@
       <c r="Q292" t="n">
         <v>0</v>
       </c>
-      <c r="R292" t="inlineStr"/>
+      <c r="R292" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -17459,7 +18041,9 @@
       <c r="Q293" t="n">
         <v>0</v>
       </c>
-      <c r="R293" t="inlineStr"/>
+      <c r="R293" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -17517,7 +18101,9 @@
       <c r="Q294" t="n">
         <v>0</v>
       </c>
-      <c r="R294" t="inlineStr"/>
+      <c r="R294" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -17575,7 +18161,9 @@
       <c r="Q295" t="n">
         <v>0</v>
       </c>
-      <c r="R295" t="inlineStr"/>
+      <c r="R295" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -17633,7 +18221,9 @@
       <c r="Q296" t="n">
         <v>0</v>
       </c>
-      <c r="R296" t="inlineStr"/>
+      <c r="R296" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -17691,7 +18281,9 @@
       <c r="Q297" t="n">
         <v>0</v>
       </c>
-      <c r="R297" t="inlineStr"/>
+      <c r="R297" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -17749,7 +18341,9 @@
       <c r="Q298" t="n">
         <v>0</v>
       </c>
-      <c r="R298" t="inlineStr"/>
+      <c r="R298" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -17807,7 +18401,9 @@
       <c r="Q299" t="n">
         <v>0</v>
       </c>
-      <c r="R299" t="inlineStr"/>
+      <c r="R299" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -17865,7 +18461,9 @@
       <c r="Q300" t="n">
         <v>0</v>
       </c>
-      <c r="R300" t="inlineStr"/>
+      <c r="R300" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -17923,7 +18521,9 @@
       <c r="Q301" t="n">
         <v>0</v>
       </c>
-      <c r="R301" t="inlineStr"/>
+      <c r="R301" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -17981,7 +18581,9 @@
       <c r="Q302" t="n">
         <v>0</v>
       </c>
-      <c r="R302" t="inlineStr"/>
+      <c r="R302" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -18039,7 +18641,9 @@
       <c r="Q303" t="n">
         <v>0</v>
       </c>
-      <c r="R303" t="inlineStr"/>
+      <c r="R303" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -18097,7 +18701,9 @@
       <c r="Q304" t="n">
         <v>0</v>
       </c>
-      <c r="R304" t="inlineStr"/>
+      <c r="R304" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -18155,7 +18761,9 @@
       <c r="Q305" t="n">
         <v>0</v>
       </c>
-      <c r="R305" t="inlineStr"/>
+      <c r="R305" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -18213,7 +18821,9 @@
       <c r="Q306" t="n">
         <v>0</v>
       </c>
-      <c r="R306" t="inlineStr"/>
+      <c r="R306" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -18271,7 +18881,9 @@
       <c r="Q307" t="n">
         <v>0</v>
       </c>
-      <c r="R307" t="inlineStr"/>
+      <c r="R307" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -18329,7 +18941,9 @@
       <c r="Q308" t="n">
         <v>0</v>
       </c>
-      <c r="R308" t="inlineStr"/>
+      <c r="R308" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -18387,7 +19001,9 @@
       <c r="Q309" t="n">
         <v>0</v>
       </c>
-      <c r="R309" t="inlineStr"/>
+      <c r="R309" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -18445,7 +19061,9 @@
       <c r="Q310" t="n">
         <v>0</v>
       </c>
-      <c r="R310" t="inlineStr"/>
+      <c r="R310" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -18503,7 +19121,9 @@
       <c r="Q311" t="n">
         <v>0</v>
       </c>
-      <c r="R311" t="inlineStr"/>
+      <c r="R311" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -18561,7 +19181,9 @@
       <c r="Q312" t="n">
         <v>0</v>
       </c>
-      <c r="R312" t="inlineStr"/>
+      <c r="R312" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -18619,7 +19241,9 @@
       <c r="Q313" t="n">
         <v>0.000254</v>
       </c>
-      <c r="R313" t="inlineStr"/>
+      <c r="R313" t="n">
+        <v>0.02153197969543147</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">

--- a/result/NCDC_weather_data/stations_imputed/54823099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/54823099999.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R510"/>
+  <dimension ref="A1:S510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,11 @@
           <t>SNDP</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -552,7 +557,7 @@
         <v>103.28</v>
       </c>
       <c r="H2" t="n">
-        <v>57.2</v>
+        <v>14</v>
       </c>
       <c r="I2" t="n">
         <v>102.84</v>
@@ -584,6 +589,9 @@
       <c r="R2" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S2" t="n">
+        <v>1.354305673380354</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -612,7 +620,7 @@
         <v>97.34</v>
       </c>
       <c r="H3" t="n">
-        <v>56.12</v>
+        <v>13.4</v>
       </c>
       <c r="I3" t="n">
         <v>102.88</v>
@@ -644,6 +652,9 @@
       <c r="R3" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S3" t="n">
+        <v>1.616873558091696</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -672,7 +683,7 @@
         <v>97.52</v>
       </c>
       <c r="H4" t="n">
-        <v>75.56</v>
+        <v>24.2</v>
       </c>
       <c r="I4" t="n">
         <v>102.77</v>
@@ -704,6 +715,9 @@
       <c r="R4" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S4" t="n">
+        <v>3.156677905663718</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -732,7 +746,7 @@
         <v>97.52</v>
       </c>
       <c r="H5" t="n">
-        <v>67.28</v>
+        <v>19.6</v>
       </c>
       <c r="I5" t="n">
         <v>102.94</v>
@@ -764,6 +778,9 @@
       <c r="R5" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S5" t="n">
+        <v>2.383353803126158</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -792,7 +809,7 @@
         <v>99.68000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>75.56</v>
+        <v>24.2</v>
       </c>
       <c r="I6" t="n">
         <v>103.11</v>
@@ -824,6 +841,9 @@
       <c r="R6" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S6" t="n">
+        <v>2.915694199992955</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -852,7 +872,7 @@
         <v>98.06</v>
       </c>
       <c r="H7" t="n">
-        <v>76.46000000000001</v>
+        <v>24.7</v>
       </c>
       <c r="I7" t="n">
         <v>103.46</v>
@@ -884,6 +904,9 @@
       <c r="R7" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S7" t="n">
+        <v>3.188456230699533</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -912,7 +935,7 @@
         <v>100.22</v>
       </c>
       <c r="H8" t="n">
-        <v>80.42</v>
+        <v>26.9</v>
       </c>
       <c r="I8" t="n">
         <v>103.04</v>
@@ -944,6 +967,9 @@
       <c r="R8" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S8" t="n">
+        <v>3.356502271827349</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -972,7 +998,7 @@
         <v>101.84</v>
       </c>
       <c r="H9" t="n">
-        <v>87.08000000000001</v>
+        <v>30.6</v>
       </c>
       <c r="I9" t="n">
         <v>102.64</v>
@@ -1004,6 +1030,9 @@
       <c r="R9" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S9" t="n">
+        <v>3.923450122290637</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1032,7 +1061,7 @@
         <v>98.96000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>88.88</v>
+        <v>31.6</v>
       </c>
       <c r="I10" t="n">
         <v>102.45</v>
@@ -1064,6 +1093,9 @@
       <c r="R10" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S10" t="n">
+        <v>4.612685483122532</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1092,7 +1124,7 @@
         <v>85.81999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>75.92</v>
+        <v>24.4</v>
       </c>
       <c r="I11" t="n">
         <v>102.78</v>
@@ -1124,6 +1156,9 @@
       <c r="R11" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S11" t="n">
+        <v>5.001672635950087</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1152,7 +1187,7 @@
         <v>88.88</v>
       </c>
       <c r="H12" t="n">
-        <v>62.42</v>
+        <v>16.9</v>
       </c>
       <c r="I12" t="n">
         <v>102.74</v>
@@ -1184,6 +1219,9 @@
       <c r="R12" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S12" t="n">
+        <v>2.792433614651958</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1212,7 +1250,7 @@
         <v>86.90000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>64.22</v>
+        <v>17.9</v>
       </c>
       <c r="I13" t="n">
         <v>102.76</v>
@@ -1244,6 +1282,9 @@
       <c r="R13" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S13" t="n">
+        <v>3.214589456960874</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1272,7 +1313,7 @@
         <v>88.7</v>
       </c>
       <c r="H14" t="n">
-        <v>38.66</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
         <v>102.98</v>
@@ -1304,6 +1345,9 @@
       <c r="R14" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S14" t="n">
+        <v>1.163717992091869</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1332,7 +1376,7 @@
         <v>95</v>
       </c>
       <c r="H15" t="n">
-        <v>52.88</v>
+        <v>11.6</v>
       </c>
       <c r="I15" t="n">
         <v>102.18</v>
@@ -1364,6 +1408,9 @@
       <c r="R15" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S15" t="n">
+        <v>1.567657801048863</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1392,7 +1439,7 @@
         <v>95.36000000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>63.31999999999999</v>
+        <v>17.4</v>
       </c>
       <c r="I16" t="n">
         <v>102.63</v>
@@ -1424,6 +1471,9 @@
       <c r="R16" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S16" t="n">
+        <v>2.250232649169053</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1452,7 +1502,7 @@
         <v>92.48</v>
       </c>
       <c r="H17" t="n">
-        <v>57.56</v>
+        <v>14.2</v>
       </c>
       <c r="I17" t="n">
         <v>102.98</v>
@@ -1484,6 +1534,9 @@
       <c r="R17" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S17" t="n">
+        <v>2.044371871711954</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1512,7 +1565,7 @@
         <v>95.36000000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>54.86</v>
+        <v>12.7</v>
       </c>
       <c r="I18" t="n">
         <v>103.1</v>
@@ -1544,6 +1597,9 @@
       <c r="R18" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S18" t="n">
+        <v>1.662787557416252</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1572,7 +1628,7 @@
         <v>97.52</v>
       </c>
       <c r="H19" t="n">
-        <v>78.08000000000001</v>
+        <v>25.6</v>
       </c>
       <c r="I19" t="n">
         <v>102.56</v>
@@ -1604,6 +1660,9 @@
       <c r="R19" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S19" t="n">
+        <v>3.43198395809263</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1632,7 +1691,7 @@
         <v>82.22</v>
       </c>
       <c r="H20" t="n">
-        <v>68.18000000000001</v>
+        <v>20.1</v>
       </c>
       <c r="I20" t="n">
         <v>103.13</v>
@@ -1664,6 +1723,9 @@
       <c r="R20" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S20" t="n">
+        <v>4.446798746782991</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1692,7 +1754,7 @@
         <v>84.38</v>
       </c>
       <c r="H21" t="n">
-        <v>59.18</v>
+        <v>15.1</v>
       </c>
       <c r="I21" t="n">
         <v>103.28</v>
@@ -1724,6 +1786,9 @@
       <c r="R21" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S21" t="n">
+        <v>2.972984138643563</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1752,7 +1817,7 @@
         <v>91.22</v>
       </c>
       <c r="H22" t="n">
-        <v>64.58000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="I22" t="n">
         <v>102.88</v>
@@ -1784,6 +1849,9 @@
       <c r="R22" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S22" t="n">
+        <v>2.751677995478139</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1812,7 +1880,7 @@
         <v>90.13999999999999</v>
       </c>
       <c r="H23" t="n">
-        <v>86.36</v>
+        <v>30.2</v>
       </c>
       <c r="I23" t="n">
         <v>102.67</v>
@@ -1844,6 +1912,9 @@
       <c r="R23" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S23" t="n">
+        <v>5.935461930098513</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1872,7 +1943,7 @@
         <v>84.74000000000001</v>
       </c>
       <c r="H24" t="n">
-        <v>74.30000000000001</v>
+        <v>23.5</v>
       </c>
       <c r="I24" t="n">
         <v>102.87</v>
@@ -1904,6 +1975,9 @@
       <c r="R24" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S24" t="n">
+        <v>4.946219958762967</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1932,7 +2006,7 @@
         <v>90.31999999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>67.46000000000001</v>
+        <v>19.7</v>
       </c>
       <c r="I25" t="n">
         <v>102.59</v>
@@ -1964,6 +2038,9 @@
       <c r="R25" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S25" t="n">
+        <v>3.148265496012661</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1992,7 +2069,7 @@
         <v>89.78</v>
       </c>
       <c r="H26" t="n">
-        <v>75.2</v>
+        <v>24</v>
       </c>
       <c r="I26" t="n">
         <v>102.66</v>
@@ -2024,6 +2101,9 @@
       <c r="R26" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S26" t="n">
+        <v>4.180858383993721</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2052,7 +2132,7 @@
         <v>92.12</v>
       </c>
       <c r="H27" t="n">
-        <v>60.08</v>
+        <v>15.6</v>
       </c>
       <c r="I27" t="n">
         <v>103.03</v>
@@ -2084,6 +2164,9 @@
       <c r="R27" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S27" t="n">
+        <v>2.268327387657277</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2112,7 +2195,7 @@
         <v>90.86000000000001</v>
       </c>
       <c r="H28" t="n">
-        <v>62.78</v>
+        <v>17.1</v>
       </c>
       <c r="I28" t="n">
         <v>103.25</v>
@@ -2144,6 +2227,9 @@
       <c r="R28" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S28" t="n">
+        <v>2.619379442046533</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2172,7 +2258,7 @@
         <v>89.06</v>
       </c>
       <c r="H29" t="n">
-        <v>49.1</v>
+        <v>9.5</v>
       </c>
       <c r="I29" t="n">
         <v>103.06</v>
@@ -2204,6 +2290,9 @@
       <c r="R29" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S29" t="n">
+        <v>1.710215277954386</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2232,7 +2321,7 @@
         <v>88.88</v>
       </c>
       <c r="H30" t="n">
-        <v>53.06</v>
+        <v>11.7</v>
       </c>
       <c r="I30" t="n">
         <v>102.65</v>
@@ -2264,6 +2353,9 @@
       <c r="R30" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S30" t="n">
+        <v>1.994181247874923</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2292,7 +2384,7 @@
         <v>98.96000000000001</v>
       </c>
       <c r="H31" t="n">
-        <v>71.78</v>
+        <v>22.1</v>
       </c>
       <c r="I31" t="n">
         <v>102.54</v>
@@ -2324,6 +2416,9 @@
       <c r="R31" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S31" t="n">
+        <v>2.636327999340822</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2352,7 +2447,7 @@
         <v>89.96000000000001</v>
       </c>
       <c r="H32" t="n">
-        <v>34.16</v>
+        <v>1.2</v>
       </c>
       <c r="I32" t="n">
         <v>102.88</v>
@@ -2384,6 +2479,9 @@
       <c r="R32" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S32" t="n">
+        <v>0.9276090460280553</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2412,7 +2510,7 @@
         <v>84.02</v>
       </c>
       <c r="H33" t="n">
-        <v>34.34</v>
+        <v>1.3</v>
       </c>
       <c r="I33" t="n">
         <v>103.34</v>
@@ -2444,6 +2542,9 @@
       <c r="R33" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S33" t="n">
+        <v>1.18063335528713</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2472,7 +2573,7 @@
         <v>90.13999999999999</v>
       </c>
       <c r="H34" t="n">
-        <v>42.98</v>
+        <v>6.1</v>
       </c>
       <c r="I34" t="n">
         <v>103.07</v>
@@ -2504,6 +2605,9 @@
       <c r="R34" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S34" t="n">
+        <v>1.300930455342072</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2532,7 +2636,7 @@
         <v>96.08</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3</v>
+        <v>13.5</v>
       </c>
       <c r="I35" t="n">
         <v>102.87</v>
@@ -2564,6 +2668,9 @@
       <c r="R35" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S35" t="n">
+        <v>1.705487279865703</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2592,7 +2699,7 @@
         <v>84.2</v>
       </c>
       <c r="H36" t="n">
-        <v>36.86</v>
+        <v>2.7</v>
       </c>
       <c r="I36" t="n">
         <v>103.28</v>
@@ -2624,6 +2731,9 @@
       <c r="R36" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S36" t="n">
+        <v>1.29534980252159</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2652,7 +2762,7 @@
         <v>87.62</v>
       </c>
       <c r="H37" t="n">
-        <v>35.6</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
         <v>103.48</v>
@@ -2684,6 +2794,9 @@
       <c r="R37" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S37" t="n">
+        <v>1.076094092376732</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2712,7 +2825,7 @@
         <v>93.02</v>
       </c>
       <c r="H38" t="n">
-        <v>38.84</v>
+        <v>3.8</v>
       </c>
       <c r="I38" t="n">
         <v>103.19</v>
@@ -2744,6 +2857,9 @@
       <c r="R38" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S38" t="n">
+        <v>0.9924191166959834</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2772,7 +2888,7 @@
         <v>96.8</v>
       </c>
       <c r="H39" t="n">
-        <v>44.96</v>
+        <v>7.2</v>
       </c>
       <c r="I39" t="n">
         <v>102.92</v>
@@ -2804,6 +2920,9 @@
       <c r="R39" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S39" t="n">
+        <v>1.090163081436872</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2832,7 +2951,7 @@
         <v>100.58</v>
       </c>
       <c r="H40" t="n">
-        <v>55.22</v>
+        <v>12.9</v>
       </c>
       <c r="I40" t="n">
         <v>102.88</v>
@@ -2864,6 +2983,9 @@
       <c r="R40" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S40" t="n">
+        <v>1.389528264431034</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2892,7 +3014,7 @@
         <v>104.18</v>
       </c>
       <c r="H41" t="n">
-        <v>73.03999999999999</v>
+        <v>22.8</v>
       </c>
       <c r="I41" t="n">
         <v>102.42</v>
@@ -2924,6 +3046,9 @@
       <c r="R41" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S41" t="n">
+        <v>2.278090011115728</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2952,7 +3077,7 @@
         <v>107.06</v>
       </c>
       <c r="H42" t="n">
-        <v>78.08000000000001</v>
+        <v>25.6</v>
       </c>
       <c r="I42" t="n">
         <v>102.46</v>
@@ -2984,6 +3109,9 @@
       <c r="R42" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S42" t="n">
+        <v>2.43460578636956</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3012,7 +3140,7 @@
         <v>108.5</v>
       </c>
       <c r="H43" t="n">
-        <v>75.74000000000001</v>
+        <v>24.3</v>
       </c>
       <c r="I43" t="n">
         <v>102.64</v>
@@ -3044,6 +3172,9 @@
       <c r="R43" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S43" t="n">
+        <v>2.142466922274408</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3072,7 +3203,7 @@
         <v>108.5</v>
       </c>
       <c r="H44" t="n">
-        <v>78.25999999999999</v>
+        <v>25.7</v>
       </c>
       <c r="I44" t="n">
         <v>102.47</v>
@@ -3104,6 +3235,9 @@
       <c r="R44" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S44" t="n">
+        <v>2.329174671630584</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3132,7 +3266,7 @@
         <v>100.76</v>
       </c>
       <c r="H45" t="n">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="I45" t="n">
         <v>102.37</v>
@@ -3164,6 +3298,9 @@
       <c r="R45" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S45" t="n">
+        <v>3.941735871574149</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3192,7 +3329,7 @@
         <v>82.75999999999999</v>
       </c>
       <c r="H46" t="n">
-        <v>63.14</v>
+        <v>17.3</v>
       </c>
       <c r="I46" t="n">
         <v>102.9</v>
@@ -3224,6 +3361,9 @@
       <c r="R46" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S46" t="n">
+        <v>3.651280537966153</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3252,7 +3392,7 @@
         <v>83.48</v>
       </c>
       <c r="H47" t="n">
-        <v>55.58</v>
+        <v>13.1</v>
       </c>
       <c r="I47" t="n">
         <v>102.79</v>
@@ -3284,6 +3424,9 @@
       <c r="R47" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S47" t="n">
+        <v>2.707439984092534</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3312,7 +3455,7 @@
         <v>82.58000000000001</v>
       </c>
       <c r="H48" t="n">
-        <v>45.86</v>
+        <v>7.7</v>
       </c>
       <c r="I48" t="n">
         <v>103.09</v>
@@ -3344,6 +3487,9 @@
       <c r="R48" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S48" t="n">
+        <v>1.957886993334389</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3372,7 +3518,7 @@
         <v>88.34</v>
       </c>
       <c r="H49" t="n">
-        <v>35.42</v>
+        <v>1.9</v>
       </c>
       <c r="I49" t="n">
         <v>103.15</v>
@@ -3404,6 +3550,9 @@
       <c r="R49" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S49" t="n">
+        <v>1.03873357938049</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3432,7 +3581,7 @@
         <v>90.86000000000001</v>
       </c>
       <c r="H50" t="n">
-        <v>50.72</v>
+        <v>10.4</v>
       </c>
       <c r="I50" t="n">
         <v>103.17</v>
@@ -3464,6 +3613,9 @@
       <c r="R50" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S50" t="n">
+        <v>1.694269773959974</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3492,7 +3644,7 @@
         <v>81.86</v>
       </c>
       <c r="H51" t="n">
-        <v>20.3</v>
+        <v>-6.5</v>
       </c>
       <c r="I51" t="n">
         <v>103.49</v>
@@ -3524,6 +3676,9 @@
       <c r="R51" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S51" t="n">
+        <v>0.7223895193010283</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3552,7 +3707,7 @@
         <v>95.72</v>
       </c>
       <c r="H52" t="n">
-        <v>38.66</v>
+        <v>3.7</v>
       </c>
       <c r="I52" t="n">
         <v>103.07</v>
@@ -3584,6 +3739,9 @@
       <c r="R52" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S52" t="n">
+        <v>0.8901057701872321</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3612,7 +3770,7 @@
         <v>94.81999999999999</v>
       </c>
       <c r="H53" t="n">
-        <v>40.1</v>
+        <v>4.5</v>
       </c>
       <c r="I53" t="n">
         <v>103.27</v>
@@ -3644,6 +3802,9 @@
       <c r="R53" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S53" t="n">
+        <v>0.9738224467623239</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3672,7 +3833,7 @@
         <v>88.34</v>
       </c>
       <c r="H54" t="n">
-        <v>36.32</v>
+        <v>2.4</v>
       </c>
       <c r="I54" t="n">
         <v>103.73</v>
@@ -3704,6 +3865,9 @@
       <c r="R54" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S54" t="n">
+        <v>1.0764335604328</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3732,7 +3896,7 @@
         <v>99.5</v>
       </c>
       <c r="H55" t="n">
-        <v>38.84</v>
+        <v>3.8</v>
       </c>
       <c r="I55" t="n">
         <v>103.45</v>
@@ -3764,6 +3928,9 @@
       <c r="R55" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S55" t="n">
+        <v>0.7794560937889987</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3792,7 +3959,7 @@
         <v>115.7</v>
       </c>
       <c r="H56" t="n">
-        <v>73.58000000000001</v>
+        <v>23.1</v>
       </c>
       <c r="I56" t="n">
         <v>102.86</v>
@@ -3824,6 +3991,9 @@
       <c r="R56" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S56" t="n">
+        <v>1.559908325708857</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3852,7 +4022,7 @@
         <v>126.5</v>
       </c>
       <c r="H57" t="n">
-        <v>75.02</v>
+        <v>23.9</v>
       </c>
       <c r="I57" t="n">
         <v>102.08</v>
@@ -3884,6 +4054,9 @@
       <c r="R57" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S57" t="n">
+        <v>1.154042559205636</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3912,7 +4085,7 @@
         <v>115.16</v>
       </c>
       <c r="H58" t="n">
-        <v>42.98</v>
+        <v>6.1</v>
       </c>
       <c r="I58" t="n">
         <v>102.31</v>
@@ -3944,6 +4117,9 @@
       <c r="R58" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S58" t="n">
+        <v>0.5291169624654581</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3972,7 +4148,7 @@
         <v>129.92</v>
       </c>
       <c r="H59" t="n">
-        <v>53.24</v>
+        <v>11.8</v>
       </c>
       <c r="I59" t="n">
         <v>101.85</v>
@@ -4004,6 +4180,9 @@
       <c r="R59" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S59" t="n">
+        <v>0.4839116605194267</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4032,7 +4211,7 @@
         <v>127.58</v>
       </c>
       <c r="H60" t="n">
-        <v>75.38</v>
+        <v>24.1</v>
       </c>
       <c r="I60" t="n">
         <v>101.67</v>
@@ -4064,6 +4243,9 @@
       <c r="R60" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S60" t="n">
+        <v>1.129135517001114</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4092,7 +4274,7 @@
         <v>110.3</v>
       </c>
       <c r="H61" t="n">
-        <v>48.74</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I61" t="n">
         <v>102.32</v>
@@ -4124,6 +4306,9 @@
       <c r="R61" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S61" t="n">
+        <v>0.7760400570311233</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4152,7 +4337,7 @@
         <v>121.64</v>
       </c>
       <c r="H62" t="n">
-        <v>50.90000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="I62" t="n">
         <v>101.78</v>
@@ -4184,6 +4369,9 @@
       <c r="R62" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S62" t="n">
+        <v>0.5764721309218308</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4212,7 +4400,7 @@
         <v>140.18</v>
       </c>
       <c r="H63" t="n">
-        <v>59.18</v>
+        <v>15.1</v>
       </c>
       <c r="I63" t="n">
         <v>101.28</v>
@@ -4244,6 +4432,9 @@
       <c r="R63" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S63" t="n">
+        <v>0.4409141649977273</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4272,7 +4463,7 @@
         <v>127.94</v>
       </c>
       <c r="H64" t="n">
-        <v>49.64</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I64" t="n">
         <v>101.5</v>
@@ -4304,6 +4495,9 @@
       <c r="R64" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S64" t="n">
+        <v>0.4504527676201411</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4332,7 +4526,7 @@
         <v>116.6</v>
       </c>
       <c r="H65" t="n">
-        <v>36.32</v>
+        <v>2.4</v>
       </c>
       <c r="I65" t="n">
         <v>102.34</v>
@@ -4364,6 +4558,9 @@
       <c r="R65" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S65" t="n">
+        <v>0.3891085918907408</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4392,7 +4589,7 @@
         <v>122.9</v>
       </c>
       <c r="H66" t="n">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="I66" t="n">
         <v>102.12</v>
@@ -4424,6 +4621,9 @@
       <c r="R66" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S66" t="n">
+        <v>0.7434419624923622</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4452,7 +4652,7 @@
         <v>124.7</v>
       </c>
       <c r="H67" t="n">
-        <v>67.09999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="I67" t="n">
         <v>101.87</v>
@@ -4484,6 +4684,9 @@
       <c r="R67" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S67" t="n">
+        <v>0.9332543449454145</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -4512,7 +4715,7 @@
         <v>139.1</v>
       </c>
       <c r="H68" t="n">
-        <v>85.81999999999999</v>
+        <v>29.9</v>
       </c>
       <c r="I68" t="n">
         <v>101.63</v>
@@ -4544,6 +4747,9 @@
       <c r="R68" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S68" t="n">
+        <v>1.120112899921486</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -4572,7 +4778,7 @@
         <v>146.84</v>
       </c>
       <c r="H69" t="n">
-        <v>94.63999999999999</v>
+        <v>34.8</v>
       </c>
       <c r="I69" t="n">
         <v>101.7</v>
@@ -4604,6 +4810,9 @@
       <c r="R69" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S69" t="n">
+        <v>1.18237755517336</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -4632,7 +4841,7 @@
         <v>147.2</v>
       </c>
       <c r="H70" t="n">
-        <v>97.34</v>
+        <v>36.3</v>
       </c>
       <c r="I70" t="n">
         <v>101.3</v>
@@ -4664,6 +4873,9 @@
       <c r="R70" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S70" t="n">
+        <v>1.271571693500535</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -4692,7 +4904,7 @@
         <v>137.48</v>
       </c>
       <c r="H71" t="n">
-        <v>106.88</v>
+        <v>41.6</v>
       </c>
       <c r="I71" t="n">
         <v>101.5</v>
@@ -4724,6 +4936,9 @@
       <c r="R71" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S71" t="n">
+        <v>2.241375765123601</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -4752,7 +4967,7 @@
         <v>118.76</v>
       </c>
       <c r="H72" t="n">
-        <v>114.44</v>
+        <v>45.8</v>
       </c>
       <c r="I72" t="n">
         <v>101.12</v>
@@ -4784,6 +4999,9 @@
       <c r="R72" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S72" t="n">
+        <v>5.001775537710319</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -4812,7 +5030,7 @@
         <v>123.98</v>
       </c>
       <c r="H73" t="n">
-        <v>117.5</v>
+        <v>47.5</v>
       </c>
       <c r="I73" t="n">
         <v>101.28</v>
@@ -4844,6 +5062,9 @@
       <c r="R73" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S73" t="n">
+        <v>4.608780487163346</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -4872,7 +5093,7 @@
         <v>139.46</v>
       </c>
       <c r="H74" t="n">
-        <v>89.06</v>
+        <v>31.7</v>
       </c>
       <c r="I74" t="n">
         <v>101.43</v>
@@ -4904,6 +5125,9 @@
       <c r="R74" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S74" t="n">
+        <v>1.228498189062995</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -4932,7 +5156,7 @@
         <v>142.52</v>
       </c>
       <c r="H75" t="n">
-        <v>98.78</v>
+        <v>37.1</v>
       </c>
       <c r="I75" t="n">
         <v>100.94</v>
@@ -4964,6 +5188,9 @@
       <c r="R75" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S75" t="n">
+        <v>1.518328530384781</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -4992,7 +5219,7 @@
         <v>114.98</v>
       </c>
       <c r="H76" t="n">
-        <v>94.46000000000001</v>
+        <v>34.7</v>
       </c>
       <c r="I76" t="n">
         <v>101.96</v>
@@ -5024,6 +5251,9 @@
       <c r="R76" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S76" t="n">
+        <v>3.131854382910217</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -5052,7 +5282,7 @@
         <v>96.62</v>
       </c>
       <c r="H77" t="n">
-        <v>67.28</v>
+        <v>19.6</v>
       </c>
       <c r="I77" t="n">
         <v>102.24</v>
@@ -5084,6 +5314,9 @@
       <c r="R77" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S77" t="n">
+        <v>2.464267938110983</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -5112,7 +5345,7 @@
         <v>100.4</v>
       </c>
       <c r="H78" t="n">
-        <v>83.12</v>
+        <v>28.4</v>
       </c>
       <c r="I78" t="n">
         <v>101.44</v>
@@ -5144,6 +5377,9 @@
       <c r="R78" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S78" t="n">
+        <v>3.640534739298555</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -5172,7 +5408,7 @@
         <v>96.8</v>
       </c>
       <c r="H79" t="n">
-        <v>72.68000000000001</v>
+        <v>22.6</v>
       </c>
       <c r="I79" t="n">
         <v>102.1</v>
@@ -5204,6 +5440,9 @@
       <c r="R79" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S79" t="n">
+        <v>2.9434246915579</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -5232,7 +5471,7 @@
         <v>109.22</v>
       </c>
       <c r="H80" t="n">
-        <v>78.62</v>
+        <v>25.9</v>
       </c>
       <c r="I80" t="n">
         <v>102.2</v>
@@ -5264,6 +5503,9 @@
       <c r="R80" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S80" t="n">
+        <v>2.298894265564981</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -5292,7 +5534,7 @@
         <v>116.06</v>
       </c>
       <c r="H81" t="n">
-        <v>80.96000000000001</v>
+        <v>27.2</v>
       </c>
       <c r="I81" t="n">
         <v>102.56</v>
@@ -5324,6 +5566,9 @@
       <c r="R81" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S81" t="n">
+        <v>1.968109134072933</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -5352,7 +5597,7 @@
         <v>123.62</v>
       </c>
       <c r="H82" t="n">
-        <v>79.52</v>
+        <v>26.4</v>
       </c>
       <c r="I82" t="n">
         <v>102.3</v>
@@ -5384,6 +5629,9 @@
       <c r="R82" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S82" t="n">
+        <v>1.467470021419592</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -5412,7 +5660,7 @@
         <v>129.74</v>
       </c>
       <c r="H83" t="n">
-        <v>98.60000000000001</v>
+        <v>37</v>
       </c>
       <c r="I83" t="n">
         <v>101.38</v>
@@ -5444,6 +5692,9 @@
       <c r="R83" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S83" t="n">
+        <v>2.211776956774097</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -5472,7 +5723,7 @@
         <v>138.2</v>
       </c>
       <c r="H84" t="n">
-        <v>109.22</v>
+        <v>42.9</v>
       </c>
       <c r="I84" t="n">
         <v>100.97</v>
@@ -5504,6 +5755,9 @@
       <c r="R84" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S84" t="n">
+        <v>2.349704475169334</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -5532,7 +5786,7 @@
         <v>117.14</v>
       </c>
       <c r="H85" t="n">
-        <v>114.98</v>
+        <v>46.1</v>
       </c>
       <c r="I85" t="n">
         <v>101.14</v>
@@ -5564,6 +5818,9 @@
       <c r="R85" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S85" t="n">
+        <v>5.357794111003864</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -5592,7 +5849,7 @@
         <v>131.18</v>
       </c>
       <c r="H86" t="n">
-        <v>84.56</v>
+        <v>29.2</v>
       </c>
       <c r="I86" t="n">
         <v>101.71</v>
@@ -5624,6 +5881,9 @@
       <c r="R86" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S86" t="n">
+        <v>1.364443511304977</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -5652,7 +5912,7 @@
         <v>121.28</v>
       </c>
       <c r="H87" t="n">
-        <v>58.28</v>
+        <v>14.6</v>
       </c>
       <c r="I87" t="n">
         <v>102.35</v>
@@ -5684,6 +5944,9 @@
       <c r="R87" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S87" t="n">
+        <v>0.7632962250976782</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -5712,7 +5975,7 @@
         <v>133.7</v>
       </c>
       <c r="H88" t="n">
-        <v>85.28</v>
+        <v>29.6</v>
       </c>
       <c r="I88" t="n">
         <v>102.01</v>
@@ -5744,6 +6007,9 @@
       <c r="R88" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S88" t="n">
+        <v>1.293222153743483</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -5772,7 +6038,7 @@
         <v>138.74</v>
       </c>
       <c r="H89" t="n">
-        <v>118.4</v>
+        <v>48</v>
       </c>
       <c r="I89" t="n">
         <v>101.62</v>
@@ -5804,6 +6070,9 @@
       <c r="R89" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S89" t="n">
+        <v>3.007792692422044</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -5832,7 +6101,7 @@
         <v>115.7</v>
       </c>
       <c r="H90" t="n">
-        <v>100.58</v>
+        <v>38.1</v>
       </c>
       <c r="I90" t="n">
         <v>102.64</v>
@@ -5864,6 +6133,9 @@
       <c r="R90" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S90" t="n">
+        <v>3.685113858589692</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -5892,7 +6164,7 @@
         <v>120.74</v>
       </c>
       <c r="H91" t="n">
-        <v>82.75999999999999</v>
+        <v>28.2</v>
       </c>
       <c r="I91" t="n">
         <v>103.41</v>
@@ -5924,6 +6196,9 @@
       <c r="R91" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S91" t="n">
+        <v>1.789293638356181</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -5952,7 +6227,7 @@
         <v>131.18</v>
       </c>
       <c r="H92" t="n">
-        <v>76.81999999999999</v>
+        <v>24.9</v>
       </c>
       <c r="I92" t="n">
         <v>103.11</v>
@@ -5984,6 +6259,9 @@
       <c r="R92" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S92" t="n">
+        <v>1.0596836071616</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -6012,7 +6290,7 @@
         <v>124.34</v>
       </c>
       <c r="H93" t="n">
-        <v>96.44</v>
+        <v>35.8</v>
       </c>
       <c r="I93" t="n">
         <v>102.83</v>
@@ -6044,6 +6322,9 @@
       <c r="R93" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S93" t="n">
+        <v>2.452539284063175</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -6072,7 +6353,7 @@
         <v>139.28</v>
       </c>
       <c r="H94" t="n">
-        <v>92.66</v>
+        <v>33.7</v>
       </c>
       <c r="I94" t="n">
         <v>102.55</v>
@@ -6104,6 +6385,9 @@
       <c r="R94" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S94" t="n">
+        <v>1.38248080851411</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -6132,7 +6416,7 @@
         <v>148.1</v>
       </c>
       <c r="H95" t="n">
-        <v>93.2</v>
+        <v>34</v>
       </c>
       <c r="I95" t="n">
         <v>102.01</v>
@@ -6164,6 +6448,9 @@
       <c r="R95" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S95" t="n">
+        <v>1.091431286108399</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -6192,7 +6479,7 @@
         <v>150.08</v>
       </c>
       <c r="H96" t="n">
-        <v>114.44</v>
+        <v>45.8</v>
       </c>
       <c r="I96" t="n">
         <v>101.76</v>
@@ -6224,6 +6511,9 @@
       <c r="R96" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S96" t="n">
+        <v>1.943783156312778</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -6252,7 +6542,7 @@
         <v>128.3</v>
       </c>
       <c r="H97" t="n">
-        <v>100.22</v>
+        <v>37.9</v>
       </c>
       <c r="I97" t="n">
         <v>102.07</v>
@@ -6284,6 +6574,9 @@
       <c r="R97" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S97" t="n">
+        <v>2.429057573393492</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -6312,7 +6605,7 @@
         <v>147.92</v>
       </c>
       <c r="H98" t="n">
-        <v>118.04</v>
+        <v>47.8</v>
       </c>
       <c r="I98" t="n">
         <v>101.7</v>
@@ -6344,6 +6637,9 @@
       <c r="R98" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S98" t="n">
+        <v>2.28662131287484</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -6372,7 +6668,7 @@
         <v>167.54</v>
       </c>
       <c r="H99" t="n">
-        <v>123.8</v>
+        <v>51</v>
       </c>
       <c r="I99" t="n">
         <v>100.83</v>
@@ -6404,6 +6700,9 @@
       <c r="R99" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S99" t="n">
+        <v>1.588633255899639</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -6432,7 +6731,7 @@
         <v>174.74</v>
       </c>
       <c r="H100" t="n">
-        <v>117.32</v>
+        <v>47.4</v>
       </c>
       <c r="I100" t="n">
         <v>100.47</v>
@@ -6464,6 +6763,9 @@
       <c r="R100" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S100" t="n">
+        <v>1.107237502541005</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -6492,7 +6794,7 @@
         <v>180.68</v>
       </c>
       <c r="H101" t="n">
-        <v>120.02</v>
+        <v>48.9</v>
       </c>
       <c r="I101" t="n">
         <v>100.42</v>
@@ -6524,6 +6826,9 @@
       <c r="R101" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S101" t="n">
+        <v>1.034257180392205</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -6552,7 +6857,7 @@
         <v>166.64</v>
       </c>
       <c r="H102" t="n">
-        <v>128.3</v>
+        <v>53.5</v>
       </c>
       <c r="I102" t="n">
         <v>100.7</v>
@@ -6584,6 +6889,9 @@
       <c r="R102" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S102" t="n">
+        <v>1.838268140119592</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -6612,7 +6920,7 @@
         <v>127.76</v>
       </c>
       <c r="H103" t="n">
-        <v>100.58</v>
+        <v>38.1</v>
       </c>
       <c r="I103" t="n">
         <v>101.71</v>
@@ -6644,6 +6952,9 @@
       <c r="R103" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S103" t="n">
+        <v>2.49726231659587</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -6672,7 +6983,7 @@
         <v>134.96</v>
       </c>
       <c r="H104" t="n">
-        <v>81.68000000000001</v>
+        <v>27.6</v>
       </c>
       <c r="I104" t="n">
         <v>101.72</v>
@@ -6704,6 +7015,9 @@
       <c r="R104" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S104" t="n">
+        <v>1.108415481259111</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -6732,7 +7046,7 @@
         <v>131.72</v>
       </c>
       <c r="H105" t="n">
-        <v>86.90000000000001</v>
+        <v>30.5</v>
       </c>
       <c r="I105" t="n">
         <v>102.37</v>
@@ -6764,6 +7078,9 @@
       <c r="R105" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S105" t="n">
+        <v>1.446401781016877</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -6792,7 +7109,7 @@
         <v>126.32</v>
       </c>
       <c r="H106" t="n">
-        <v>79.52</v>
+        <v>26.4</v>
       </c>
       <c r="I106" t="n">
         <v>102.65</v>
@@ -6824,6 +7141,9 @@
       <c r="R106" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S106" t="n">
+        <v>1.347126655726453</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -6852,7 +7172,7 @@
         <v>140.54</v>
       </c>
       <c r="H107" t="n">
-        <v>75.2</v>
+        <v>24</v>
       </c>
       <c r="I107" t="n">
         <v>102.13</v>
@@ -6884,6 +7204,9 @@
       <c r="R107" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S107" t="n">
+        <v>0.758929510297937</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -6912,7 +7235,7 @@
         <v>142.16</v>
       </c>
       <c r="H108" t="n">
-        <v>101.48</v>
+        <v>38.6</v>
       </c>
       <c r="I108" t="n">
         <v>101.85</v>
@@ -6944,6 +7267,9 @@
       <c r="R108" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S108" t="n">
+        <v>1.664538859948377</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -6972,7 +7298,7 @@
         <v>155.12</v>
       </c>
       <c r="H109" t="n">
-        <v>97.52</v>
+        <v>36.4</v>
       </c>
       <c r="I109" t="n">
         <v>101.61</v>
@@ -7004,6 +7330,9 @@
       <c r="R109" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S109" t="n">
+        <v>1.027308380385175</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -7032,7 +7361,7 @@
         <v>163.4</v>
       </c>
       <c r="H110" t="n">
-        <v>109.22</v>
+        <v>42.9</v>
       </c>
       <c r="I110" t="n">
         <v>100.73</v>
@@ -7064,6 +7393,9 @@
       <c r="R110" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S110" t="n">
+        <v>1.169031691816991</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -7092,7 +7424,7 @@
         <v>160.34</v>
       </c>
       <c r="H111" t="n">
-        <v>116.24</v>
+        <v>46.8</v>
       </c>
       <c r="I111" t="n">
         <v>100.48</v>
@@ -7124,6 +7456,9 @@
       <c r="R111" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S111" t="n">
+        <v>1.549801206587984</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -7152,7 +7487,7 @@
         <v>143.6</v>
       </c>
       <c r="H112" t="n">
-        <v>111.74</v>
+        <v>44.3</v>
       </c>
       <c r="I112" t="n">
         <v>101.24</v>
@@ -7184,6 +7519,9 @@
       <c r="R112" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S112" t="n">
+        <v>2.16003018933814</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -7212,7 +7550,7 @@
         <v>168.44</v>
       </c>
       <c r="H113" t="n">
-        <v>127.04</v>
+        <v>52.8</v>
       </c>
       <c r="I113" t="n">
         <v>100.64</v>
@@ -7244,6 +7582,9 @@
       <c r="R113" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S113" t="n">
+        <v>1.696825284955116</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -7272,7 +7613,7 @@
         <v>171.5</v>
       </c>
       <c r="H114" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="I114" t="n">
         <v>100.49</v>
@@ -7304,6 +7645,9 @@
       <c r="R114" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S114" t="n">
+        <v>2.217177371494779</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -7332,7 +7676,7 @@
         <v>166.46</v>
       </c>
       <c r="H115" t="n">
-        <v>138.02</v>
+        <v>58.9</v>
       </c>
       <c r="I115" t="n">
         <v>100.33</v>
@@ -7364,6 +7708,9 @@
       <c r="R115" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S115" t="n">
+        <v>2.39199273914533</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -7392,7 +7739,7 @@
         <v>124.52</v>
       </c>
       <c r="H116" t="n">
-        <v>105.08</v>
+        <v>40.6</v>
       </c>
       <c r="I116" t="n">
         <v>102.13</v>
@@ -7424,6 +7771,9 @@
       <c r="R116" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S116" t="n">
+        <v>3.163500382397235</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -7452,7 +7802,7 @@
         <v>136.4</v>
       </c>
       <c r="H117" t="n">
-        <v>110.48</v>
+        <v>43.6</v>
       </c>
       <c r="I117" t="n">
         <v>102.03</v>
@@ -7484,6 +7834,9 @@
       <c r="R117" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S117" t="n">
+        <v>2.571085076588987</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -7512,7 +7865,7 @@
         <v>161.42</v>
       </c>
       <c r="H118" t="n">
-        <v>100.04</v>
+        <v>37.8</v>
       </c>
       <c r="I118" t="n">
         <v>101.56</v>
@@ -7544,6 +7897,9 @@
       <c r="R118" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S118" t="n">
+        <v>0.9375453270758218</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -7572,7 +7928,7 @@
         <v>174.38</v>
       </c>
       <c r="H119" t="n">
-        <v>113.18</v>
+        <v>45.1</v>
       </c>
       <c r="I119" t="n">
         <v>101.26</v>
@@ -7604,6 +7960,9 @@
       <c r="R119" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S119" t="n">
+        <v>0.9928807998965533</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -7632,7 +7991,7 @@
         <v>176.54</v>
       </c>
       <c r="H120" t="n">
-        <v>105.62</v>
+        <v>40.9</v>
       </c>
       <c r="I120" t="n">
         <v>100.88</v>
@@ -7664,6 +8023,9 @@
       <c r="R120" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S120" t="n">
+        <v>0.7555851994245749</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -7692,7 +8054,7 @@
         <v>176.54</v>
       </c>
       <c r="H121" t="n">
-        <v>104.9</v>
+        <v>40.5</v>
       </c>
       <c r="I121" t="n">
         <v>100.69</v>
@@ -7724,6 +8086,9 @@
       <c r="R121" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S121" t="n">
+        <v>0.7396553303208697</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -7752,7 +8117,7 @@
         <v>149.54</v>
       </c>
       <c r="H122" t="n">
-        <v>119.12</v>
+        <v>48.4</v>
       </c>
       <c r="I122" t="n">
         <v>101.54</v>
@@ -7784,6 +8149,9 @@
       <c r="R122" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S122" t="n">
+        <v>2.252697704139079</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -7812,7 +8180,7 @@
         <v>133.88</v>
       </c>
       <c r="H123" t="n">
-        <v>100.22</v>
+        <v>37.9</v>
       </c>
       <c r="I123" t="n">
         <v>102.28</v>
@@ -7844,6 +8212,9 @@
       <c r="R123" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S123" t="n">
+        <v>2.047032054375802</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -7872,7 +8243,7 @@
         <v>130.1</v>
       </c>
       <c r="H124" t="n">
-        <v>104.36</v>
+        <v>40.2</v>
       </c>
       <c r="I124" t="n">
         <v>102.12</v>
@@ -7904,6 +8275,9 @@
       <c r="R124" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S124" t="n">
+        <v>2.600508134702519</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -7932,7 +8306,7 @@
         <v>124.52</v>
       </c>
       <c r="H125" t="n">
-        <v>120.56</v>
+        <v>49.2</v>
       </c>
       <c r="I125" t="n">
         <v>101.91</v>
@@ -7964,6 +8338,9 @@
       <c r="R125" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S125" t="n">
+        <v>4.936510164365666</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -7992,7 +8369,7 @@
         <v>147.92</v>
       </c>
       <c r="H126" t="n">
-        <v>124.16</v>
+        <v>51.2</v>
       </c>
       <c r="I126" t="n">
         <v>101.52</v>
@@ -8024,6 +8401,9 @@
       <c r="R126" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S126" t="n">
+        <v>2.711453458201615</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -8052,7 +8432,7 @@
         <v>136.4</v>
       </c>
       <c r="H127" t="n">
-        <v>106.52</v>
+        <v>41.4</v>
       </c>
       <c r="I127" t="n">
         <v>101.57</v>
@@ -8084,6 +8464,9 @@
       <c r="R127" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S127" t="n">
+        <v>2.29011397958492</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -8112,7 +8495,7 @@
         <v>147.2</v>
       </c>
       <c r="H128" t="n">
-        <v>96.26000000000001</v>
+        <v>35.7</v>
       </c>
       <c r="I128" t="n">
         <v>101.75</v>
@@ -8144,6 +8527,9 @@
       <c r="R128" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S128" t="n">
+        <v>1.230237608513413</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -8172,7 +8558,7 @@
         <v>160.16</v>
       </c>
       <c r="H129" t="n">
-        <v>95.36000000000001</v>
+        <v>35.2</v>
       </c>
       <c r="I129" t="n">
         <v>101.31</v>
@@ -8204,6 +8590,9 @@
       <c r="R129" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S129" t="n">
+        <v>0.8402844049597143</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -8232,7 +8621,7 @@
         <v>182.66</v>
       </c>
       <c r="H130" t="n">
-        <v>100.4</v>
+        <v>38</v>
       </c>
       <c r="I130" t="n">
         <v>100.73</v>
@@ -8264,6 +8653,9 @@
       <c r="R130" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S130" t="n">
+        <v>0.5580966353030832</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -8292,7 +8684,7 @@
         <v>170.6</v>
       </c>
       <c r="H131" t="n">
-        <v>126.5</v>
+        <v>52.5</v>
       </c>
       <c r="I131" t="n">
         <v>101.38</v>
@@ -8324,6 +8716,9 @@
       <c r="R131" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S131" t="n">
+        <v>1.583377019075397</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -8352,7 +8747,7 @@
         <v>169.88</v>
       </c>
       <c r="H132" t="n">
-        <v>127.58</v>
+        <v>53.1</v>
       </c>
       <c r="I132" t="n">
         <v>101.18</v>
@@ -8384,6 +8779,9 @@
       <c r="R132" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S132" t="n">
+        <v>1.660406388936106</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -8412,7 +8810,7 @@
         <v>165.92</v>
       </c>
       <c r="H133" t="n">
-        <v>126.86</v>
+        <v>52.7</v>
       </c>
       <c r="I133" t="n">
         <v>101.01</v>
@@ -8444,6 +8842,9 @@
       <c r="R133" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S133" t="n">
+        <v>1.800645072396245</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -8472,7 +8873,7 @@
         <v>181.04</v>
       </c>
       <c r="H134" t="n">
-        <v>119.3</v>
+        <v>48.5</v>
       </c>
       <c r="I134" t="n">
         <v>100.79</v>
@@ -8504,6 +8905,9 @@
       <c r="R134" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S134" t="n">
+        <v>1.004936777663439</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -8532,7 +8936,7 @@
         <v>178.88</v>
       </c>
       <c r="H135" t="n">
-        <v>116.24</v>
+        <v>46.8</v>
       </c>
       <c r="I135" t="n">
         <v>100.66</v>
@@ -8564,6 +8968,9 @@
       <c r="R135" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S135" t="n">
+        <v>0.9708960690473322</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -8592,7 +8999,7 @@
         <v>149.72</v>
       </c>
       <c r="H136" t="n">
-        <v>106.52</v>
+        <v>41.4</v>
       </c>
       <c r="I136" t="n">
         <v>101.26</v>
@@ -8624,6 +9031,9 @@
       <c r="R136" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S136" t="n">
+        <v>1.560415142310257</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -8652,7 +9062,7 @@
         <v>184.1</v>
       </c>
       <c r="H137" t="n">
-        <v>108.86</v>
+        <v>42.7</v>
       </c>
       <c r="I137" t="n">
         <v>100.18</v>
@@ -8684,6 +9094,9 @@
       <c r="R137" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S137" t="n">
+        <v>0.6933522481131857</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -8712,7 +9125,7 @@
         <v>179.6</v>
       </c>
       <c r="H138" t="n">
-        <v>130.1</v>
+        <v>54.5</v>
       </c>
       <c r="I138" t="n">
         <v>99.76000000000001</v>
@@ -8744,6 +9157,9 @@
       <c r="R138" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S138" t="n">
+        <v>1.399475658213835</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -8772,7 +9188,7 @@
         <v>168.08</v>
       </c>
       <c r="H139" t="n">
-        <v>132.98</v>
+        <v>56.1</v>
       </c>
       <c r="I139" t="n">
         <v>100.11</v>
@@ -8804,6 +9220,9 @@
       <c r="R139" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S139" t="n">
+        <v>2.009411422770018</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -8832,7 +9251,7 @@
         <v>178.34</v>
       </c>
       <c r="H140" t="n">
-        <v>96.44</v>
+        <v>35.8</v>
       </c>
       <c r="I140" t="n">
         <v>100.52</v>
@@ -8864,6 +9283,9 @@
       <c r="R140" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S140" t="n">
+        <v>0.5486890262979924</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -8892,7 +9314,7 @@
         <v>172.58</v>
       </c>
       <c r="H141" t="n">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="I141" t="n">
         <v>100.21</v>
@@ -8924,6 +9346,9 @@
       <c r="R141" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S141" t="n">
+        <v>1.702090291403324</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -8952,7 +9377,7 @@
         <v>185.18</v>
       </c>
       <c r="H142" t="n">
-        <v>136.04</v>
+        <v>57.8</v>
       </c>
       <c r="I142" t="n">
         <v>100.2</v>
@@ -8984,6 +9409,9 @@
       <c r="R142" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S142" t="n">
+        <v>1.436003135074605</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -9012,7 +9440,7 @@
         <v>185.9</v>
       </c>
       <c r="H143" t="n">
-        <v>115.7</v>
+        <v>46.5</v>
       </c>
       <c r="I143" t="n">
         <v>100.06</v>
@@ -9044,6 +9472,9 @@
       <c r="R143" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S143" t="n">
+        <v>0.8094470107826121</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -9072,7 +9503,7 @@
         <v>174.74</v>
       </c>
       <c r="H144" t="n">
-        <v>118.22</v>
+        <v>47.9</v>
       </c>
       <c r="I144" t="n">
         <v>100.7</v>
@@ -9104,6 +9535,9 @@
       <c r="R144" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S144" t="n">
+        <v>1.135697551580427</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -9132,7 +9566,7 @@
         <v>175.64</v>
       </c>
       <c r="H145" t="n">
-        <v>143.42</v>
+        <v>61.9</v>
       </c>
       <c r="I145" t="n">
         <v>100.76</v>
@@ -9164,6 +9598,9 @@
       <c r="R145" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S145" t="n">
+        <v>2.185897949901193</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -9192,7 +9629,7 @@
         <v>164.3</v>
       </c>
       <c r="H146" t="n">
-        <v>139.82</v>
+        <v>59.9</v>
       </c>
       <c r="I146" t="n">
         <v>101</v>
@@ -9224,6 +9661,9 @@
       <c r="R146" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S146" t="n">
+        <v>2.650142870361843</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -9252,7 +9692,7 @@
         <v>179.42</v>
       </c>
       <c r="H147" t="n">
-        <v>133.16</v>
+        <v>56.2</v>
       </c>
       <c r="I147" t="n">
         <v>100.73</v>
@@ -9284,6 +9724,9 @@
       <c r="R147" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S147" t="n">
+        <v>1.525504789668895</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -9312,7 +9755,7 @@
         <v>174.02</v>
       </c>
       <c r="H148" t="n">
-        <v>136.04</v>
+        <v>57.8</v>
       </c>
       <c r="I148" t="n">
         <v>100.51</v>
@@ -9344,6 +9787,9 @@
       <c r="R148" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S148" t="n">
+        <v>1.877881375691039</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -9372,7 +9818,7 @@
         <v>176</v>
       </c>
       <c r="H149" t="n">
-        <v>137.48</v>
+        <v>58.6</v>
       </c>
       <c r="I149" t="n">
         <v>100.22</v>
@@ -9404,6 +9850,9 @@
       <c r="R149" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S149" t="n">
+        <v>1.857665245194455</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -9432,7 +9881,7 @@
         <v>169.16</v>
       </c>
       <c r="H150" t="n">
-        <v>138.92</v>
+        <v>59.4</v>
       </c>
       <c r="I150" t="n">
         <v>100.53</v>
@@ -9464,6 +9913,9 @@
       <c r="R150" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S150" t="n">
+        <v>2.286320806331132</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -9492,7 +9944,7 @@
         <v>184.46</v>
       </c>
       <c r="H151" t="n">
-        <v>143.6</v>
+        <v>62</v>
       </c>
       <c r="I151" t="n">
         <v>100.16</v>
@@ -9524,6 +9976,9 @@
       <c r="R151" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S151" t="n">
+        <v>1.777262613463389</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -9552,7 +10007,7 @@
         <v>184.28</v>
       </c>
       <c r="H152" t="n">
-        <v>147.2</v>
+        <v>64</v>
       </c>
       <c r="I152" t="n">
         <v>100.11</v>
@@ -9584,6 +10039,9 @@
       <c r="R152" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S152" t="n">
+        <v>1.956011873017417</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -9612,7 +10070,7 @@
         <v>202.64</v>
       </c>
       <c r="H153" t="n">
-        <v>143.24</v>
+        <v>61.8</v>
       </c>
       <c r="I153" t="n">
         <v>100.12</v>
@@ -9644,6 +10102,9 @@
       <c r="R153" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S153" t="n">
+        <v>1.16901126444289</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -9672,7 +10133,7 @@
         <v>202.82</v>
       </c>
       <c r="H154" t="n">
-        <v>141.98</v>
+        <v>61.1</v>
       </c>
       <c r="I154" t="n">
         <v>100.02</v>
@@ -9704,6 +10165,9 @@
       <c r="R154" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S154" t="n">
+        <v>1.127363127660599</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -9732,7 +10196,7 @@
         <v>194.54</v>
       </c>
       <c r="H155" t="n">
-        <v>143.96</v>
+        <v>62.2</v>
       </c>
       <c r="I155" t="n">
         <v>100</v>
@@ -9764,6 +10228,9 @@
       <c r="R155" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S155" t="n">
+        <v>1.423236406836179</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -9792,7 +10259,7 @@
         <v>184.46</v>
       </c>
       <c r="H156" t="n">
-        <v>144.5</v>
+        <v>62.5</v>
       </c>
       <c r="I156" t="n">
         <v>99.84</v>
@@ -9824,6 +10291,9 @@
       <c r="R156" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S156" t="n">
+        <v>1.818636971863713</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -9852,7 +10322,7 @@
         <v>201.92</v>
       </c>
       <c r="H157" t="n">
-        <v>154.22</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="I157" t="n">
         <v>99.77000000000001</v>
@@ -9884,6 +10354,9 @@
       <c r="R157" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S157" t="n">
+        <v>1.564894009632133</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -9912,7 +10385,7 @@
         <v>181.94</v>
       </c>
       <c r="H158" t="n">
-        <v>163.04</v>
+        <v>72.8</v>
       </c>
       <c r="I158" t="n">
         <v>99.71000000000001</v>
@@ -9944,6 +10417,9 @@
       <c r="R158" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S158" t="n">
+        <v>3.051152931128659</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -9972,7 +10448,7 @@
         <v>172.22</v>
       </c>
       <c r="H159" t="n">
-        <v>164.48</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="I159" t="n">
         <v>99.61</v>
@@ -10004,6 +10480,9 @@
       <c r="R159" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S159" t="n">
+        <v>4.000025809021122</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -10032,7 +10511,7 @@
         <v>169.7</v>
       </c>
       <c r="H160" t="n">
-        <v>157.46</v>
+        <v>69.7</v>
       </c>
       <c r="I160" t="n">
         <v>100.25</v>
@@ -10064,6 +10543,9 @@
       <c r="R160" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S160" t="n">
+        <v>3.598304067896885</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -10092,7 +10574,7 @@
         <v>168.98</v>
       </c>
       <c r="H161" t="n">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="I161" t="n">
         <v>100.57</v>
@@ -10124,6 +10606,9 @@
       <c r="R161" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S161" t="n">
+        <v>3.712795251996265</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -10152,7 +10637,7 @@
         <v>192.02</v>
       </c>
       <c r="H162" t="n">
-        <v>162.14</v>
+        <v>72.3</v>
       </c>
       <c r="I162" t="n">
         <v>100.66</v>
@@ -10184,6 +10669,9 @@
       <c r="R162" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S162" t="n">
+        <v>2.362948014973092</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -10212,7 +10700,7 @@
         <v>178.88</v>
       </c>
       <c r="H163" t="n">
-        <v>164.3</v>
+        <v>73.5</v>
       </c>
       <c r="I163" t="n">
         <v>100.38</v>
@@ -10244,6 +10732,9 @@
       <c r="R163" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S163" t="n">
+        <v>3.383213408918237</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -10272,7 +10763,7 @@
         <v>184.64</v>
       </c>
       <c r="H164" t="n">
-        <v>161.24</v>
+        <v>71.8</v>
       </c>
       <c r="I164" t="n">
         <v>100.23</v>
@@ -10304,6 +10795,9 @@
       <c r="R164" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S164" t="n">
+        <v>2.741753568582254</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -10332,7 +10826,7 @@
         <v>164.12</v>
       </c>
       <c r="H165" t="n">
-        <v>161.78</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="I165" t="n">
         <v>100.12</v>
@@ -10364,6 +10858,9 @@
       <c r="R165" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S165" t="n">
+        <v>4.606541748615821</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -10392,7 +10889,7 @@
         <v>183.2</v>
       </c>
       <c r="H166" t="n">
-        <v>154.04</v>
+        <v>67.8</v>
       </c>
       <c r="I166" t="n">
         <v>100.31</v>
@@ -10424,6 +10921,9 @@
       <c r="R166" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S166" t="n">
+        <v>2.380160493878081</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -10452,7 +10952,7 @@
         <v>188.96</v>
       </c>
       <c r="H167" t="n">
-        <v>152.6</v>
+        <v>67</v>
       </c>
       <c r="I167" t="n">
         <v>100.17</v>
@@ -10484,6 +10984,9 @@
       <c r="R167" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S167" t="n">
+        <v>2.008227970427939</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -10512,7 +11015,7 @@
         <v>195.62</v>
       </c>
       <c r="H168" t="n">
-        <v>160.88</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="I168" t="n">
         <v>100.14</v>
@@ -10544,6 +11047,9 @@
       <c r="R168" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S168" t="n">
+        <v>2.114143765600602</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -10572,7 +11078,7 @@
         <v>166.64</v>
       </c>
       <c r="H169" t="n">
-        <v>161.42</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="I169" t="n">
         <v>100.31</v>
@@ -10604,6 +11110,9 @@
       <c r="R169" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S169" t="n">
+        <v>4.280101106515398</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -10632,7 +11141,7 @@
         <v>163.58</v>
       </c>
       <c r="H170" t="n">
-        <v>160.34</v>
+        <v>71.3</v>
       </c>
       <c r="I170" t="n">
         <v>100.17</v>
@@ -10664,6 +11173,9 @@
       <c r="R170" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S170" t="n">
+        <v>4.51241950567759</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -10692,7 +11204,7 @@
         <v>169.34</v>
       </c>
       <c r="H171" t="n">
-        <v>163.58</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="I171" t="n">
         <v>100.22</v>
@@ -10724,6 +11236,9 @@
       <c r="R171" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S171" t="n">
+        <v>4.208361322679731</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -10752,7 +11267,7 @@
         <v>181.76</v>
       </c>
       <c r="H172" t="n">
-        <v>165.38</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="I172" t="n">
         <v>100.2</v>
@@ -10784,6 +11299,9 @@
       <c r="R172" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S172" t="n">
+        <v>3.23969836197002</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -10812,7 +11330,7 @@
         <v>183.56</v>
       </c>
       <c r="H173" t="n">
-        <v>157.64</v>
+        <v>69.8</v>
       </c>
       <c r="I173" t="n">
         <v>100.07</v>
@@ -10844,6 +11362,9 @@
       <c r="R173" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S173" t="n">
+        <v>2.577705715870164</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -10872,7 +11393,7 @@
         <v>184.64</v>
       </c>
       <c r="H174" t="n">
-        <v>163.94</v>
+        <v>73.3</v>
       </c>
       <c r="I174" t="n">
         <v>100.11</v>
@@ -10904,6 +11425,9 @@
       <c r="R174" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S174" t="n">
+        <v>2.924753973992534</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -10932,7 +11456,7 @@
         <v>171.5</v>
       </c>
       <c r="H175" t="n">
-        <v>157.28</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="I175" t="n">
         <v>100.41</v>
@@ -10964,6 +11488,9 @@
       <c r="R175" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S175" t="n">
+        <v>3.424345145967243</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -10992,7 +11519,7 @@
         <v>163.4</v>
       </c>
       <c r="H176" t="n">
-        <v>156.92</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="I176" t="n">
         <v>100.56</v>
@@ -11024,6 +11551,9 @@
       <c r="R176" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S176" t="n">
+        <v>4.172497229091531</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -11052,7 +11582,7 @@
         <v>178.34</v>
       </c>
       <c r="H177" t="n">
-        <v>158.18</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="I177" t="n">
         <v>100.78</v>
@@ -11084,6 +11614,9 @@
       <c r="R177" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S177" t="n">
+        <v>2.958580525565324</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -11112,7 +11645,7 @@
         <v>178.7</v>
       </c>
       <c r="H178" t="n">
-        <v>158.9</v>
+        <v>70.5</v>
       </c>
       <c r="I178" t="n">
         <v>100.62</v>
@@ -11144,6 +11677,9 @@
       <c r="R178" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S178" t="n">
+        <v>2.984673833022007</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -11172,7 +11708,7 @@
         <v>182.66</v>
       </c>
       <c r="H179" t="n">
-        <v>155.48</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="I179" t="n">
         <v>100.52</v>
@@ -11204,6 +11740,9 @@
       <c r="R179" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S179" t="n">
+        <v>2.497708111619045</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -11232,7 +11771,7 @@
         <v>182.12</v>
       </c>
       <c r="H180" t="n">
-        <v>158.9</v>
+        <v>70.5</v>
       </c>
       <c r="I180" t="n">
         <v>100.52</v>
@@ -11264,6 +11803,9 @@
       <c r="R180" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S180" t="n">
+        <v>2.750003720787254</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -11292,7 +11834,7 @@
         <v>169.88</v>
       </c>
       <c r="H181" t="n">
-        <v>159.98</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="I181" t="n">
         <v>100.59</v>
@@ -11324,6 +11866,9 @@
       <c r="R181" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S181" t="n">
+        <v>3.807841545255009</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -11352,7 +11897,7 @@
         <v>176.72</v>
       </c>
       <c r="H182" t="n">
-        <v>161.78</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="I182" t="n">
         <v>100.82</v>
@@ -11384,6 +11929,9 @@
       <c r="R182" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S182" t="n">
+        <v>3.356763643552264</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -11412,7 +11960,7 @@
         <v>184.1</v>
       </c>
       <c r="H183" t="n">
-        <v>166.64</v>
+        <v>74.8</v>
       </c>
       <c r="I183" t="n">
         <v>100.45</v>
@@ -11444,6 +11992,9 @@
       <c r="R183" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S183" t="n">
+        <v>3.157893964295613</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -11472,7 +12023,7 @@
         <v>183.92</v>
       </c>
       <c r="H184" t="n">
-        <v>168.98</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="I184" t="n">
         <v>100.72</v>
@@ -11504,6 +12055,9 @@
       <c r="R184" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S184" t="n">
+        <v>3.350557615046844</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -11532,7 +12086,7 @@
         <v>190.58</v>
       </c>
       <c r="H185" t="n">
-        <v>168.8</v>
+        <v>76</v>
       </c>
       <c r="I185" t="n">
         <v>100.66</v>
@@ -11564,6 +12118,9 @@
       <c r="R185" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S185" t="n">
+        <v>2.858977748099761</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -11592,7 +12149,7 @@
         <v>194.9</v>
       </c>
       <c r="H186" t="n">
-        <v>168.26</v>
+        <v>75.7</v>
       </c>
       <c r="I186" t="n">
         <v>100.42</v>
@@ -11624,6 +12181,9 @@
       <c r="R186" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S186" t="n">
+        <v>2.560322849888228</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -11652,7 +12212,7 @@
         <v>192.2</v>
       </c>
       <c r="H187" t="n">
-        <v>171.32</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I187" t="n">
         <v>100.34</v>
@@ -11684,6 +12244,9 @@
       <c r="R187" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S187" t="n">
+        <v>2.922272147494812</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -11712,7 +12275,7 @@
         <v>197.24</v>
       </c>
       <c r="H188" t="n">
-        <v>168.44</v>
+        <v>75.8</v>
       </c>
       <c r="I188" t="n">
         <v>100.09</v>
@@ -11744,6 +12307,9 @@
       <c r="R188" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S188" t="n">
+        <v>2.440609141526803</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -11772,7 +12338,7 @@
         <v>175.28</v>
       </c>
       <c r="H189" t="n">
-        <v>170.6</v>
+        <v>77</v>
       </c>
       <c r="I189" t="n">
         <v>100.49</v>
@@ -11804,6 +12370,9 @@
       <c r="R189" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S189" t="n">
+        <v>4.282846522996507</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -11832,7 +12401,7 @@
         <v>152.6</v>
       </c>
       <c r="H190" t="n">
-        <v>150.08</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="I190" t="n">
         <v>100.77</v>
@@ -11864,6 +12433,9 @@
       <c r="R190" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S190" t="n">
+        <v>4.70102056550668</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -11892,7 +12464,7 @@
         <v>174.38</v>
       </c>
       <c r="H191" t="n">
-        <v>165.02</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="I191" t="n">
         <v>100.45</v>
@@ -11924,6 +12496,9 @@
       <c r="R191" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S191" t="n">
+        <v>3.840596905847453</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -11952,7 +12527,7 @@
         <v>187.16</v>
       </c>
       <c r="H192" t="n">
-        <v>173.12</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="I192" t="n">
         <v>100.29</v>
@@ -11984,6 +12559,9 @@
       <c r="R192" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S192" t="n">
+        <v>3.419806593232024</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -12012,7 +12590,7 @@
         <v>178.88</v>
       </c>
       <c r="H193" t="n">
-        <v>172.58</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="I193" t="n">
         <v>100.28</v>
@@ -12044,6 +12622,9 @@
       <c r="R193" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S193" t="n">
+        <v>4.10812746551519</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -12072,7 +12653,7 @@
         <v>193.46</v>
       </c>
       <c r="H194" t="n">
-        <v>166.1</v>
+        <v>74.5</v>
       </c>
       <c r="I194" t="n">
         <v>99.88</v>
@@ -12104,6 +12685,9 @@
       <c r="R194" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S194" t="n">
+        <v>2.513335784922151</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -12132,7 +12716,7 @@
         <v>182.48</v>
       </c>
       <c r="H195" t="n">
-        <v>157.64</v>
+        <v>69.8</v>
       </c>
       <c r="I195" t="n">
         <v>100.56</v>
@@ -12164,6 +12748,9 @@
       <c r="R195" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S195" t="n">
+        <v>2.644397604652978</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -12192,7 +12779,7 @@
         <v>190.4</v>
       </c>
       <c r="H196" t="n">
-        <v>167.36</v>
+        <v>75.2</v>
       </c>
       <c r="I196" t="n">
         <v>100.15</v>
@@ -12224,6 +12811,9 @@
       <c r="R196" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S196" t="n">
+        <v>2.775335771265585</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -12252,7 +12842,7 @@
         <v>172.04</v>
       </c>
       <c r="H197" t="n">
-        <v>162.86</v>
+        <v>72.7</v>
       </c>
       <c r="I197" t="n">
         <v>100.44</v>
@@ -12284,6 +12874,9 @@
       <c r="R197" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S197" t="n">
+        <v>3.865779706211826</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -12312,7 +12905,7 @@
         <v>159.26</v>
       </c>
       <c r="H198" t="n">
-        <v>147.38</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="I198" t="n">
         <v>100.95</v>
@@ -12344,6 +12937,9 @@
       <c r="R198" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S198" t="n">
+        <v>3.670317185335756</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -12372,7 +12968,7 @@
         <v>163.76</v>
       </c>
       <c r="H199" t="n">
-        <v>125.78</v>
+        <v>52.1</v>
       </c>
       <c r="I199" t="n">
         <v>101.46</v>
@@ -12404,6 +13000,9 @@
       <c r="R199" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S199" t="n">
+        <v>1.848543182885324</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -12432,7 +13031,7 @@
         <v>144.86</v>
       </c>
       <c r="H200" t="n">
-        <v>135.14</v>
+        <v>57.3</v>
       </c>
       <c r="I200" t="n">
         <v>101.43</v>
@@ -12464,6 +13063,9 @@
       <c r="R200" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S200" t="n">
+        <v>3.975601047637525</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -12492,7 +13094,7 @@
         <v>151.16</v>
       </c>
       <c r="H201" t="n">
-        <v>144.86</v>
+        <v>62.7</v>
       </c>
       <c r="I201" t="n">
         <v>101.42</v>
@@ -12524,6 +13126,9 @@
       <c r="R201" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S201" t="n">
+        <v>4.286965964610784</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -12552,7 +13157,7 @@
         <v>154.94</v>
       </c>
       <c r="H202" t="n">
-        <v>145.4</v>
+        <v>63</v>
       </c>
       <c r="I202" t="n">
         <v>101.36</v>
@@ -12584,6 +13189,9 @@
       <c r="R202" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S202" t="n">
+        <v>3.919265440711059</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -12612,7 +13220,7 @@
         <v>172.76</v>
       </c>
       <c r="H203" t="n">
-        <v>146.48</v>
+        <v>63.6</v>
       </c>
       <c r="I203" t="n">
         <v>101.29</v>
@@ -12644,6 +13252,9 @@
       <c r="R203" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S203" t="n">
+        <v>2.537146329685751</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -12672,7 +13283,7 @@
         <v>154.58</v>
       </c>
       <c r="H204" t="n">
-        <v>138.02</v>
+        <v>58.9</v>
       </c>
       <c r="I204" t="n">
         <v>101.54</v>
@@ -12704,6 +13315,9 @@
       <c r="R204" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S204" t="n">
+        <v>3.271799178112926</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -12732,7 +13346,7 @@
         <v>168.8</v>
       </c>
       <c r="H205" t="n">
-        <v>136.94</v>
+        <v>58.3</v>
       </c>
       <c r="I205" t="n">
         <v>100.81</v>
@@ -12764,6 +13378,9 @@
       <c r="R205" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S205" t="n">
+        <v>2.190816123915266</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -12792,7 +13409,7 @@
         <v>171.14</v>
       </c>
       <c r="H206" t="n">
-        <v>143.6</v>
+        <v>62</v>
       </c>
       <c r="I206" t="n">
         <v>100.74</v>
@@ -12824,6 +13441,9 @@
       <c r="R206" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S206" t="n">
+        <v>2.454803430789625</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -12852,7 +13472,7 @@
         <v>167.54</v>
       </c>
       <c r="H207" t="n">
-        <v>129.56</v>
+        <v>54.2</v>
       </c>
       <c r="I207" t="n">
         <v>101.21</v>
@@ -12884,6 +13504,9 @@
       <c r="R207" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S207" t="n">
+        <v>1.85877573332492</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -12912,7 +13535,7 @@
         <v>163.22</v>
       </c>
       <c r="H208" t="n">
-        <v>123.62</v>
+        <v>50.9</v>
       </c>
       <c r="I208" t="n">
         <v>101.9</v>
@@ -12944,6 +13567,9 @@
       <c r="R208" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S208" t="n">
+        <v>1.766667043585942</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -12972,7 +13598,7 @@
         <v>169.16</v>
       </c>
       <c r="H209" t="n">
-        <v>135.14</v>
+        <v>57.3</v>
       </c>
       <c r="I209" t="n">
         <v>101.86</v>
@@ -13004,6 +13630,9 @@
       <c r="R209" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S209" t="n">
+        <v>2.070467622680541</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -13032,7 +13661,7 @@
         <v>169.52</v>
       </c>
       <c r="H210" t="n">
-        <v>136.76</v>
+        <v>58.2</v>
       </c>
       <c r="I210" t="n">
         <v>101.75</v>
@@ -13064,6 +13693,9 @@
       <c r="R210" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S210" t="n">
+        <v>2.1411789228544</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -13092,7 +13724,7 @@
         <v>161.6</v>
       </c>
       <c r="H211" t="n">
-        <v>141.44</v>
+        <v>60.8</v>
       </c>
       <c r="I211" t="n">
         <v>101.25</v>
@@ -13124,6 +13756,9 @@
       <c r="R211" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S211" t="n">
+        <v>2.965004121220153</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -13152,7 +13787,7 @@
         <v>172.22</v>
       </c>
       <c r="H212" t="n">
-        <v>137.3</v>
+        <v>58.5</v>
       </c>
       <c r="I212" t="n">
         <v>101.36</v>
@@ -13184,6 +13819,9 @@
       <c r="R212" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S212" t="n">
+        <v>2.029651696591054</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -13212,7 +13850,7 @@
         <v>161.96</v>
       </c>
       <c r="H213" t="n">
-        <v>142.7</v>
+        <v>61.5</v>
       </c>
       <c r="I213" t="n">
         <v>101.7</v>
@@ -13244,6 +13882,9 @@
       <c r="R213" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S213" t="n">
+        <v>3.034052997062113</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -13272,7 +13913,7 @@
         <v>161.6</v>
       </c>
       <c r="H214" t="n">
-        <v>149.54</v>
+        <v>65.3</v>
       </c>
       <c r="I214" t="n">
         <v>101.43</v>
@@ -13304,6 +13945,9 @@
       <c r="R214" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S214" t="n">
+        <v>3.643433853691758</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -13332,7 +13976,7 @@
         <v>162.14</v>
       </c>
       <c r="H215" t="n">
-        <v>142.16</v>
+        <v>61.2</v>
       </c>
       <c r="I215" t="n">
         <v>100.72</v>
@@ -13364,6 +14008,9 @@
       <c r="R215" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S215" t="n">
+        <v>2.97814617906865</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -13392,7 +14039,7 @@
         <v>172.94</v>
       </c>
       <c r="H216" t="n">
-        <v>144.32</v>
+        <v>62.4</v>
       </c>
       <c r="I216" t="n">
         <v>100.91</v>
@@ -13424,6 +14071,9 @@
       <c r="R216" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S216" t="n">
+        <v>2.390758851394046</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -13452,7 +14102,7 @@
         <v>166.82</v>
       </c>
       <c r="H217" t="n">
-        <v>130.64</v>
+        <v>54.8</v>
       </c>
       <c r="I217" t="n">
         <v>101.24</v>
@@ -13484,6 +14134,9 @@
       <c r="R217" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S217" t="n">
+        <v>1.949078471258784</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -13512,7 +14165,7 @@
         <v>154.58</v>
       </c>
       <c r="H218" t="n">
-        <v>119.3</v>
+        <v>48.5</v>
       </c>
       <c r="I218" t="n">
         <v>101.88</v>
@@ -13544,6 +14197,9 @@
       <c r="R218" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S218" t="n">
+        <v>1.971072552000499</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -13572,7 +14228,7 @@
         <v>157.46</v>
       </c>
       <c r="H219" t="n">
-        <v>115.16</v>
+        <v>46.2</v>
       </c>
       <c r="I219" t="n">
         <v>101.35</v>
@@ -13604,6 +14260,9 @@
       <c r="R219" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S219" t="n">
+        <v>1.622482717374226</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -13632,7 +14291,7 @@
         <v>162.32</v>
       </c>
       <c r="H220" t="n">
-        <v>120.02</v>
+        <v>48.9</v>
       </c>
       <c r="I220" t="n">
         <v>101.24</v>
@@ -13664,6 +14323,9 @@
       <c r="R220" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S220" t="n">
+        <v>1.636549950387017</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -13692,7 +14354,7 @@
         <v>141.26</v>
       </c>
       <c r="H221" t="n">
-        <v>85.64</v>
+        <v>29.8</v>
       </c>
       <c r="I221" t="n">
         <v>102.06</v>
@@ -13724,6 +14386,9 @@
       <c r="R221" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S221" t="n">
+        <v>1.045545166408418</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -13752,7 +14417,7 @@
         <v>150.26</v>
       </c>
       <c r="H222" t="n">
-        <v>96.98</v>
+        <v>36.1</v>
       </c>
       <c r="I222" t="n">
         <v>101.66</v>
@@ -13784,6 +14449,9 @@
       <c r="R222" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S222" t="n">
+        <v>1.154505475508796</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -13812,7 +14480,7 @@
         <v>161.78</v>
       </c>
       <c r="H223" t="n">
-        <v>108.14</v>
+        <v>42.3</v>
       </c>
       <c r="I223" t="n">
         <v>101.5</v>
@@ -13844,6 +14512,9 @@
       <c r="R223" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S223" t="n">
+        <v>1.181640985316808</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -13872,7 +14543,7 @@
         <v>159.44</v>
       </c>
       <c r="H224" t="n">
-        <v>122.72</v>
+        <v>50.4</v>
       </c>
       <c r="I224" t="n">
         <v>101.63</v>
@@ -13904,6 +14575,9 @@
       <c r="R224" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S224" t="n">
+        <v>1.903076851150305</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -13932,7 +14606,7 @@
         <v>168.8</v>
       </c>
       <c r="H225" t="n">
-        <v>130.82</v>
+        <v>54.9</v>
       </c>
       <c r="I225" t="n">
         <v>101.5</v>
@@ -13964,6 +14638,9 @@
       <c r="R225" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S225" t="n">
+        <v>1.862338326841187</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -13992,7 +14669,7 @@
         <v>173.84</v>
       </c>
       <c r="H226" t="n">
-        <v>133.34</v>
+        <v>56.3</v>
       </c>
       <c r="I226" t="n">
         <v>101.27</v>
@@ -14024,6 +14701,9 @@
       <c r="R226" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S226" t="n">
+        <v>1.756178109274044</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -14052,7 +14732,7 @@
         <v>169.7</v>
       </c>
       <c r="H227" t="n">
-        <v>135.5</v>
+        <v>57.5</v>
       </c>
       <c r="I227" t="n">
         <v>101.26</v>
@@ -14084,6 +14764,9 @@
       <c r="R227" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S227" t="n">
+        <v>2.061950855639085</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -14112,7 +14795,7 @@
         <v>143.96</v>
       </c>
       <c r="H228" t="n">
-        <v>135.14</v>
+        <v>57.3</v>
       </c>
       <c r="I228" t="n">
         <v>101.61</v>
@@ -14144,6 +14827,9 @@
       <c r="R228" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S228" t="n">
+        <v>4.079239191422951</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -14172,7 +14858,7 @@
         <v>123.08</v>
       </c>
       <c r="H229" t="n">
-        <v>92.66</v>
+        <v>33.7</v>
       </c>
       <c r="I229" t="n">
         <v>102.95</v>
@@ -14204,6 +14890,9 @@
       <c r="R229" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S229" t="n">
+        <v>2.271915826368783</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -14232,7 +14921,7 @@
         <v>126.68</v>
       </c>
       <c r="H230" t="n">
-        <v>102.38</v>
+        <v>39.1</v>
       </c>
       <c r="I230" t="n">
         <v>102.83</v>
@@ -14264,6 +14953,9 @@
       <c r="R230" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S230" t="n">
+        <v>2.726649737740748</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -14292,7 +14984,7 @@
         <v>125.78</v>
       </c>
       <c r="H231" t="n">
-        <v>109.4</v>
+        <v>43</v>
       </c>
       <c r="I231" t="n">
         <v>102.65</v>
@@ -14324,6 +15016,9 @@
       <c r="R231" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S231" t="n">
+        <v>3.450970238390574</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -14352,7 +15047,7 @@
         <v>137.48</v>
       </c>
       <c r="H232" t="n">
-        <v>108.32</v>
+        <v>42.4</v>
       </c>
       <c r="I232" t="n">
         <v>102.43</v>
@@ -14384,6 +15079,9 @@
       <c r="R232" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S232" t="n">
+        <v>2.338054520797709</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -14412,7 +15110,7 @@
         <v>140.54</v>
       </c>
       <c r="H233" t="n">
-        <v>112.28</v>
+        <v>44.6</v>
       </c>
       <c r="I233" t="n">
         <v>102.13</v>
@@ -14444,6 +15142,9 @@
       <c r="R233" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S233" t="n">
+        <v>2.397086049370904</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -14472,7 +15173,7 @@
         <v>125.6</v>
       </c>
       <c r="H234" t="n">
-        <v>76.81999999999999</v>
+        <v>24.9</v>
       </c>
       <c r="I234" t="n">
         <v>102.62</v>
@@ -14504,6 +15205,9 @@
       <c r="R234" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S234" t="n">
+        <v>1.260585821034168</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -14532,7 +15236,7 @@
         <v>116.96</v>
       </c>
       <c r="H235" t="n">
-        <v>83.84</v>
+        <v>28.8</v>
       </c>
       <c r="I235" t="n">
         <v>102.69</v>
@@ -14564,6 +15268,9 @@
       <c r="R235" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S235" t="n">
+        <v>2.097171474045266</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -14592,7 +15299,7 @@
         <v>139.1</v>
       </c>
       <c r="H236" t="n">
-        <v>81.86</v>
+        <v>27.7</v>
       </c>
       <c r="I236" t="n">
         <v>102.58</v>
@@ -14624,6 +15331,9 @@
       <c r="R236" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S236" t="n">
+        <v>0.9858658654734953</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -14652,7 +15362,7 @@
         <v>143.6</v>
       </c>
       <c r="H237" t="n">
-        <v>94.81999999999999</v>
+        <v>34.9</v>
       </c>
       <c r="I237" t="n">
         <v>102.54</v>
@@ -14684,6 +15394,9 @@
       <c r="R237" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S237" t="n">
+        <v>1.303875251803291</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -14712,7 +15425,7 @@
         <v>144.32</v>
       </c>
       <c r="H238" t="n">
-        <v>114.08</v>
+        <v>45.6</v>
       </c>
       <c r="I238" t="n">
         <v>102.35</v>
@@ -14744,6 +15457,9 @@
       <c r="R238" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S238" t="n">
+        <v>2.26304926325683</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -14772,7 +15488,7 @@
         <v>149.54</v>
       </c>
       <c r="H239" t="n">
-        <v>123.98</v>
+        <v>51.1</v>
       </c>
       <c r="I239" t="n">
         <v>102.02</v>
@@ -14804,6 +15520,9 @@
       <c r="R239" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S239" t="n">
+        <v>2.578534854658116</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -14832,7 +15551,7 @@
         <v>134.06</v>
       </c>
       <c r="H240" t="n">
-        <v>109.94</v>
+        <v>43.3</v>
       </c>
       <c r="I240" t="n">
         <v>102.65</v>
@@ -14864,6 +15583,9 @@
       <c r="R240" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S240" t="n">
+        <v>2.715144184728411</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -14892,7 +15614,7 @@
         <v>120.92</v>
       </c>
       <c r="H241" t="n">
-        <v>70.16</v>
+        <v>21.2</v>
       </c>
       <c r="I241" t="n">
         <v>102.98</v>
@@ -14924,6 +15646,9 @@
       <c r="R241" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S241" t="n">
+        <v>1.170232366425761</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -14952,7 +15677,7 @@
         <v>134.96</v>
       </c>
       <c r="H242" t="n">
-        <v>66.38</v>
+        <v>19.1</v>
       </c>
       <c r="I242" t="n">
         <v>102.69</v>
@@ -14984,6 +15709,9 @@
       <c r="R242" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S242" t="n">
+        <v>0.6631242450001976</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -15012,7 +15740,7 @@
         <v>143.42</v>
       </c>
       <c r="H243" t="n">
-        <v>79.52</v>
+        <v>26.4</v>
       </c>
       <c r="I243" t="n">
         <v>102.55</v>
@@ -15044,6 +15772,9 @@
       <c r="R243" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S243" t="n">
+        <v>0.80556462704825</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -15072,7 +15803,7 @@
         <v>146.48</v>
       </c>
       <c r="H244" t="n">
-        <v>100.4</v>
+        <v>38</v>
       </c>
       <c r="I244" t="n">
         <v>102.32</v>
@@ -15104,6 +15835,9 @@
       <c r="R244" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S244" t="n">
+        <v>1.423974819697029</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -15132,7 +15866,7 @@
         <v>149.36</v>
       </c>
       <c r="H245" t="n">
-        <v>115.34</v>
+        <v>46.3</v>
       </c>
       <c r="I245" t="n">
         <v>102.16</v>
@@ -15164,6 +15898,9 @@
       <c r="R245" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S245" t="n">
+        <v>2.034665917781836</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -15192,7 +15929,7 @@
         <v>145.04</v>
       </c>
       <c r="H246" t="n">
-        <v>95.53999999999999</v>
+        <v>35.3</v>
       </c>
       <c r="I246" t="n">
         <v>102.44</v>
@@ -15224,6 +15961,9 @@
       <c r="R246" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S246" t="n">
+        <v>1.279308590136455</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -15252,7 +15992,7 @@
         <v>146.12</v>
       </c>
       <c r="H247" t="n">
-        <v>87.62</v>
+        <v>30.9</v>
       </c>
       <c r="I247" t="n">
         <v>102.48</v>
@@ -15284,6 +16024,9 @@
       <c r="R247" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S247" t="n">
+        <v>0.9686616899641654</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -15312,7 +16055,7 @@
         <v>152.24</v>
       </c>
       <c r="H248" t="n">
-        <v>97.52</v>
+        <v>36.4</v>
       </c>
       <c r="I248" t="n">
         <v>102.36</v>
@@ -15344,6 +16087,9 @@
       <c r="R248" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S248" t="n">
+        <v>1.111259959537761</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -15372,7 +16118,7 @@
         <v>131.54</v>
       </c>
       <c r="H249" t="n">
-        <v>110.3</v>
+        <v>43.5</v>
       </c>
       <c r="I249" t="n">
         <v>102.6</v>
@@ -15404,6 +16150,9 @@
       <c r="R249" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S249" t="n">
+        <v>2.962021658579285</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -15432,7 +16181,7 @@
         <v>130.1</v>
       </c>
       <c r="H250" t="n">
-        <v>112.28</v>
+        <v>44.6</v>
       </c>
       <c r="I250" t="n">
         <v>102.97</v>
@@ -15464,6 +16213,9 @@
       <c r="R250" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S250" t="n">
+        <v>3.278322800913467</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -15492,7 +16244,7 @@
         <v>138.2</v>
       </c>
       <c r="H251" t="n">
-        <v>117.5</v>
+        <v>47.5</v>
       </c>
       <c r="I251" t="n">
         <v>102.45</v>
@@ -15524,6 +16276,9 @@
       <c r="R251" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S251" t="n">
+        <v>2.979542398450044</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -15552,7 +16307,7 @@
         <v>134.06</v>
       </c>
       <c r="H252" t="n">
-        <v>116.96</v>
+        <v>47.2</v>
       </c>
       <c r="I252" t="n">
         <v>102.54</v>
@@ -15584,6 +16339,9 @@
       <c r="R252" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S252" t="n">
+        <v>3.320494177538745</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -15612,7 +16370,7 @@
         <v>140.18</v>
       </c>
       <c r="H253" t="n">
-        <v>75.92</v>
+        <v>24.4</v>
       </c>
       <c r="I253" t="n">
         <v>102.4</v>
@@ -15644,6 +16402,9 @@
       <c r="R253" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S253" t="n">
+        <v>0.7855915331640491</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -15672,7 +16433,7 @@
         <v>142.34</v>
       </c>
       <c r="H254" t="n">
-        <v>92.30000000000001</v>
+        <v>33.5</v>
       </c>
       <c r="I254" t="n">
         <v>102</v>
@@ -15704,6 +16465,9 @@
       <c r="R254" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S254" t="n">
+        <v>1.25047912788498</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -15732,7 +16496,7 @@
         <v>113.54</v>
       </c>
       <c r="H255" t="n">
-        <v>100.58</v>
+        <v>38.1</v>
       </c>
       <c r="I255" t="n">
         <v>102.9</v>
@@ -15764,6 +16528,9 @@
       <c r="R255" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S255" t="n">
+        <v>3.962074370882811</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -15792,7 +16559,7 @@
         <v>131.54</v>
       </c>
       <c r="H256" t="n">
-        <v>87.62</v>
+        <v>30.9</v>
       </c>
       <c r="I256" t="n">
         <v>102.62</v>
@@ -15824,6 +16591,9 @@
       <c r="R256" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S256" t="n">
+        <v>1.488060068727957</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -15852,7 +16622,7 @@
         <v>135.68</v>
       </c>
       <c r="H257" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I257" t="n">
         <v>102.1</v>
@@ -15884,6 +16654,9 @@
       <c r="R257" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S257" t="n">
+        <v>1.653761924005282</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -15912,7 +16685,7 @@
         <v>125.6</v>
       </c>
       <c r="H258" t="n">
-        <v>103.1</v>
+        <v>39.5</v>
       </c>
       <c r="I258" t="n">
         <v>102.45</v>
@@ -15944,6 +16717,9 @@
       <c r="R258" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S258" t="n">
+        <v>2.882341678947599</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -15972,7 +16748,7 @@
         <v>137.12</v>
       </c>
       <c r="H259" t="n">
-        <v>109.76</v>
+        <v>43.2</v>
       </c>
       <c r="I259" t="n">
         <v>102.37</v>
@@ -16004,6 +16780,9 @@
       <c r="R259" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S259" t="n">
+        <v>2.464514005175347</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -16032,7 +16811,7 @@
         <v>143.06</v>
       </c>
       <c r="H260" t="n">
-        <v>120.02</v>
+        <v>48.9</v>
       </c>
       <c r="I260" t="n">
         <v>102.13</v>
@@ -16064,6 +16843,9 @@
       <c r="R260" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S260" t="n">
+        <v>2.775532687845714</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -16092,7 +16874,7 @@
         <v>140.72</v>
       </c>
       <c r="H261" t="n">
-        <v>126.5</v>
+        <v>52.5</v>
       </c>
       <c r="I261" t="n">
         <v>102.21</v>
@@ -16124,6 +16906,9 @@
       <c r="R261" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S261" t="n">
+        <v>3.552303591240818</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -16152,7 +16937,7 @@
         <v>152.06</v>
       </c>
       <c r="H262" t="n">
-        <v>130.64</v>
+        <v>54.8</v>
       </c>
       <c r="I262" t="n">
         <v>101.74</v>
@@ -16184,6 +16969,9 @@
       <c r="R262" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S262" t="n">
+        <v>2.882436469498544</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -16212,7 +17000,7 @@
         <v>120.2</v>
       </c>
       <c r="H263" t="n">
-        <v>105.98</v>
+        <v>41.1</v>
       </c>
       <c r="I263" t="n">
         <v>102.24</v>
@@ -16244,6 +17032,9 @@
       <c r="R263" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S263" t="n">
+        <v>3.732786844675204</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -16272,7 +17063,7 @@
         <v>105.98</v>
       </c>
       <c r="H264" t="n">
-        <v>81.14</v>
+        <v>27.3</v>
       </c>
       <c r="I264" t="n">
         <v>102.87</v>
@@ -16304,6 +17095,9 @@
       <c r="R264" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S264" t="n">
+        <v>2.795716216992728</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -16332,7 +17126,7 @@
         <v>124.16</v>
       </c>
       <c r="H265" t="n">
-        <v>87.80000000000001</v>
+        <v>31</v>
       </c>
       <c r="I265" t="n">
         <v>102.05</v>
@@ -16364,6 +17158,9 @@
       <c r="R265" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S265" t="n">
+        <v>1.88414054707218</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -16392,7 +17189,7 @@
         <v>129.2</v>
       </c>
       <c r="H266" t="n">
-        <v>90.68000000000001</v>
+        <v>32.6</v>
       </c>
       <c r="I266" t="n">
         <v>101.96</v>
@@ -16424,6 +17221,9 @@
       <c r="R266" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S266" t="n">
+        <v>1.761295090788719</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -16452,7 +17252,7 @@
         <v>133.52</v>
       </c>
       <c r="H267" t="n">
-        <v>112.82</v>
+        <v>44.9</v>
       </c>
       <c r="I267" t="n">
         <v>102.41</v>
@@ -16484,6 +17284,9 @@
       <c r="R267" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S267" t="n">
+        <v>2.999355693254385</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -16512,7 +17315,7 @@
         <v>128.66</v>
       </c>
       <c r="H268" t="n">
-        <v>116.06</v>
+        <v>46.7</v>
       </c>
       <c r="I268" t="n">
         <v>102.05</v>
@@ -16544,6 +17347,9 @@
       <c r="R268" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S268" t="n">
+        <v>3.818913113308017</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -16572,7 +17378,7 @@
         <v>133.88</v>
       </c>
       <c r="H269" t="n">
-        <v>116.42</v>
+        <v>46.9</v>
       </c>
       <c r="I269" t="n">
         <v>101.98</v>
@@ -16604,6 +17410,9 @@
       <c r="R269" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S269" t="n">
+        <v>3.287932334159016</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -16632,7 +17441,7 @@
         <v>124.34</v>
       </c>
       <c r="H270" t="n">
-        <v>116.42</v>
+        <v>46.9</v>
       </c>
       <c r="I270" t="n">
         <v>102.36</v>
@@ -16664,6 +17473,9 @@
       <c r="R270" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S270" t="n">
+        <v>4.419185088416695</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -16692,7 +17504,7 @@
         <v>118.04</v>
       </c>
       <c r="H271" t="n">
-        <v>114.26</v>
+        <v>45.7</v>
       </c>
       <c r="I271" t="n">
         <v>102.3</v>
@@ -16724,6 +17536,9 @@
       <c r="R271" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S271" t="n">
+        <v>5.095223641417923</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -16752,7 +17567,7 @@
         <v>127.22</v>
       </c>
       <c r="H272" t="n">
-        <v>109.76</v>
+        <v>43.2</v>
       </c>
       <c r="I272" t="n">
         <v>102.02</v>
@@ -16784,6 +17599,9 @@
       <c r="R272" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S272" t="n">
+        <v>3.333003198349017</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -16812,7 +17630,7 @@
         <v>135.32</v>
       </c>
       <c r="H273" t="n">
-        <v>109.22</v>
+        <v>42.9</v>
       </c>
       <c r="I273" t="n">
         <v>101.62</v>
@@ -16844,6 +17662,9 @@
       <c r="R273" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S273" t="n">
+        <v>2.559950725053288</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -16872,7 +17693,7 @@
         <v>130.1</v>
       </c>
       <c r="H274" t="n">
-        <v>90.13999999999999</v>
+        <v>32.3</v>
       </c>
       <c r="I274" t="n">
         <v>101.8</v>
@@ -16904,6 +17725,9 @@
       <c r="R274" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S274" t="n">
+        <v>1.684194933132264</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -16932,7 +17756,7 @@
         <v>118.4</v>
       </c>
       <c r="H275" t="n">
-        <v>75.92</v>
+        <v>24.4</v>
       </c>
       <c r="I275" t="n">
         <v>101.84</v>
@@ -16964,6 +17788,9 @@
       <c r="R275" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S275" t="n">
+        <v>1.542764324014785</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -16992,7 +17819,7 @@
         <v>117.5</v>
       </c>
       <c r="H276" t="n">
-        <v>97.88000000000001</v>
+        <v>36.6</v>
       </c>
       <c r="I276" t="n">
         <v>101.22</v>
@@ -17024,6 +17851,9 @@
       <c r="R276" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S276" t="n">
+        <v>3.19872156511308</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -17052,7 +17882,7 @@
         <v>80.78</v>
       </c>
       <c r="H277" t="n">
-        <v>27.32</v>
+        <v>-2.6</v>
       </c>
       <c r="I277" t="n">
         <v>103.69</v>
@@ -17084,6 +17914,9 @@
       <c r="R277" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S277" t="n">
+        <v>1.012844219905934</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -17112,7 +17945,7 @@
         <v>94.63999999999999</v>
       </c>
       <c r="H278" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="I278" t="n">
         <v>102.64</v>
@@ -17144,6 +17977,9 @@
       <c r="R278" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S278" t="n">
+        <v>1.015267209549478</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -17172,7 +18008,7 @@
         <v>89.59999999999999</v>
       </c>
       <c r="H279" t="n">
-        <v>51.08</v>
+        <v>10.6</v>
       </c>
       <c r="I279" t="n">
         <v>103.3</v>
@@ -17204,6 +18040,9 @@
       <c r="R279" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S279" t="n">
+        <v>1.802665340131954</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -17232,7 +18071,7 @@
         <v>100.4</v>
       </c>
       <c r="H280" t="n">
-        <v>50.90000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="I280" t="n">
         <v>102.97</v>
@@ -17264,6 +18103,9 @@
       <c r="R280" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S280" t="n">
+        <v>1.193570110573756</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -17292,7 +18134,7 @@
         <v>105.98</v>
       </c>
       <c r="H281" t="n">
-        <v>70.7</v>
+        <v>21.5</v>
       </c>
       <c r="I281" t="n">
         <v>102.71</v>
@@ -17324,6 +18166,9 @@
       <c r="R281" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S281" t="n">
+        <v>1.974542750895645</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -17352,7 +18197,7 @@
         <v>117.68</v>
       </c>
       <c r="H282" t="n">
-        <v>82.40000000000001</v>
+        <v>28</v>
       </c>
       <c r="I282" t="n">
         <v>102.58</v>
@@ -17384,6 +18229,9 @@
       <c r="R282" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S282" t="n">
+        <v>1.954696553873609</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -17412,7 +18260,7 @@
         <v>106.16</v>
       </c>
       <c r="H283" t="n">
-        <v>92.84</v>
+        <v>33.8</v>
       </c>
       <c r="I283" t="n">
         <v>102.64</v>
@@ -17444,6 +18292,9 @@
       <c r="R283" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S283" t="n">
+        <v>4.031688943246015</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -17472,7 +18323,7 @@
         <v>91.40000000000001</v>
       </c>
       <c r="H284" t="n">
-        <v>47.66</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I284" t="n">
         <v>103.1</v>
@@ -17504,6 +18355,9 @@
       <c r="R284" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S284" t="n">
+        <v>1.480342732238583</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -17532,7 +18386,7 @@
         <v>95.36000000000001</v>
       </c>
       <c r="H285" t="n">
-        <v>39.56</v>
+        <v>4.2</v>
       </c>
       <c r="I285" t="n">
         <v>102.77</v>
@@ -17564,6 +18418,9 @@
       <c r="R285" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S285" t="n">
+        <v>0.9344422337939182</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -17592,7 +18449,7 @@
         <v>97.52</v>
       </c>
       <c r="H286" t="n">
-        <v>37.22</v>
+        <v>2.9</v>
       </c>
       <c r="I286" t="n">
         <v>102.36</v>
@@ -17624,6 +18481,9 @@
       <c r="R286" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S286" t="n">
+        <v>0.7867255507693642</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -17652,7 +18512,7 @@
         <v>93.92</v>
       </c>
       <c r="H287" t="n">
-        <v>31.82</v>
+        <v>-0.1</v>
       </c>
       <c r="I287" t="n">
         <v>102.57</v>
@@ -17684,6 +18544,9 @@
       <c r="R287" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S287" t="n">
+        <v>0.7257939720029936</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -17712,7 +18575,7 @@
         <v>84.38</v>
       </c>
       <c r="H288" t="n">
-        <v>52.7</v>
+        <v>11.5</v>
       </c>
       <c r="I288" t="n">
         <v>103.12</v>
@@ -17744,6 +18607,9 @@
       <c r="R288" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S288" t="n">
+        <v>2.350607063789039</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -17772,7 +18638,7 @@
         <v>75.92</v>
       </c>
       <c r="H289" t="n">
-        <v>39.02</v>
+        <v>3.9</v>
       </c>
       <c r="I289" t="n">
         <v>103.85</v>
@@ -17804,6 +18670,9 @@
       <c r="R289" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S289" t="n">
+        <v>1.981589739871352</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -17832,7 +18701,7 @@
         <v>73.03999999999999</v>
       </c>
       <c r="H290" t="n">
-        <v>9.68</v>
+        <v>-12.4</v>
       </c>
       <c r="I290" t="n">
         <v>103.5</v>
@@ -17864,6 +18733,9 @@
       <c r="R290" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S290" t="n">
+        <v>0.6569142655304278</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -17892,7 +18764,7 @@
         <v>92.66</v>
       </c>
       <c r="H291" t="n">
-        <v>26.96</v>
+        <v>-2.8</v>
       </c>
       <c r="I291" t="n">
         <v>102.49</v>
@@ -17924,6 +18796,9 @@
       <c r="R291" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S291" t="n">
+        <v>0.6243874618308425</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -17952,7 +18827,7 @@
         <v>96.98</v>
       </c>
       <c r="H292" t="n">
-        <v>45.32</v>
+        <v>7.4</v>
       </c>
       <c r="I292" t="n">
         <v>102.47</v>
@@ -17984,6 +18859,9 @@
       <c r="R292" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S292" t="n">
+        <v>1.09781714303971</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -18012,7 +18890,7 @@
         <v>102.56</v>
       </c>
       <c r="H293" t="n">
-        <v>63.68000000000001</v>
+        <v>17.6</v>
       </c>
       <c r="I293" t="n">
         <v>102.07</v>
@@ -18044,6 +18922,9 @@
       <c r="R293" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S293" t="n">
+        <v>1.749776705869633</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -18072,7 +18953,7 @@
         <v>86.36</v>
       </c>
       <c r="H294" t="n">
-        <v>32.72</v>
+        <v>0.4</v>
       </c>
       <c r="I294" t="n">
         <v>102.02</v>
@@ -18104,6 +18985,9 @@
       <c r="R294" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S294" t="n">
+        <v>1.008033308212111</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -18132,7 +19016,7 @@
         <v>77.36</v>
       </c>
       <c r="H295" t="n">
-        <v>20.66</v>
+        <v>-6.3</v>
       </c>
       <c r="I295" t="n">
         <v>102.59</v>
@@ -18164,6 +19048,9 @@
       <c r="R295" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S295" t="n">
+        <v>0.8830127434672677</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -18192,7 +19079,7 @@
         <v>82.03999999999999</v>
       </c>
       <c r="H296" t="n">
-        <v>19.76</v>
+        <v>-6.8</v>
       </c>
       <c r="I296" t="n">
         <v>102.85</v>
@@ -18224,6 +19111,9 @@
       <c r="R296" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S296" t="n">
+        <v>0.7008141844864089</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -18252,7 +19142,7 @@
         <v>77.72</v>
       </c>
       <c r="H297" t="n">
-        <v>36.5</v>
+        <v>2.5</v>
       </c>
       <c r="I297" t="n">
         <v>103.17</v>
@@ -18284,6 +19174,9 @@
       <c r="R297" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S297" t="n">
+        <v>1.664361712884192</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -18312,7 +19205,7 @@
         <v>89.59999999999999</v>
       </c>
       <c r="H298" t="n">
-        <v>48.2</v>
+        <v>9</v>
       </c>
       <c r="I298" t="n">
         <v>103.12</v>
@@ -18344,6 +19237,9 @@
       <c r="R298" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S298" t="n">
+        <v>1.619259347801935</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -18372,7 +19268,7 @@
         <v>80.42</v>
       </c>
       <c r="H299" t="n">
-        <v>60.8</v>
+        <v>16</v>
       </c>
       <c r="I299" t="n">
         <v>103.45</v>
@@ -18404,6 +19300,9 @@
       <c r="R299" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S299" t="n">
+        <v>3.697652793833491</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -18432,7 +19331,7 @@
         <v>90.68000000000001</v>
       </c>
       <c r="H300" t="n">
-        <v>39.56</v>
+        <v>4.2</v>
       </c>
       <c r="I300" t="n">
         <v>103.47</v>
@@ -18464,6 +19363,9 @@
       <c r="R300" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S300" t="n">
+        <v>1.116294291582561</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -18492,7 +19394,7 @@
         <v>86.90000000000001</v>
       </c>
       <c r="H301" t="n">
-        <v>48.74</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I301" t="n">
         <v>103.57</v>
@@ -18524,6 +19426,9 @@
       <c r="R301" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S301" t="n">
+        <v>1.836289558977597</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -18552,7 +19457,7 @@
         <v>97.88000000000001</v>
       </c>
       <c r="H302" t="n">
-        <v>39.02</v>
+        <v>3.9</v>
       </c>
       <c r="I302" t="n">
         <v>103.33</v>
@@ -18584,6 +19489,9 @@
       <c r="R302" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S302" t="n">
+        <v>0.8331023363596056</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -18612,7 +19520,7 @@
         <v>96.26000000000001</v>
       </c>
       <c r="H303" t="n">
-        <v>61.88</v>
+        <v>16.6</v>
       </c>
       <c r="I303" t="n">
         <v>103.3</v>
@@ -18644,6 +19552,9 @@
       <c r="R303" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S303" t="n">
+        <v>2.06819315733704</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -18672,7 +19583,7 @@
         <v>104.54</v>
       </c>
       <c r="H304" t="n">
-        <v>45.5</v>
+        <v>7.5</v>
       </c>
       <c r="I304" t="n">
         <v>103.54</v>
@@ -18704,6 +19615,9 @@
       <c r="R304" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S304" t="n">
+        <v>0.8400109684204259</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -18732,7 +19646,7 @@
         <v>100.76</v>
       </c>
       <c r="H305" t="n">
-        <v>67.09999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="I305" t="n">
         <v>103.08</v>
@@ -18764,6 +19678,9 @@
       <c r="R305" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S305" t="n">
+        <v>2.103380627909566</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -18792,7 +19709,7 @@
         <v>94.46000000000001</v>
       </c>
       <c r="H306" t="n">
-        <v>76.64</v>
+        <v>24.8</v>
       </c>
       <c r="I306" t="n">
         <v>103.11</v>
@@ -18824,6 +19741,9 @@
       <c r="R306" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S306" t="n">
+        <v>3.668202556830968</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -18852,7 +19772,7 @@
         <v>107.06</v>
       </c>
       <c r="H307" t="n">
-        <v>78.44</v>
+        <v>25.8</v>
       </c>
       <c r="I307" t="n">
         <v>102.75</v>
@@ -18884,6 +19804,9 @@
       <c r="R307" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S307" t="n">
+        <v>2.4636878470746</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -18912,7 +19835,7 @@
         <v>107.96</v>
       </c>
       <c r="H308" t="n">
-        <v>51.8</v>
+        <v>11</v>
       </c>
       <c r="I308" t="n">
         <v>102.36</v>
@@ -18944,6 +19867,9 @@
       <c r="R308" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S308" t="n">
+        <v>0.9428075920018781</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -18972,7 +19898,7 @@
         <v>121.1</v>
       </c>
       <c r="H309" t="n">
-        <v>66.74000000000001</v>
+        <v>19.3</v>
       </c>
       <c r="I309" t="n">
         <v>102</v>
@@ -19004,6 +19930,9 @@
       <c r="R309" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S309" t="n">
+        <v>1.034433497524927</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -19032,7 +19961,7 @@
         <v>104.72</v>
       </c>
       <c r="H310" t="n">
-        <v>48.74</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I310" t="n">
         <v>102.86</v>
@@ -19064,6 +19993,9 @@
       <c r="R310" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S310" t="n">
+        <v>0.9430129891579845</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -19092,7 +20024,7 @@
         <v>113.54</v>
       </c>
       <c r="H311" t="n">
-        <v>87.80000000000001</v>
+        <v>31</v>
       </c>
       <c r="I311" t="n">
         <v>101.93</v>
@@ -19124,6 +20056,9 @@
       <c r="R311" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S311" t="n">
+        <v>2.668631953529705</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -19152,7 +20087,7 @@
         <v>110.12</v>
       </c>
       <c r="H312" t="n">
-        <v>98.23999999999999</v>
+        <v>36.8</v>
       </c>
       <c r="I312" t="n">
         <v>101.36</v>
@@ -19184,6 +20119,9 @@
       <c r="R312" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S312" t="n">
+        <v>4.147281115839735</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -19212,7 +20150,7 @@
         <v>94.63999999999999</v>
       </c>
       <c r="H313" t="n">
-        <v>86.90000000000001</v>
+        <v>30.5</v>
       </c>
       <c r="I313" t="n">
         <v>102.07</v>
@@ -19244,6 +20182,9 @@
       <c r="R313" t="n">
         <v>0.02153197969543147</v>
       </c>
+      <c r="S313" t="n">
+        <v>5.086218858776208</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -19272,7 +20213,7 @@
         <v>71.96000000000001</v>
       </c>
       <c r="H314" t="n">
-        <v>43.34</v>
+        <v>6.3</v>
       </c>
       <c r="I314" t="n">
         <v>103.39</v>
@@ -19304,6 +20245,9 @@
       <c r="R314" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S314" t="n">
+        <v>2.773426353036808</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -19332,7 +20276,7 @@
         <v>68.90000000000001</v>
       </c>
       <c r="H315" t="n">
-        <v>38.48</v>
+        <v>3.6</v>
       </c>
       <c r="I315" t="n">
         <v>103.28</v>
@@ -19364,6 +20308,9 @@
       <c r="R315" t="n">
         <v>0.01524</v>
       </c>
+      <c r="S315" t="n">
+        <v>2.626036675183392</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -19392,7 +20339,7 @@
         <v>83.66</v>
       </c>
       <c r="H316" t="n">
-        <v>46.04</v>
+        <v>7.8</v>
       </c>
       <c r="I316" t="n">
         <v>103</v>
@@ -19424,6 +20371,9 @@
       <c r="R316" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S316" t="n">
+        <v>1.887254316168499</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -19452,7 +20402,7 @@
         <v>87.80000000000001</v>
       </c>
       <c r="H317" t="n">
-        <v>50.54000000000001</v>
+        <v>10.3</v>
       </c>
       <c r="I317" t="n">
         <v>103</v>
@@ -19484,6 +20434,9 @@
       <c r="R317" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S317" t="n">
+        <v>1.895401824220679</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -19512,7 +20465,7 @@
         <v>95.18000000000001</v>
       </c>
       <c r="H318" t="n">
-        <v>47.48</v>
+        <v>8.6</v>
       </c>
       <c r="I318" t="n">
         <v>102.5</v>
@@ -19544,6 +20497,9 @@
       <c r="R318" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S318" t="n">
+        <v>1.273940769805624</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -19572,7 +20528,7 @@
         <v>96.8</v>
       </c>
       <c r="H319" t="n">
-        <v>31.1</v>
+        <v>-0.5</v>
       </c>
       <c r="I319" t="n">
         <v>102.79</v>
@@ -19604,6 +20560,9 @@
       <c r="R319" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S319" t="n">
+        <v>0.6328601625733343</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -19632,7 +20591,7 @@
         <v>92.12</v>
       </c>
       <c r="H320" t="n">
-        <v>28.04</v>
+        <v>-2.2</v>
       </c>
       <c r="I320" t="n">
         <v>102.93</v>
@@ -19664,6 +20623,9 @@
       <c r="R320" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S320" t="n">
+        <v>0.6663486101519611</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -19692,7 +20654,7 @@
         <v>103.46</v>
       </c>
       <c r="H321" t="n">
-        <v>68.36</v>
+        <v>20.2</v>
       </c>
       <c r="I321" t="n">
         <v>102.4</v>
@@ -19724,6 +20686,9 @@
       <c r="R321" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S321" t="n">
+        <v>1.993145158672109</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -19752,7 +20717,7 @@
         <v>98.23999999999999</v>
       </c>
       <c r="H322" t="n">
-        <v>76.81999999999999</v>
+        <v>24.9</v>
       </c>
       <c r="I322" t="n">
         <v>102.5</v>
@@ -19784,6 +20749,9 @@
       <c r="R322" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S322" t="n">
+        <v>3.205461572003344</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -19812,7 +20780,7 @@
         <v>74.84</v>
       </c>
       <c r="H323" t="n">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="I323" t="n">
         <v>103.63</v>
@@ -19844,6 +20812,9 @@
       <c r="R323" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S323" t="n">
+        <v>4.377106658623461</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -19872,7 +20843,7 @@
         <v>59.18</v>
       </c>
       <c r="H324" t="n">
-        <v>2.659999999999997</v>
+        <v>-16.3</v>
       </c>
       <c r="I324" t="n">
         <v>103.96</v>
@@ -19904,6 +20875,9 @@
       <c r="R324" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S324" t="n">
+        <v>0.8892590856373364</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -19932,7 +20906,7 @@
         <v>77.36</v>
       </c>
       <c r="H325" t="n">
-        <v>21.2</v>
+        <v>-6</v>
       </c>
       <c r="I325" t="n">
         <v>102.55</v>
@@ -19964,6 +20938,9 @@
       <c r="R325" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S325" t="n">
+        <v>0.9034786222405066</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -19992,7 +20969,7 @@
         <v>74.12</v>
       </c>
       <c r="H326" t="n">
-        <v>35.78</v>
+        <v>2.1</v>
       </c>
       <c r="I326" t="n">
         <v>103.18</v>
@@ -20024,6 +21001,9 @@
       <c r="R326" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S326" t="n">
+        <v>1.882828506776343</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -20052,7 +21032,7 @@
         <v>79.52</v>
       </c>
       <c r="H327" t="n">
-        <v>18.32</v>
+        <v>-7.6</v>
       </c>
       <c r="I327" t="n">
         <v>103.01</v>
@@ -20084,6 +21064,9 @@
       <c r="R327" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S327" t="n">
+        <v>0.7304844396234592</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -20112,7 +21095,7 @@
         <v>95.53999999999999</v>
       </c>
       <c r="H328" t="n">
-        <v>21.2</v>
+        <v>-6</v>
       </c>
       <c r="I328" t="n">
         <v>102.64</v>
@@ -20144,6 +21127,9 @@
       <c r="R328" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S328" t="n">
+        <v>0.4401854794489712</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -20172,7 +21158,7 @@
         <v>103.82</v>
       </c>
       <c r="H329" t="n">
-        <v>33.44</v>
+        <v>0.8</v>
       </c>
       <c r="I329" t="n">
         <v>102.34</v>
@@ -20204,6 +21190,9 @@
       <c r="R329" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S329" t="n">
+        <v>0.5385702002406283</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -20232,7 +21221,7 @@
         <v>122.9</v>
       </c>
       <c r="H330" t="n">
-        <v>42.44</v>
+        <v>5.8</v>
       </c>
       <c r="I330" t="n">
         <v>101.82</v>
@@ -20264,6 +21253,9 @@
       <c r="R330" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S330" t="n">
+        <v>0.4022393373015196</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -20292,7 +21284,7 @@
         <v>113.9</v>
       </c>
       <c r="H331" t="n">
-        <v>52.52</v>
+        <v>11.4</v>
       </c>
       <c r="I331" t="n">
         <v>101.91</v>
@@ -20324,6 +21316,9 @@
       <c r="R331" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S331" t="n">
+        <v>0.7899158507169617</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -20352,7 +21347,7 @@
         <v>88.7</v>
       </c>
       <c r="H332" t="n">
-        <v>15.98</v>
+        <v>-8.9</v>
       </c>
       <c r="I332" t="n">
         <v>103.33</v>
@@ -20384,6 +21379,9 @@
       <c r="R332" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S332" t="n">
+        <v>0.4569399127128564</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -20412,7 +21410,7 @@
         <v>100.94</v>
       </c>
       <c r="H333" t="n">
-        <v>53.24</v>
+        <v>11.8</v>
       </c>
       <c r="I333" t="n">
         <v>102.49</v>
@@ -20444,6 +21442,9 @@
       <c r="R333" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S333" t="n">
+        <v>1.275822568800495</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -20472,7 +21473,7 @@
         <v>104.54</v>
       </c>
       <c r="H334" t="n">
-        <v>59.54000000000001</v>
+        <v>15.3</v>
       </c>
       <c r="I334" t="n">
         <v>102.48</v>
@@ -20504,6 +21505,9 @@
       <c r="R334" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S334" t="n">
+        <v>1.408189087444687</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -20532,7 +21536,7 @@
         <v>113.18</v>
       </c>
       <c r="H335" t="n">
-        <v>66.74000000000001</v>
+        <v>19.3</v>
       </c>
       <c r="I335" t="n">
         <v>102.05</v>
@@ -20564,6 +21568,9 @@
       <c r="R335" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S335" t="n">
+        <v>1.344325679550956</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -20592,7 +21599,7 @@
         <v>109.76</v>
       </c>
       <c r="H336" t="n">
-        <v>79.16</v>
+        <v>26.2</v>
       </c>
       <c r="I336" t="n">
         <v>102.16</v>
@@ -20624,6 +21631,9 @@
       <c r="R336" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S336" t="n">
+        <v>2.296869176827174</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -20652,7 +21662,7 @@
         <v>103.64</v>
       </c>
       <c r="H337" t="n">
-        <v>87.08000000000001</v>
+        <v>30.6</v>
       </c>
       <c r="I337" t="n">
         <v>102.64</v>
@@ -20684,6 +21694,9 @@
       <c r="R337" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S337" t="n">
+        <v>3.677995255141892</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -20712,7 +21725,7 @@
         <v>106.34</v>
       </c>
       <c r="H338" t="n">
-        <v>67.28</v>
+        <v>19.6</v>
       </c>
       <c r="I338" t="n">
         <v>102.95</v>
@@ -20744,6 +21757,9 @@
       <c r="R338" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S338" t="n">
+        <v>1.733972750242611</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -20772,7 +21788,7 @@
         <v>109.4</v>
       </c>
       <c r="H339" t="n">
-        <v>84.92</v>
+        <v>29.4</v>
       </c>
       <c r="I339" t="n">
         <v>102.19</v>
@@ -20804,6 +21820,9 @@
       <c r="R339" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S339" t="n">
+        <v>2.803981829402636</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -20832,7 +21851,7 @@
         <v>98.42</v>
       </c>
       <c r="H340" t="n">
-        <v>55.76</v>
+        <v>13.2</v>
       </c>
       <c r="I340" t="n">
         <v>103.26</v>
@@ -20864,6 +21883,9 @@
       <c r="R340" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S340" t="n">
+        <v>1.533529508212629</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -20892,7 +21914,7 @@
         <v>96.08</v>
       </c>
       <c r="H341" t="n">
-        <v>57.74</v>
+        <v>14.3</v>
       </c>
       <c r="I341" t="n">
         <v>103.33</v>
@@ -20924,6 +21946,9 @@
       <c r="R341" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S341" t="n">
+        <v>1.79643424500391</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -20952,7 +21977,7 @@
         <v>114.62</v>
       </c>
       <c r="H342" t="n">
-        <v>74.48</v>
+        <v>23.6</v>
       </c>
       <c r="I342" t="n">
         <v>102.68</v>
@@ -20984,6 +22009,9 @@
       <c r="R342" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S342" t="n">
+        <v>1.666894602882971</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -21012,7 +22040,7 @@
         <v>120.02</v>
       </c>
       <c r="H343" t="n">
-        <v>82.58000000000001</v>
+        <v>28.1</v>
       </c>
       <c r="I343" t="n">
         <v>102.14</v>
@@ -21044,6 +22072,9 @@
       <c r="R343" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S343" t="n">
+        <v>1.821001912793205</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -21072,7 +22103,7 @@
         <v>114.44</v>
       </c>
       <c r="H344" t="n">
-        <v>84.38</v>
+        <v>29.1</v>
       </c>
       <c r="I344" t="n">
         <v>102.52</v>
@@ -21104,6 +22135,9 @@
       <c r="R344" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S344" t="n">
+        <v>2.321040366917734</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -21132,7 +22166,7 @@
         <v>105.08</v>
       </c>
       <c r="H345" t="n">
-        <v>52.34</v>
+        <v>11.3</v>
       </c>
       <c r="I345" t="n">
         <v>104.1</v>
@@ -21164,6 +22198,9 @@
       <c r="R345" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S345" t="n">
+        <v>1.064130993012762</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -21192,7 +22229,7 @@
         <v>113.9</v>
       </c>
       <c r="H346" t="n">
-        <v>62.6</v>
+        <v>17</v>
       </c>
       <c r="I346" t="n">
         <v>103.68</v>
@@ -21224,6 +22261,9 @@
       <c r="R346" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S346" t="n">
+        <v>1.135458907946485</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -21252,7 +22292,7 @@
         <v>120.74</v>
       </c>
       <c r="H347" t="n">
-        <v>82.03999999999999</v>
+        <v>27.8</v>
       </c>
       <c r="I347" t="n">
         <v>102.51</v>
@@ -21284,6 +22324,9 @@
       <c r="R347" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S347" t="n">
+        <v>1.748000534510787</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -21312,7 +22355,7 @@
         <v>127.94</v>
       </c>
       <c r="H348" t="n">
-        <v>53.78</v>
+        <v>12.1</v>
       </c>
       <c r="I348" t="n">
         <v>102.93</v>
@@ -21344,6 +22387,9 @@
       <c r="R348" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S348" t="n">
+        <v>0.5248454744599294</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -21372,7 +22418,7 @@
         <v>130.64</v>
       </c>
       <c r="H349" t="n">
-        <v>81.5</v>
+        <v>27.5</v>
       </c>
       <c r="I349" t="n">
         <v>102.33</v>
@@ -21404,6 +22450,9 @@
       <c r="R349" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S349" t="n">
+        <v>1.256518642411851</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -21432,7 +22481,7 @@
         <v>137.84</v>
       </c>
       <c r="H350" t="n">
-        <v>72.31999999999999</v>
+        <v>22.4</v>
       </c>
       <c r="I350" t="n">
         <v>102.39</v>
@@ -21464,6 +22513,9 @@
       <c r="R350" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S350" t="n">
+        <v>0.7457927781128481</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -21492,7 +22544,7 @@
         <v>146.3</v>
       </c>
       <c r="H351" t="n">
-        <v>87.08000000000001</v>
+        <v>30.6</v>
       </c>
       <c r="I351" t="n">
         <v>101.79</v>
@@ -21524,6 +22576,9 @@
       <c r="R351" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S351" t="n">
+        <v>0.9473362678725266</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -21552,7 +22607,7 @@
         <v>143.24</v>
       </c>
       <c r="H352" t="n">
-        <v>96.62</v>
+        <v>35.9</v>
       </c>
       <c r="I352" t="n">
         <v>101.65</v>
@@ -21584,6 +22639,9 @@
       <c r="R352" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S352" t="n">
+        <v>1.392362523003291</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -21612,7 +22670,7 @@
         <v>160.7</v>
       </c>
       <c r="H353" t="n">
-        <v>108.32</v>
+        <v>42.4</v>
       </c>
       <c r="I353" t="n">
         <v>101.45</v>
@@ -21644,6 +22702,9 @@
       <c r="R353" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S353" t="n">
+        <v>1.222058225720085</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -21672,7 +22733,7 @@
         <v>160.16</v>
       </c>
       <c r="H354" t="n">
-        <v>78.80000000000001</v>
+        <v>26</v>
       </c>
       <c r="I354" t="n">
         <v>101.25</v>
@@ -21704,6 +22765,9 @@
       <c r="R354" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S354" t="n">
+        <v>0.4960713642970366</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -21732,7 +22796,7 @@
         <v>170.42</v>
       </c>
       <c r="H355" t="n">
-        <v>108.68</v>
+        <v>42.6</v>
       </c>
       <c r="I355" t="n">
         <v>101.22</v>
@@ -21764,6 +22828,9 @@
       <c r="R355" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S355" t="n">
+        <v>0.9618336778430426</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -21792,7 +22859,7 @@
         <v>116.6</v>
       </c>
       <c r="H356" t="n">
-        <v>66.2</v>
+        <v>19</v>
       </c>
       <c r="I356" t="n">
         <v>102.68</v>
@@ -21824,6 +22891,9 @@
       <c r="R356" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S356" t="n">
+        <v>1.176582748344738</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -21852,7 +22922,7 @@
         <v>113.18</v>
       </c>
       <c r="H357" t="n">
-        <v>40.28</v>
+        <v>4.6</v>
       </c>
       <c r="I357" t="n">
         <v>103.05</v>
@@ -21884,6 +22954,9 @@
       <c r="R357" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S357" t="n">
+        <v>0.5095780653375521</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -21912,7 +22985,7 @@
         <v>139.1</v>
       </c>
       <c r="H358" t="n">
-        <v>64.03999999999999</v>
+        <v>17.8</v>
       </c>
       <c r="I358" t="n">
         <v>100.85</v>
@@ -21944,6 +23017,9 @@
       <c r="R358" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S358" t="n">
+        <v>0.5404636505983687</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -21972,7 +23048,7 @@
         <v>139.46</v>
       </c>
       <c r="H359" t="n">
-        <v>71.42</v>
+        <v>21.9</v>
       </c>
       <c r="I359" t="n">
         <v>101.13</v>
@@ -22004,6 +23080,9 @@
       <c r="R359" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S359" t="n">
+        <v>0.6896839947660702</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -22032,7 +23111,7 @@
         <v>113.36</v>
       </c>
       <c r="H360" t="n">
-        <v>41.9</v>
+        <v>5.5</v>
       </c>
       <c r="I360" t="n">
         <v>102.86</v>
@@ -22064,6 +23143,9 @@
       <c r="R360" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S360" t="n">
+        <v>0.5392513443336602</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -22092,7 +23174,7 @@
         <v>116.78</v>
       </c>
       <c r="H361" t="n">
-        <v>89.96000000000001</v>
+        <v>32.2</v>
       </c>
       <c r="I361" t="n">
         <v>102.62</v>
@@ -22124,6 +23206,9 @@
       <c r="R361" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S361" t="n">
+        <v>2.563610043308506</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -22152,7 +23237,7 @@
         <v>121.28</v>
       </c>
       <c r="H362" t="n">
-        <v>94.81999999999999</v>
+        <v>34.9</v>
       </c>
       <c r="I362" t="n">
         <v>102.24</v>
@@ -22184,6 +23269,9 @@
       <c r="R362" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S362" t="n">
+        <v>2.573958752054291</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -22212,7 +23300,7 @@
         <v>132.62</v>
       </c>
       <c r="H363" t="n">
-        <v>92.48</v>
+        <v>33.6</v>
       </c>
       <c r="I363" t="n">
         <v>101.49</v>
@@ -22244,6 +23332,9 @@
       <c r="R363" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S363" t="n">
+        <v>1.677517755174028</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -22272,7 +23363,7 @@
         <v>131.72</v>
       </c>
       <c r="H364" t="n">
-        <v>95.36000000000001</v>
+        <v>35.2</v>
       </c>
       <c r="I364" t="n">
         <v>101.18</v>
@@ -22304,6 +23395,9 @@
       <c r="R364" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S364" t="n">
+        <v>1.884939886408175</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -22332,7 +23426,7 @@
         <v>130.82</v>
       </c>
       <c r="H365" t="n">
-        <v>74.48</v>
+        <v>23.6</v>
       </c>
       <c r="I365" t="n">
         <v>101.32</v>
@@ -22364,6 +23458,9 @@
       <c r="R365" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S365" t="n">
+        <v>0.9910320708284031</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -22392,7 +23489,7 @@
         <v>127.58</v>
       </c>
       <c r="H366" t="n">
-        <v>53.42</v>
+        <v>11.9</v>
       </c>
       <c r="I366" t="n">
         <v>102.31</v>
@@ -22424,6 +23521,9 @@
       <c r="R366" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S366" t="n">
+        <v>0.523826028810448</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -22452,7 +23552,7 @@
         <v>121.28</v>
       </c>
       <c r="H367" t="n">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="I367" t="n">
         <v>102.22</v>
@@ -22484,6 +23584,9 @@
       <c r="R367" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S367" t="n">
+        <v>1.455863940707911</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -22512,7 +23615,7 @@
         <v>128.48</v>
       </c>
       <c r="H368" t="n">
-        <v>74.48</v>
+        <v>23.6</v>
       </c>
       <c r="I368" t="n">
         <v>102.13</v>
@@ -22544,6 +23647,9 @@
       <c r="R368" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S368" t="n">
+        <v>1.06534641294342</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -22572,7 +23678,7 @@
         <v>147.92</v>
       </c>
       <c r="H369" t="n">
-        <v>91.22</v>
+        <v>32.9</v>
       </c>
       <c r="I369" t="n">
         <v>102.01</v>
@@ -22604,6 +23710,9 @@
       <c r="R369" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S369" t="n">
+        <v>1.031317033701216</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -22632,7 +23741,7 @@
         <v>150.44</v>
       </c>
       <c r="H370" t="n">
-        <v>88.88</v>
+        <v>31.6</v>
       </c>
       <c r="I370" t="n">
         <v>101.65</v>
@@ -22664,6 +23773,9 @@
       <c r="R370" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S370" t="n">
+        <v>0.8931129615159681</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -22692,7 +23804,7 @@
         <v>151.7</v>
       </c>
       <c r="H371" t="n">
-        <v>92.84</v>
+        <v>33.8</v>
       </c>
       <c r="I371" t="n">
         <v>101.65</v>
@@ -22724,6 +23836,9 @@
       <c r="R371" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S371" t="n">
+        <v>0.9765004384903898</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -22752,7 +23867,7 @@
         <v>155.3</v>
       </c>
       <c r="H372" t="n">
-        <v>96.44</v>
+        <v>35.8</v>
       </c>
       <c r="I372" t="n">
         <v>101.38</v>
@@ -22784,6 +23899,9 @@
       <c r="R372" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S372" t="n">
+        <v>0.9891073428317256</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -22812,7 +23930,7 @@
         <v>114.98</v>
       </c>
       <c r="H373" t="n">
-        <v>107.78</v>
+        <v>42.1</v>
       </c>
       <c r="I373" t="n">
         <v>101.71</v>
@@ -22844,6 +23962,9 @@
       <c r="R373" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S373" t="n">
+        <v>4.675589866887598</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -22872,7 +23993,7 @@
         <v>164.84</v>
       </c>
       <c r="H374" t="n">
-        <v>124.52</v>
+        <v>51.4</v>
       </c>
       <c r="I374" t="n">
         <v>100.49</v>
@@ -22904,6 +24025,9 @@
       <c r="R374" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S374" t="n">
+        <v>1.736557729989376</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -22932,7 +24056,7 @@
         <v>156.74</v>
       </c>
       <c r="H375" t="n">
-        <v>127.04</v>
+        <v>52.8</v>
       </c>
       <c r="I375" t="n">
         <v>100.94</v>
@@ -22964,6 +24088,9 @@
       <c r="R375" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S375" t="n">
+        <v>2.302711240961699</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -22992,7 +24119,7 @@
         <v>141.26</v>
       </c>
       <c r="H376" t="n">
-        <v>91.03999999999999</v>
+        <v>32.8</v>
       </c>
       <c r="I376" t="n">
         <v>100.64</v>
@@ -23024,6 +24151,9 @@
       <c r="R376" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S376" t="n">
+        <v>1.240451602400331</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -23052,7 +24182,7 @@
         <v>170.42</v>
       </c>
       <c r="H377" t="n">
-        <v>122.36</v>
+        <v>50.2</v>
       </c>
       <c r="I377" t="n">
         <v>100.6</v>
@@ -23084,6 +24214,9 @@
       <c r="R377" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S377" t="n">
+        <v>1.419415923677156</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -23112,7 +24245,7 @@
         <v>118.04</v>
       </c>
       <c r="H378" t="n">
-        <v>104.9</v>
+        <v>40.5</v>
       </c>
       <c r="I378" t="n">
         <v>102.57</v>
@@ -23144,6 +24277,9 @@
       <c r="R378" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S378" t="n">
+        <v>3.880228609814603</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -23172,7 +24308,7 @@
         <v>119.12</v>
       </c>
       <c r="H379" t="n">
-        <v>113.18</v>
+        <v>45.1</v>
       </c>
       <c r="I379" t="n">
         <v>102.88</v>
@@ -23204,6 +24340,9 @@
       <c r="R379" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S379" t="n">
+        <v>4.768005105443641</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -23232,7 +24371,7 @@
         <v>128.12</v>
       </c>
       <c r="H380" t="n">
-        <v>106.34</v>
+        <v>41.3</v>
       </c>
       <c r="I380" t="n">
         <v>101.67</v>
@@ -23264,6 +24403,9 @@
       <c r="R380" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S380" t="n">
+        <v>2.931884610753218</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -23292,7 +24434,7 @@
         <v>148.64</v>
       </c>
       <c r="H381" t="n">
-        <v>111.2</v>
+        <v>44</v>
       </c>
       <c r="I381" t="n">
         <v>101.37</v>
@@ -23324,6 +24466,9 @@
       <c r="R381" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S381" t="n">
+        <v>1.843498273521529</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -23352,7 +24497,7 @@
         <v>143.42</v>
       </c>
       <c r="H382" t="n">
-        <v>87.08000000000001</v>
+        <v>30.6</v>
       </c>
       <c r="I382" t="n">
         <v>101.11</v>
@@ -23384,6 +24529,9 @@
       <c r="R382" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S382" t="n">
+        <v>1.028457082545862</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -23412,7 +24560,7 @@
         <v>158.36</v>
       </c>
       <c r="H383" t="n">
-        <v>91.03999999999999</v>
+        <v>32.8</v>
       </c>
       <c r="I383" t="n">
         <v>101.13</v>
@@ -23444,6 +24592,9 @@
       <c r="R383" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S383" t="n">
+        <v>0.7707655431161755</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -23472,7 +24623,7 @@
         <v>169.7</v>
       </c>
       <c r="H384" t="n">
-        <v>101.84</v>
+        <v>38.8</v>
       </c>
       <c r="I384" t="n">
         <v>101.18</v>
@@ -23504,6 +24655,9 @@
       <c r="R384" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S384" t="n">
+        <v>0.799924506268139</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -23532,7 +24686,7 @@
         <v>170.6</v>
       </c>
       <c r="H385" t="n">
-        <v>107.06</v>
+        <v>41.7</v>
       </c>
       <c r="I385" t="n">
         <v>101.05</v>
@@ -23564,6 +24718,9 @@
       <c r="R385" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S385" t="n">
+        <v>0.9131178875414364</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -23592,7 +24749,7 @@
         <v>161.24</v>
       </c>
       <c r="H386" t="n">
-        <v>136.76</v>
+        <v>58.2</v>
       </c>
       <c r="I386" t="n">
         <v>100.88</v>
@@ -23624,6 +24781,9 @@
       <c r="R386" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S386" t="n">
+        <v>2.649772652539938</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -23652,7 +24812,7 @@
         <v>145.94</v>
       </c>
       <c r="H387" t="n">
-        <v>141.26</v>
+        <v>60.7</v>
       </c>
       <c r="I387" t="n">
         <v>100.37</v>
@@ -23684,6 +24844,9 @@
       <c r="R387" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S387" t="n">
+        <v>4.523677731393604</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -23712,7 +24875,7 @@
         <v>152.96</v>
       </c>
       <c r="H388" t="n">
-        <v>108.86</v>
+        <v>42.7</v>
       </c>
       <c r="I388" t="n">
         <v>101.85</v>
@@ -23744,6 +24907,9 @@
       <c r="R388" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S388" t="n">
+        <v>1.528257968912822</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -23772,7 +24938,7 @@
         <v>165.38</v>
       </c>
       <c r="H389" t="n">
-        <v>114.26</v>
+        <v>45.7</v>
       </c>
       <c r="I389" t="n">
         <v>101.56</v>
@@ -23804,6 +24970,9 @@
       <c r="R389" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S389" t="n">
+        <v>1.284568779752582</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -23832,7 +25001,7 @@
         <v>159.08</v>
       </c>
       <c r="H390" t="n">
-        <v>115.7</v>
+        <v>46.5</v>
       </c>
       <c r="I390" t="n">
         <v>100.85</v>
@@ -23864,6 +25033,9 @@
       <c r="R390" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S390" t="n">
+        <v>1.577971675894898</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -23892,7 +25064,7 @@
         <v>184.64</v>
       </c>
       <c r="H391" t="n">
-        <v>132.8</v>
+        <v>56</v>
       </c>
       <c r="I391" t="n">
         <v>100.02</v>
@@ -23924,6 +25096,9 @@
       <c r="R391" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S391" t="n">
+        <v>1.33468901337955</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -23952,7 +25127,7 @@
         <v>165.74</v>
       </c>
       <c r="H392" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="I392" t="n">
         <v>100.66</v>
@@ -23984,6 +25159,9 @@
       <c r="R392" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S392" t="n">
+        <v>2.565518612320909</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -24012,7 +25190,7 @@
         <v>157.46</v>
       </c>
       <c r="H393" t="n">
-        <v>143.42</v>
+        <v>61.9</v>
       </c>
       <c r="I393" t="n">
         <v>101.05</v>
@@ -24044,6 +25222,9 @@
       <c r="R393" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S393" t="n">
+        <v>3.481532719954974</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -24072,7 +25253,7 @@
         <v>173.84</v>
       </c>
       <c r="H394" t="n">
-        <v>139.28</v>
+        <v>59.6</v>
       </c>
       <c r="I394" t="n">
         <v>100.59</v>
@@ -24104,6 +25285,9 @@
       <c r="R394" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S394" t="n">
+        <v>2.05318898630842</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -24132,7 +25316,7 @@
         <v>148.64</v>
       </c>
       <c r="H395" t="n">
-        <v>105.98</v>
+        <v>41.1</v>
       </c>
       <c r="I395" t="n">
         <v>101.46</v>
@@ -24164,6 +25348,9 @@
       <c r="R395" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S395" t="n">
+        <v>1.582756882609178</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -24192,7 +25379,7 @@
         <v>159.62</v>
       </c>
       <c r="H396" t="n">
-        <v>111.02</v>
+        <v>43.9</v>
       </c>
       <c r="I396" t="n">
         <v>100.93</v>
@@ -24224,6 +25411,9 @@
       <c r="R396" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S396" t="n">
+        <v>1.360158799050063</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -24252,7 +25442,7 @@
         <v>149.54</v>
       </c>
       <c r="H397" t="n">
-        <v>146.66</v>
+        <v>63.7</v>
       </c>
       <c r="I397" t="n">
         <v>101.12</v>
@@ -24284,6 +25474,9 @@
       <c r="R397" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S397" t="n">
+        <v>4.693864477856813</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -24312,7 +25505,7 @@
         <v>147.2</v>
       </c>
       <c r="H398" t="n">
-        <v>145.58</v>
+        <v>63.1</v>
       </c>
       <c r="I398" t="n">
         <v>101.23</v>
@@ -24344,6 +25537,9 @@
       <c r="R398" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S398" t="n">
+        <v>4.876423603690943</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -24372,7 +25568,7 @@
         <v>155.3</v>
       </c>
       <c r="H399" t="n">
-        <v>145.58</v>
+        <v>63.1</v>
       </c>
       <c r="I399" t="n">
         <v>101.19</v>
@@ -24404,6 +25600,9 @@
       <c r="R399" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S399" t="n">
+        <v>3.899057087642571</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -24432,7 +25631,7 @@
         <v>170.42</v>
       </c>
       <c r="H400" t="n">
-        <v>146.84</v>
+        <v>63.8</v>
       </c>
       <c r="I400" t="n">
         <v>100.82</v>
@@ -24464,6 +25663,9 @@
       <c r="R400" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S400" t="n">
+        <v>2.714460110349434</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -24492,7 +25694,7 @@
         <v>175.82</v>
       </c>
       <c r="H401" t="n">
-        <v>133.88</v>
+        <v>56.6</v>
       </c>
       <c r="I401" t="n">
         <v>100.34</v>
@@ -24524,6 +25726,9 @@
       <c r="R401" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S401" t="n">
+        <v>1.696903677108911</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -24552,7 +25757,7 @@
         <v>160.34</v>
       </c>
       <c r="H402" t="n">
-        <v>125.06</v>
+        <v>51.7</v>
       </c>
       <c r="I402" t="n">
         <v>101.07</v>
@@ -24584,6 +25789,9 @@
       <c r="R402" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S402" t="n">
+        <v>1.982077264149572</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -24612,7 +25820,7 @@
         <v>175.64</v>
       </c>
       <c r="H403" t="n">
-        <v>117.14</v>
+        <v>47.3</v>
       </c>
       <c r="I403" t="n">
         <v>101.23</v>
@@ -24644,6 +25852,9 @@
       <c r="R403" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S403" t="n">
+        <v>1.077552268457351</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -24672,7 +25883,7 @@
         <v>165.2</v>
       </c>
       <c r="H404" t="n">
-        <v>136.22</v>
+        <v>57.9</v>
       </c>
       <c r="I404" t="n">
         <v>101.12</v>
@@ -24704,6 +25915,9 @@
       <c r="R404" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S404" t="n">
+        <v>2.356731586341063</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -24732,7 +25946,7 @@
         <v>177.8</v>
       </c>
       <c r="H405" t="n">
-        <v>134.24</v>
+        <v>56.8</v>
       </c>
       <c r="I405" t="n">
         <v>100.88</v>
@@ -24764,6 +25978,9 @@
       <c r="R405" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S405" t="n">
+        <v>1.632528228864958</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -24792,7 +26009,7 @@
         <v>188.24</v>
       </c>
       <c r="H406" t="n">
-        <v>108.14</v>
+        <v>42.3</v>
       </c>
       <c r="I406" t="n">
         <v>100.3</v>
@@ -24824,6 +26041,9 @@
       <c r="R406" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S406" t="n">
+        <v>0.6164694244614235</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -24852,7 +26072,7 @@
         <v>181.94</v>
       </c>
       <c r="H407" t="n">
-        <v>112.64</v>
+        <v>44.8</v>
       </c>
       <c r="I407" t="n">
         <v>99.94</v>
@@ -24884,6 +26104,9 @@
       <c r="R407" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S407" t="n">
+        <v>0.8141398531698776</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -24912,7 +26135,7 @@
         <v>182.12</v>
       </c>
       <c r="H408" t="n">
-        <v>117.32</v>
+        <v>47.4</v>
       </c>
       <c r="I408" t="n">
         <v>100.18</v>
@@ -24944,6 +26167,9 @@
       <c r="R408" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S408" t="n">
+        <v>0.9263426756965678</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -24972,7 +26198,7 @@
         <v>160.16</v>
       </c>
       <c r="H409" t="n">
-        <v>138.2</v>
+        <v>59</v>
       </c>
       <c r="I409" t="n">
         <v>100.62</v>
@@ -25004,6 +26230,9 @@
       <c r="R409" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S409" t="n">
+        <v>2.831006357745232</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -25032,7 +26261,7 @@
         <v>178.16</v>
       </c>
       <c r="H410" t="n">
-        <v>131.18</v>
+        <v>55.1</v>
       </c>
       <c r="I410" t="n">
         <v>100.47</v>
@@ -25064,6 +26293,9 @@
       <c r="R410" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S410" t="n">
+        <v>1.491584328702796</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -25092,7 +26324,7 @@
         <v>194.9</v>
       </c>
       <c r="H411" t="n">
-        <v>127.4</v>
+        <v>53</v>
       </c>
       <c r="I411" t="n">
         <v>100.59</v>
@@ -25124,6 +26356,9 @@
       <c r="R411" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S411" t="n">
+        <v>0.9122396005974034</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -25152,7 +26387,7 @@
         <v>191.12</v>
       </c>
       <c r="H412" t="n">
-        <v>137.84</v>
+        <v>58.8</v>
       </c>
       <c r="I412" t="n">
         <v>100.77</v>
@@ -25184,6 +26419,9 @@
       <c r="R412" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S412" t="n">
+        <v>1.312490009194548</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -25212,7 +26450,7 @@
         <v>178.52</v>
       </c>
       <c r="H413" t="n">
-        <v>145.76</v>
+        <v>63.2</v>
       </c>
       <c r="I413" t="n">
         <v>100.67</v>
@@ -25244,6 +26482,9 @@
       <c r="R413" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S413" t="n">
+        <v>2.163417114886958</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -25272,7 +26513,7 @@
         <v>184.28</v>
       </c>
       <c r="H414" t="n">
-        <v>146.3</v>
+        <v>63.5</v>
       </c>
       <c r="I414" t="n">
         <v>100.34</v>
@@ -25304,6 +26545,9 @@
       <c r="R414" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S414" t="n">
+        <v>1.91194072369877</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -25332,7 +26576,7 @@
         <v>191.12</v>
       </c>
       <c r="H415" t="n">
-        <v>155.84</v>
+        <v>68.8</v>
       </c>
       <c r="I415" t="n">
         <v>100.33</v>
@@ -25364,6 +26608,9 @@
       <c r="R415" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S415" t="n">
+        <v>2.070261123262446</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -25392,7 +26639,7 @@
         <v>190.94</v>
       </c>
       <c r="H416" t="n">
-        <v>158.54</v>
+        <v>70.3</v>
       </c>
       <c r="I416" t="n">
         <v>100.41</v>
@@ -25424,6 +26671,9 @@
       <c r="R416" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S416" t="n">
+        <v>2.220280358134101</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -25452,7 +26702,7 @@
         <v>168.08</v>
       </c>
       <c r="H417" t="n">
-        <v>151.16</v>
+        <v>66.2</v>
       </c>
       <c r="I417" t="n">
         <v>99.8</v>
@@ -25484,6 +26734,9 @@
       <c r="R417" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S417" t="n">
+        <v>3.209757750899799</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -25512,7 +26765,7 @@
         <v>197.78</v>
       </c>
       <c r="H418" t="n">
-        <v>139.82</v>
+        <v>59.9</v>
       </c>
       <c r="I418" t="n">
         <v>99.53</v>
@@ -25544,6 +26797,9 @@
       <c r="R418" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S418" t="n">
+        <v>1.190194738314234</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -25572,7 +26828,7 @@
         <v>196.16</v>
       </c>
       <c r="H419" t="n">
-        <v>152.06</v>
+        <v>66.7</v>
       </c>
       <c r="I419" t="n">
         <v>99.46000000000001</v>
@@ -25604,6 +26860,9 @@
       <c r="R419" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S419" t="n">
+        <v>1.683575333242322</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -25632,7 +26891,7 @@
         <v>189.5</v>
       </c>
       <c r="H420" t="n">
-        <v>151.88</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="I420" t="n">
         <v>99.86</v>
@@ -25664,6 +26923,9 @@
       <c r="R420" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S420" t="n">
+        <v>1.94832587971621</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -25692,7 +26954,7 @@
         <v>196.88</v>
       </c>
       <c r="H421" t="n">
-        <v>152.96</v>
+        <v>67.2</v>
       </c>
       <c r="I421" t="n">
         <v>99.97999999999999</v>
@@ -25724,6 +26986,9 @@
       <c r="R421" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S421" t="n">
+        <v>1.694251468447761</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -25752,7 +27017,7 @@
         <v>192.92</v>
       </c>
       <c r="H422" t="n">
-        <v>164.12</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="I422" t="n">
         <v>100.21</v>
@@ -25784,6 +27049,9 @@
       <c r="R422" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S422" t="n">
+        <v>2.427420536172175</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -25812,7 +27080,7 @@
         <v>177.62</v>
       </c>
       <c r="H423" t="n">
-        <v>168.8</v>
+        <v>76</v>
       </c>
       <c r="I423" t="n">
         <v>99.95</v>
@@ -25844,6 +27112,9 @@
       <c r="R423" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S423" t="n">
+        <v>3.878737855379366</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -25872,7 +27143,7 @@
         <v>178.52</v>
       </c>
       <c r="H424" t="n">
-        <v>144.68</v>
+        <v>62.6</v>
       </c>
       <c r="I424" t="n">
         <v>100.34</v>
@@ -25904,6 +27175,9 @@
       <c r="R424" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S424" t="n">
+        <v>2.104736808627174</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -25932,7 +27206,7 @@
         <v>183.74</v>
       </c>
       <c r="H425" t="n">
-        <v>141.08</v>
+        <v>60.6</v>
       </c>
       <c r="I425" t="n">
         <v>100.78</v>
@@ -25964,6 +27238,9 @@
       <c r="R425" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S425" t="n">
+        <v>1.694145499397036</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -25992,7 +27269,7 @@
         <v>184.46</v>
       </c>
       <c r="H426" t="n">
-        <v>152.24</v>
+        <v>66.8</v>
       </c>
       <c r="I426" t="n">
         <v>100.99</v>
@@ -26024,6 +27301,9 @@
       <c r="R426" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S426" t="n">
+        <v>2.209878341171298</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -26052,7 +27332,7 @@
         <v>190.58</v>
       </c>
       <c r="H427" t="n">
-        <v>159.44</v>
+        <v>70.8</v>
       </c>
       <c r="I427" t="n">
         <v>100.87</v>
@@ -26084,6 +27364,9 @@
       <c r="R427" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S427" t="n">
+        <v>2.287958204565321</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -26112,7 +27395,7 @@
         <v>172.94</v>
       </c>
       <c r="H428" t="n">
-        <v>163.4</v>
+        <v>73</v>
       </c>
       <c r="I428" t="n">
         <v>100.59</v>
@@ -26144,6 +27427,9 @@
       <c r="R428" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S428" t="n">
+        <v>3.829306822799065</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -26172,7 +27458,7 @@
         <v>176</v>
       </c>
       <c r="H429" t="n">
-        <v>163.94</v>
+        <v>73.3</v>
       </c>
       <c r="I429" t="n">
         <v>100.51</v>
@@ -26204,6 +27490,9 @@
       <c r="R429" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S429" t="n">
+        <v>3.597329790983748</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -26232,7 +27521,7 @@
         <v>188.96</v>
       </c>
       <c r="H430" t="n">
-        <v>157.46</v>
+        <v>69.7</v>
       </c>
       <c r="I430" t="n">
         <v>100.59</v>
@@ -26264,6 +27553,9 @@
       <c r="R430" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S430" t="n">
+        <v>2.26304423619042</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -26292,7 +27584,7 @@
         <v>182.12</v>
       </c>
       <c r="H431" t="n">
-        <v>160.88</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="I431" t="n">
         <v>100.9</v>
@@ -26324,6 +27616,9 @@
       <c r="R431" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S431" t="n">
+        <v>2.884748572062479</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -26352,7 +27647,7 @@
         <v>181.94</v>
       </c>
       <c r="H432" t="n">
-        <v>161.42</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="I432" t="n">
         <v>101.01</v>
@@ -26384,6 +27679,9 @@
       <c r="R432" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S432" t="n">
+        <v>2.934986813900284</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -26412,7 +27710,7 @@
         <v>185.36</v>
       </c>
       <c r="H433" t="n">
-        <v>162.86</v>
+        <v>72.7</v>
       </c>
       <c r="I433" t="n">
         <v>100.85</v>
@@ -26444,6 +27742,9 @@
       <c r="R433" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S433" t="n">
+        <v>2.80265409719488</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -26472,7 +27773,7 @@
         <v>177.44</v>
       </c>
       <c r="H434" t="n">
-        <v>166.64</v>
+        <v>74.8</v>
       </c>
       <c r="I434" t="n">
         <v>100.82</v>
@@ -26504,6 +27805,9 @@
       <c r="R434" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S434" t="n">
+        <v>3.70287135182509</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -26532,7 +27836,7 @@
         <v>171.14</v>
       </c>
       <c r="H435" t="n">
-        <v>169.34</v>
+        <v>76.3</v>
       </c>
       <c r="I435" t="n">
         <v>100.48</v>
@@ -26564,6 +27868,9 @@
       <c r="R435" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S435" t="n">
+        <v>4.608104304129987</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -26592,7 +27899,7 @@
         <v>178.52</v>
       </c>
       <c r="H436" t="n">
-        <v>170.42</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="I436" t="n">
         <v>100.39</v>
@@ -26624,6 +27931,9 @@
       <c r="R436" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S436" t="n">
+        <v>3.941450588185782</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -26652,7 +27962,7 @@
         <v>184.64</v>
       </c>
       <c r="H437" t="n">
-        <v>163.04</v>
+        <v>72.8</v>
       </c>
       <c r="I437" t="n">
         <v>100.8</v>
@@ -26684,6 +27994,9 @@
       <c r="R437" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S437" t="n">
+        <v>2.86263034736597</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -26712,7 +28025,7 @@
         <v>188.78</v>
       </c>
       <c r="H438" t="n">
-        <v>166.82</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="I438" t="n">
         <v>100.56</v>
@@ -26744,6 +28057,9 @@
       <c r="R438" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S438" t="n">
+        <v>2.844004308228941</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -26772,7 +28088,7 @@
         <v>193.46</v>
       </c>
       <c r="H439" t="n">
-        <v>169.16</v>
+        <v>76.2</v>
       </c>
       <c r="I439" t="n">
         <v>100.19</v>
@@ -26804,6 +28120,9 @@
       <c r="R439" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S439" t="n">
+        <v>2.70082747568603</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -26832,7 +28151,7 @@
         <v>193.46</v>
       </c>
       <c r="H440" t="n">
-        <v>169.52</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="I440" t="n">
         <v>100.1</v>
@@ -26864,6 +28183,9 @@
       <c r="R440" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S440" t="n">
+        <v>2.72364843313564</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -26892,7 +28214,7 @@
         <v>171.14</v>
       </c>
       <c r="H441" t="n">
-        <v>154.4</v>
+        <v>68</v>
       </c>
       <c r="I441" t="n">
         <v>100.35</v>
@@ -26924,6 +28246,9 @@
       <c r="R441" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S441" t="n">
+        <v>3.219823409074354</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -26952,7 +28277,7 @@
         <v>178.52</v>
       </c>
       <c r="H442" t="n">
-        <v>157.64</v>
+        <v>69.8</v>
       </c>
       <c r="I442" t="n">
         <v>100.74</v>
@@ -26984,6 +28309,9 @@
       <c r="R442" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S442" t="n">
+        <v>2.907290335295879</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -27012,7 +28340,7 @@
         <v>166.64</v>
       </c>
       <c r="H443" t="n">
-        <v>164.12</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="I443" t="n">
         <v>100.23</v>
@@ -27044,6 +28372,9 @@
       <c r="R443" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S443" t="n">
+        <v>4.565593083585948</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -27072,7 +28403,7 @@
         <v>179.42</v>
       </c>
       <c r="H444" t="n">
-        <v>160.7</v>
+        <v>71.5</v>
       </c>
       <c r="I444" t="n">
         <v>100.45</v>
@@ -27104,6 +28435,9 @@
       <c r="R444" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S444" t="n">
+        <v>3.063755328976708</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -27132,7 +28466,7 @@
         <v>181.58</v>
       </c>
       <c r="H445" t="n">
-        <v>153.86</v>
+        <v>67.7</v>
       </c>
       <c r="I445" t="n">
         <v>100.66</v>
@@ -27164,6 +28498,9 @@
       <c r="R445" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S445" t="n">
+        <v>2.462446544451603</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -27192,7 +28529,7 @@
         <v>180.32</v>
       </c>
       <c r="H446" t="n">
-        <v>164.12</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="I446" t="n">
         <v>100.52</v>
@@ -27224,6 +28561,9 @@
       <c r="R446" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S446" t="n">
+        <v>3.254152868546408</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -27252,7 +28592,7 @@
         <v>178.88</v>
       </c>
       <c r="H447" t="n">
-        <v>171.32</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I447" t="n">
         <v>100.72</v>
@@ -27284,6 +28624,9 @@
       <c r="R447" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S447" t="n">
+        <v>3.989967637053113</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -27312,7 +28655,7 @@
         <v>179.06</v>
       </c>
       <c r="H448" t="n">
-        <v>167.36</v>
+        <v>75.2</v>
       </c>
       <c r="I448" t="n">
         <v>100.93</v>
@@ -27344,6 +28687,9 @@
       <c r="R448" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S448" t="n">
+        <v>3.621496948313408</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -27372,7 +28718,7 @@
         <v>171.5</v>
       </c>
       <c r="H449" t="n">
-        <v>162.5</v>
+        <v>72.5</v>
       </c>
       <c r="I449" t="n">
         <v>100.32</v>
@@ -27404,6 +28750,9 @@
       <c r="R449" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S449" t="n">
+        <v>3.884616528259256</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -27432,7 +28781,7 @@
         <v>175.28</v>
       </c>
       <c r="H450" t="n">
-        <v>155.3</v>
+        <v>68.5</v>
       </c>
       <c r="I450" t="n">
         <v>100.56</v>
@@ -27464,6 +28813,9 @@
       <c r="R450" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S450" t="n">
+        <v>2.970940024840739</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -27492,7 +28844,7 @@
         <v>161.06</v>
       </c>
       <c r="H451" t="n">
-        <v>152.6</v>
+        <v>67</v>
       </c>
       <c r="I451" t="n">
         <v>101.09</v>
@@ -27524,6 +28876,9 @@
       <c r="R451" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S451" t="n">
+        <v>3.988398283610076</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -27552,7 +28907,7 @@
         <v>150.62</v>
       </c>
       <c r="H452" t="n">
-        <v>147.2</v>
+        <v>64</v>
       </c>
       <c r="I452" t="n">
         <v>101.02</v>
@@ -27584,6 +28939,9 @@
       <c r="R452" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S452" t="n">
+        <v>4.617818932627666</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -27612,7 +28970,7 @@
         <v>158.72</v>
       </c>
       <c r="H453" t="n">
-        <v>149.72</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="I453" t="n">
         <v>100.81</v>
@@ -27644,6 +29002,9 @@
       <c r="R453" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S453" t="n">
+        <v>3.949100256955117</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -27672,7 +29033,7 @@
         <v>164.66</v>
       </c>
       <c r="H454" t="n">
-        <v>145.22</v>
+        <v>62.9</v>
       </c>
       <c r="I454" t="n">
         <v>101.21</v>
@@ -27704,6 +29065,9 @@
       <c r="R454" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S454" t="n">
+        <v>3.016688489876007</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -27732,7 +29096,7 @@
         <v>174.2</v>
       </c>
       <c r="H455" t="n">
-        <v>156.02</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="I455" t="n">
         <v>101.38</v>
@@ -27764,6 +29128,9 @@
       <c r="R455" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S455" t="n">
+        <v>3.105270652268475</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -27792,7 +29159,7 @@
         <v>176.54</v>
       </c>
       <c r="H456" t="n">
-        <v>156.74</v>
+        <v>69.3</v>
       </c>
       <c r="I456" t="n">
         <v>101.1</v>
@@ -27824,6 +29191,9 @@
       <c r="R456" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S456" t="n">
+        <v>2.984190522041699</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -27852,7 +29222,7 @@
         <v>179.78</v>
       </c>
       <c r="H457" t="n">
-        <v>156.56</v>
+        <v>69.2</v>
       </c>
       <c r="I457" t="n">
         <v>101.26</v>
@@ -27884,6 +29254,9 @@
       <c r="R457" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S457" t="n">
+        <v>2.747032792200806</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -27912,7 +29285,7 @@
         <v>169.34</v>
       </c>
       <c r="H458" t="n">
-        <v>150.26</v>
+        <v>65.7</v>
       </c>
       <c r="I458" t="n">
         <v>101.49</v>
@@ -27944,6 +29317,9 @@
       <c r="R458" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S458" t="n">
+        <v>3.039897162019024</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -27972,7 +29348,7 @@
         <v>175.46</v>
       </c>
       <c r="H459" t="n">
-        <v>153.14</v>
+        <v>67.3</v>
       </c>
       <c r="I459" t="n">
         <v>101.25</v>
@@ -28004,6 +29380,9 @@
       <c r="R459" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S459" t="n">
+        <v>2.804482274311354</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -28032,7 +29411,7 @@
         <v>173.84</v>
       </c>
       <c r="H460" t="n">
-        <v>156.74</v>
+        <v>69.3</v>
       </c>
       <c r="I460" t="n">
         <v>101.03</v>
@@ -28064,6 +29443,9 @@
       <c r="R460" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S460" t="n">
+        <v>3.188653666240392</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -28092,7 +29474,7 @@
         <v>173.84</v>
       </c>
       <c r="H461" t="n">
-        <v>154.58</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="I461" t="n">
         <v>100.98</v>
@@ -28124,6 +29506,9 @@
       <c r="R461" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S461" t="n">
+        <v>3.024137792549388</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -28152,7 +29537,7 @@
         <v>167.72</v>
       </c>
       <c r="H462" t="n">
-        <v>125.6</v>
+        <v>52</v>
       </c>
       <c r="I462" t="n">
         <v>101.38</v>
@@ -28184,6 +29569,9 @@
       <c r="R462" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S462" t="n">
+        <v>1.661521485673785</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -28212,7 +29600,7 @@
         <v>176.18</v>
       </c>
       <c r="H463" t="n">
-        <v>145.76</v>
+        <v>63.2</v>
       </c>
       <c r="I463" t="n">
         <v>100.96</v>
@@ -28244,6 +29632,9 @@
       <c r="R463" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S463" t="n">
+        <v>2.289961464331955</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -28272,7 +29663,7 @@
         <v>149.54</v>
       </c>
       <c r="H464" t="n">
-        <v>142.34</v>
+        <v>61.3</v>
       </c>
       <c r="I464" t="n">
         <v>101.58</v>
@@ -28304,6 +29695,9 @@
       <c r="R464" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S464" t="n">
+        <v>4.203732053726633</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -28332,7 +29726,7 @@
         <v>161.96</v>
       </c>
       <c r="H465" t="n">
-        <v>135.32</v>
+        <v>57.4</v>
       </c>
       <c r="I465" t="n">
         <v>101.76</v>
@@ -28364,6 +29758,9 @@
       <c r="R465" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S465" t="n">
+        <v>2.50347531391147</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -28392,7 +29789,7 @@
         <v>158.54</v>
       </c>
       <c r="H466" t="n">
-        <v>121.82</v>
+        <v>49.9</v>
       </c>
       <c r="I466" t="n">
         <v>101.71</v>
@@ -28424,6 +29821,9 @@
       <c r="R466" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S466" t="n">
+        <v>1.901089743505266</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -28452,7 +29852,7 @@
         <v>152.06</v>
       </c>
       <c r="H467" t="n">
-        <v>129.2</v>
+        <v>54</v>
       </c>
       <c r="I467" t="n">
         <v>101.72</v>
@@ -28484,6 +29884,9 @@
       <c r="R467" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S467" t="n">
+        <v>2.772776082706752</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -28512,7 +29915,7 @@
         <v>148.1</v>
       </c>
       <c r="H468" t="n">
-        <v>117.14</v>
+        <v>47.3</v>
       </c>
       <c r="I468" t="n">
         <v>102.16</v>
@@ -28544,6 +29947,9 @@
       <c r="R468" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S468" t="n">
+        <v>2.218045320853764</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -28572,7 +29978,7 @@
         <v>148.82</v>
       </c>
       <c r="H469" t="n">
-        <v>111.2</v>
+        <v>44</v>
       </c>
       <c r="I469" t="n">
         <v>102.44</v>
@@ -28604,6 +30010,9 @@
       <c r="R469" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S469" t="n">
+        <v>1.834241141265975</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -28632,7 +30041,7 @@
         <v>141.8</v>
       </c>
       <c r="H470" t="n">
-        <v>116.96</v>
+        <v>47.2</v>
       </c>
       <c r="I470" t="n">
         <v>102.6</v>
@@ -28664,6 +30073,9 @@
       <c r="R470" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S470" t="n">
+        <v>2.641084251827307</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -28692,7 +30104,7 @@
         <v>144.86</v>
       </c>
       <c r="H471" t="n">
-        <v>120.2</v>
+        <v>49</v>
       </c>
       <c r="I471" t="n">
         <v>102.67</v>
@@ -28724,6 +30136,9 @@
       <c r="R471" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S471" t="n">
+        <v>2.649270957507045</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -28752,7 +30167,7 @@
         <v>149.54</v>
       </c>
       <c r="H472" t="n">
-        <v>111.38</v>
+        <v>44.1</v>
       </c>
       <c r="I472" t="n">
         <v>101.39</v>
@@ -28784,6 +30199,9 @@
       <c r="R472" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S472" t="n">
+        <v>1.807137324123797</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -28812,7 +30230,7 @@
         <v>145.4</v>
       </c>
       <c r="H473" t="n">
-        <v>117.14</v>
+        <v>47.3</v>
       </c>
       <c r="I473" t="n">
         <v>101.99</v>
@@ -28844,6 +30262,9 @@
       <c r="R473" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S473" t="n">
+        <v>2.393861425912646</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -28872,7 +30293,7 @@
         <v>156.74</v>
       </c>
       <c r="H474" t="n">
-        <v>125.06</v>
+        <v>51.7</v>
       </c>
       <c r="I474" t="n">
         <v>101.72</v>
@@ -28904,6 +30325,9 @@
       <c r="R474" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S474" t="n">
+        <v>2.181421868594748</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -28932,7 +30356,7 @@
         <v>150.26</v>
       </c>
       <c r="H475" t="n">
-        <v>101.12</v>
+        <v>38.4</v>
       </c>
       <c r="I475" t="n">
         <v>102.1</v>
@@ -28964,6 +30388,9 @@
       <c r="R475" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S475" t="n">
+        <v>1.30895126161044</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -28992,7 +30419,7 @@
         <v>156.92</v>
       </c>
       <c r="H476" t="n">
-        <v>109.76</v>
+        <v>43.2</v>
       </c>
       <c r="I476" t="n">
         <v>101.7</v>
@@ -29024,6 +30451,9 @@
       <c r="R476" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S476" t="n">
+        <v>1.409194692862135</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -29052,7 +30482,7 @@
         <v>148.28</v>
       </c>
       <c r="H477" t="n">
-        <v>103.46</v>
+        <v>39.7</v>
       </c>
       <c r="I477" t="n">
         <v>101.98</v>
@@ -29084,6 +30514,9 @@
       <c r="R477" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S477" t="n">
+        <v>1.483662089912459</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -29112,7 +30545,7 @@
         <v>163.22</v>
       </c>
       <c r="H478" t="n">
-        <v>121.46</v>
+        <v>49.7</v>
       </c>
       <c r="I478" t="n">
         <v>101.66</v>
@@ -29144,6 +30577,9 @@
       <c r="R478" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S478" t="n">
+        <v>1.664091073859629</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -29172,7 +30608,7 @@
         <v>174.2</v>
       </c>
       <c r="H479" t="n">
-        <v>122.9</v>
+        <v>50.5</v>
       </c>
       <c r="I479" t="n">
         <v>101.28</v>
@@ -29204,6 +30640,9 @@
       <c r="R479" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S479" t="n">
+        <v>1.311439328659879</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -29232,7 +30671,7 @@
         <v>168.8</v>
       </c>
       <c r="H480" t="n">
-        <v>126.5</v>
+        <v>52.5</v>
       </c>
       <c r="I480" t="n">
         <v>101.03</v>
@@ -29264,6 +30703,9 @@
       <c r="R480" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S480" t="n">
+        <v>1.656855673996947</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -29292,7 +30734,7 @@
         <v>134.06</v>
       </c>
       <c r="H481" t="n">
-        <v>113.54</v>
+        <v>45.3</v>
       </c>
       <c r="I481" t="n">
         <v>101.94</v>
@@ -29324,6 +30766,9 @@
       <c r="R481" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S481" t="n">
+        <v>3.012404959202802</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -29352,7 +30797,7 @@
         <v>114.98</v>
       </c>
       <c r="H482" t="n">
-        <v>71.78</v>
+        <v>22.1</v>
       </c>
       <c r="I482" t="n">
         <v>102.1</v>
@@ -29384,6 +30829,9 @@
       <c r="R482" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S482" t="n">
+        <v>1.503688850006468</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -29412,7 +30860,7 @@
         <v>111.74</v>
       </c>
       <c r="H483" t="n">
-        <v>69.98</v>
+        <v>21.1</v>
       </c>
       <c r="I483" t="n">
         <v>102.88</v>
@@ -29444,6 +30892,9 @@
       <c r="R483" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S483" t="n">
+        <v>1.578014720153615</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -29472,7 +30923,7 @@
         <v>89.59999999999999</v>
       </c>
       <c r="H484" t="n">
-        <v>81.5</v>
+        <v>27.5</v>
       </c>
       <c r="I484" t="n">
         <v>103.63</v>
@@ -29504,6 +30955,9 @@
       <c r="R484" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S484" t="n">
+        <v>5.182192610635891</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -29532,7 +30986,7 @@
         <v>97.52</v>
       </c>
       <c r="H485" t="n">
-        <v>65.30000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="I485" t="n">
         <v>103.28</v>
@@ -29564,6 +31018,9 @@
       <c r="R485" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S485" t="n">
+        <v>2.225203337663301</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -29592,7 +31049,7 @@
         <v>103.28</v>
       </c>
       <c r="H486" t="n">
-        <v>56.3</v>
+        <v>13.5</v>
       </c>
       <c r="I486" t="n">
         <v>102.77</v>
@@ -29624,6 +31081,9 @@
       <c r="R486" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S486" t="n">
+        <v>1.310987325840221</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -29652,7 +31112,7 @@
         <v>126.68</v>
       </c>
       <c r="H487" t="n">
-        <v>78.08000000000001</v>
+        <v>25.6</v>
       </c>
       <c r="I487" t="n">
         <v>101.88</v>
@@ -29684,6 +31144,9 @@
       <c r="R487" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S487" t="n">
+        <v>1.270317685735232</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -29712,7 +31175,7 @@
         <v>140.36</v>
       </c>
       <c r="H488" t="n">
-        <v>94.46000000000001</v>
+        <v>34.7</v>
       </c>
       <c r="I488" t="n">
         <v>101.99</v>
@@ -29744,6 +31207,9 @@
       <c r="R488" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S488" t="n">
+        <v>1.416299931948698</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -29772,7 +31238,7 @@
         <v>147.74</v>
       </c>
       <c r="H489" t="n">
-        <v>107.24</v>
+        <v>41.8</v>
       </c>
       <c r="I489" t="n">
         <v>101.36</v>
@@ -29804,6 +31270,9 @@
       <c r="R489" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S489" t="n">
+        <v>1.684555715238032</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -29832,7 +31301,7 @@
         <v>92.66</v>
       </c>
       <c r="H490" t="n">
-        <v>43.88</v>
+        <v>6.6</v>
       </c>
       <c r="I490" t="n">
         <v>103.61</v>
@@ -29864,6 +31333,9 @@
       <c r="R490" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S490" t="n">
+        <v>1.222463134753253</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -29892,7 +31364,7 @@
         <v>105.08</v>
       </c>
       <c r="H491" t="n">
-        <v>75.56</v>
+        <v>24.2</v>
       </c>
       <c r="I491" t="n">
         <v>102.98</v>
@@ -29924,6 +31396,9 @@
       <c r="R491" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S491" t="n">
+        <v>2.400994601913706</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -29952,7 +31427,7 @@
         <v>100.94</v>
       </c>
       <c r="H492" t="n">
-        <v>45.68</v>
+        <v>7.6</v>
       </c>
       <c r="I492" t="n">
         <v>103.1</v>
@@ -29984,6 +31459,9 @@
       <c r="R492" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S492" t="n">
+        <v>0.9624204978895677</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -30012,7 +31490,7 @@
         <v>107.96</v>
       </c>
       <c r="H493" t="n">
-        <v>51.44</v>
+        <v>10.8</v>
       </c>
       <c r="I493" t="n">
         <v>102.76</v>
@@ -30044,6 +31522,9 @@
       <c r="R493" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S493" t="n">
+        <v>0.9303546955895038</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -30072,7 +31553,7 @@
         <v>110.66</v>
       </c>
       <c r="H494" t="n">
-        <v>62.96</v>
+        <v>17.2</v>
       </c>
       <c r="I494" t="n">
         <v>102.31</v>
@@ -30104,6 +31585,9 @@
       <c r="R494" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S494" t="n">
+        <v>1.283824285233541</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -30132,7 +31616,7 @@
         <v>114.44</v>
       </c>
       <c r="H495" t="n">
-        <v>76.46000000000001</v>
+        <v>24.7</v>
       </c>
       <c r="I495" t="n">
         <v>101.65</v>
@@ -30164,6 +31648,9 @@
       <c r="R495" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S495" t="n">
+        <v>1.791535157370748</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -30192,7 +31679,7 @@
         <v>130.46</v>
       </c>
       <c r="H496" t="n">
-        <v>87.08000000000001</v>
+        <v>30.6</v>
       </c>
       <c r="I496" t="n">
         <v>101.42</v>
@@ -30224,6 +31711,9 @@
       <c r="R496" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S496" t="n">
+        <v>1.512016439412992</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -30252,7 +31742,7 @@
         <v>138.02</v>
       </c>
       <c r="H497" t="n">
-        <v>70.52</v>
+        <v>21.4</v>
       </c>
       <c r="I497" t="n">
         <v>100.79</v>
@@ -30284,6 +31774,9 @@
       <c r="R497" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S497" t="n">
+        <v>0.6978745968077739</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -30312,7 +31805,7 @@
         <v>148.82</v>
       </c>
       <c r="H498" t="n">
-        <v>84.2</v>
+        <v>29</v>
       </c>
       <c r="I498" t="n">
         <v>100.85</v>
@@ -30344,6 +31837,9 @@
       <c r="R498" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S498" t="n">
+        <v>0.8047928630376046</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
@@ -30372,7 +31868,7 @@
         <v>95.18000000000001</v>
       </c>
       <c r="H499" t="n">
-        <v>75.38</v>
+        <v>24.1</v>
       </c>
       <c r="I499" t="n">
         <v>102.87</v>
@@ -30404,6 +31900,9 @@
       <c r="R499" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S499" t="n">
+        <v>3.423580583058578</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
@@ -30432,7 +31931,7 @@
         <v>91.03999999999999</v>
       </c>
       <c r="H500" t="n">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="I500" t="n">
         <v>102.68</v>
@@ -30464,6 +31963,9 @@
       <c r="R500" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S500" t="n">
+        <v>5.667541418361999</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
@@ -30492,7 +31994,7 @@
         <v>90.86000000000001</v>
       </c>
       <c r="H501" t="n">
-        <v>88.7</v>
+        <v>31.5</v>
       </c>
       <c r="I501" t="n">
         <v>102.4</v>
@@ -30524,6 +32026,9 @@
       <c r="R501" t="n">
         <v>0.06095999999999999</v>
       </c>
+      <c r="S501" t="n">
+        <v>6.218253016915961</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
@@ -30552,7 +32057,7 @@
         <v>71.59999999999999</v>
       </c>
       <c r="H502" t="n">
-        <v>65.66</v>
+        <v>18.7</v>
       </c>
       <c r="I502" t="n">
         <v>103.13</v>
@@ -30584,6 +32089,9 @@
       <c r="R502" t="n">
         <v>0.06095999999999999</v>
       </c>
+      <c r="S502" t="n">
+        <v>6.361366283236467</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
@@ -30612,7 +32120,7 @@
         <v>59.54000000000001</v>
       </c>
       <c r="H503" t="n">
-        <v>31.64</v>
+        <v>-0.2</v>
       </c>
       <c r="I503" t="n">
         <v>104.06</v>
@@ -30644,6 +32152,9 @@
       <c r="R503" t="n">
         <v>0.06095999999999999</v>
       </c>
+      <c r="S503" t="n">
+        <v>3.061543081253481</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
@@ -30672,7 +32183,7 @@
         <v>68.36</v>
       </c>
       <c r="H504" t="n">
-        <v>40.64</v>
+        <v>4.8</v>
       </c>
       <c r="I504" t="n">
         <v>103.88</v>
@@ -30704,6 +32215,9 @@
       <c r="R504" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S504" t="n">
+        <v>2.925532917395319</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
@@ -30732,7 +32246,7 @@
         <v>80.96000000000001</v>
       </c>
       <c r="H505" t="n">
-        <v>46.94</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I505" t="n">
         <v>103.41</v>
@@ -30764,6 +32278,9 @@
       <c r="R505" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S505" t="n">
+        <v>2.178337126354505</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
@@ -30792,7 +32309,7 @@
         <v>74.12</v>
       </c>
       <c r="H506" t="n">
-        <v>35.78</v>
+        <v>2.1</v>
       </c>
       <c r="I506" t="n">
         <v>104.17</v>
@@ -30824,6 +32341,9 @@
       <c r="R506" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S506" t="n">
+        <v>1.882828506776343</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
@@ -30852,7 +32372,7 @@
         <v>79.7</v>
       </c>
       <c r="H507" t="n">
-        <v>49.82</v>
+        <v>9.9</v>
       </c>
       <c r="I507" t="n">
         <v>103.83</v>
@@ -30884,6 +32404,9 @@
       <c r="R507" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S507" t="n">
+        <v>2.555256856094394</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
@@ -30912,7 +32435,7 @@
         <v>78.98</v>
       </c>
       <c r="H508" t="n">
-        <v>40.1</v>
+        <v>4.5</v>
       </c>
       <c r="I508" t="n">
         <v>103.5</v>
@@ -30944,6 +32467,9 @@
       <c r="R508" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S508" t="n">
+        <v>1.818764642984963</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
@@ -30972,7 +32498,7 @@
         <v>99.86000000000001</v>
       </c>
       <c r="H509" t="n">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="I509" t="n">
         <v>102.94</v>
@@ -31004,6 +32530,9 @@
       <c r="R509" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S509" t="n">
+        <v>3.03868248701759</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
@@ -31032,7 +32561,7 @@
         <v>85.81999999999999</v>
       </c>
       <c r="H510" t="n">
-        <v>80.42</v>
+        <v>26.9</v>
       </c>
       <c r="I510" t="n">
         <v>103.04</v>
@@ -31063,6 +32592,9 @@
       </c>
       <c r="R510" t="n">
         <v>0.01016</v>
+      </c>
+      <c r="S510" t="n">
+        <v>5.802344226720736</v>
       </c>
     </row>
   </sheetData>

--- a/result/NCDC_weather_data/stations_imputed/54823099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/54823099999.xlsx
@@ -557,7 +557,7 @@
         <v>4.222222222222223</v>
       </c>
       <c r="H2" t="n">
-        <v>14</v>
+        <v>-10</v>
       </c>
       <c r="I2" t="n">
         <v>102.84</v>
@@ -590,7 +590,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S2" t="n">
-        <v>193.3880030016369</v>
+        <v>34.7178629843037</v>
       </c>
     </row>
     <row r="3">
@@ -620,7 +620,7 @@
         <v>2.388888888888888</v>
       </c>
       <c r="H3" t="n">
-        <v>13.4</v>
+        <v>-10.33333333333333</v>
       </c>
       <c r="I3" t="n">
         <v>102.88</v>
@@ -653,7 +653,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S3" t="n">
-        <v>211.7008746858563</v>
+        <v>38.49054346651216</v>
       </c>
     </row>
     <row r="4">
@@ -683,7 +683,7 @@
         <v>2.444444444444444</v>
       </c>
       <c r="H4" t="n">
-        <v>24.2</v>
+        <v>-4.333333333333334</v>
       </c>
       <c r="I4" t="n">
         <v>102.77</v>
@@ -716,7 +716,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S4" t="n">
-        <v>414.4326961686108</v>
+        <v>60.90982905258514</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         <v>2.444444444444444</v>
       </c>
       <c r="H5" t="n">
-        <v>19.6</v>
+        <v>-6.888888888888888</v>
       </c>
       <c r="I5" t="n">
         <v>102.94</v>
@@ -779,7 +779,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S5" t="n">
-        <v>312.9048233844452</v>
+        <v>50.1535387509556</v>
       </c>
     </row>
     <row r="6">
@@ -809,7 +809,7 @@
         <v>3.111111111111112</v>
       </c>
       <c r="H6" t="n">
-        <v>24.2</v>
+        <v>-4.333333333333334</v>
       </c>
       <c r="I6" t="n">
         <v>103.11</v>
@@ -842,7 +842,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S6" t="n">
-        <v>395.2892733581094</v>
+        <v>58.09628991426723</v>
       </c>
     </row>
     <row r="7">
@@ -872,7 +872,7 @@
         <v>2.611111111111113</v>
       </c>
       <c r="H7" t="n">
-        <v>24.7</v>
+        <v>-4.055555555555556</v>
       </c>
       <c r="I7" t="n">
         <v>103.46</v>
@@ -905,7 +905,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S7" t="n">
-        <v>422.0092705626531</v>
+        <v>61.46190778988657</v>
       </c>
     </row>
     <row r="8">
@@ -935,7 +935,7 @@
         <v>3.277777777777777</v>
       </c>
       <c r="H8" t="n">
-        <v>26.9</v>
+        <v>-2.833333333333334</v>
       </c>
       <c r="I8" t="n">
         <v>103.04</v>
@@ -968,7 +968,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S8" t="n">
-        <v>458.6664159779337</v>
+        <v>64.22840357324509</v>
       </c>
     </row>
     <row r="9">
@@ -998,7 +998,7 @@
         <v>3.777777777777776</v>
       </c>
       <c r="H9" t="n">
-        <v>30.6</v>
+        <v>-0.777777777777777</v>
       </c>
       <c r="I9" t="n">
         <v>102.64</v>
@@ -1031,7 +1031,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S9" t="n">
-        <v>548.8704210737485</v>
+        <v>72.13906495403734</v>
       </c>
     </row>
     <row r="10">
@@ -1061,7 +1061,7 @@
         <v>2.888888888888891</v>
       </c>
       <c r="H10" t="n">
-        <v>31.6</v>
+        <v>-0.2222222222222214</v>
       </c>
       <c r="I10" t="n">
         <v>102.45</v>
@@ -1094,7 +1094,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S10" t="n">
-        <v>618.7470162711436</v>
+        <v>79.98589116500413</v>
       </c>
     </row>
     <row r="11">
@@ -1124,7 +1124,7 @@
         <v>-1.166666666666667</v>
       </c>
       <c r="H11" t="n">
-        <v>24.4</v>
+        <v>-4.222222222222223</v>
       </c>
       <c r="I11" t="n">
         <v>102.78</v>
@@ -1157,7 +1157,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S11" t="n">
-        <v>544.3544863222793</v>
+        <v>79.71354852966239</v>
       </c>
     </row>
     <row r="12">
@@ -1187,7 +1187,7 @@
         <v>-0.2222222222222214</v>
       </c>
       <c r="H12" t="n">
-        <v>16.9</v>
+        <v>-8.388888888888889</v>
       </c>
       <c r="I12" t="n">
         <v>102.74</v>
@@ -1220,7 +1220,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S12" t="n">
-        <v>319.9281923351702</v>
+        <v>54.10009298612097</v>
       </c>
     </row>
     <row r="13">
@@ -1250,7 +1250,7 @@
         <v>-0.8333333333333334</v>
       </c>
       <c r="H13" t="n">
-        <v>17.9</v>
+        <v>-7.833333333333335</v>
       </c>
       <c r="I13" t="n">
         <v>102.76</v>
@@ -1283,7 +1283,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S13" t="n">
-        <v>356.3260938293629</v>
+        <v>59.05778233380634</v>
       </c>
     </row>
     <row r="14">
@@ -1313,7 +1313,7 @@
         <v>-0.2777777777777778</v>
       </c>
       <c r="H14" t="n">
-        <v>3.7</v>
+        <v>-15.72222222222222</v>
       </c>
       <c r="I14" t="n">
         <v>102.98</v>
@@ -1346,7 +1346,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9308128882317</v>
+        <v>30.13507145427826</v>
       </c>
     </row>
     <row r="15">
@@ -1376,7 +1376,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="H15" t="n">
-        <v>11.6</v>
+        <v>-11.33333333333333</v>
       </c>
       <c r="I15" t="n">
         <v>102.18</v>
@@ -1409,7 +1409,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S15" t="n">
-        <v>198.054944212793</v>
+        <v>37.43019858587505</v>
       </c>
     </row>
     <row r="16">
@@ -1439,7 +1439,7 @@
         <v>1.777777777777779</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4</v>
+        <v>-8.111111111111112</v>
       </c>
       <c r="I16" t="n">
         <v>102.63</v>
@@ -1472,7 +1472,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S16" t="n">
-        <v>285.873446975125</v>
+        <v>47.85706625085525</v>
       </c>
     </row>
     <row r="17">
@@ -1502,7 +1502,7 @@
         <v>0.8888888888888897</v>
       </c>
       <c r="H17" t="n">
-        <v>14.2</v>
+        <v>-9.888888888888889</v>
       </c>
       <c r="I17" t="n">
         <v>102.98</v>
@@ -1535,7 +1535,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S17" t="n">
-        <v>248.2827179552552</v>
+        <v>44.38582043581525</v>
       </c>
     </row>
     <row r="18">
@@ -1565,7 +1565,7 @@
         <v>1.777777777777779</v>
       </c>
       <c r="H18" t="n">
-        <v>12.7</v>
+        <v>-10.72222222222222</v>
       </c>
       <c r="I18" t="n">
         <v>103.1</v>
@@ -1598,7 +1598,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S18" t="n">
-        <v>211.243406676845</v>
+        <v>38.98516690546931</v>
       </c>
     </row>
     <row r="19">
@@ -1628,7 +1628,7 @@
         <v>2.444444444444444</v>
       </c>
       <c r="H19" t="n">
-        <v>25.6</v>
+        <v>-3.555555555555555</v>
       </c>
       <c r="I19" t="n">
         <v>102.56</v>
@@ -1661,7 +1661,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S19" t="n">
-        <v>450.5769696704908</v>
+        <v>64.56738969669516</v>
       </c>
     </row>
     <row r="20">
@@ -1691,7 +1691,7 @@
         <v>-2.277777777777779</v>
       </c>
       <c r="H20" t="n">
-        <v>20.1</v>
+        <v>-6.611111111111111</v>
       </c>
       <c r="I20" t="n">
         <v>103.13</v>
@@ -1724,7 +1724,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S20" t="n">
-        <v>454.5886226474588</v>
+        <v>72.16003160721857</v>
       </c>
     </row>
     <row r="21">
@@ -1754,7 +1754,7 @@
         <v>-1.61111111111111</v>
       </c>
       <c r="H21" t="n">
-        <v>15.1</v>
+        <v>-9.388888888888889</v>
       </c>
       <c r="I21" t="n">
         <v>103.28</v>
@@ -1787,7 +1787,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S21" t="n">
-        <v>315.6509156532155</v>
+        <v>55.37991432942715</v>
       </c>
     </row>
     <row r="22">
@@ -1817,7 +1817,7 @@
         <v>0.4999999999999992</v>
       </c>
       <c r="H22" t="n">
-        <v>18.1</v>
+        <v>-7.722222222222221</v>
       </c>
       <c r="I22" t="n">
         <v>102.88</v>
@@ -1850,7 +1850,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S22" t="n">
-        <v>327.5174856094713</v>
+        <v>54.06738818339757</v>
       </c>
     </row>
     <row r="23">
@@ -1880,7 +1880,7 @@
         <v>0.1666666666666651</v>
       </c>
       <c r="H23" t="n">
-        <v>30.2</v>
+        <v>-1</v>
       </c>
       <c r="I23" t="n">
         <v>102.67</v>
@@ -1913,7 +1913,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S23" t="n">
-        <v>694.2194064830878</v>
+        <v>91.85562246075116</v>
       </c>
     </row>
     <row r="24">
@@ -1943,7 +1943,7 @@
         <v>-1.5</v>
       </c>
       <c r="H24" t="n">
-        <v>23.5</v>
+        <v>-4.722222222222222</v>
       </c>
       <c r="I24" t="n">
         <v>102.87</v>
@@ -1976,7 +1976,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S24" t="n">
-        <v>528.4349420435676</v>
+        <v>78.66841536402686</v>
       </c>
     </row>
     <row r="25">
@@ -2006,7 +2006,7 @@
         <v>0.2222222222222214</v>
       </c>
       <c r="H25" t="n">
-        <v>19.7</v>
+        <v>-6.833333333333334</v>
       </c>
       <c r="I25" t="n">
         <v>102.59</v>
@@ -2039,7 +2039,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S25" t="n">
-        <v>369.3052500235984</v>
+        <v>59.07860275868625</v>
       </c>
     </row>
     <row r="26">
@@ -2069,7 +2069,7 @@
         <v>0.05555555555555635</v>
       </c>
       <c r="H26" t="n">
-        <v>24</v>
+        <v>-4.444444444444445</v>
       </c>
       <c r="I26" t="n">
         <v>102.66</v>
@@ -2102,7 +2102,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S26" t="n">
-        <v>486.1345389410423</v>
+        <v>71.70960006426223</v>
       </c>
     </row>
     <row r="27">
@@ -2132,7 +2132,7 @@
         <v>0.777777777777777</v>
       </c>
       <c r="H27" t="n">
-        <v>15.6</v>
+        <v>-9.111111111111111</v>
       </c>
       <c r="I27" t="n">
         <v>103.03</v>
@@ -2165,7 +2165,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S27" t="n">
-        <v>273.9078592343825</v>
+        <v>47.56251319551911</v>
       </c>
     </row>
     <row r="28">
@@ -2195,7 +2195,7 @@
         <v>0.3888888888888905</v>
       </c>
       <c r="H28" t="n">
-        <v>17.1</v>
+        <v>-8.277777777777777</v>
       </c>
       <c r="I28" t="n">
         <v>103.25</v>
@@ -2228,7 +2228,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S28" t="n">
-        <v>309.9656245733419</v>
+        <v>52.20427389648626</v>
       </c>
     </row>
     <row r="29">
@@ -2258,7 +2258,7 @@
         <v>-0.1666666666666671</v>
       </c>
       <c r="H29" t="n">
-        <v>9.5</v>
+        <v>-12.5</v>
       </c>
       <c r="I29" t="n">
         <v>103.06</v>
@@ -2291,7 +2291,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S29" t="n">
-        <v>196.5213249676746</v>
+        <v>38.90427316320871</v>
       </c>
     </row>
     <row r="30">
@@ -2321,7 +2321,7 @@
         <v>-0.2222222222222214</v>
       </c>
       <c r="H30" t="n">
-        <v>11.7</v>
+        <v>-11.27777777777778</v>
       </c>
       <c r="I30" t="n">
         <v>102.65</v>
@@ -2354,7 +2354,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S30" t="n">
-        <v>228.4726836382953</v>
+        <v>43.08498212171746</v>
       </c>
     </row>
     <row r="31">
@@ -2384,7 +2384,7 @@
         <v>2.888888888888891</v>
       </c>
       <c r="H31" t="n">
-        <v>22.1</v>
+        <v>-5.499999999999999</v>
       </c>
       <c r="I31" t="n">
         <v>102.54</v>
@@ -2417,7 +2417,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S31" t="n">
-        <v>353.6378297355668</v>
+        <v>54.03600555638032</v>
       </c>
     </row>
     <row r="32">
@@ -2447,7 +2447,7 @@
         <v>0.1111111111111127</v>
       </c>
       <c r="H32" t="n">
-        <v>1.2</v>
+        <v>-17.11111111111111</v>
       </c>
       <c r="I32" t="n">
         <v>102.88</v>
@@ -2480,7 +2480,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S32" t="n">
-        <v>108.1764767477882</v>
+        <v>26.09026944683992</v>
       </c>
     </row>
     <row r="33">
@@ -2510,7 +2510,7 @@
         <v>-1.722222222222223</v>
       </c>
       <c r="H33" t="n">
-        <v>1.3</v>
+        <v>-17.05555555555556</v>
       </c>
       <c r="I33" t="n">
         <v>103.34</v>
@@ -2543,7 +2543,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S33" t="n">
-        <v>124.5705520688264</v>
+        <v>29.96861843924618</v>
       </c>
     </row>
     <row r="34">
@@ -2573,7 +2573,7 @@
         <v>0.1666666666666651</v>
       </c>
       <c r="H34" t="n">
-        <v>6.1</v>
+        <v>-14.38888888888889</v>
       </c>
       <c r="I34" t="n">
         <v>103.07</v>
@@ -2606,7 +2606,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S34" t="n">
-        <v>152.1585310830823</v>
+        <v>32.56874736718271</v>
       </c>
     </row>
     <row r="35">
@@ -2636,7 +2636,7 @@
         <v>2.000000000000001</v>
       </c>
       <c r="H35" t="n">
-        <v>13.5</v>
+        <v>-10.27777777777778</v>
       </c>
       <c r="I35" t="n">
         <v>102.87</v>
@@ -2669,7 +2669,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S35" t="n">
-        <v>219.0740339606508</v>
+        <v>39.74670050246454</v>
       </c>
     </row>
     <row r="36">
@@ -2699,7 +2699,7 @@
         <v>-1.666666666666667</v>
       </c>
       <c r="H36" t="n">
-        <v>2.7</v>
+        <v>-16.27777777777778</v>
       </c>
       <c r="I36" t="n">
         <v>103.28</v>
@@ -2732,7 +2732,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S36" t="n">
-        <v>137.1026271316076</v>
+        <v>31.85206784173198</v>
       </c>
     </row>
     <row r="37">
@@ -2762,7 +2762,7 @@
         <v>-0.6111111111111119</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>-16.66666666666667</v>
       </c>
       <c r="I37" t="n">
         <v>103.48</v>
@@ -2795,7 +2795,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S37" t="n">
-        <v>120.7327252454935</v>
+        <v>28.54032598031116</v>
       </c>
     </row>
     <row r="38">
@@ -2825,7 +2825,7 @@
         <v>1.055555555555555</v>
       </c>
       <c r="H38" t="n">
-        <v>3.8</v>
+        <v>-15.66666666666667</v>
       </c>
       <c r="I38" t="n">
         <v>103.19</v>
@@ -2858,7 +2858,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S38" t="n">
-        <v>121.5613358515617</v>
+        <v>27.49069862626658</v>
       </c>
     </row>
     <row r="39">
@@ -2888,7 +2888,7 @@
         <v>2.222222222222222</v>
       </c>
       <c r="H39" t="n">
-        <v>7.2</v>
+        <v>-13.77777777777778</v>
       </c>
       <c r="I39" t="n">
         <v>102.92</v>
@@ -2921,7 +2921,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S39" t="n">
-        <v>141.5770675444976</v>
+        <v>29.53560467332819</v>
       </c>
     </row>
     <row r="40">
@@ -2951,7 +2951,7 @@
         <v>3.38888888888889</v>
       </c>
       <c r="H40" t="n">
-        <v>12.9</v>
+        <v>-10.61111111111111</v>
       </c>
       <c r="I40" t="n">
         <v>102.88</v>
@@ -2984,7 +2984,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S40" t="n">
-        <v>190.8787561666876</v>
+        <v>35.07635918804205</v>
       </c>
     </row>
     <row r="41">
@@ -3014,7 +3014,7 @@
         <v>4.500000000000001</v>
       </c>
       <c r="H41" t="n">
-        <v>22.8</v>
+        <v>-5.111111111111111</v>
       </c>
       <c r="I41" t="n">
         <v>102.42</v>
@@ -3047,7 +3047,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S41" t="n">
-        <v>329.4453146823953</v>
+        <v>49.68466989894413</v>
       </c>
     </row>
     <row r="42">
@@ -3077,7 +3077,7 @@
         <v>5.388888888888891</v>
       </c>
       <c r="H42" t="n">
-        <v>25.6</v>
+        <v>-3.555555555555555</v>
       </c>
       <c r="I42" t="n">
         <v>102.46</v>
@@ -3110,7 +3110,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S42" t="n">
-        <v>366.3408485990776</v>
+        <v>52.49640777382098</v>
       </c>
     </row>
     <row r="43">
@@ -3140,7 +3140,7 @@
         <v>5.833333333333334</v>
       </c>
       <c r="H43" t="n">
-        <v>24.3</v>
+        <v>-4.277777777777778</v>
       </c>
       <c r="I43" t="n">
         <v>102.64</v>
@@ -3173,7 +3173,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S43" t="n">
-        <v>328.6956447484968</v>
+        <v>48.22089321779348</v>
       </c>
     </row>
     <row r="44">
@@ -3203,7 +3203,7 @@
         <v>5.833333333333334</v>
       </c>
       <c r="H44" t="n">
-        <v>25.7</v>
+        <v>-3.5</v>
       </c>
       <c r="I44" t="n">
         <v>102.47</v>
@@ -3236,7 +3236,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S44" t="n">
-        <v>357.340205565809</v>
+        <v>51.11511671418197</v>
       </c>
     </row>
     <row r="45">
@@ -3266,7 +3266,7 @@
         <v>3.444444444444446</v>
       </c>
       <c r="H45" t="n">
-        <v>30</v>
+        <v>-1.111111111111111</v>
       </c>
       <c r="I45" t="n">
         <v>102.37</v>
@@ -3299,7 +3299,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S45" t="n">
-        <v>542.8933564618148</v>
+        <v>72.07485140135076</v>
       </c>
     </row>
     <row r="46">
@@ -3329,7 +3329,7 @@
         <v>-2.111111111111112</v>
       </c>
       <c r="H46" t="n">
-        <v>17.3</v>
+        <v>-8.166666666666666</v>
       </c>
       <c r="I46" t="n">
         <v>102.9</v>
@@ -3362,7 +3362,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S46" t="n">
-        <v>376.8452033875693</v>
+        <v>63.21315217633848</v>
       </c>
     </row>
     <row r="47">
@@ -3392,7 +3392,7 @@
         <v>-1.888888888888888</v>
       </c>
       <c r="H47" t="n">
-        <v>13.1</v>
+        <v>-10.5</v>
       </c>
       <c r="I47" t="n">
         <v>102.79</v>
@@ -3425,7 +3425,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S47" t="n">
-        <v>282.9881542475426</v>
+        <v>51.78107494579278</v>
       </c>
     </row>
     <row r="48">
@@ -3455,7 +3455,7 @@
         <v>-2.166666666666666</v>
       </c>
       <c r="H48" t="n">
-        <v>7.7</v>
+        <v>-13.5</v>
       </c>
       <c r="I48" t="n">
         <v>103.09</v>
@@ -3488,7 +3488,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S48" t="n">
-        <v>201.4307873424623</v>
+        <v>41.54002892803042</v>
       </c>
     </row>
     <row r="49">
@@ -3518,7 +3518,7 @@
         <v>-0.3888888888888885</v>
       </c>
       <c r="H49" t="n">
-        <v>1.9</v>
+        <v>-16.72222222222222</v>
       </c>
       <c r="I49" t="n">
         <v>103.15</v>
@@ -3551,7 +3551,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S49" t="n">
-        <v>117.9481376305874</v>
+        <v>27.95172294174283</v>
       </c>
     </row>
     <row r="50">
@@ -3581,7 +3581,7 @@
         <v>0.3888888888888905</v>
       </c>
       <c r="H50" t="n">
-        <v>10.4</v>
+        <v>-12</v>
       </c>
       <c r="I50" t="n">
         <v>103.17</v>
@@ -3614,7 +3614,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S50" t="n">
-        <v>200.492292277794</v>
+        <v>38.90237343501828</v>
       </c>
     </row>
     <row r="51">
@@ -3644,7 +3644,7 @@
         <v>-2.388888888888889</v>
       </c>
       <c r="H51" t="n">
-        <v>-6.5</v>
+        <v>-21.38888888888889</v>
       </c>
       <c r="I51" t="n">
         <v>103.49</v>
@@ -3677,7 +3677,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S51" t="n">
-        <v>73.37779441143658</v>
+        <v>21.72912052090954</v>
       </c>
     </row>
     <row r="52">
@@ -3707,7 +3707,7 @@
         <v>1.888888888888888</v>
       </c>
       <c r="H52" t="n">
-        <v>3.7</v>
+        <v>-15.72222222222222</v>
       </c>
       <c r="I52" t="n">
         <v>103.07</v>
@@ -3740,7 +3740,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S52" t="n">
-        <v>113.7079075990985</v>
+        <v>25.77728854555629</v>
       </c>
     </row>
     <row r="53">
@@ -3770,7 +3770,7 @@
         <v>1.61111111111111</v>
       </c>
       <c r="H53" t="n">
-        <v>4.5</v>
+        <v>-15.27777777777778</v>
       </c>
       <c r="I53" t="n">
         <v>103.27</v>
@@ -3803,7 +3803,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S53" t="n">
-        <v>122.6887401720513</v>
+        <v>27.27991458933244</v>
       </c>
     </row>
     <row r="54">
@@ -3833,7 +3833,7 @@
         <v>-0.3888888888888885</v>
       </c>
       <c r="H54" t="n">
-        <v>2.4</v>
+        <v>-16.44444444444445</v>
       </c>
       <c r="I54" t="n">
         <v>103.73</v>
@@ -3866,7 +3866,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S54" t="n">
-        <v>122.2289682902455</v>
+        <v>28.60810847259615</v>
       </c>
     </row>
     <row r="55">
@@ -3896,7 +3896,7 @@
         <v>3.055555555555556</v>
       </c>
       <c r="H55" t="n">
-        <v>3.8</v>
+        <v>-15.66666666666667</v>
       </c>
       <c r="I55" t="n">
         <v>103.45</v>
@@ -3929,7 +3929,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S55" t="n">
-        <v>105.3936920277666</v>
+        <v>23.83443883985307</v>
       </c>
     </row>
     <row r="56">
@@ -3959,7 +3959,7 @@
         <v>8.055555555555555</v>
       </c>
       <c r="H56" t="n">
-        <v>23.1</v>
+        <v>-4.944444444444444</v>
       </c>
       <c r="I56" t="n">
         <v>102.86</v>
@@ -3992,7 +3992,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S56" t="n">
-        <v>262.5314408588024</v>
+        <v>39.37320071121007</v>
       </c>
     </row>
     <row r="57">
@@ -4022,7 +4022,7 @@
         <v>11.38888888888889</v>
       </c>
       <c r="H57" t="n">
-        <v>23.9</v>
+        <v>-4.500000000000001</v>
       </c>
       <c r="I57" t="n">
         <v>102.08</v>
@@ -4055,7 +4055,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S57" t="n">
-        <v>220.2963642049403</v>
+        <v>32.55543778638303</v>
       </c>
     </row>
     <row r="58">
@@ -4085,7 +4085,7 @@
         <v>7.888888888888891</v>
       </c>
       <c r="H58" t="n">
-        <v>6.1</v>
+        <v>-14.38888888888889</v>
       </c>
       <c r="I58" t="n">
         <v>102.31</v>
@@ -4118,7 +4118,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S58" t="n">
-        <v>88.45580519423945</v>
+        <v>18.93350804601862</v>
       </c>
     </row>
     <row r="59">
@@ -4148,7 +4148,7 @@
         <v>12.44444444444444</v>
       </c>
       <c r="H59" t="n">
-        <v>11.8</v>
+        <v>-11.22222222222222</v>
       </c>
       <c r="I59" t="n">
         <v>101.85</v>
@@ -4181,7 +4181,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S59" t="n">
-        <v>95.84527375732422</v>
+        <v>18.03511247836455</v>
       </c>
     </row>
     <row r="60">
@@ -4211,7 +4211,7 @@
         <v>11.72222222222222</v>
       </c>
       <c r="H60" t="n">
-        <v>24.1</v>
+        <v>-4.388888888888888</v>
       </c>
       <c r="I60" t="n">
         <v>101.67</v>
@@ -4244,7 +4244,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S60" t="n">
-        <v>218.0998305625768</v>
+        <v>32.11307331635426</v>
       </c>
     </row>
     <row r="61">
@@ -4274,7 +4274,7 @@
         <v>6.388888888888889</v>
       </c>
       <c r="H61" t="n">
-        <v>9.300000000000001</v>
+        <v>-12.61111111111111</v>
       </c>
       <c r="I61" t="n">
         <v>102.32</v>
@@ -4307,7 +4307,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S61" t="n">
-        <v>121.9298947589908</v>
+        <v>24.24645436642771</v>
       </c>
     </row>
     <row r="62">
@@ -4337,7 +4337,7 @@
         <v>9.888888888888888</v>
       </c>
       <c r="H62" t="n">
-        <v>10.5</v>
+        <v>-11.94444444444444</v>
       </c>
       <c r="I62" t="n">
         <v>101.78</v>
@@ -4370,7 +4370,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S62" t="n">
-        <v>104.1699989268581</v>
+        <v>20.16787692732979</v>
       </c>
     </row>
     <row r="63">
@@ -4400,7 +4400,7 @@
         <v>15.61111111111111</v>
       </c>
       <c r="H63" t="n">
-        <v>15.1</v>
+        <v>-9.388888888888889</v>
       </c>
       <c r="I63" t="n">
         <v>101.28</v>
@@ -4433,7 +4433,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S63" t="n">
-        <v>96.7712900157432</v>
+        <v>16.97820435441976</v>
       </c>
     </row>
     <row r="64">
@@ -4463,7 +4463,7 @@
         <v>11.83333333333333</v>
       </c>
       <c r="H64" t="n">
-        <v>9.800000000000001</v>
+        <v>-12.33333333333333</v>
       </c>
       <c r="I64" t="n">
         <v>101.5</v>
@@ -4496,7 +4496,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S64" t="n">
-        <v>87.34800672739451</v>
+        <v>17.17612843768206</v>
       </c>
     </row>
     <row r="65">
@@ -4526,7 +4526,7 @@
         <v>8.333333333333334</v>
       </c>
       <c r="H65" t="n">
-        <v>2.4</v>
+        <v>-16.44444444444445</v>
       </c>
       <c r="I65" t="n">
         <v>102.34</v>
@@ -4559,7 +4559,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S65" t="n">
-        <v>66.21575493212502</v>
+        <v>15.49802412792068</v>
       </c>
     </row>
     <row r="66">
@@ -4589,7 +4589,7 @@
         <v>10.27777777777778</v>
       </c>
       <c r="H66" t="n">
-        <v>15</v>
+        <v>-9.444444444444445</v>
       </c>
       <c r="I66" t="n">
         <v>102.12</v>
@@ -4622,7 +4622,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S66" t="n">
-        <v>136.3041996634503</v>
+        <v>23.96377465424312</v>
       </c>
     </row>
     <row r="67">
@@ -4652,7 +4652,7 @@
         <v>10.83333333333333</v>
       </c>
       <c r="H67" t="n">
-        <v>19.5</v>
+        <v>-6.944444444444445</v>
       </c>
       <c r="I67" t="n">
         <v>101.87</v>
@@ -4685,7 +4685,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S67" t="n">
-        <v>174.6264757411742</v>
+        <v>28.04433745038897</v>
       </c>
     </row>
     <row r="68">
@@ -4715,7 +4715,7 @@
         <v>15.27777777777778</v>
       </c>
       <c r="H68" t="n">
-        <v>29.9</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="I68" t="n">
         <v>101.63</v>
@@ -4748,7 +4748,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S68" t="n">
-        <v>243.3301655574246</v>
+        <v>32.35912887104989</v>
       </c>
     </row>
     <row r="69">
@@ -4778,7 +4778,7 @@
         <v>17.66666666666666</v>
       </c>
       <c r="H69" t="n">
-        <v>34.8</v>
+        <v>1.555555555555554</v>
       </c>
       <c r="I69" t="n">
         <v>101.7</v>
@@ -4811,7 +4811,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S69" t="n">
-        <v>275.7303733719465</v>
+        <v>33.85358371378114</v>
       </c>
     </row>
     <row r="70">
@@ -4841,7 +4841,7 @@
         <v>17.77777777777778</v>
       </c>
       <c r="H70" t="n">
-        <v>36.3</v>
+        <v>2.388888888888888</v>
       </c>
       <c r="I70" t="n">
         <v>101.3</v>
@@ -4874,7 +4874,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S70" t="n">
-        <v>297.4661725540611</v>
+        <v>35.67832846311819</v>
       </c>
     </row>
     <row r="71">
@@ -4904,7 +4904,7 @@
         <v>14.77777777777778</v>
       </c>
       <c r="H71" t="n">
-        <v>41.6</v>
+        <v>5.333333333333334</v>
       </c>
       <c r="I71" t="n">
         <v>101.5</v>
@@ -4937,7 +4937,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S71" t="n">
-        <v>479.3581865690835</v>
+        <v>53.13735460054351</v>
       </c>
     </row>
     <row r="72">
@@ -4967,7 +4967,7 @@
         <v>9.000000000000002</v>
       </c>
       <c r="H72" t="n">
-        <v>45.8</v>
+        <v>7.666666666666665</v>
       </c>
       <c r="I72" t="n">
         <v>101.12</v>
@@ -5000,7 +5000,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S72" t="n">
-        <v>873.7044082281851</v>
+        <v>91.35119612458705</v>
       </c>
     </row>
     <row r="73">
@@ -5030,7 +5030,7 @@
         <v>10.61111111111111</v>
       </c>
       <c r="H73" t="n">
-        <v>47.5</v>
+        <v>8.611111111111111</v>
       </c>
       <c r="I73" t="n">
         <v>101.28</v>
@@ -5063,7 +5063,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S73" t="n">
-        <v>855.4168509121777</v>
+        <v>87.43077565583826</v>
       </c>
     </row>
     <row r="74">
@@ -5093,7 +5093,7 @@
         <v>15.38888888888889</v>
       </c>
       <c r="H74" t="n">
-        <v>31.7</v>
+        <v>-0.1666666666666671</v>
       </c>
       <c r="I74" t="n">
         <v>101.43</v>
@@ -5126,7 +5126,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S74" t="n">
-        <v>267.7939368500295</v>
+        <v>34.56101264389877</v>
       </c>
     </row>
     <row r="75">
@@ -5156,7 +5156,7 @@
         <v>16.33333333333333</v>
       </c>
       <c r="H75" t="n">
-        <v>37.1</v>
+        <v>2.833333333333334</v>
       </c>
       <c r="I75" t="n">
         <v>100.94</v>
@@ -5189,7 +5189,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S75" t="n">
-        <v>340.5930676988403</v>
+        <v>40.35279135741516</v>
       </c>
     </row>
     <row r="76">
@@ -5219,7 +5219,7 @@
         <v>7.833333333333335</v>
       </c>
       <c r="H76" t="n">
-        <v>34.7</v>
+        <v>1.500000000000002</v>
       </c>
       <c r="I76" t="n">
         <v>101.96</v>
@@ -5252,7 +5252,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S76" t="n">
-        <v>522.4000716298341</v>
+        <v>64.24031979701616</v>
       </c>
     </row>
     <row r="77">
@@ -5282,7 +5282,7 @@
         <v>2.166666666666666</v>
       </c>
       <c r="H77" t="n">
-        <v>19.6</v>
+        <v>-6.888888888888888</v>
       </c>
       <c r="I77" t="n">
         <v>102.24</v>
@@ -5315,7 +5315,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S77" t="n">
-        <v>319.1560394109401</v>
+        <v>51.15550670349241</v>
       </c>
     </row>
     <row r="78">
@@ -5345,7 +5345,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="H78" t="n">
-        <v>28.4</v>
+        <v>-2.000000000000001</v>
       </c>
       <c r="I78" t="n">
         <v>101.44</v>
@@ -5378,7 +5378,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S78" t="n">
-        <v>498.7884500573191</v>
+        <v>68.0479245634307</v>
       </c>
     </row>
     <row r="79">
@@ -5408,7 +5408,7 @@
         <v>2.222222222222222</v>
       </c>
       <c r="H79" t="n">
-        <v>22.6</v>
+        <v>-5.222222222222221</v>
       </c>
       <c r="I79" t="n">
         <v>102.1</v>
@@ -5441,7 +5441,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S79" t="n">
-        <v>382.2560527545859</v>
+        <v>57.86449877037997</v>
       </c>
     </row>
     <row r="80">
@@ -5471,7 +5471,7 @@
         <v>6.055555555555555</v>
       </c>
       <c r="H80" t="n">
-        <v>25.9</v>
+        <v>-3.38888888888889</v>
       </c>
       <c r="I80" t="n">
         <v>102.2</v>
@@ -5504,7 +5504,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S80" t="n">
-        <v>356.0914055277183</v>
+        <v>50.75498187028381</v>
       </c>
     </row>
     <row r="81">
@@ -5534,7 +5534,7 @@
         <v>8.166666666666668</v>
       </c>
       <c r="H81" t="n">
-        <v>27.2</v>
+        <v>-2.666666666666667</v>
       </c>
       <c r="I81" t="n">
         <v>102.56</v>
@@ -5567,7 +5567,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S81" t="n">
-        <v>332.7057988730918</v>
+        <v>46.34525232271011</v>
       </c>
     </row>
     <row r="82">
@@ -5597,7 +5597,7 @@
         <v>10.5</v>
       </c>
       <c r="H82" t="n">
-        <v>26.4</v>
+        <v>-3.111111111111112</v>
       </c>
       <c r="I82" t="n">
         <v>102.3</v>
@@ -5630,7 +5630,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S82" t="n">
-        <v>271.2635619938324</v>
+        <v>38.32231750366618</v>
       </c>
     </row>
     <row r="83">
@@ -5660,7 +5660,7 @@
         <v>12.38888888888889</v>
       </c>
       <c r="H83" t="n">
-        <v>37</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="I83" t="n">
         <v>101.38</v>
@@ -5693,7 +5693,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S83" t="n">
-        <v>437.2378466361879</v>
+        <v>51.88220594959795</v>
       </c>
     </row>
     <row r="84">
@@ -5723,7 +5723,7 @@
         <v>15</v>
       </c>
       <c r="H84" t="n">
-        <v>42.9</v>
+        <v>6.055555555555555</v>
       </c>
       <c r="I84" t="n">
         <v>100.97</v>
@@ -5756,7 +5756,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S84" t="n">
-        <v>506.0471663378356</v>
+        <v>55.06975295359909</v>
       </c>
     </row>
     <row r="85">
@@ -5786,7 +5786,7 @@
         <v>8.499999999999998</v>
       </c>
       <c r="H85" t="n">
-        <v>46.1</v>
+        <v>7.833333333333335</v>
       </c>
       <c r="I85" t="n">
         <v>101.14</v>
@@ -5819,7 +5819,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S85" t="n">
-        <v>917.7809041123595</v>
+        <v>95.57211495110705</v>
       </c>
     </row>
     <row r="86">
@@ -5849,7 +5849,7 @@
         <v>12.83333333333333</v>
       </c>
       <c r="H86" t="n">
-        <v>29.2</v>
+        <v>-1.555555555555556</v>
       </c>
       <c r="I86" t="n">
         <v>101.71</v>
@@ -5882,7 +5882,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S86" t="n">
-        <v>273.8494484147699</v>
+        <v>36.85214933186642</v>
       </c>
     </row>
     <row r="87">
@@ -5912,7 +5912,7 @@
         <v>9.777777777777779</v>
       </c>
       <c r="H87" t="n">
-        <v>14.6</v>
+        <v>-9.666666666666666</v>
       </c>
       <c r="I87" t="n">
         <v>102.35</v>
@@ -5945,7 +5945,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S87" t="n">
-        <v>137.3542568310063</v>
+        <v>24.3502725788114</v>
       </c>
     </row>
     <row r="88">
@@ -5975,7 +5975,7 @@
         <v>13.61111111111111</v>
       </c>
       <c r="H88" t="n">
-        <v>29.6</v>
+        <v>-1.333333333333333</v>
       </c>
       <c r="I88" t="n">
         <v>102.01</v>
@@ -6008,7 +6008,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S88" t="n">
-        <v>266.3766066116914</v>
+        <v>35.60393435211205</v>
       </c>
     </row>
     <row r="89">
@@ -6038,7 +6038,7 @@
         <v>15.16666666666667</v>
       </c>
       <c r="H89" t="n">
-        <v>48</v>
+        <v>8.888888888888889</v>
       </c>
       <c r="I89" t="n">
         <v>101.62</v>
@@ -6071,7 +6071,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S89" t="n">
-        <v>651.1544313594792</v>
+        <v>66.11707898434484</v>
       </c>
     </row>
     <row r="90">
@@ -6101,7 +6101,7 @@
         <v>8.055555555555555</v>
       </c>
       <c r="H90" t="n">
-        <v>38.1</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="I90" t="n">
         <v>102.64</v>
@@ -6134,7 +6134,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S90" t="n">
-        <v>620.2019920527433</v>
+        <v>72.37560842580628</v>
       </c>
     </row>
     <row r="91">
@@ -6164,7 +6164,7 @@
         <v>9.611111111111111</v>
       </c>
       <c r="H91" t="n">
-        <v>28.2</v>
+        <v>-2.111111111111112</v>
       </c>
       <c r="I91" t="n">
         <v>103.41</v>
@@ -6197,7 +6197,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S91" t="n">
-        <v>319.9589273241218</v>
+        <v>43.80160116077146</v>
       </c>
     </row>
     <row r="92">
@@ -6227,7 +6227,7 @@
         <v>12.83333333333333</v>
       </c>
       <c r="H92" t="n">
-        <v>24.9</v>
+        <v>-3.944444444444446</v>
       </c>
       <c r="I92" t="n">
         <v>103.11</v>
@@ -6260,7 +6260,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S92" t="n">
-        <v>212.6828768732474</v>
+        <v>30.86345431036509</v>
       </c>
     </row>
     <row r="93">
@@ -6290,7 +6290,7 @@
         <v>10.72222222222222</v>
       </c>
       <c r="H93" t="n">
-        <v>35.8</v>
+        <v>2.11111111111111</v>
       </c>
       <c r="I93" t="n">
         <v>102.83</v>
@@ -6323,7 +6323,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S93" t="n">
-        <v>457.0569922897611</v>
+        <v>55.24566074572574</v>
       </c>
     </row>
     <row r="94">
@@ -6353,7 +6353,7 @@
         <v>15.33333333333333</v>
       </c>
       <c r="H94" t="n">
-        <v>33.7</v>
+        <v>0.9444444444444461</v>
       </c>
       <c r="I94" t="n">
         <v>102.55</v>
@@ -6386,7 +6386,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S94" t="n">
-        <v>300.8430923167573</v>
+        <v>37.58731606169732</v>
       </c>
     </row>
     <row r="95">
@@ -6416,7 +6416,7 @@
         <v>18.05555555555556</v>
       </c>
       <c r="H95" t="n">
-        <v>34</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="I95" t="n">
         <v>102.01</v>
@@ -6449,7 +6449,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S95" t="n">
-        <v>257.3295830017978</v>
+        <v>31.99719271145302</v>
       </c>
     </row>
     <row r="96">
@@ -6479,7 +6479,7 @@
         <v>18.66666666666666</v>
       </c>
       <c r="H96" t="n">
-        <v>45.8</v>
+        <v>7.666666666666665</v>
       </c>
       <c r="I96" t="n">
         <v>101.76</v>
@@ -6512,7 +6512,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S96" t="n">
-        <v>466.1152564544551</v>
+        <v>48.73523105529813</v>
       </c>
     </row>
     <row r="97">
@@ -6542,7 +6542,7 @@
         <v>11.94444444444444</v>
       </c>
       <c r="H97" t="n">
-        <v>37.9</v>
+        <v>3.277777777777777</v>
       </c>
       <c r="I97" t="n">
         <v>102.07</v>
@@ -6575,7 +6575,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S97" t="n">
-        <v>472.8564829855906</v>
+        <v>55.34735386254165</v>
       </c>
     </row>
     <row r="98">
@@ -6605,7 +6605,7 @@
         <v>18</v>
       </c>
       <c r="H98" t="n">
-        <v>47.8</v>
+        <v>8.777777777777777</v>
       </c>
       <c r="I98" t="n">
         <v>101.7</v>
@@ -6638,7 +6638,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S98" t="n">
-        <v>538.2834172293495</v>
+        <v>54.80005899443194</v>
       </c>
     </row>
     <row r="99">
@@ -6668,7 +6668,7 @@
         <v>24.05555555555555</v>
       </c>
       <c r="H99" t="n">
-        <v>51</v>
+        <v>10.55555555555556</v>
       </c>
       <c r="I99" t="n">
         <v>100.83</v>
@@ -6701,7 +6701,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S99" t="n">
-        <v>435.4955398349123</v>
+        <v>42.54837071798871</v>
       </c>
     </row>
     <row r="100">
@@ -6731,7 +6731,7 @@
         <v>26.27777777777778</v>
       </c>
       <c r="H100" t="n">
-        <v>47.4</v>
+        <v>8.555555555555555</v>
       </c>
       <c r="I100" t="n">
         <v>100.47</v>
@@ -6764,7 +6764,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S100" t="n">
-        <v>318.3701286891449</v>
+        <v>32.58311516963219</v>
       </c>
     </row>
     <row r="101">
@@ -6794,7 +6794,7 @@
         <v>28.11111111111111</v>
       </c>
       <c r="H101" t="n">
-        <v>48.9</v>
+        <v>9.388888888888889</v>
       </c>
       <c r="I101" t="n">
         <v>100.42</v>
@@ -6827,7 +6827,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S101" t="n">
-        <v>308.41262228043</v>
+        <v>30.95060889286958</v>
       </c>
     </row>
     <row r="102">
@@ -6857,7 +6857,7 @@
         <v>23.77777777777778</v>
       </c>
       <c r="H102" t="n">
-        <v>53.5</v>
+        <v>11.94444444444444</v>
       </c>
       <c r="I102" t="n">
         <v>100.7</v>
@@ -6890,7 +6890,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S102" t="n">
-        <v>500.7852773500885</v>
+        <v>47.43864977450464</v>
       </c>
     </row>
     <row r="103">
@@ -6920,7 +6920,7 @@
         <v>11.77777777777778</v>
       </c>
       <c r="H103" t="n">
-        <v>38.1</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="I103" t="n">
         <v>101.71</v>
@@ -6953,7 +6953,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S103" t="n">
-        <v>483.3052355007932</v>
+        <v>56.40019045887355</v>
       </c>
     </row>
     <row r="104">
@@ -6983,7 +6983,7 @@
         <v>14</v>
       </c>
       <c r="H104" t="n">
-        <v>27.6</v>
+        <v>-2.444444444444444</v>
       </c>
       <c r="I104" t="n">
         <v>101.72</v>
@@ -7016,7 +7016,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S104" t="n">
-        <v>231.2290593757464</v>
+        <v>31.98563875155657</v>
       </c>
     </row>
     <row r="105">
@@ -7046,7 +7046,7 @@
         <v>13</v>
       </c>
       <c r="H105" t="n">
-        <v>30.5</v>
+        <v>-0.8333333333333334</v>
       </c>
       <c r="I105" t="n">
         <v>102.37</v>
@@ -7079,7 +7079,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S105" t="n">
-        <v>291.9348581423394</v>
+        <v>38.43370024930483</v>
       </c>
     </row>
     <row r="106">
@@ -7109,7 +7109,7 @@
         <v>11.33333333333333</v>
       </c>
       <c r="H106" t="n">
-        <v>26.4</v>
+        <v>-3.111111111111112</v>
       </c>
       <c r="I106" t="n">
         <v>102.65</v>
@@ -7142,7 +7142,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S106" t="n">
-        <v>256.6457421711014</v>
+        <v>36.25720883834968</v>
       </c>
     </row>
     <row r="107">
@@ -7172,7 +7172,7 @@
         <v>15.72222222222222</v>
       </c>
       <c r="H107" t="n">
-        <v>24</v>
+        <v>-4.444444444444445</v>
       </c>
       <c r="I107" t="n">
         <v>102.13</v>
@@ -7205,7 +7205,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S107" t="n">
-        <v>167.1352881095912</v>
+        <v>24.65408998313855</v>
       </c>
     </row>
     <row r="108">
@@ -7235,7 +7235,7 @@
         <v>16.22222222222222</v>
       </c>
       <c r="H108" t="n">
-        <v>38.6</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="I108" t="n">
         <v>101.85</v>
@@ -7268,7 +7268,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S108" t="n">
-        <v>372.1533772110537</v>
+        <v>43.10481430748525</v>
       </c>
     </row>
     <row r="109">
@@ -7298,7 +7298,7 @@
         <v>20.22222222222222</v>
       </c>
       <c r="H109" t="n">
-        <v>36.4</v>
+        <v>2.444444444444444</v>
       </c>
       <c r="I109" t="n">
         <v>101.61</v>
@@ -7331,7 +7331,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S109" t="n">
-        <v>256.7634217631186</v>
+        <v>30.7489779004585</v>
       </c>
     </row>
     <row r="110">
@@ -7361,7 +7361,7 @@
         <v>22.77777777777778</v>
       </c>
       <c r="H110" t="n">
-        <v>42.9</v>
+        <v>6.055555555555555</v>
       </c>
       <c r="I110" t="n">
         <v>100.73</v>
@@ -7394,7 +7394,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S110" t="n">
-        <v>311.2049116196296</v>
+        <v>33.866364127407</v>
       </c>
     </row>
     <row r="111">
@@ -7424,7 +7424,7 @@
         <v>21.83333333333333</v>
       </c>
       <c r="H111" t="n">
-        <v>46.8</v>
+        <v>8.222222222222221</v>
       </c>
       <c r="I111" t="n">
         <v>100.48</v>
@@ -7457,7 +7457,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S111" t="n">
-        <v>403.3458931472917</v>
+        <v>41.60995877399063</v>
       </c>
     </row>
     <row r="112">
@@ -7487,7 +7487,7 @@
         <v>16.66666666666667</v>
       </c>
       <c r="H112" t="n">
-        <v>44.3</v>
+        <v>6.833333333333332</v>
       </c>
       <c r="I112" t="n">
         <v>101.24</v>
@@ -7520,7 +7520,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S112" t="n">
-        <v>489.3519113387937</v>
+        <v>52.22390718656663</v>
       </c>
     </row>
     <row r="113">
@@ -7550,7 +7550,7 @@
         <v>24.33333333333333</v>
       </c>
       <c r="H113" t="n">
-        <v>52.8</v>
+        <v>11.55555555555556</v>
       </c>
       <c r="I113" t="n">
         <v>100.64</v>
@@ -7583,7 +7583,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S113" t="n">
-        <v>468.0432911967241</v>
+        <v>44.71744823795571</v>
       </c>
     </row>
     <row r="114">
@@ -7613,7 +7613,7 @@
         <v>25.27777777777778</v>
       </c>
       <c r="H114" t="n">
-        <v>60</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="I114" t="n">
         <v>100.49</v>
@@ -7646,7 +7646,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S114" t="n">
-        <v>624.2824579836525</v>
+        <v>54.8384243636753</v>
       </c>
     </row>
     <row r="115">
@@ -7676,7 +7676,7 @@
         <v>23.72222222222222</v>
       </c>
       <c r="H115" t="n">
-        <v>58.9</v>
+        <v>14.94444444444444</v>
       </c>
       <c r="I115" t="n">
         <v>100.33</v>
@@ -7709,7 +7709,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S115" t="n">
-        <v>650.8121169148141</v>
+        <v>57.87612435201628</v>
       </c>
     </row>
     <row r="116">
@@ -7739,7 +7739,7 @@
         <v>10.77777777777778</v>
       </c>
       <c r="H116" t="n">
-        <v>40.6</v>
+        <v>4.777777777777779</v>
       </c>
       <c r="I116" t="n">
         <v>102.13</v>
@@ -7772,7 +7772,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S116" t="n">
-        <v>590.7462615710285</v>
+        <v>66.43660306242293</v>
       </c>
     </row>
     <row r="117">
@@ -7802,7 +7802,7 @@
         <v>14.44444444444444</v>
       </c>
       <c r="H117" t="n">
-        <v>43.6</v>
+        <v>6.444444444444446</v>
       </c>
       <c r="I117" t="n">
         <v>102.03</v>
@@ -7835,7 +7835,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S117" t="n">
-        <v>544.086373484916</v>
+        <v>58.63168255369962</v>
       </c>
     </row>
     <row r="118">
@@ -7865,7 +7865,7 @@
         <v>22.16666666666667</v>
       </c>
       <c r="H118" t="n">
-        <v>37.8</v>
+        <v>3.222222222222221</v>
       </c>
       <c r="I118" t="n">
         <v>101.56</v>
@@ -7898,7 +7898,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S118" t="n">
-        <v>245.9795770850902</v>
+        <v>28.83514573724167</v>
       </c>
     </row>
     <row r="119">
@@ -7928,7 +7928,7 @@
         <v>26.16666666666666</v>
       </c>
       <c r="H119" t="n">
-        <v>45.1</v>
+        <v>7.277777777777779</v>
       </c>
       <c r="I119" t="n">
         <v>101.26</v>
@@ -7961,7 +7961,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S119" t="n">
-        <v>284.8351592237881</v>
+        <v>30.06580320723209</v>
       </c>
     </row>
     <row r="120">
@@ -7991,7 +7991,7 @@
         <v>26.83333333333333</v>
       </c>
       <c r="H120" t="n">
-        <v>40.9</v>
+        <v>4.944444444444444</v>
       </c>
       <c r="I120" t="n">
         <v>100.88</v>
@@ -8024,7 +8024,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S120" t="n">
-        <v>219.7285068958188</v>
+        <v>24.6038856740843</v>
       </c>
     </row>
     <row r="121">
@@ -8054,7 +8054,7 @@
         <v>26.83333333333333</v>
       </c>
       <c r="H121" t="n">
-        <v>40.5</v>
+        <v>4.722222222222222</v>
       </c>
       <c r="I121" t="n">
         <v>100.69</v>
@@ -8087,7 +8087,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S121" t="n">
-        <v>215.0960096527963</v>
+        <v>24.22536083845737</v>
       </c>
     </row>
     <row r="122">
@@ -8117,7 +8117,7 @@
         <v>18.5</v>
       </c>
       <c r="H122" t="n">
-        <v>48.4</v>
+        <v>9.111111111111111</v>
       </c>
       <c r="I122" t="n">
         <v>101.54</v>
@@ -8150,7 +8150,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S122" t="n">
-        <v>537.7241728887882</v>
+        <v>54.31477332537813</v>
       </c>
     </row>
     <row r="123">
@@ -8180,7 +8180,7 @@
         <v>13.66666666666667</v>
       </c>
       <c r="H123" t="n">
-        <v>37.9</v>
+        <v>3.277777777777777</v>
       </c>
       <c r="I123" t="n">
         <v>102.28</v>
@@ -8213,7 +8213,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S123" t="n">
-        <v>422.4160647235102</v>
+        <v>49.44335597104813</v>
       </c>
     </row>
     <row r="124">
@@ -8243,7 +8243,7 @@
         <v>12.5</v>
       </c>
       <c r="H124" t="n">
-        <v>40.2</v>
+        <v>4.555555555555557</v>
       </c>
       <c r="I124" t="n">
         <v>102.12</v>
@@ -8276,7 +8276,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S124" t="n">
-        <v>516.0471590680932</v>
+        <v>58.375008146051</v>
       </c>
     </row>
     <row r="125">
@@ -8306,7 +8306,7 @@
         <v>10.77777777777778</v>
       </c>
       <c r="H125" t="n">
-        <v>49.2</v>
+        <v>9.555555555555557</v>
       </c>
       <c r="I125" t="n">
         <v>101.91</v>
@@ -8339,7 +8339,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S125" t="n">
-        <v>921.834857689047</v>
+        <v>92.15242199573773</v>
       </c>
     </row>
     <row r="126">
@@ -8369,7 +8369,7 @@
         <v>18</v>
       </c>
       <c r="H126" t="n">
-        <v>51.2</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="I126" t="n">
         <v>101.52</v>
@@ -8402,7 +8402,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S126" t="n">
-        <v>638.2912749571626</v>
+        <v>62.20530035036415</v>
       </c>
     </row>
     <row r="127">
@@ -8432,7 +8432,7 @@
         <v>14.44444444444444</v>
       </c>
       <c r="H127" t="n">
-        <v>41.4</v>
+        <v>5.222222222222221</v>
       </c>
       <c r="I127" t="n">
         <v>101.57</v>
@@ -8465,7 +8465,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S127" t="n">
-        <v>484.6279967026765</v>
+        <v>53.8759151892291</v>
       </c>
     </row>
     <row r="128">
@@ -8495,7 +8495,7 @@
         <v>17.77777777777778</v>
       </c>
       <c r="H128" t="n">
-        <v>35.7</v>
+        <v>2.055555555555557</v>
       </c>
       <c r="I128" t="n">
         <v>101.75</v>
@@ -8528,7 +8528,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S128" t="n">
-        <v>287.7966493018607</v>
+        <v>34.84083327990099</v>
       </c>
     </row>
     <row r="129">
@@ -8558,7 +8558,7 @@
         <v>21.77777777777778</v>
       </c>
       <c r="H129" t="n">
-        <v>35.2</v>
+        <v>1.777777777777779</v>
       </c>
       <c r="I129" t="n">
         <v>101.31</v>
@@ -8591,7 +8591,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S129" t="n">
-        <v>218.3933941117697</v>
+        <v>26.64595696752221</v>
       </c>
     </row>
     <row r="130">
@@ -8621,7 +8621,7 @@
         <v>28.72222222222222</v>
       </c>
       <c r="H130" t="n">
-        <v>38</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="I130" t="n">
         <v>100.73</v>
@@ -8654,7 +8654,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S130" t="n">
-        <v>168.3588903071086</v>
+        <v>19.67654726135473</v>
       </c>
     </row>
     <row r="131">
@@ -8684,7 +8684,7 @@
         <v>25</v>
       </c>
       <c r="H131" t="n">
-        <v>52.5</v>
+        <v>11.38888888888889</v>
       </c>
       <c r="I131" t="n">
         <v>101.38</v>
@@ -8717,7 +8717,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S131" t="n">
-        <v>443.1711114233863</v>
+        <v>42.49752404068472</v>
       </c>
     </row>
     <row r="132">
@@ -8747,7 +8747,7 @@
         <v>24.77777777777778</v>
       </c>
       <c r="H132" t="n">
-        <v>53.1</v>
+        <v>11.72222222222222</v>
       </c>
       <c r="I132" t="n">
         <v>101.18</v>
@@ -8780,7 +8780,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S132" t="n">
-        <v>462.4946075169462</v>
+        <v>44.02538250790642</v>
       </c>
     </row>
     <row r="133">
@@ -8810,7 +8810,7 @@
         <v>23.55555555555556</v>
       </c>
       <c r="H133" t="n">
-        <v>52.7</v>
+        <v>11.5</v>
       </c>
       <c r="I133" t="n">
         <v>101.01</v>
@@ -8843,7 +8843,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S133" t="n">
-        <v>488.0633621180898</v>
+        <v>46.68745335628896</v>
       </c>
     </row>
     <row r="134">
@@ -8873,7 +8873,7 @@
         <v>28.22222222222222</v>
       </c>
       <c r="H134" t="n">
-        <v>48.5</v>
+        <v>9.166666666666668</v>
       </c>
       <c r="I134" t="n">
         <v>100.79</v>
@@ -8906,7 +8906,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S134" t="n">
-        <v>300.3064462960428</v>
+        <v>30.29404209526128</v>
       </c>
     </row>
     <row r="135">
@@ -8936,7 +8936,7 @@
         <v>27.55555555555555</v>
       </c>
       <c r="H135" t="n">
-        <v>46.8</v>
+        <v>8.222222222222221</v>
       </c>
       <c r="I135" t="n">
         <v>100.66</v>
@@ -8969,7 +8969,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S135" t="n">
-        <v>286.4203339915906</v>
+        <v>29.54768721314484</v>
       </c>
     </row>
     <row r="136">
@@ -8999,7 +8999,7 @@
         <v>18.55555555555556</v>
       </c>
       <c r="H136" t="n">
-        <v>41.4</v>
+        <v>5.222222222222221</v>
       </c>
       <c r="I136" t="n">
         <v>101.26</v>
@@ -9032,7 +9032,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S136" t="n">
-        <v>373.0448965098117</v>
+        <v>41.47126320163411</v>
       </c>
     </row>
     <row r="137">
@@ -9062,7 +9062,7 @@
         <v>29.16666666666667</v>
       </c>
       <c r="H137" t="n">
-        <v>42.7</v>
+        <v>5.944444444444446</v>
       </c>
       <c r="I137" t="n">
         <v>100.18</v>
@@ -9095,7 +9095,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S137" t="n">
-        <v>210.8910426348547</v>
+        <v>23.01464864925655</v>
       </c>
     </row>
     <row r="138">
@@ -9125,7 +9125,7 @@
         <v>27.77777777777778</v>
       </c>
       <c r="H138" t="n">
-        <v>54.5</v>
+        <v>12.5</v>
       </c>
       <c r="I138" t="n">
         <v>99.76000000000001</v>
@@ -9158,7 +9158,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S138" t="n">
-        <v>414.6461990957055</v>
+        <v>38.8079310147431</v>
       </c>
     </row>
     <row r="139">
@@ -9188,7 +9188,7 @@
         <v>24.22222222222222</v>
       </c>
       <c r="H139" t="n">
-        <v>56.1</v>
+        <v>13.38888888888889</v>
       </c>
       <c r="I139" t="n">
         <v>100.11</v>
@@ -9221,7 +9221,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S139" t="n">
-        <v>552.8987889916132</v>
+        <v>50.77594685685825</v>
       </c>
     </row>
     <row r="140">
@@ -9251,7 +9251,7 @@
         <v>27.38888888888889</v>
       </c>
       <c r="H140" t="n">
-        <v>35.8</v>
+        <v>2.11111111111111</v>
       </c>
       <c r="I140" t="n">
         <v>100.52</v>
@@ -9284,7 +9284,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S140" t="n">
-        <v>161.337627790435</v>
+        <v>19.50129633894722</v>
       </c>
     </row>
     <row r="141">
@@ -9314,7 +9314,7 @@
         <v>25.61111111111111</v>
       </c>
       <c r="H141" t="n">
-        <v>55</v>
+        <v>12.77777777777778</v>
       </c>
       <c r="I141" t="n">
         <v>100.21</v>
@@ -9347,7 +9347,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S141" t="n">
-        <v>482.6577811291358</v>
+        <v>44.90455193329412</v>
       </c>
     </row>
     <row r="142">
@@ -9377,7 +9377,7 @@
         <v>29.5</v>
       </c>
       <c r="H142" t="n">
-        <v>57.8</v>
+        <v>14.33333333333333</v>
       </c>
       <c r="I142" t="n">
         <v>100.2</v>
@@ -9410,7 +9410,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S142" t="n">
-        <v>439.442002756757</v>
+        <v>39.57018021717694</v>
       </c>
     </row>
     <row r="143">
@@ -9440,7 +9440,7 @@
         <v>29.72222222222222</v>
       </c>
       <c r="H143" t="n">
-        <v>46.5</v>
+        <v>8.055555555555555</v>
       </c>
       <c r="I143" t="n">
         <v>100.06</v>
@@ -9473,7 +9473,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S143" t="n">
-        <v>248.700403855531</v>
+        <v>25.75945435865357</v>
       </c>
     </row>
     <row r="144">
@@ -9503,7 +9503,7 @@
         <v>26.27777777777778</v>
       </c>
       <c r="H144" t="n">
-        <v>47.9</v>
+        <v>8.833333333333332</v>
       </c>
       <c r="I144" t="n">
         <v>100.7</v>
@@ -9536,7 +9536,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S144" t="n">
-        <v>326.5534041421406</v>
+        <v>33.20119082412407</v>
       </c>
     </row>
     <row r="145">
@@ -9566,7 +9566,7 @@
         <v>26.55555555555555</v>
       </c>
       <c r="H145" t="n">
-        <v>61.9</v>
+        <v>16.61111111111111</v>
       </c>
       <c r="I145" t="n">
         <v>100.76</v>
@@ -9599,7 +9599,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S145" t="n">
-        <v>632.1066534843411</v>
+        <v>54.38283425561649</v>
       </c>
     </row>
     <row r="146">
@@ -9629,7 +9629,7 @@
         <v>23.05555555555556</v>
       </c>
       <c r="H146" t="n">
-        <v>59.9</v>
+        <v>15.5</v>
       </c>
       <c r="I146" t="n">
         <v>101</v>
@@ -9662,7 +9662,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S146" t="n">
-        <v>710.0869748369532</v>
+        <v>62.44496842315827</v>
       </c>
     </row>
     <row r="147">
@@ -9692,7 +9692,7 @@
         <v>27.72222222222222</v>
       </c>
       <c r="H147" t="n">
-        <v>56.2</v>
+        <v>13.44444444444445</v>
       </c>
       <c r="I147" t="n">
         <v>100.73</v>
@@ -9725,7 +9725,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S147" t="n">
-        <v>451.4993630674044</v>
+        <v>41.41533734393123</v>
       </c>
     </row>
     <row r="148">
@@ -9755,7 +9755,7 @@
         <v>26.05555555555556</v>
       </c>
       <c r="H148" t="n">
-        <v>57.8</v>
+        <v>14.33333333333333</v>
       </c>
       <c r="I148" t="n">
         <v>100.51</v>
@@ -9788,7 +9788,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S148" t="n">
-        <v>537.4837169690562</v>
+        <v>48.39848583167019</v>
       </c>
     </row>
     <row r="149">
@@ -9818,7 +9818,7 @@
         <v>26.66666666666667</v>
       </c>
       <c r="H149" t="n">
-        <v>58.6</v>
+        <v>14.77777777777778</v>
       </c>
       <c r="I149" t="n">
         <v>100.22</v>
@@ -9851,7 +9851,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S149" t="n">
-        <v>538.4037701673635</v>
+        <v>48.04216362256536</v>
       </c>
     </row>
     <row r="150">
@@ -9881,7 +9881,7 @@
         <v>24.55555555555556</v>
       </c>
       <c r="H150" t="n">
-        <v>59.4</v>
+        <v>15.22222222222222</v>
       </c>
       <c r="I150" t="n">
         <v>100.53</v>
@@ -9914,7 +9914,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S150" t="n">
-        <v>633.7482166733837</v>
+        <v>56.0432256073865</v>
       </c>
     </row>
     <row r="151">
@@ -9944,7 +9944,7 @@
         <v>29.27777777777778</v>
       </c>
       <c r="H151" t="n">
-        <v>62</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="I151" t="n">
         <v>100.16</v>
@@ -9977,7 +9977,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S151" t="n">
-        <v>541.6769683041977</v>
+        <v>46.55250735008963</v>
       </c>
     </row>
     <row r="152">
@@ -10007,7 +10007,7 @@
         <v>29.22222222222222</v>
       </c>
       <c r="H152" t="n">
-        <v>64</v>
+        <v>17.77777777777778</v>
       </c>
       <c r="I152" t="n">
         <v>100.11</v>
@@ -10040,7 +10040,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S152" t="n">
-        <v>595.5503183598724</v>
+        <v>50.10514777712882</v>
       </c>
     </row>
     <row r="153">
@@ -10070,7 +10070,7 @@
         <v>34.88888888888889</v>
       </c>
       <c r="H153" t="n">
-        <v>61.8</v>
+        <v>16.55555555555555</v>
       </c>
       <c r="I153" t="n">
         <v>100.12</v>
@@ -10103,7 +10103,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S153" t="n">
-        <v>390.5357016130835</v>
+        <v>33.63579087168591</v>
       </c>
     </row>
     <row r="154">
@@ -10133,7 +10133,7 @@
         <v>34.94444444444445</v>
       </c>
       <c r="H154" t="n">
-        <v>61.1</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="I154" t="n">
         <v>100.02</v>
@@ -10166,7 +10166,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S154" t="n">
-        <v>376.9257544387382</v>
+        <v>32.71155208999946</v>
       </c>
     </row>
     <row r="155">
@@ -10196,7 +10196,7 @@
         <v>32.38888888888889</v>
       </c>
       <c r="H155" t="n">
-        <v>62.2</v>
+        <v>16.77777777777778</v>
       </c>
       <c r="I155" t="n">
         <v>100</v>
@@ -10229,7 +10229,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S155" t="n">
-        <v>457.6075537527591</v>
+        <v>39.24283013133271</v>
       </c>
     </row>
     <row r="156">
@@ -10259,7 +10259,7 @@
         <v>29.27777777777778</v>
       </c>
       <c r="H156" t="n">
-        <v>62.5</v>
+        <v>16.94444444444445</v>
       </c>
       <c r="I156" t="n">
         <v>99.84</v>
@@ -10292,7 +10292,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S156" t="n">
-        <v>554.2871120466269</v>
+        <v>47.38091702685787</v>
       </c>
     </row>
     <row r="157">
@@ -10322,7 +10322,7 @@
         <v>34.66666666666667</v>
       </c>
       <c r="H157" t="n">
-        <v>67.90000000000001</v>
+        <v>19.94444444444445</v>
       </c>
       <c r="I157" t="n">
         <v>99.77000000000001</v>
@@ -10355,7 +10355,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S157" t="n">
-        <v>521.0974036851172</v>
+        <v>42.1304263685827</v>
       </c>
     </row>
     <row r="158">
@@ -10385,7 +10385,7 @@
         <v>28.5</v>
       </c>
       <c r="H158" t="n">
-        <v>72.8</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="I158" t="n">
         <v>99.71000000000001</v>
@@ -10418,7 +10418,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S158" t="n">
-        <v>916.5962483523298</v>
+        <v>70.7031005221228</v>
       </c>
     </row>
     <row r="159">
@@ -10448,7 +10448,7 @@
         <v>25.5</v>
       </c>
       <c r="H159" t="n">
-        <v>73.59999999999999</v>
+        <v>23.11111111111111</v>
       </c>
       <c r="I159" t="n">
         <v>99.61</v>
@@ -10481,7 +10481,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S159" t="n">
-        <v>1131.614609868597</v>
+        <v>86.64784272371135</v>
       </c>
     </row>
     <row r="160">
@@ -10511,7 +10511,7 @@
         <v>24.72222222222222</v>
       </c>
       <c r="H160" t="n">
-        <v>69.7</v>
+        <v>20.94444444444445</v>
       </c>
       <c r="I160" t="n">
         <v>100.25</v>
@@ -10544,7 +10544,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S160" t="n">
-        <v>1001.068148111137</v>
+        <v>79.51996525301878</v>
       </c>
     </row>
     <row r="161">
@@ -10574,7 +10574,7 @@
         <v>24.5</v>
       </c>
       <c r="H161" t="n">
-        <v>70</v>
+        <v>21.11111111111111</v>
       </c>
       <c r="I161" t="n">
         <v>100.57</v>
@@ -10607,7 +10607,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S161" t="n">
-        <v>1027.897007594026</v>
+        <v>81.41483200482365</v>
       </c>
     </row>
     <row r="162">
@@ -10637,7 +10637,7 @@
         <v>31.61111111111111</v>
       </c>
       <c r="H162" t="n">
-        <v>72.3</v>
+        <v>22.38888888888889</v>
       </c>
       <c r="I162" t="n">
         <v>100.66</v>
@@ -10670,7 +10670,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S162" t="n">
-        <v>750.1285572088348</v>
+        <v>58.13200416748531</v>
       </c>
     </row>
     <row r="163">
@@ -10700,7 +10700,7 @@
         <v>27.55555555555555</v>
       </c>
       <c r="H163" t="n">
-        <v>73.5</v>
+        <v>23.05555555555556</v>
       </c>
       <c r="I163" t="n">
         <v>100.38</v>
@@ -10733,7 +10733,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S163" t="n">
-        <v>998.0688411871082</v>
+        <v>76.49232707990902</v>
       </c>
     </row>
     <row r="164">
@@ -10763,7 +10763,7 @@
         <v>29.33333333333333</v>
       </c>
       <c r="H164" t="n">
-        <v>71.8</v>
+        <v>22.11111111111111</v>
       </c>
       <c r="I164" t="n">
         <v>100.23</v>
@@ -10796,7 +10796,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S164" t="n">
-        <v>836.4846893908309</v>
+        <v>65.12850825202501</v>
       </c>
     </row>
     <row r="165">
@@ -10826,7 +10826,7 @@
         <v>23</v>
       </c>
       <c r="H165" t="n">
-        <v>72.09999999999999</v>
+        <v>22.27777777777778</v>
       </c>
       <c r="I165" t="n">
         <v>100.12</v>
@@ -10859,7 +10859,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S165" t="n">
-        <v>1232.693798096757</v>
+        <v>95.70761605439297</v>
       </c>
     </row>
     <row r="166">
@@ -10889,7 +10889,7 @@
         <v>28.88888888888889</v>
       </c>
       <c r="H166" t="n">
-        <v>67.8</v>
+        <v>19.88888888888889</v>
       </c>
       <c r="I166" t="n">
         <v>100.31</v>
@@ -10922,7 +10922,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S166" t="n">
-        <v>720.2476945401839</v>
+        <v>58.28950188466033</v>
       </c>
     </row>
     <row r="167">
@@ -10952,7 +10952,7 @@
         <v>30.66666666666667</v>
       </c>
       <c r="H167" t="n">
-        <v>67</v>
+        <v>19.44444444444445</v>
       </c>
       <c r="I167" t="n">
         <v>100.17</v>
@@ -10985,7 +10985,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S167" t="n">
-        <v>627.3837666731775</v>
+        <v>51.18183615092323</v>
       </c>
     </row>
     <row r="168">
@@ -11015,7 +11015,7 @@
         <v>32.72222222222223</v>
       </c>
       <c r="H168" t="n">
-        <v>71.59999999999999</v>
+        <v>22</v>
       </c>
       <c r="I168" t="n">
         <v>100.14</v>
@@ -11048,7 +11048,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S168" t="n">
-        <v>683.3904700857606</v>
+        <v>53.30887283863782</v>
       </c>
     </row>
     <row r="169">
@@ -11078,7 +11078,7 @@
         <v>23.77777777777778</v>
       </c>
       <c r="H169" t="n">
-        <v>71.90000000000001</v>
+        <v>22.16666666666667</v>
       </c>
       <c r="I169" t="n">
         <v>100.31</v>
@@ -11111,7 +11111,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S169" t="n">
-        <v>1165.995086861099</v>
+        <v>90.69889521861975</v>
       </c>
     </row>
     <row r="170">
@@ -11141,7 +11141,7 @@
         <v>22.83333333333333</v>
       </c>
       <c r="H170" t="n">
-        <v>71.3</v>
+        <v>21.83333333333333</v>
       </c>
       <c r="I170" t="n">
         <v>100.17</v>
@@ -11174,7 +11174,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S170" t="n">
-        <v>1202.808284609269</v>
+        <v>94.09304029007498</v>
       </c>
     </row>
     <row r="171">
@@ -11204,7 +11204,7 @@
         <v>24.61111111111111</v>
       </c>
       <c r="H171" t="n">
-        <v>73.09999999999999</v>
+        <v>22.83333333333333</v>
       </c>
       <c r="I171" t="n">
         <v>100.22</v>
@@ -11237,7 +11237,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S171" t="n">
-        <v>1167.945177748926</v>
+        <v>89.84173938582315</v>
       </c>
     </row>
     <row r="172">
@@ -11267,7 +11267,7 @@
         <v>28.44444444444445</v>
       </c>
       <c r="H172" t="n">
-        <v>74.09999999999999</v>
+        <v>23.38888888888889</v>
       </c>
       <c r="I172" t="n">
         <v>100.2</v>
@@ -11300,7 +11300,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S172" t="n">
-        <v>972.2166260031208</v>
+        <v>74.10369327580166</v>
       </c>
     </row>
     <row r="173">
@@ -11330,7 +11330,7 @@
         <v>29</v>
       </c>
       <c r="H173" t="n">
-        <v>69.8</v>
+        <v>21</v>
       </c>
       <c r="I173" t="n">
         <v>100.07</v>
@@ -11363,7 +11363,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S173" t="n">
-        <v>781.6338332889495</v>
+        <v>62.02914001596091</v>
       </c>
     </row>
     <row r="174">
@@ -11393,7 +11393,7 @@
         <v>29.33333333333333</v>
       </c>
       <c r="H174" t="n">
-        <v>73.3</v>
+        <v>22.94444444444444</v>
       </c>
       <c r="I174" t="n">
         <v>100.11</v>
@@ -11426,7 +11426,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S174" t="n">
-        <v>892.3164895322158</v>
+        <v>68.51321101200827</v>
       </c>
     </row>
     <row r="175">
@@ -11456,7 +11456,7 @@
         <v>25.27777777777778</v>
       </c>
       <c r="H175" t="n">
-        <v>69.59999999999999</v>
+        <v>20.88888888888889</v>
       </c>
       <c r="I175" t="n">
         <v>100.41</v>
@@ -11489,7 +11489,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S175" t="n">
-        <v>964.1802375366947</v>
+        <v>76.66400168997815</v>
       </c>
     </row>
     <row r="176">
@@ -11519,7 +11519,7 @@
         <v>22.77777777777778</v>
       </c>
       <c r="H176" t="n">
-        <v>69.40000000000001</v>
+        <v>20.77777777777778</v>
       </c>
       <c r="I176" t="n">
         <v>100.56</v>
@@ -11552,7 +11552,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S176" t="n">
-        <v>1110.749726035533</v>
+        <v>88.48969462802292</v>
       </c>
     </row>
     <row r="177">
@@ -11582,7 +11582,7 @@
         <v>27.38888888888889</v>
       </c>
       <c r="H177" t="n">
-        <v>70.09999999999999</v>
+        <v>21.16666666666666</v>
       </c>
       <c r="I177" t="n">
         <v>100.78</v>
@@ -11615,7 +11615,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S177" t="n">
-        <v>869.9469840726325</v>
+        <v>68.83801864409097</v>
       </c>
     </row>
     <row r="178">
@@ -11645,7 +11645,7 @@
         <v>27.5</v>
       </c>
       <c r="H178" t="n">
-        <v>70.5</v>
+        <v>21.38888888888889</v>
       </c>
       <c r="I178" t="n">
         <v>100.62</v>
@@ -11678,7 +11678,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S178" t="n">
-        <v>879.5390138987766</v>
+        <v>69.33031177215561</v>
       </c>
     </row>
     <row r="179">
@@ -11708,7 +11708,7 @@
         <v>28.72222222222222</v>
       </c>
       <c r="H179" t="n">
-        <v>68.59999999999999</v>
+        <v>20.33333333333333</v>
       </c>
       <c r="I179" t="n">
         <v>100.52</v>
@@ -11741,7 +11741,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S179" t="n">
-        <v>753.4741107243566</v>
+        <v>60.4980767945805</v>
       </c>
     </row>
     <row r="180">
@@ -11771,7 +11771,7 @@
         <v>28.55555555555556</v>
       </c>
       <c r="H180" t="n">
-        <v>70.5</v>
+        <v>21.38888888888889</v>
       </c>
       <c r="I180" t="n">
         <v>100.52</v>
@@ -11804,7 +11804,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S180" t="n">
-        <v>826.9933422746292</v>
+        <v>65.18836043354369</v>
       </c>
     </row>
     <row r="181">
@@ -11834,7 +11834,7 @@
         <v>24.77777777777778</v>
       </c>
       <c r="H181" t="n">
-        <v>71.09999999999999</v>
+        <v>21.72222222222222</v>
       </c>
       <c r="I181" t="n">
         <v>100.59</v>
@@ -11867,7 +11867,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S181" t="n">
-        <v>1060.64767799879</v>
+        <v>83.12955904072342</v>
       </c>
     </row>
     <row r="182">
@@ -11897,7 +11897,7 @@
         <v>26.88888888888889</v>
       </c>
       <c r="H182" t="n">
-        <v>72.09999999999999</v>
+        <v>22.27777777777778</v>
       </c>
       <c r="I182" t="n">
         <v>100.82</v>
@@ -11930,7 +11930,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S182" t="n">
-        <v>977.2576183048627</v>
+        <v>75.87528797772931</v>
       </c>
     </row>
     <row r="183">
@@ -11960,7 +11960,7 @@
         <v>29.16666666666667</v>
       </c>
       <c r="H183" t="n">
-        <v>74.8</v>
+        <v>23.77777777777778</v>
       </c>
       <c r="I183" t="n">
         <v>100.45</v>
@@ -11993,7 +11993,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S183" t="n">
-        <v>960.5096867759786</v>
+        <v>72.74894374714702</v>
       </c>
     </row>
     <row r="184">
@@ -12023,7 +12023,7 @@
         <v>29.11111111111111</v>
       </c>
       <c r="H184" t="n">
-        <v>76.09999999999999</v>
+        <v>24.5</v>
       </c>
       <c r="I184" t="n">
         <v>100.72</v>
@@ -12056,7 +12056,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S184" t="n">
-        <v>1018.069783919182</v>
+        <v>76.21910017335294</v>
       </c>
     </row>
     <row r="185">
@@ -12086,7 +12086,7 @@
         <v>31.16666666666666</v>
       </c>
       <c r="H185" t="n">
-        <v>76</v>
+        <v>24.44444444444445</v>
       </c>
       <c r="I185" t="n">
         <v>100.66</v>
@@ -12119,7 +12119,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S185" t="n">
-        <v>900.8442097002554</v>
+        <v>67.50256224351131</v>
       </c>
     </row>
     <row r="186">
@@ -12149,7 +12149,7 @@
         <v>32.5</v>
       </c>
       <c r="H186" t="n">
-        <v>75.7</v>
+        <v>24.27777777777778</v>
       </c>
       <c r="I186" t="n">
         <v>100.42</v>
@@ -12182,7 +12182,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S186" t="n">
-        <v>824.6832543852811</v>
+        <v>61.96035745026888</v>
       </c>
     </row>
     <row r="187">
@@ -12212,7 +12212,7 @@
         <v>31.66666666666667</v>
       </c>
       <c r="H187" t="n">
-        <v>77.40000000000001</v>
+        <v>25.22222222222222</v>
       </c>
       <c r="I187" t="n">
         <v>100.34</v>
@@ -12245,7 +12245,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S187" t="n">
-        <v>928.545947584957</v>
+        <v>68.72950196464105</v>
       </c>
     </row>
     <row r="188">
@@ -12275,7 +12275,7 @@
         <v>33.22222222222222</v>
       </c>
       <c r="H188" t="n">
-        <v>75.8</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="I188" t="n">
         <v>100.09</v>
@@ -12308,7 +12308,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S188" t="n">
-        <v>795.1527010658368</v>
+        <v>59.68859262468889</v>
       </c>
     </row>
     <row r="189">
@@ -12338,7 +12338,7 @@
         <v>26.44444444444444</v>
       </c>
       <c r="H189" t="n">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="I189" t="n">
         <v>100.49</v>
@@ -12371,7 +12371,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S189" t="n">
-        <v>1235.687342215443</v>
+        <v>91.78266403598681</v>
       </c>
     </row>
     <row r="190">
@@ -12401,7 +12401,7 @@
         <v>19.44444444444445</v>
       </c>
       <c r="H190" t="n">
-        <v>65.59999999999999</v>
+        <v>18.66666666666666</v>
       </c>
       <c r="I190" t="n">
         <v>100.77</v>
@@ -12434,7 +12434,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S190" t="n">
-        <v>1151.224007687139</v>
+        <v>95.26139309705277</v>
       </c>
     </row>
     <row r="191">
@@ -12464,7 +12464,7 @@
         <v>26.16666666666666</v>
       </c>
       <c r="H191" t="n">
-        <v>73.90000000000001</v>
+        <v>23.27777777777778</v>
       </c>
       <c r="I191" t="n">
         <v>100.45</v>
@@ -12497,7 +12497,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S191" t="n">
-        <v>1101.780829385987</v>
+        <v>84.13240355642223</v>
       </c>
     </row>
     <row r="192">
@@ -12527,7 +12527,7 @@
         <v>30.11111111111111</v>
       </c>
       <c r="H192" t="n">
-        <v>78.40000000000001</v>
+        <v>25.77777777777778</v>
       </c>
       <c r="I192" t="n">
         <v>100.29</v>
@@ -12560,7 +12560,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S192" t="n">
-        <v>1058.037040962908</v>
+        <v>77.64213564094065</v>
       </c>
     </row>
     <row r="193">
@@ -12590,7 +12590,7 @@
         <v>27.55555555555555</v>
       </c>
       <c r="H193" t="n">
-        <v>78.09999999999999</v>
+        <v>25.61111111111111</v>
       </c>
       <c r="I193" t="n">
         <v>100.28</v>
@@ -12623,7 +12623,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S193" t="n">
-        <v>1211.922962987632</v>
+        <v>89.16388464958411</v>
       </c>
     </row>
     <row r="194">
@@ -12653,7 +12653,7 @@
         <v>32.05555555555556</v>
       </c>
       <c r="H194" t="n">
-        <v>74.5</v>
+        <v>23.61111111111111</v>
       </c>
       <c r="I194" t="n">
         <v>99.88</v>
@@ -12686,7 +12686,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S194" t="n">
-        <v>803.7413370338884</v>
+        <v>61.04038672732015</v>
       </c>
     </row>
     <row r="195">
@@ -12716,7 +12716,7 @@
         <v>28.66666666666666</v>
       </c>
       <c r="H195" t="n">
-        <v>69.8</v>
+        <v>21</v>
       </c>
       <c r="I195" t="n">
         <v>100.56</v>
@@ -12749,7 +12749,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S195" t="n">
-        <v>796.8962090477878</v>
+        <v>63.24033636212933</v>
       </c>
     </row>
     <row r="196">
@@ -12779,7 +12779,7 @@
         <v>31.11111111111111</v>
       </c>
       <c r="H196" t="n">
-        <v>75.2</v>
+        <v>24</v>
       </c>
       <c r="I196" t="n">
         <v>100.15</v>
@@ -12812,7 +12812,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S196" t="n">
-        <v>873.6650877470183</v>
+        <v>65.93403433869301</v>
       </c>
     </row>
     <row r="197">
@@ -12842,7 +12842,7 @@
         <v>25.44444444444444</v>
       </c>
       <c r="H197" t="n">
-        <v>72.7</v>
+        <v>22.61111111111111</v>
       </c>
       <c r="I197" t="n">
         <v>100.44</v>
@@ -12875,7 +12875,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S197" t="n">
-        <v>1092.347284471891</v>
+        <v>84.3381010543431</v>
       </c>
     </row>
     <row r="198">
@@ -12905,7 +12905,7 @@
         <v>21.5</v>
       </c>
       <c r="H198" t="n">
-        <v>64.09999999999999</v>
+        <v>17.83333333333333</v>
       </c>
       <c r="I198" t="n">
         <v>100.95</v>
@@ -12938,7 +12938,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S198" t="n">
-        <v>947.4496774039684</v>
+        <v>79.62782613157987</v>
       </c>
     </row>
     <row r="199">
@@ -12968,7 +12968,7 @@
         <v>22.88888888888889</v>
       </c>
       <c r="H199" t="n">
-        <v>52.1</v>
+        <v>11.16666666666667</v>
       </c>
       <c r="I199" t="n">
         <v>101.46</v>
@@ -13001,7 +13001,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S199" t="n">
-        <v>493.3806852729608</v>
+        <v>47.54662407983733</v>
       </c>
     </row>
     <row r="200">
@@ -13031,7 +13031,7 @@
         <v>17.05555555555556</v>
       </c>
       <c r="H200" t="n">
-        <v>57.3</v>
+        <v>14.05555555555556</v>
       </c>
       <c r="I200" t="n">
         <v>101.43</v>
@@ -13064,7 +13064,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S200" t="n">
-        <v>910.9735675874294</v>
+        <v>82.50205027476699</v>
       </c>
     </row>
     <row r="201">
@@ -13094,7 +13094,7 @@
         <v>19</v>
       </c>
       <c r="H201" t="n">
-        <v>62.7</v>
+        <v>17.05555555555556</v>
       </c>
       <c r="I201" t="n">
         <v>101.42</v>
@@ -13127,7 +13127,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S201" t="n">
-        <v>1037.377874011452</v>
+        <v>88.4864185252835</v>
       </c>
     </row>
     <row r="202">
@@ -13157,7 +13157,7 @@
         <v>20.16666666666666</v>
       </c>
       <c r="H202" t="n">
-        <v>63</v>
+        <v>17.22222222222222</v>
       </c>
       <c r="I202" t="n">
         <v>101.36</v>
@@ -13190,7 +13190,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S202" t="n">
-        <v>978.1652349027139</v>
+        <v>83.16932251441456</v>
       </c>
     </row>
     <row r="203">
@@ -13220,7 +13220,7 @@
         <v>25.66666666666667</v>
       </c>
       <c r="H203" t="n">
-        <v>63.6</v>
+        <v>17.55555555555556</v>
       </c>
       <c r="I203" t="n">
         <v>101.29</v>
@@ -13253,7 +13253,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S203" t="n">
-        <v>720.2961297917595</v>
+        <v>60.85581432374405</v>
       </c>
     </row>
     <row r="204">
@@ -13283,7 +13283,7 @@
         <v>20.05555555555555</v>
       </c>
       <c r="H204" t="n">
-        <v>58.9</v>
+        <v>14.94444444444444</v>
       </c>
       <c r="I204" t="n">
         <v>101.54</v>
@@ -13316,7 +13316,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S204" t="n">
-        <v>814.2181338939929</v>
+        <v>72.40767149558692</v>
       </c>
     </row>
     <row r="205">
@@ -13346,7 +13346,7 @@
         <v>24.44444444444445</v>
       </c>
       <c r="H205" t="n">
-        <v>58.3</v>
+        <v>14.61111111111111</v>
       </c>
       <c r="I205" t="n">
         <v>100.81</v>
@@ -13379,7 +13379,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S205" t="n">
-        <v>605.7904522334082</v>
+        <v>54.23925536066323</v>
       </c>
     </row>
     <row r="206">
@@ -13409,7 +13409,7 @@
         <v>25.16666666666667</v>
       </c>
       <c r="H206" t="n">
-        <v>62</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="I206" t="n">
         <v>100.74</v>
@@ -13442,7 +13442,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S206" t="n">
-        <v>689.5460791309766</v>
+        <v>59.26059403534275</v>
       </c>
     </row>
     <row r="207">
@@ -13472,7 +13472,7 @@
         <v>24.05555555555555</v>
       </c>
       <c r="H207" t="n">
-        <v>54.2</v>
+        <v>12.33333333333334</v>
       </c>
       <c r="I207" t="n">
         <v>101.21</v>
@@ -13505,7 +13505,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S207" t="n">
-        <v>509.5502932537817</v>
+        <v>47.86230310192524</v>
       </c>
     </row>
     <row r="208">
@@ -13535,7 +13535,7 @@
         <v>22.72222222222222</v>
       </c>
       <c r="H208" t="n">
-        <v>50.9</v>
+        <v>10.5</v>
       </c>
       <c r="I208" t="n">
         <v>101.9</v>
@@ -13568,7 +13568,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S208" t="n">
-        <v>469.6852198903686</v>
+        <v>45.94652026401226</v>
       </c>
     </row>
     <row r="209">
@@ -13598,7 +13598,7 @@
         <v>24.55555555555556</v>
       </c>
       <c r="H209" t="n">
-        <v>57.3</v>
+        <v>14.05555555555556</v>
       </c>
       <c r="I209" t="n">
         <v>101.86</v>
@@ -13631,7 +13631,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S209" t="n">
-        <v>573.9155939622461</v>
+        <v>51.97649511603608</v>
       </c>
     </row>
     <row r="210">
@@ -13661,7 +13661,7 @@
         <v>24.66666666666667</v>
       </c>
       <c r="H210" t="n">
-        <v>58.2</v>
+        <v>14.55555555555556</v>
       </c>
       <c r="I210" t="n">
         <v>101.75</v>
@@ -13694,7 +13694,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S210" t="n">
-        <v>594.9646055602232</v>
+        <v>53.33055179255417</v>
       </c>
     </row>
     <row r="211">
@@ -13724,7 +13724,7 @@
         <v>22.22222222222222</v>
       </c>
       <c r="H211" t="n">
-        <v>60.8</v>
+        <v>16</v>
       </c>
       <c r="I211" t="n">
         <v>101.25</v>
@@ -13757,7 +13757,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S211" t="n">
-        <v>778.9543818191994</v>
+        <v>67.82401357762188</v>
       </c>
     </row>
     <row r="212">
@@ -13787,7 +13787,7 @@
         <v>25.5</v>
       </c>
       <c r="H212" t="n">
-        <v>58.5</v>
+        <v>14.72222222222222</v>
       </c>
       <c r="I212" t="n">
         <v>101.36</v>
@@ -13820,7 +13820,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S212" t="n">
-        <v>574.1921733672729</v>
+        <v>51.2936168168834</v>
       </c>
     </row>
     <row r="213">
@@ -13850,7 +13850,7 @@
         <v>22.33333333333334</v>
       </c>
       <c r="H213" t="n">
-        <v>61.5</v>
+        <v>16.38888888888889</v>
       </c>
       <c r="I213" t="n">
         <v>101.7</v>
@@ -13883,7 +13883,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S213" t="n">
-        <v>799.2196640547199</v>
+        <v>69.05884129521137</v>
       </c>
     </row>
     <row r="214">
@@ -13913,7 +13913,7 @@
         <v>22.22222222222222</v>
       </c>
       <c r="H214" t="n">
-        <v>65.3</v>
+        <v>18.5</v>
       </c>
       <c r="I214" t="n">
         <v>101.43</v>
@@ -13946,7 +13946,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S214" t="n">
-        <v>957.1888095837415</v>
+        <v>79.44995969702036</v>
       </c>
     </row>
     <row r="215">
@@ -13976,7 +13976,7 @@
         <v>22.38888888888889</v>
       </c>
       <c r="H215" t="n">
-        <v>61.2</v>
+        <v>16.22222222222222</v>
       </c>
       <c r="I215" t="n">
         <v>100.72</v>
@@ -14009,7 +14009,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S215" t="n">
-        <v>785.5346411340213</v>
+        <v>68.0983569743471</v>
       </c>
     </row>
     <row r="216">
@@ -14039,7 +14039,7 @@
         <v>25.72222222222222</v>
       </c>
       <c r="H216" t="n">
-        <v>62.4</v>
+        <v>16.88888888888889</v>
       </c>
       <c r="I216" t="n">
         <v>100.91</v>
@@ -14072,7 +14072,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S216" t="n">
-        <v>679.5307254397973</v>
+        <v>58.14913765561312</v>
       </c>
     </row>
     <row r="217">
@@ -14102,7 +14102,7 @@
         <v>23.83333333333334</v>
       </c>
       <c r="H217" t="n">
-        <v>54.8</v>
+        <v>12.66666666666667</v>
       </c>
       <c r="I217" t="n">
         <v>101.24</v>
@@ -14135,7 +14135,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S217" t="n">
-        <v>531.6401658739748</v>
+        <v>49.5796403434422</v>
       </c>
     </row>
     <row r="218">
@@ -14165,7 +14165,7 @@
         <v>20.05555555555555</v>
       </c>
       <c r="H218" t="n">
-        <v>48.5</v>
+        <v>9.166666666666668</v>
       </c>
       <c r="I218" t="n">
         <v>101.88</v>
@@ -14198,7 +14198,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S218" t="n">
-        <v>490.520025127326</v>
+        <v>49.48223547331705</v>
       </c>
     </row>
     <row r="219">
@@ -14228,7 +14228,7 @@
         <v>20.94444444444445</v>
       </c>
       <c r="H219" t="n">
-        <v>46.2</v>
+        <v>7.888888888888891</v>
       </c>
       <c r="I219" t="n">
         <v>101.35</v>
@@ -14261,7 +14261,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S219" t="n">
-        <v>413.0651713811538</v>
+        <v>42.95626761075113</v>
       </c>
     </row>
     <row r="220">
@@ -14291,7 +14291,7 @@
         <v>22.44444444444445</v>
       </c>
       <c r="H220" t="n">
-        <v>48.9</v>
+        <v>9.388888888888889</v>
       </c>
       <c r="I220" t="n">
         <v>101.24</v>
@@ -14324,7 +14324,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S220" t="n">
-        <v>432.2387794909239</v>
+        <v>43.37712676425622</v>
       </c>
     </row>
     <row r="221">
@@ -14354,7 +14354,7 @@
         <v>15.94444444444445</v>
       </c>
       <c r="H221" t="n">
-        <v>29.8</v>
+        <v>-1.222222222222222</v>
       </c>
       <c r="I221" t="n">
         <v>102.06</v>
@@ -14387,7 +14387,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S221" t="n">
-        <v>231.8143389941548</v>
+        <v>30.87975355272713</v>
       </c>
     </row>
     <row r="222">
@@ -14417,7 +14417,7 @@
         <v>18.72222222222222</v>
       </c>
       <c r="H222" t="n">
-        <v>36.1</v>
+        <v>2.277777777777779</v>
       </c>
       <c r="I222" t="n">
         <v>101.66</v>
@@ -14450,7 +14450,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S222" t="n">
-        <v>277.2692827250937</v>
+        <v>33.35878569279433</v>
       </c>
     </row>
     <row r="223">
@@ -14480,7 +14480,7 @@
         <v>22.27777777777778</v>
       </c>
       <c r="H223" t="n">
-        <v>42.3</v>
+        <v>5.722222222222221</v>
       </c>
       <c r="I223" t="n">
         <v>101.5</v>
@@ -14513,7 +14513,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S223" t="n">
-        <v>310.8500984024611</v>
+        <v>34.11580432963525</v>
       </c>
     </row>
     <row r="224">
@@ -14543,7 +14543,7 @@
         <v>21.55555555555555</v>
       </c>
       <c r="H224" t="n">
-        <v>50.4</v>
+        <v>10.22222222222222</v>
       </c>
       <c r="I224" t="n">
         <v>101.63</v>
@@ -14576,7 +14576,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S224" t="n">
-        <v>491.9301808644384</v>
+        <v>48.42762567310304</v>
       </c>
     </row>
     <row r="225">
@@ -14606,7 +14606,7 @@
         <v>24.44444444444445</v>
       </c>
       <c r="H225" t="n">
-        <v>54.9</v>
+        <v>12.72222222222222</v>
       </c>
       <c r="I225" t="n">
         <v>101.5</v>
@@ -14639,7 +14639,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S225" t="n">
-        <v>514.961874213578</v>
+        <v>47.96705305030745</v>
       </c>
     </row>
     <row r="226">
@@ -14669,7 +14669,7 @@
         <v>26</v>
       </c>
       <c r="H226" t="n">
-        <v>56.3</v>
+        <v>13.5</v>
       </c>
       <c r="I226" t="n">
         <v>101.27</v>
@@ -14702,7 +14702,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S226" t="n">
-        <v>502.0701965529884</v>
+        <v>46.00032294647406</v>
       </c>
     </row>
     <row r="227">
@@ -14732,7 +14732,7 @@
         <v>24.72222222222222</v>
       </c>
       <c r="H227" t="n">
-        <v>57.5</v>
+        <v>14.16666666666667</v>
       </c>
       <c r="I227" t="n">
         <v>101.26</v>
@@ -14765,7 +14765,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S227" t="n">
-        <v>573.6461637488123</v>
+        <v>51.83271652525395</v>
       </c>
     </row>
     <row r="228">
@@ -14795,7 +14795,7 @@
         <v>16.77777777777778</v>
       </c>
       <c r="H228" t="n">
-        <v>57.3</v>
+        <v>14.05555555555556</v>
       </c>
       <c r="I228" t="n">
         <v>101.61</v>
@@ -14828,7 +14828,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S228" t="n">
-        <v>927.1705424185566</v>
+        <v>83.96892448425226</v>
       </c>
     </row>
     <row r="229">
@@ -14858,7 +14858,7 @@
         <v>10.33333333333333</v>
       </c>
       <c r="H229" t="n">
-        <v>33.7</v>
+        <v>0.9444444444444461</v>
       </c>
       <c r="I229" t="n">
         <v>102.95</v>
@@ -14891,7 +14891,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S229" t="n">
-        <v>417.3948087584078</v>
+        <v>52.14927980728012</v>
       </c>
     </row>
     <row r="230">
@@ -14921,7 +14921,7 @@
         <v>11.44444444444445</v>
       </c>
       <c r="H230" t="n">
-        <v>39.1</v>
+        <v>3.944444444444446</v>
       </c>
       <c r="I230" t="n">
         <v>102.83</v>
@@ -14954,7 +14954,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S230" t="n">
-        <v>521.5224802268771</v>
+        <v>59.95758217107797</v>
       </c>
     </row>
     <row r="231">
@@ -14984,7 +14984,7 @@
         <v>11.16666666666667</v>
       </c>
       <c r="H231" t="n">
-        <v>43</v>
+        <v>6.111111111111112</v>
       </c>
       <c r="I231" t="n">
         <v>102.65</v>
@@ -15017,7 +15017,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S231" t="n">
-        <v>653.5473264333505</v>
+        <v>71.02126519594461</v>
       </c>
     </row>
     <row r="232">
@@ -15047,7 +15047,7 @@
         <v>14.77777777777778</v>
       </c>
       <c r="H232" t="n">
-        <v>42.4</v>
+        <v>5.777777777777778</v>
       </c>
       <c r="I232" t="n">
         <v>102.43</v>
@@ -15080,7 +15080,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S232" t="n">
-        <v>500.0346629193754</v>
+        <v>54.8010447981517</v>
       </c>
     </row>
     <row r="233">
@@ -15110,7 +15110,7 @@
         <v>15.72222222222222</v>
       </c>
       <c r="H233" t="n">
-        <v>44.6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="I233" t="n">
         <v>102.13</v>
@@ -15143,7 +15143,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S233" t="n">
-        <v>527.8983911533593</v>
+        <v>56.10529839395434</v>
       </c>
     </row>
     <row r="234">
@@ -15173,7 +15173,7 @@
         <v>11.11111111111111</v>
       </c>
       <c r="H234" t="n">
-        <v>24.9</v>
+        <v>-3.944444444444446</v>
       </c>
       <c r="I234" t="n">
         <v>102.62</v>
@@ -15206,7 +15206,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S234" t="n">
-        <v>238.2547510431445</v>
+        <v>34.57431426146206</v>
       </c>
     </row>
     <row r="235">
@@ -15236,7 +15236,7 @@
         <v>8.444444444444446</v>
       </c>
       <c r="H235" t="n">
-        <v>28.8</v>
+        <v>-1.777777777777777</v>
       </c>
       <c r="I235" t="n">
         <v>102.69</v>
@@ -15269,7 +15269,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S235" t="n">
-        <v>358.4550002419921</v>
+        <v>48.56809753706409</v>
       </c>
     </row>
     <row r="236">
@@ -15299,7 +15299,7 @@
         <v>15.27777777777778</v>
       </c>
       <c r="H236" t="n">
-        <v>27.7</v>
+        <v>-2.388888888888889</v>
       </c>
       <c r="I236" t="n">
         <v>102.58</v>
@@ -15332,7 +15332,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S236" t="n">
-        <v>214.1667186226446</v>
+        <v>29.57393855019129</v>
       </c>
     </row>
     <row r="237">
@@ -15362,7 +15362,7 @@
         <v>16.66666666666667</v>
       </c>
       <c r="H237" t="n">
-        <v>34.9</v>
+        <v>1.61111111111111</v>
       </c>
       <c r="I237" t="n">
         <v>102.54</v>
@@ -15395,7 +15395,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S237" t="n">
-        <v>295.3911708117369</v>
+        <v>36.21046275991603</v>
       </c>
     </row>
     <row r="238">
@@ -15425,7 +15425,7 @@
         <v>16.88888888888889</v>
       </c>
       <c r="H238" t="n">
-        <v>45.6</v>
+        <v>7.555555555555556</v>
       </c>
       <c r="I238" t="n">
         <v>102.35</v>
@@ -15458,7 +15458,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S238" t="n">
-        <v>516.0451932223015</v>
+        <v>54.10198653936694</v>
       </c>
     </row>
     <row r="239">
@@ -15488,7 +15488,7 @@
         <v>18.5</v>
       </c>
       <c r="H239" t="n">
-        <v>51.1</v>
+        <v>10.61111111111111</v>
       </c>
       <c r="I239" t="n">
         <v>102.02</v>
@@ -15521,7 +15521,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S239" t="n">
-        <v>615.5022573327678</v>
+        <v>60.05969520768082</v>
       </c>
     </row>
     <row r="240">
@@ -15551,7 +15551,7 @@
         <v>13.72222222222222</v>
       </c>
       <c r="H240" t="n">
-        <v>43.3</v>
+        <v>6.277777777777777</v>
       </c>
       <c r="I240" t="n">
         <v>102.65</v>
@@ -15584,7 +15584,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S240" t="n">
-        <v>561.306332857652</v>
+        <v>60.74129953466764</v>
       </c>
     </row>
     <row r="241">
@@ -15614,7 +15614,7 @@
         <v>9.666666666666666</v>
       </c>
       <c r="H241" t="n">
-        <v>21.2</v>
+        <v>-6.000000000000001</v>
       </c>
       <c r="I241" t="n">
         <v>102.98</v>
@@ -15647,7 +15647,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S241" t="n">
-        <v>209.7001019418561</v>
+        <v>32.59230796171877</v>
       </c>
     </row>
     <row r="242">
@@ -15677,7 +15677,7 @@
         <v>14</v>
       </c>
       <c r="H242" t="n">
-        <v>19.1</v>
+        <v>-7.166666666666666</v>
       </c>
       <c r="I242" t="n">
         <v>102.69</v>
@@ -15710,7 +15710,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S242" t="n">
-        <v>138.3358478956532</v>
+        <v>22.3905500905968</v>
       </c>
     </row>
     <row r="243">
@@ -15740,7 +15740,7 @@
         <v>16.61111111111111</v>
       </c>
       <c r="H243" t="n">
-        <v>26.4</v>
+        <v>-3.111111111111112</v>
       </c>
       <c r="I243" t="n">
         <v>102.55</v>
@@ -15773,7 +15773,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S243" t="n">
-        <v>182.200773092186</v>
+        <v>25.74011719277999</v>
       </c>
     </row>
     <row r="244">
@@ -15803,7 +15803,7 @@
         <v>17.55555555555556</v>
       </c>
       <c r="H244" t="n">
-        <v>38</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="I244" t="n">
         <v>102.32</v>
@@ -15836,7 +15836,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S244" t="n">
-        <v>331.0220209503332</v>
+        <v>38.68741607821929</v>
       </c>
     </row>
     <row r="245">
@@ -15866,7 +15866,7 @@
         <v>18.44444444444445</v>
       </c>
       <c r="H245" t="n">
-        <v>46.3</v>
+        <v>7.944444444444443</v>
       </c>
       <c r="I245" t="n">
         <v>102.16</v>
@@ -15899,7 +15899,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S245" t="n">
-        <v>484.9356340929871</v>
+        <v>50.36265911591853</v>
       </c>
     </row>
     <row r="246">
@@ -15929,7 +15929,7 @@
         <v>17.11111111111111</v>
       </c>
       <c r="H246" t="n">
-        <v>35.3</v>
+        <v>1.833333333333332</v>
       </c>
       <c r="I246" t="n">
         <v>102.44</v>
@@ -15962,7 +15962,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S246" t="n">
-        <v>293.6152073119817</v>
+        <v>35.76767253409553</v>
       </c>
     </row>
     <row r="247">
@@ -15992,7 +15992,7 @@
         <v>17.44444444444444</v>
       </c>
       <c r="H247" t="n">
-        <v>30.9</v>
+        <v>-0.6111111111111119</v>
       </c>
       <c r="I247" t="n">
         <v>102.48</v>
@@ -16025,7 +16025,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S247" t="n">
-        <v>224.4642963731082</v>
+        <v>29.35467719976612</v>
       </c>
     </row>
     <row r="248">
@@ -16055,7 +16055,7 @@
         <v>19.33333333333333</v>
       </c>
       <c r="H248" t="n">
-        <v>36.4</v>
+        <v>2.444444444444444</v>
       </c>
       <c r="I248" t="n">
         <v>102.36</v>
@@ -16088,7 +16088,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S248" t="n">
-        <v>271.3289265002002</v>
+        <v>32.4932854820997</v>
       </c>
     </row>
     <row r="249">
@@ -16118,7 +16118,7 @@
         <v>12.94444444444444</v>
       </c>
       <c r="H249" t="n">
-        <v>43.5</v>
+        <v>6.388888888888889</v>
       </c>
       <c r="I249" t="n">
         <v>102.6</v>
@@ -16151,7 +16151,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S249" t="n">
-        <v>596.7236949798655</v>
+        <v>64.39371666689163</v>
       </c>
     </row>
     <row r="250">
@@ -16181,7 +16181,7 @@
         <v>12.5</v>
       </c>
       <c r="H250" t="n">
-        <v>44.6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="I250" t="n">
         <v>102.97</v>
@@ -16214,7 +16214,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S250" t="n">
-        <v>650.5533073877792</v>
+        <v>69.14112269298775</v>
       </c>
     </row>
     <row r="251">
@@ -16244,7 +16244,7 @@
         <v>15</v>
       </c>
       <c r="H251" t="n">
-        <v>47.5</v>
+        <v>8.611111111111111</v>
       </c>
       <c r="I251" t="n">
         <v>102.45</v>
@@ -16277,7 +16277,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S251" t="n">
-        <v>641.693031465339</v>
+        <v>65.58640902869094</v>
       </c>
     </row>
     <row r="252">
@@ -16307,7 +16307,7 @@
         <v>13.72222222222222</v>
       </c>
       <c r="H252" t="n">
-        <v>47.2</v>
+        <v>8.444444444444446</v>
       </c>
       <c r="I252" t="n">
         <v>102.54</v>
@@ -16340,7 +16340,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S252" t="n">
-        <v>686.451357004413</v>
+        <v>70.44010162673233</v>
       </c>
     </row>
     <row r="253">
@@ -16370,7 +16370,7 @@
         <v>15.61111111111111</v>
       </c>
       <c r="H253" t="n">
-        <v>24.4</v>
+        <v>-4.222222222222223</v>
       </c>
       <c r="I253" t="n">
         <v>102.4</v>
@@ -16403,7 +16403,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S253" t="n">
-        <v>172.4206481098706</v>
+        <v>25.24873413550755</v>
       </c>
     </row>
     <row r="254">
@@ -16433,7 +16433,7 @@
         <v>16.27777777777778</v>
       </c>
       <c r="H254" t="n">
-        <v>33.5</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I254" t="n">
         <v>102</v>
@@ -16466,7 +16466,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S254" t="n">
-        <v>280.0439604442931</v>
+        <v>35.1009102393086</v>
       </c>
     </row>
     <row r="255">
@@ -16496,7 +16496,7 @@
         <v>7.388888888888888</v>
       </c>
       <c r="H255" t="n">
-        <v>38.1</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="I255" t="n">
         <v>102.9</v>
@@ -16529,7 +16529,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S255" t="n">
-        <v>649.040227238958</v>
+        <v>75.74093914752909</v>
       </c>
     </row>
     <row r="256">
@@ -16559,7 +16559,7 @@
         <v>12.94444444444444</v>
       </c>
       <c r="H256" t="n">
-        <v>30.9</v>
+        <v>-0.6111111111111119</v>
       </c>
       <c r="I256" t="n">
         <v>102.62</v>
@@ -16592,7 +16592,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S256" t="n">
-        <v>299.7819749195365</v>
+        <v>39.20446701886105</v>
       </c>
     </row>
     <row r="257">
@@ -16622,7 +16622,7 @@
         <v>14.22222222222222</v>
       </c>
       <c r="H257" t="n">
-        <v>35</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="I257" t="n">
         <v>102.1</v>
@@ -16655,7 +16655,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S257" t="n">
-        <v>347.4809354641382</v>
+        <v>42.52898517949734</v>
       </c>
     </row>
     <row r="258">
@@ -16685,7 +16685,7 @@
         <v>11.11111111111111</v>
       </c>
       <c r="H258" t="n">
-        <v>39.5</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="I258" t="n">
         <v>102.45</v>
@@ -16718,7 +16718,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S258" t="n">
-        <v>544.7717939390699</v>
+        <v>62.26093125041658</v>
       </c>
     </row>
     <row r="259">
@@ -16748,7 +16748,7 @@
         <v>14.66666666666667</v>
       </c>
       <c r="H259" t="n">
-        <v>43.2</v>
+        <v>6.222222222222224</v>
       </c>
       <c r="I259" t="n">
         <v>102.37</v>
@@ -16781,7 +16781,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S259" t="n">
-        <v>525.2324120073034</v>
+        <v>56.9172469141645</v>
       </c>
     </row>
     <row r="260">
@@ -16811,7 +16811,7 @@
         <v>16.5</v>
       </c>
       <c r="H260" t="n">
-        <v>48.9</v>
+        <v>9.388888888888889</v>
       </c>
       <c r="I260" t="n">
         <v>102.13</v>
@@ -16844,7 +16844,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S260" t="n">
-        <v>625.703502549405</v>
+        <v>62.79219134130135</v>
       </c>
     </row>
     <row r="261">
@@ -16874,7 +16874,7 @@
         <v>15.77777777777778</v>
       </c>
       <c r="H261" t="n">
-        <v>52.5</v>
+        <v>11.38888888888889</v>
       </c>
       <c r="I261" t="n">
         <v>102.21</v>
@@ -16907,7 +16907,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S261" t="n">
-        <v>783.6311508476158</v>
+        <v>75.14565551264089</v>
       </c>
     </row>
     <row r="262">
@@ -16937,7 +16937,7 @@
         <v>19.27777777777778</v>
       </c>
       <c r="H262" t="n">
-        <v>54.8</v>
+        <v>12.66666666666667</v>
       </c>
       <c r="I262" t="n">
         <v>101.74</v>
@@ -16970,7 +16970,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S262" t="n">
-        <v>702.7398303192961</v>
+        <v>65.53603410488267</v>
       </c>
     </row>
     <row r="263">
@@ -17000,7 +17000,7 @@
         <v>9.444444444444445</v>
       </c>
       <c r="H263" t="n">
-        <v>41.1</v>
+        <v>5.055555555555556</v>
       </c>
       <c r="I263" t="n">
         <v>102.24</v>
@@ -17033,7 +17033,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S263" t="n">
-        <v>663.2744391259704</v>
+        <v>74.05518887330724</v>
       </c>
     </row>
     <row r="264">
@@ -17063,7 +17063,7 @@
         <v>5.055555555555556</v>
       </c>
       <c r="H264" t="n">
-        <v>27.3</v>
+        <v>-2.611111111111111</v>
       </c>
       <c r="I264" t="n">
         <v>102.87</v>
@@ -17096,7 +17096,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S264" t="n">
-        <v>414.5204090477272</v>
+        <v>57.64095249006297</v>
       </c>
     </row>
     <row r="265">
@@ -17126,7 +17126,7 @@
         <v>10.66666666666667</v>
       </c>
       <c r="H265" t="n">
-        <v>31</v>
+        <v>-0.5555555555555556</v>
       </c>
       <c r="I265" t="n">
         <v>102.05</v>
@@ -17159,7 +17159,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S265" t="n">
-        <v>350.4186757213465</v>
+        <v>45.75048931300793</v>
       </c>
     </row>
     <row r="266">
@@ -17189,7 +17189,7 @@
         <v>12.22222222222222</v>
       </c>
       <c r="H266" t="n">
-        <v>32.6</v>
+        <v>0.3333333333333341</v>
       </c>
       <c r="I266" t="n">
         <v>101.96</v>
@@ -17222,7 +17222,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S266" t="n">
-        <v>346.1896632868572</v>
+        <v>44.02641779071996</v>
       </c>
     </row>
     <row r="267">
@@ -17252,7 +17252,7 @@
         <v>13.55555555555556</v>
       </c>
       <c r="H267" t="n">
-        <v>44.9</v>
+        <v>7.166666666666666</v>
       </c>
       <c r="I267" t="n">
         <v>102.41</v>
@@ -17285,7 +17285,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S267" t="n">
-        <v>616.6752292088911</v>
+        <v>65.27140625780351</v>
       </c>
     </row>
     <row r="268">
@@ -17315,7 +17315,7 @@
         <v>12.05555555555556</v>
       </c>
       <c r="H268" t="n">
-        <v>46.7</v>
+        <v>8.166666666666668</v>
       </c>
       <c r="I268" t="n">
         <v>102.05</v>
@@ -17348,7 +17348,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S268" t="n">
-        <v>746.2983145872394</v>
+        <v>77.09238389339816</v>
       </c>
     </row>
     <row r="269">
@@ -17378,7 +17378,7 @@
         <v>13.66666666666667</v>
       </c>
       <c r="H269" t="n">
-        <v>46.9</v>
+        <v>8.277777777777777</v>
       </c>
       <c r="I269" t="n">
         <v>101.98</v>
@@ -17411,7 +17411,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S269" t="n">
-        <v>678.4825057837917</v>
+        <v>69.90041213682879</v>
       </c>
     </row>
     <row r="270">
@@ -17441,7 +17441,7 @@
         <v>10.72222222222222</v>
       </c>
       <c r="H270" t="n">
-        <v>46.9</v>
+        <v>8.277777777777777</v>
       </c>
       <c r="I270" t="n">
         <v>102.36</v>
@@ -17474,7 +17474,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S270" t="n">
-        <v>823.5625247711495</v>
+        <v>84.84722805851575</v>
       </c>
     </row>
     <row r="271">
@@ -17504,7 +17504,7 @@
         <v>8.777777777777777</v>
       </c>
       <c r="H271" t="n">
-        <v>45.7</v>
+        <v>7.611111111111113</v>
       </c>
       <c r="I271" t="n">
         <v>102.3</v>
@@ -17537,7 +17537,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S271" t="n">
-        <v>882.3682693888931</v>
+        <v>92.38193763114441</v>
       </c>
     </row>
     <row r="272">
@@ -17567,7 +17567,7 @@
         <v>11.61111111111111</v>
       </c>
       <c r="H272" t="n">
-        <v>43.2</v>
+        <v>6.222222222222224</v>
       </c>
       <c r="I272" t="n">
         <v>102.02</v>
@@ -17600,7 +17600,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S272" t="n">
-        <v>641.2742586579842</v>
+        <v>69.49221808350006</v>
       </c>
     </row>
     <row r="273">
@@ -17630,7 +17630,7 @@
         <v>14.11111111111111</v>
       </c>
       <c r="H273" t="n">
-        <v>42.9</v>
+        <v>6.055555555555555</v>
       </c>
       <c r="I273" t="n">
         <v>101.62</v>
@@ -17663,7 +17663,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S273" t="n">
-        <v>535.961535653733</v>
+        <v>58.32513513449526</v>
       </c>
     </row>
     <row r="274">
@@ -17693,7 +17693,7 @@
         <v>12.5</v>
       </c>
       <c r="H274" t="n">
-        <v>32.3</v>
+        <v>0.1666666666666651</v>
       </c>
       <c r="I274" t="n">
         <v>101.8</v>
@@ -17726,7 +17726,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S274" t="n">
-        <v>334.2131481773672</v>
+        <v>42.71129480297044</v>
       </c>
     </row>
     <row r="275">
@@ -17756,7 +17756,7 @@
         <v>8.888888888888889</v>
       </c>
       <c r="H275" t="n">
-        <v>24.4</v>
+        <v>-4.222222222222223</v>
       </c>
       <c r="I275" t="n">
         <v>101.84</v>
@@ -17789,7 +17789,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S275" t="n">
-        <v>268.3284621982475</v>
+        <v>39.29317095894439</v>
       </c>
     </row>
     <row r="276">
@@ -17819,7 +17819,7 @@
         <v>8.611111111111111</v>
       </c>
       <c r="H276" t="n">
-        <v>36.6</v>
+        <v>2.555555555555556</v>
       </c>
       <c r="I276" t="n">
         <v>101.22</v>
@@ -17852,7 +17852,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S276" t="n">
-        <v>550.33666448184</v>
+        <v>65.70372529089329</v>
       </c>
     </row>
     <row r="277">
@@ -17882,7 +17882,7 @@
         <v>-2.722222222222221</v>
       </c>
       <c r="H277" t="n">
-        <v>-2.6</v>
+        <v>-19.22222222222222</v>
       </c>
       <c r="I277" t="n">
         <v>103.69</v>
@@ -17915,7 +17915,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S277" t="n">
-        <v>100.9107574013424</v>
+        <v>26.85628852956221</v>
       </c>
     </row>
     <row r="278">
@@ -17945,7 +17945,7 @@
         <v>1.555555555555554</v>
       </c>
       <c r="H278" t="n">
-        <v>5</v>
+        <v>-15</v>
       </c>
       <c r="I278" t="n">
         <v>102.64</v>
@@ -17978,7 +17978,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S278" t="n">
-        <v>127.5538136304357</v>
+        <v>28.02365311626742</v>
       </c>
     </row>
     <row r="279">
@@ -18008,7 +18008,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="n">
-        <v>10.6</v>
+        <v>-11.88888888888889</v>
       </c>
       <c r="I279" t="n">
         <v>103.3</v>
@@ -18041,7 +18041,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S279" t="n">
-        <v>208.9906324987224</v>
+        <v>40.3724216328754</v>
       </c>
     </row>
     <row r="280">
@@ -18071,7 +18071,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="H280" t="n">
-        <v>10.5</v>
+        <v>-11.94444444444444</v>
       </c>
       <c r="I280" t="n">
         <v>102.97</v>
@@ -18104,7 +18104,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S280" t="n">
-        <v>163.5306426446942</v>
+        <v>31.66041958991518</v>
       </c>
     </row>
     <row r="281">
@@ -18134,7 +18134,7 @@
         <v>5.055555555555556</v>
       </c>
       <c r="H281" t="n">
-        <v>21.5</v>
+        <v>-5.833333333333334</v>
       </c>
       <c r="I281" t="n">
         <v>102.71</v>
@@ -18167,7 +18167,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S281" t="n">
-        <v>292.7651468373681</v>
+        <v>45.24405657986117</v>
       </c>
     </row>
     <row r="282">
@@ -18197,7 +18197,7 @@
         <v>8.666666666666668</v>
       </c>
       <c r="H282" t="n">
-        <v>28</v>
+        <v>-2.222222222222222</v>
       </c>
       <c r="I282" t="n">
         <v>102.58</v>
@@ -18230,7 +18230,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S282" t="n">
-        <v>337.0373875810964</v>
+        <v>46.29938962820796</v>
       </c>
     </row>
     <row r="283">
@@ -18260,7 +18260,7 @@
         <v>5.111111111111112</v>
       </c>
       <c r="H283" t="n">
-        <v>33.8</v>
+        <v>0.9999999999999984</v>
       </c>
       <c r="I283" t="n">
         <v>102.64</v>
@@ -18293,7 +18293,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S283" t="n">
-        <v>599.2559465660692</v>
+        <v>74.75145046215394</v>
       </c>
     </row>
     <row r="284">
@@ -18323,7 +18323,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H284" t="n">
-        <v>8.699999999999999</v>
+        <v>-12.94444444444444</v>
       </c>
       <c r="I284" t="n">
         <v>103.1</v>
@@ -18356,7 +18356,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S284" t="n">
-        <v>176.7080696118427</v>
+        <v>35.61875785092718</v>
       </c>
     </row>
     <row r="285">
@@ -18386,7 +18386,7 @@
         <v>1.777777777777779</v>
       </c>
       <c r="H285" t="n">
-        <v>4.2</v>
+        <v>-15.44444444444444</v>
       </c>
       <c r="I285" t="n">
         <v>102.77</v>
@@ -18419,7 +18419,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S285" t="n">
-        <v>118.713157269515</v>
+        <v>26.58759738799906</v>
       </c>
     </row>
     <row r="286">
@@ -18449,7 +18449,7 @@
         <v>2.444444444444444</v>
       </c>
       <c r="H286" t="n">
-        <v>2.9</v>
+        <v>-16.16666666666667</v>
       </c>
       <c r="I286" t="n">
         <v>102.36</v>
@@ -18482,7 +18482,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S286" t="n">
-        <v>103.2873168862407</v>
+        <v>23.87798630304395</v>
       </c>
     </row>
     <row r="287">
@@ -18512,7 +18512,7 @@
         <v>1.333333333333333</v>
       </c>
       <c r="H287" t="n">
-        <v>-0.1</v>
+        <v>-17.83333333333334</v>
       </c>
       <c r="I287" t="n">
         <v>102.57</v>
@@ -18545,7 +18545,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S287" t="n">
-        <v>90.1686498552053</v>
+        <v>22.47869004773412</v>
       </c>
     </row>
     <row r="288">
@@ -18575,7 +18575,7 @@
         <v>-1.61111111111111</v>
       </c>
       <c r="H288" t="n">
-        <v>11.5</v>
+        <v>-11.38888888888889</v>
       </c>
       <c r="I288" t="n">
         <v>103.12</v>
@@ -18608,7 +18608,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S288" t="n">
-        <v>249.5712178149912</v>
+        <v>47.26907231093105</v>
       </c>
     </row>
     <row r="289">
@@ -18638,7 +18638,7 @@
         <v>-4.222222222222223</v>
       </c>
       <c r="H289" t="n">
-        <v>3.9</v>
+        <v>-15.61111111111111</v>
       </c>
       <c r="I289" t="n">
         <v>103.85</v>
@@ -18671,7 +18671,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S289" t="n">
-        <v>180.4616862988892</v>
+        <v>40.71182467499145</v>
       </c>
     </row>
     <row r="290">
@@ -18701,7 +18701,7 @@
         <v>-5.111111111111111</v>
       </c>
       <c r="H290" t="n">
-        <v>-12.4</v>
+        <v>-24.66666666666667</v>
       </c>
       <c r="I290" t="n">
         <v>103.5</v>
@@ -18734,7 +18734,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S290" t="n">
-        <v>56.59439179967109</v>
+        <v>19.9309707637398</v>
       </c>
     </row>
     <row r="291">
@@ -18764,7 +18764,7 @@
         <v>0.9444444444444461</v>
       </c>
       <c r="H291" t="n">
-        <v>-2.8</v>
+        <v>-19.33333333333333</v>
       </c>
       <c r="I291" t="n">
         <v>102.49</v>
@@ -18797,7 +18797,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S291" t="n">
-        <v>76.04682383535216</v>
+        <v>20.34722097438718</v>
       </c>
     </row>
     <row r="292">
@@ -18827,7 +18827,7 @@
         <v>2.277777777777779</v>
       </c>
       <c r="H292" t="n">
-        <v>7.4</v>
+        <v>-13.66666666666667</v>
       </c>
       <c r="I292" t="n">
         <v>102.47</v>
@@ -18860,7 +18860,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S292" t="n">
-        <v>142.9603020069319</v>
+        <v>29.68652481346157</v>
       </c>
     </row>
     <row r="293">
@@ -18890,7 +18890,7 @@
         <v>4.000000000000002</v>
       </c>
       <c r="H293" t="n">
-        <v>17.6</v>
+        <v>-8</v>
       </c>
       <c r="I293" t="n">
         <v>102.07</v>
@@ -18923,7 +18923,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S293" t="n">
-        <v>247.3188276148609</v>
+        <v>41.23715421625216</v>
       </c>
     </row>
     <row r="294">
@@ -18953,7 +18953,7 @@
         <v>-1</v>
       </c>
       <c r="H294" t="n">
-        <v>0.4</v>
+        <v>-17.55555555555556</v>
       </c>
       <c r="I294" t="n">
         <v>102.02</v>
@@ -18986,7 +18986,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S294" t="n">
-        <v>110.721191718001</v>
+        <v>27.25134286247656</v>
       </c>
     </row>
     <row r="295">
@@ -19016,7 +19016,7 @@
         <v>-3.777777777777778</v>
       </c>
       <c r="H295" t="n">
-        <v>-6.3</v>
+        <v>-21.27777777777778</v>
       </c>
       <c r="I295" t="n">
         <v>102.59</v>
@@ -19049,7 +19049,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S295" t="n">
-        <v>82.62551670125818</v>
+        <v>24.33045524571578</v>
       </c>
     </row>
     <row r="296">
@@ -19079,7 +19079,7 @@
         <v>-2.333333333333333</v>
       </c>
       <c r="H296" t="n">
-        <v>-6.8</v>
+        <v>-21.55555555555555</v>
       </c>
       <c r="I296" t="n">
         <v>102.85</v>
@@ -19112,7 +19112,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S296" t="n">
-        <v>71.41449663658874</v>
+        <v>21.32746385804348</v>
       </c>
     </row>
     <row r="297">
@@ -19142,7 +19142,7 @@
         <v>-3.666666666666667</v>
       </c>
       <c r="H297" t="n">
-        <v>2.5</v>
+        <v>-16.38888888888889</v>
       </c>
       <c r="I297" t="n">
         <v>103.17</v>
@@ -19175,7 +19175,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S297" t="n">
-        <v>156.7871716945097</v>
+        <v>36.60577600817938</v>
       </c>
     </row>
     <row r="298">
@@ -19205,7 +19205,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="n">
-        <v>9</v>
+        <v>-12.77777777777778</v>
       </c>
       <c r="I298" t="n">
         <v>103.12</v>
@@ -19238,7 +19238,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S298" t="n">
-        <v>187.7275985412931</v>
+        <v>37.58392372139991</v>
       </c>
     </row>
     <row r="299">
@@ -19268,7 +19268,7 @@
         <v>-2.833333333333334</v>
       </c>
       <c r="H299" t="n">
-        <v>16</v>
+        <v>-8.888888888888889</v>
       </c>
       <c r="I299" t="n">
         <v>103.45</v>
@@ -19301,7 +19301,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S299" t="n">
-        <v>366.0157153387951</v>
+        <v>63.03687208819372</v>
       </c>
     </row>
     <row r="300">
@@ -19331,7 +19331,7 @@
         <v>0.3333333333333341</v>
       </c>
       <c r="H300" t="n">
-        <v>4.2</v>
+        <v>-15.44444444444444</v>
       </c>
       <c r="I300" t="n">
         <v>103.47</v>
@@ -19364,7 +19364,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S300" t="n">
-        <v>131.7131927177744</v>
+        <v>29.49915088786371</v>
       </c>
     </row>
     <row r="301">
@@ -19394,7 +19394,7 @@
         <v>-0.8333333333333334</v>
       </c>
       <c r="H301" t="n">
-        <v>9.300000000000001</v>
+        <v>-12.61111111111111</v>
       </c>
       <c r="I301" t="n">
         <v>103.57</v>
@@ -19427,7 +19427,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S301" t="n">
-        <v>203.5463297726154</v>
+        <v>40.47634754414196</v>
       </c>
     </row>
     <row r="302">
@@ -19457,7 +19457,7 @@
         <v>2.555555555555556</v>
       </c>
       <c r="H302" t="n">
-        <v>3.9</v>
+        <v>-15.61111111111111</v>
       </c>
       <c r="I302" t="n">
         <v>103.33</v>
@@ -19490,7 +19490,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S302" t="n">
-        <v>109.9688182172598</v>
+        <v>24.80876322723714</v>
       </c>
     </row>
     <row r="303">
@@ -19520,7 +19520,7 @@
         <v>2.055555555555557</v>
       </c>
       <c r="H303" t="n">
-        <v>16.6</v>
+        <v>-8.555555555555555</v>
       </c>
       <c r="I303" t="n">
         <v>103.3</v>
@@ -19553,7 +19553,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S303" t="n">
-        <v>266.3954058997521</v>
+        <v>45.32219255229038</v>
       </c>
     </row>
     <row r="304">
@@ -19583,7 +19583,7 @@
         <v>4.61111111111111</v>
       </c>
       <c r="H304" t="n">
-        <v>7.5</v>
+        <v>-13.61111111111111</v>
       </c>
       <c r="I304" t="n">
         <v>103.54</v>
@@ -19616,7 +19616,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S304" t="n">
-        <v>122.0906372648379</v>
+        <v>25.29436986664436</v>
       </c>
     </row>
     <row r="305">
@@ -19646,7 +19646,7 @@
         <v>3.444444444444446</v>
       </c>
       <c r="H305" t="n">
-        <v>19.5</v>
+        <v>-6.944444444444445</v>
       </c>
       <c r="I305" t="n">
         <v>103.08</v>
@@ -19679,7 +19679,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S305" t="n">
-        <v>289.6975865982001</v>
+        <v>46.52431335306163</v>
       </c>
     </row>
     <row r="306">
@@ -19709,7 +19709,7 @@
         <v>1.500000000000002</v>
       </c>
       <c r="H306" t="n">
-        <v>24.8</v>
+        <v>-4</v>
       </c>
       <c r="I306" t="n">
         <v>103.11</v>
@@ -19742,7 +19742,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S306" t="n">
-        <v>459.5705715084743</v>
+        <v>66.81126405945255</v>
       </c>
     </row>
     <row r="307">
@@ -19772,7 +19772,7 @@
         <v>5.388888888888891</v>
       </c>
       <c r="H307" t="n">
-        <v>25.8</v>
+        <v>-3.444444444444444</v>
       </c>
       <c r="I307" t="n">
         <v>102.75</v>
@@ -19805,7 +19805,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S307" t="n">
-        <v>370.7168945517085</v>
+        <v>52.9339335755767</v>
       </c>
     </row>
     <row r="308">
@@ -19835,7 +19835,7 @@
         <v>5.666666666666669</v>
       </c>
       <c r="H308" t="n">
-        <v>11</v>
+        <v>-11.66666666666667</v>
       </c>
       <c r="I308" t="n">
         <v>102.36</v>
@@ -19868,7 +19868,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S308" t="n">
-        <v>143.601695499754</v>
+        <v>27.49747722330309</v>
       </c>
     </row>
     <row r="309">
@@ -19898,7 +19898,7 @@
         <v>9.722222222222223</v>
       </c>
       <c r="H309" t="n">
-        <v>19.3</v>
+        <v>-7.055555555555555</v>
       </c>
       <c r="I309" t="n">
         <v>102</v>
@@ -19931,7 +19931,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S309" t="n">
-        <v>185.755311976208</v>
+        <v>29.94824863393174</v>
       </c>
     </row>
     <row r="310">
@@ -19961,7 +19961,7 @@
         <v>4.666666666666666</v>
       </c>
       <c r="H310" t="n">
-        <v>9.300000000000001</v>
+        <v>-12.61111111111111</v>
       </c>
       <c r="I310" t="n">
         <v>102.86</v>
@@ -19994,7 +19994,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S310" t="n">
-        <v>137.4055817258147</v>
+        <v>27.32388290494901</v>
       </c>
     </row>
     <row r="311">
@@ -20024,7 +20024,7 @@
         <v>7.388888888888888</v>
       </c>
       <c r="H311" t="n">
-        <v>31</v>
+        <v>-0.5555555555555556</v>
       </c>
       <c r="I311" t="n">
         <v>101.93</v>
@@ -20057,7 +20057,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S311" t="n">
-        <v>437.1572382045259</v>
+        <v>57.07503321108486</v>
       </c>
     </row>
     <row r="312">
@@ -20087,7 +20087,7 @@
         <v>6.333333333333333</v>
       </c>
       <c r="H312" t="n">
-        <v>36.8</v>
+        <v>2.666666666666665</v>
       </c>
       <c r="I312" t="n">
         <v>101.36</v>
@@ -20120,7 +20120,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S312" t="n">
-        <v>650.0757249272273</v>
+        <v>77.37367378065296</v>
       </c>
     </row>
     <row r="313">
@@ -20150,7 +20150,7 @@
         <v>1.555555555555554</v>
       </c>
       <c r="H313" t="n">
-        <v>30.5</v>
+        <v>-0.8333333333333334</v>
       </c>
       <c r="I313" t="n">
         <v>102.07</v>
@@ -20183,7 +20183,7 @@
         <v>0.02153197969543147</v>
       </c>
       <c r="S313" t="n">
-        <v>639.0107021025885</v>
+        <v>84.12680122198414</v>
       </c>
     </row>
     <row r="314">
@@ -20213,7 +20213,7 @@
         <v>-5.444444444444445</v>
       </c>
       <c r="H314" t="n">
-        <v>6.3</v>
+        <v>-14.27777777777778</v>
       </c>
       <c r="I314" t="n">
         <v>103.39</v>
@@ -20246,7 +20246,7 @@
         <v>0.01016</v>
       </c>
       <c r="S314" t="n">
-        <v>233.9089768722552</v>
+        <v>49.83232216409632</v>
       </c>
     </row>
     <row r="315">
@@ -20276,7 +20276,7 @@
         <v>-6.388888888888889</v>
       </c>
       <c r="H315" t="n">
-        <v>3.6</v>
+        <v>-15.77777777777778</v>
       </c>
       <c r="I315" t="n">
         <v>103.28</v>
@@ -20309,7 +20309,7 @@
         <v>0.01524</v>
       </c>
       <c r="S315" t="n">
-        <v>208.2454342834182</v>
+        <v>47.3238210716576</v>
       </c>
     </row>
     <row r="316">
@@ -20339,7 +20339,7 @@
         <v>-1.833333333333334</v>
       </c>
       <c r="H316" t="n">
-        <v>7.8</v>
+        <v>-13.44444444444444</v>
       </c>
       <c r="I316" t="n">
         <v>103</v>
@@ -20372,7 +20372,7 @@
         <v>0.02032</v>
       </c>
       <c r="S316" t="n">
-        <v>197.8819243595222</v>
+        <v>40.71448119707877</v>
       </c>
     </row>
     <row r="317">
@@ -20402,7 +20402,7 @@
         <v>-0.5555555555555556</v>
       </c>
       <c r="H317" t="n">
-        <v>10.3</v>
+        <v>-12.05555555555556</v>
       </c>
       <c r="I317" t="n">
         <v>103</v>
@@ -20435,7 +20435,7 @@
         <v>0.02032</v>
       </c>
       <c r="S317" t="n">
-        <v>213.296080145786</v>
+        <v>41.4785474666914</v>
       </c>
     </row>
     <row r="318">
@@ -20465,7 +20465,7 @@
         <v>1.722222222222223</v>
       </c>
       <c r="H318" t="n">
-        <v>8.6</v>
+        <v>-13</v>
       </c>
       <c r="I318" t="n">
         <v>102.5</v>
@@ -20498,7 +20498,7 @@
         <v>0.02032</v>
       </c>
       <c r="S318" t="n">
-        <v>161.3952736183999</v>
+        <v>32.60609370461859</v>
       </c>
     </row>
     <row r="319">
@@ -20528,7 +20528,7 @@
         <v>2.222222222222222</v>
       </c>
       <c r="H319" t="n">
-        <v>-0.5</v>
+        <v>-18.05555555555556</v>
       </c>
       <c r="I319" t="n">
         <v>102.79</v>
@@ -20561,7 +20561,7 @@
         <v>0.02032</v>
       </c>
       <c r="S319" t="n">
-        <v>82.18814919394704</v>
+        <v>20.70140506985206</v>
       </c>
     </row>
     <row r="320">
@@ -20591,7 +20591,7 @@
         <v>0.777777777777777</v>
       </c>
       <c r="H320" t="n">
-        <v>-2.2</v>
+        <v>-19</v>
       </c>
       <c r="I320" t="n">
         <v>102.93</v>
@@ -20624,7 +20624,7 @@
         <v>0.02032</v>
       </c>
       <c r="S320" t="n">
-        <v>80.46374712207395</v>
+        <v>21.18837174767598</v>
       </c>
     </row>
     <row r="321">
@@ -20654,7 +20654,7 @@
         <v>4.277777777777779</v>
       </c>
       <c r="H321" t="n">
-        <v>20.2</v>
+        <v>-6.555555555555556</v>
       </c>
       <c r="I321" t="n">
         <v>102.4</v>
@@ -20687,7 +20687,7 @@
         <v>0.02032</v>
       </c>
       <c r="S321" t="n">
-        <v>285.3355990921017</v>
+        <v>45.20592934914106</v>
       </c>
     </row>
     <row r="322">
@@ -20717,7 +20717,7 @@
         <v>2.666666666666665</v>
       </c>
       <c r="H322" t="n">
-        <v>24.9</v>
+        <v>-3.944444444444446</v>
       </c>
       <c r="I322" t="n">
         <v>102.5</v>
@@ -20750,7 +20750,7 @@
         <v>0.02032</v>
       </c>
       <c r="S322" t="n">
-        <v>425.4026275970675</v>
+        <v>61.7322595658515</v>
       </c>
     </row>
     <row r="323">
@@ -20780,7 +20780,7 @@
         <v>-4.555555555555555</v>
       </c>
       <c r="H323" t="n">
-        <v>15</v>
+        <v>-9.444444444444445</v>
       </c>
       <c r="I323" t="n">
         <v>103.63</v>
@@ -20813,7 +20813,7 @@
         <v>0.02032</v>
       </c>
       <c r="S323" t="n">
-        <v>390.4863926718394</v>
+        <v>68.65179460824388</v>
       </c>
     </row>
     <row r="324">
@@ -20843,7 +20843,7 @@
         <v>-9.388888888888889</v>
       </c>
       <c r="H324" t="n">
-        <v>-16.3</v>
+        <v>-26.83333333333333</v>
       </c>
       <c r="I324" t="n">
         <v>103.96</v>
@@ -20876,7 +20876,7 @@
         <v>0.02032</v>
       </c>
       <c r="S324" t="n">
-        <v>57.17502147378129</v>
+        <v>22.77022224383916</v>
       </c>
     </row>
     <row r="325">
@@ -20906,7 +20906,7 @@
         <v>-3.777777777777778</v>
       </c>
       <c r="H325" t="n">
-        <v>-6</v>
+        <v>-21.11111111111111</v>
       </c>
       <c r="I325" t="n">
         <v>102.55</v>
@@ -20939,7 +20939,7 @@
         <v>0.02032</v>
       </c>
       <c r="S325" t="n">
-        <v>84.540555664053</v>
+        <v>24.68607728104864</v>
       </c>
     </row>
     <row r="326">
@@ -20969,7 +20969,7 @@
         <v>-4.777777777777779</v>
       </c>
       <c r="H326" t="n">
-        <v>2.1</v>
+        <v>-16.61111111111111</v>
       </c>
       <c r="I326" t="n">
         <v>103.18</v>
@@ -21002,7 +21002,7 @@
         <v>0.02032</v>
       </c>
       <c r="S326" t="n">
-        <v>165.6544595352088</v>
+        <v>39.06204940776784</v>
       </c>
     </row>
     <row r="327">
@@ -21032,7 +21032,7 @@
         <v>-3.111111111111112</v>
       </c>
       <c r="H327" t="n">
-        <v>-7.6</v>
+        <v>-22</v>
       </c>
       <c r="I327" t="n">
         <v>103.01</v>
@@ -21065,7 +21065,7 @@
         <v>0.02032</v>
       </c>
       <c r="S327" t="n">
-        <v>71.13504200278828</v>
+        <v>21.73277146512161</v>
       </c>
     </row>
     <row r="328">
@@ -21095,7 +21095,7 @@
         <v>1.833333333333332</v>
       </c>
       <c r="H328" t="n">
-        <v>-6</v>
+        <v>-21.11111111111111</v>
       </c>
       <c r="I328" t="n">
         <v>102.64</v>
@@ -21128,7 +21128,7 @@
         <v>0.02032</v>
       </c>
       <c r="S328" t="n">
-        <v>56.07697772303914</v>
+        <v>16.37463339204436</v>
       </c>
     </row>
     <row r="329">
@@ -21158,7 +21158,7 @@
         <v>4.388888888888888</v>
       </c>
       <c r="H329" t="n">
-        <v>0.8</v>
+        <v>-17.33333333333333</v>
       </c>
       <c r="I329" t="n">
         <v>102.34</v>
@@ -21191,7 +21191,7 @@
         <v>0.02032</v>
       </c>
       <c r="S329" t="n">
-        <v>77.49279547350059</v>
+        <v>18.87992404775285</v>
       </c>
     </row>
     <row r="330">
@@ -21221,7 +21221,7 @@
         <v>10.27777777777778</v>
       </c>
       <c r="H330" t="n">
-        <v>5.8</v>
+        <v>-14.55555555555556</v>
       </c>
       <c r="I330" t="n">
         <v>101.82</v>
@@ -21254,7 +21254,7 @@
         <v>0.02032</v>
       </c>
       <c r="S330" t="n">
-        <v>73.74739886922043</v>
+        <v>15.89728868883275</v>
       </c>
     </row>
     <row r="331">
@@ -21284,7 +21284,7 @@
         <v>7.5</v>
       </c>
       <c r="H331" t="n">
-        <v>11.4</v>
+        <v>-11.44444444444445</v>
       </c>
       <c r="I331" t="n">
         <v>101.91</v>
@@ -21317,7 +21317,7 @@
         <v>0.02032</v>
       </c>
       <c r="S331" t="n">
-        <v>129.988370187168</v>
+        <v>24.67371528113252</v>
       </c>
     </row>
     <row r="332">
@@ -21347,7 +21347,7 @@
         <v>-0.2777777777777778</v>
       </c>
       <c r="H332" t="n">
-        <v>-8.9</v>
+        <v>-22.72222222222222</v>
       </c>
       <c r="I332" t="n">
         <v>103.33</v>
@@ -21380,7 +21380,7 @@
         <v>0.02032</v>
       </c>
       <c r="S332" t="n">
-        <v>52.19597398233101</v>
+        <v>16.55639405591938</v>
       </c>
     </row>
     <row r="333">
@@ -21410,7 +21410,7 @@
         <v>3.499999999999999</v>
       </c>
       <c r="H333" t="n">
-        <v>11.8</v>
+        <v>-11.22222222222222</v>
       </c>
       <c r="I333" t="n">
         <v>102.49</v>
@@ -21443,7 +21443,7 @@
         <v>0.02032</v>
       </c>
       <c r="S333" t="n">
-        <v>176.1780839037513</v>
+        <v>33.15125967997035</v>
       </c>
     </row>
     <row r="334">
@@ -21473,7 +21473,7 @@
         <v>4.61111111111111</v>
       </c>
       <c r="H334" t="n">
-        <v>15.3</v>
+        <v>-9.277777777777779</v>
       </c>
       <c r="I334" t="n">
         <v>102.48</v>
@@ -21506,7 +21506,7 @@
         <v>0.02032</v>
       </c>
       <c r="S334" t="n">
-        <v>204.6719739848242</v>
+        <v>35.76068762122388</v>
       </c>
     </row>
     <row r="335">
@@ -21536,7 +21536,7 @@
         <v>7.277777777777779</v>
       </c>
       <c r="H335" t="n">
-        <v>19.3</v>
+        <v>-7.055555555555555</v>
       </c>
       <c r="I335" t="n">
         <v>102.05</v>
@@ -21569,7 +21569,7 @@
         <v>0.02032</v>
       </c>
       <c r="S335" t="n">
-        <v>219.2154141203401</v>
+        <v>35.34282630532326</v>
       </c>
     </row>
     <row r="336">
@@ -21599,7 +21599,7 @@
         <v>6.222222222222224</v>
       </c>
       <c r="H336" t="n">
-        <v>26.2</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="I336" t="n">
         <v>102.16</v>
@@ -21632,7 +21632,7 @@
         <v>0.02032</v>
       </c>
       <c r="S336" t="n">
-        <v>358.3270253474087</v>
+        <v>50.80183491002222</v>
       </c>
     </row>
     <row r="337">
@@ -21662,7 +21662,7 @@
         <v>4.333333333333332</v>
       </c>
       <c r="H337" t="n">
-        <v>30.6</v>
+        <v>-0.777777777777777</v>
       </c>
       <c r="I337" t="n">
         <v>102.64</v>
@@ -21695,7 +21695,7 @@
         <v>0.02032</v>
       </c>
       <c r="S337" t="n">
-        <v>527.8739759139388</v>
+        <v>69.37946293681753</v>
       </c>
     </row>
     <row r="338">
@@ -21725,7 +21725,7 @@
         <v>5.166666666666665</v>
       </c>
       <c r="H338" t="n">
-        <v>19.6</v>
+        <v>-6.888888888888888</v>
       </c>
       <c r="I338" t="n">
         <v>102.95</v>
@@ -21758,7 +21758,7 @@
         <v>0.02032</v>
       </c>
       <c r="S338" t="n">
-        <v>258.3675835927432</v>
+        <v>41.41210888203126</v>
       </c>
     </row>
     <row r="339">
@@ -21788,7 +21788,7 @@
         <v>6.111111111111112</v>
       </c>
       <c r="H339" t="n">
-        <v>29.4</v>
+        <v>-1.444444444444445</v>
       </c>
       <c r="I339" t="n">
         <v>102.19</v>
@@ -21821,7 +21821,7 @@
         <v>0.02032</v>
       </c>
       <c r="S339" t="n">
-        <v>435.3647925939621</v>
+        <v>58.38854927998771</v>
       </c>
     </row>
     <row r="340">
@@ -21851,7 +21851,7 @@
         <v>2.722222222222221</v>
       </c>
       <c r="H340" t="n">
-        <v>13.2</v>
+        <v>-10.44444444444444</v>
       </c>
       <c r="I340" t="n">
         <v>103.26</v>
@@ -21884,7 +21884,7 @@
         <v>0.02032</v>
       </c>
       <c r="S340" t="n">
-        <v>204.0645336806392</v>
+        <v>37.2602044921184</v>
       </c>
     </row>
     <row r="341">
@@ -21914,7 +21914,7 @@
         <v>2.000000000000001</v>
       </c>
       <c r="H341" t="n">
-        <v>14.3</v>
+        <v>-9.833333333333334</v>
       </c>
       <c r="I341" t="n">
         <v>103.33</v>
@@ -21947,7 +21947,7 @@
         <v>0.02032</v>
       </c>
       <c r="S341" t="n">
-        <v>230.756395221577</v>
+        <v>41.16618095548888</v>
       </c>
     </row>
     <row r="342">
@@ -21977,7 +21977,7 @@
         <v>7.722222222222221</v>
       </c>
       <c r="H342" t="n">
-        <v>23.6</v>
+        <v>-4.666666666666666</v>
       </c>
       <c r="I342" t="n">
         <v>102.68</v>
@@ -22010,7 +22010,7 @@
         <v>0.02032</v>
       </c>
       <c r="S342" t="n">
-        <v>276.794922859771</v>
+        <v>41.13080017041125</v>
       </c>
     </row>
     <row r="343">
@@ -22040,7 +22040,7 @@
         <v>9.388888888888889</v>
       </c>
       <c r="H343" t="n">
-        <v>28.1</v>
+        <v>-2.166666666666666</v>
       </c>
       <c r="I343" t="n">
         <v>102.14</v>
@@ -22073,7 +22073,7 @@
         <v>0.02032</v>
       </c>
       <c r="S343" t="n">
-        <v>322.8861030397942</v>
+        <v>44.27874479996104</v>
       </c>
     </row>
     <row r="344">
@@ -22103,7 +22103,7 @@
         <v>7.666666666666665</v>
       </c>
       <c r="H344" t="n">
-        <v>29.1</v>
+        <v>-1.61111111111111</v>
       </c>
       <c r="I344" t="n">
         <v>102.52</v>
@@ -22136,7 +22136,7 @@
         <v>0.02032</v>
       </c>
       <c r="S344" t="n">
-        <v>384.5510200890342</v>
+        <v>51.8375834556565</v>
       </c>
     </row>
     <row r="345">
@@ -22166,7 +22166,7 @@
         <v>4.777777777777779</v>
       </c>
       <c r="H345" t="n">
-        <v>11.3</v>
+        <v>-11.5</v>
       </c>
       <c r="I345" t="n">
         <v>104.1</v>
@@ -22199,7 +22199,7 @@
         <v>0.02032</v>
       </c>
       <c r="S345" t="n">
-        <v>155.8310692942318</v>
+        <v>29.64373376891884</v>
       </c>
     </row>
     <row r="346">
@@ -22229,7 +22229,7 @@
         <v>7.5</v>
       </c>
       <c r="H346" t="n">
-        <v>17</v>
+        <v>-8.333333333333334</v>
       </c>
       <c r="I346" t="n">
         <v>103.68</v>
@@ -22262,7 +22262,7 @@
         <v>0.02032</v>
       </c>
       <c r="S346" t="n">
-        <v>186.850855979786</v>
+        <v>31.53286933333746</v>
       </c>
     </row>
     <row r="347">
@@ -22292,7 +22292,7 @@
         <v>9.611111111111111</v>
       </c>
       <c r="H347" t="n">
-        <v>27.8</v>
+        <v>-2.333333333333333</v>
       </c>
       <c r="I347" t="n">
         <v>102.51</v>
@@ -22325,7 +22325,7 @@
         <v>0.02032</v>
       </c>
       <c r="S347" t="n">
-        <v>312.5749535989407</v>
+        <v>43.08806365109507</v>
       </c>
     </row>
     <row r="348">
@@ -22355,7 +22355,7 @@
         <v>11.83333333333333</v>
       </c>
       <c r="H348" t="n">
-        <v>12.1</v>
+        <v>-11.05555555555556</v>
       </c>
       <c r="I348" t="n">
         <v>102.93</v>
@@ -22388,7 +22388,7 @@
         <v>0.02032</v>
       </c>
       <c r="S348" t="n">
-        <v>101.773613860062</v>
+        <v>19.02658523696163</v>
       </c>
     </row>
     <row r="349">
@@ -22418,7 +22418,7 @@
         <v>12.66666666666667</v>
       </c>
       <c r="H349" t="n">
-        <v>27.5</v>
+        <v>-2.5</v>
       </c>
       <c r="I349" t="n">
         <v>102.33</v>
@@ -22451,7 +22451,7 @@
         <v>0.02032</v>
       </c>
       <c r="S349" t="n">
-        <v>250.7667753144269</v>
+        <v>34.74874266874466</v>
       </c>
     </row>
     <row r="350">
@@ -22481,7 +22481,7 @@
         <v>14.88888888888889</v>
       </c>
       <c r="H350" t="n">
-        <v>22.4</v>
+        <v>-5.333333333333334</v>
       </c>
       <c r="I350" t="n">
         <v>102.39</v>
@@ -22514,7 +22514,7 @@
         <v>0.02032</v>
       </c>
       <c r="S350" t="n">
-        <v>160.0600021749652</v>
+        <v>24.32001944000076</v>
       </c>
     </row>
     <row r="351">
@@ -22544,7 +22544,7 @@
         <v>17.5</v>
       </c>
       <c r="H351" t="n">
-        <v>30.6</v>
+        <v>-0.777777777777777</v>
       </c>
       <c r="I351" t="n">
         <v>101.79</v>
@@ -22577,7 +22577,7 @@
         <v>0.02032</v>
       </c>
       <c r="S351" t="n">
-        <v>219.8718971576592</v>
+        <v>28.89817425321339</v>
       </c>
     </row>
     <row r="352">
@@ -22607,7 +22607,7 @@
         <v>16.55555555555555</v>
       </c>
       <c r="H352" t="n">
-        <v>35.9</v>
+        <v>2.166666666666666</v>
       </c>
       <c r="I352" t="n">
         <v>101.65</v>
@@ -22640,7 +22640,7 @@
         <v>0.02032</v>
       </c>
       <c r="S352" t="n">
-        <v>314.4047347295994</v>
+        <v>37.94397660620659</v>
       </c>
     </row>
     <row r="353">
@@ -22670,7 +22670,7 @@
         <v>21.94444444444445</v>
       </c>
       <c r="H353" t="n">
-        <v>42.4</v>
+        <v>5.777777777777778</v>
       </c>
       <c r="I353" t="n">
         <v>101.45</v>
@@ -22703,7 +22703,7 @@
         <v>0.02032</v>
       </c>
       <c r="S353" t="n">
-        <v>318.909005185646</v>
+        <v>34.95067037488651</v>
       </c>
     </row>
     <row r="354">
@@ -22733,7 +22733,7 @@
         <v>21.77777777777778</v>
       </c>
       <c r="H354" t="n">
-        <v>26</v>
+        <v>-3.333333333333333</v>
       </c>
       <c r="I354" t="n">
         <v>101.25</v>
@@ -22766,7 +22766,7 @@
         <v>0.02032</v>
       </c>
       <c r="S354" t="n">
-        <v>128.9310004220298</v>
+        <v>18.34429438932597</v>
       </c>
     </row>
     <row r="355">
@@ -22796,7 +22796,7 @@
         <v>24.94444444444445</v>
       </c>
       <c r="H355" t="n">
-        <v>42.6</v>
+        <v>5.88888888888889</v>
       </c>
       <c r="I355" t="n">
         <v>101.22</v>
@@ -22829,7 +22829,7 @@
         <v>0.02032</v>
       </c>
       <c r="S355" t="n">
-        <v>268.8840534354396</v>
+        <v>29.38492454453126</v>
       </c>
     </row>
     <row r="356">
@@ -22859,7 +22859,7 @@
         <v>8.333333333333334</v>
       </c>
       <c r="H356" t="n">
-        <v>19</v>
+        <v>-7.222222222222222</v>
       </c>
       <c r="I356" t="n">
         <v>102.68</v>
@@ -22892,7 +22892,7 @@
         <v>0.02032</v>
       </c>
       <c r="S356" t="n">
-        <v>200.2225510960639</v>
+        <v>32.47092953781254</v>
       </c>
     </row>
     <row r="357">
@@ -22922,7 +22922,7 @@
         <v>7.277777777777779</v>
       </c>
       <c r="H357" t="n">
-        <v>4.6</v>
+        <v>-15.22222222222222</v>
       </c>
       <c r="I357" t="n">
         <v>103.05</v>
@@ -22955,7 +22955,7 @@
         <v>0.02032</v>
       </c>
       <c r="S357" t="n">
-        <v>83.09546437952949</v>
+        <v>18.43194934561048</v>
       </c>
     </row>
     <row r="358">
@@ -22985,7 +22985,7 @@
         <v>15.27777777777778</v>
       </c>
       <c r="H358" t="n">
-        <v>17.8</v>
+        <v>-7.888888888888889</v>
       </c>
       <c r="I358" t="n">
         <v>100.85</v>
@@ -23018,7 +23018,7 @@
         <v>0.02032</v>
       </c>
       <c r="S358" t="n">
-        <v>117.4087983337121</v>
+        <v>19.49827857067568</v>
       </c>
     </row>
     <row r="359">
@@ -23048,7 +23048,7 @@
         <v>15.38888888888889</v>
       </c>
       <c r="H359" t="n">
-        <v>21.9</v>
+        <v>-5.611111111111112</v>
       </c>
       <c r="I359" t="n">
         <v>101.13</v>
@@ -23081,7 +23081,7 @@
         <v>0.02032</v>
       </c>
       <c r="S359" t="n">
-        <v>150.3406303608238</v>
+        <v>23.0587376481945</v>
       </c>
     </row>
     <row r="360">
@@ -23111,7 +23111,7 @@
         <v>7.333333333333335</v>
       </c>
       <c r="H360" t="n">
-        <v>5.5</v>
+        <v>-14.72222222222222</v>
       </c>
       <c r="I360" t="n">
         <v>102.86</v>
@@ -23144,7 +23144,7 @@
         <v>0.02032</v>
       </c>
       <c r="S360" t="n">
-        <v>88.13532207151988</v>
+        <v>19.13423100498105</v>
       </c>
     </row>
     <row r="361">
@@ -23174,7 +23174,7 @@
         <v>8.388888888888889</v>
       </c>
       <c r="H361" t="n">
-        <v>32.2</v>
+        <v>0.1111111111111127</v>
       </c>
       <c r="I361" t="n">
         <v>102.62</v>
@@ -23207,7 +23207,7 @@
         <v>0.02032</v>
       </c>
       <c r="S361" t="n">
-        <v>437.2184757110241</v>
+        <v>55.96626555967335</v>
       </c>
     </row>
     <row r="362">
@@ -23237,7 +23237,7 @@
         <v>9.777777777777779</v>
       </c>
       <c r="H362" t="n">
-        <v>34.9</v>
+        <v>1.61111111111111</v>
       </c>
       <c r="I362" t="n">
         <v>102.24</v>
@@ -23270,7 +23270,7 @@
         <v>0.02032</v>
       </c>
       <c r="S362" t="n">
-        <v>463.1808462787023</v>
+        <v>56.77892382223813</v>
       </c>
     </row>
     <row r="363">
@@ -23300,7 +23300,7 @@
         <v>13.27777777777778</v>
       </c>
       <c r="H363" t="n">
-        <v>33.6</v>
+        <v>0.8888888888888897</v>
       </c>
       <c r="I363" t="n">
         <v>101.49</v>
@@ -23333,7 +23333,7 @@
         <v>0.02032</v>
       </c>
       <c r="S363" t="n">
-        <v>341.7431555187336</v>
+        <v>42.76574695579299</v>
       </c>
     </row>
     <row r="364">
@@ -23363,7 +23363,7 @@
         <v>13</v>
       </c>
       <c r="H364" t="n">
-        <v>35.2</v>
+        <v>1.777777777777779</v>
       </c>
       <c r="I364" t="n">
         <v>101.18</v>
@@ -23396,7 +23396,7 @@
         <v>0.02032</v>
       </c>
       <c r="S364" t="n">
-        <v>380.4473041775015</v>
+        <v>46.41799051090075</v>
       </c>
     </row>
     <row r="365">
@@ -23426,7 +23426,7 @@
         <v>12.72222222222222</v>
       </c>
       <c r="H365" t="n">
-        <v>23.6</v>
+        <v>-4.666666666666666</v>
       </c>
       <c r="I365" t="n">
         <v>101.32</v>
@@ -23459,7 +23459,7 @@
         <v>0.02032</v>
       </c>
       <c r="S365" t="n">
-        <v>198.1567208818069</v>
+        <v>29.44542625567833</v>
       </c>
     </row>
     <row r="366">
@@ -23489,7 +23489,7 @@
         <v>11.72222222222222</v>
       </c>
       <c r="H366" t="n">
-        <v>11.9</v>
+        <v>-11.16666666666667</v>
       </c>
       <c r="I366" t="n">
         <v>102.31</v>
@@ -23522,7 +23522,7 @@
         <v>0.02032</v>
       </c>
       <c r="S366" t="n">
-        <v>101.1803865945645</v>
+        <v>18.99775715645477</v>
       </c>
     </row>
     <row r="367">
@@ -23552,7 +23552,7 @@
         <v>9.777777777777779</v>
       </c>
       <c r="H367" t="n">
-        <v>25</v>
+        <v>-3.888888888888889</v>
       </c>
       <c r="I367" t="n">
         <v>102.22</v>
@@ -23585,7 +23585,7 @@
         <v>0.02032</v>
       </c>
       <c r="S367" t="n">
-        <v>261.9810016712785</v>
+        <v>37.94874565816686</v>
       </c>
     </row>
     <row r="368">
@@ -23615,7 +23615,7 @@
         <v>12</v>
       </c>
       <c r="H368" t="n">
-        <v>23.6</v>
+        <v>-4.666666666666666</v>
       </c>
       <c r="I368" t="n">
         <v>102.13</v>
@@ -23648,7 +23648,7 @@
         <v>0.02032</v>
       </c>
       <c r="S368" t="n">
-        <v>207.7895916631738</v>
+        <v>30.87683864967127</v>
       </c>
     </row>
     <row r="369">
@@ -23678,7 +23678,7 @@
         <v>18</v>
       </c>
       <c r="H369" t="n">
-        <v>32.9</v>
+        <v>0.4999999999999992</v>
       </c>
       <c r="I369" t="n">
         <v>102.01</v>
@@ -23711,7 +23711,7 @@
         <v>0.02032</v>
       </c>
       <c r="S369" t="n">
-        <v>242.7777848574233</v>
+        <v>30.72536611987694</v>
       </c>
     </row>
     <row r="370">
@@ -23741,7 +23741,7 @@
         <v>18.77777777777778</v>
       </c>
       <c r="H370" t="n">
-        <v>31.6</v>
+        <v>-0.2222222222222214</v>
       </c>
       <c r="I370" t="n">
         <v>101.65</v>
@@ -23774,7 +23774,7 @@
         <v>0.02032</v>
       </c>
       <c r="S370" t="n">
-        <v>214.8181978219774</v>
+        <v>27.76970965419804</v>
       </c>
     </row>
     <row r="371">
@@ -23804,7 +23804,7 @@
         <v>19.16666666666667</v>
       </c>
       <c r="H371" t="n">
-        <v>33.8</v>
+        <v>0.9999999999999984</v>
       </c>
       <c r="I371" t="n">
         <v>101.65</v>
@@ -23837,7 +23837,7 @@
         <v>0.02032</v>
       </c>
       <c r="S371" t="n">
-        <v>237.3624926726379</v>
+        <v>29.60870178137789</v>
       </c>
     </row>
     <row r="372">
@@ -23867,7 +23867,7 @@
         <v>20.27777777777778</v>
       </c>
       <c r="H372" t="n">
-        <v>35.8</v>
+        <v>2.11111111111111</v>
       </c>
       <c r="I372" t="n">
         <v>101.38</v>
@@ -23900,7 +23900,7 @@
         <v>0.02032</v>
       </c>
       <c r="S372" t="n">
-        <v>247.5707003235428</v>
+        <v>29.9245108408389</v>
       </c>
     </row>
     <row r="373">
@@ -23930,7 +23930,7 @@
         <v>7.833333333333335</v>
       </c>
       <c r="H373" t="n">
-        <v>42.1</v>
+        <v>5.611111111111112</v>
       </c>
       <c r="I373" t="n">
         <v>101.71</v>
@@ -23963,7 +23963,7 @@
         <v>0.02032</v>
       </c>
       <c r="S373" t="n">
-        <v>779.8984827334579</v>
+        <v>85.83748926571916</v>
       </c>
     </row>
     <row r="374">
@@ -23993,7 +23993,7 @@
         <v>23.22222222222222</v>
       </c>
       <c r="H374" t="n">
-        <v>51.4</v>
+        <v>10.77777777777778</v>
       </c>
       <c r="I374" t="n">
         <v>100.49</v>
@@ -24026,7 +24026,7 @@
         <v>0.02032</v>
       </c>
       <c r="S374" t="n">
-        <v>467.1008007542208</v>
+        <v>45.40789676049332</v>
       </c>
     </row>
     <row r="375">
@@ -24056,7 +24056,7 @@
         <v>20.72222222222222</v>
       </c>
       <c r="H375" t="n">
-        <v>52.8</v>
+        <v>11.55555555555556</v>
       </c>
       <c r="I375" t="n">
         <v>100.94</v>
@@ -24089,7 +24089,7 @@
         <v>0.02032</v>
       </c>
       <c r="S375" t="n">
-        <v>582.9581050381798</v>
+        <v>55.69655494962474</v>
       </c>
     </row>
     <row r="376">
@@ -24119,7 +24119,7 @@
         <v>15.94444444444445</v>
       </c>
       <c r="H376" t="n">
-        <v>32.8</v>
+        <v>0.4444444444444429</v>
       </c>
       <c r="I376" t="n">
         <v>100.64</v>
@@ -24152,7 +24152,7 @@
         <v>0.02032</v>
       </c>
       <c r="S376" t="n">
-        <v>275.0282603787068</v>
+        <v>34.86327462343152</v>
       </c>
     </row>
     <row r="377">
@@ -24182,7 +24182,7 @@
         <v>24.94444444444445</v>
       </c>
       <c r="H377" t="n">
-        <v>50.2</v>
+        <v>10.11111111111111</v>
       </c>
       <c r="I377" t="n">
         <v>100.6</v>
@@ -24215,7 +24215,7 @@
         <v>0.02032</v>
       </c>
       <c r="S377" t="n">
-        <v>396.8028109860001</v>
+        <v>39.16222820157466</v>
       </c>
     </row>
     <row r="378">
@@ -24245,7 +24245,7 @@
         <v>8.777777777777777</v>
       </c>
       <c r="H378" t="n">
-        <v>40.5</v>
+        <v>4.722222222222222</v>
       </c>
       <c r="I378" t="n">
         <v>102.57</v>
@@ -24278,7 +24278,7 @@
         <v>0.02032</v>
       </c>
       <c r="S378" t="n">
-        <v>671.9608096186712</v>
+        <v>75.68012585910212</v>
       </c>
     </row>
     <row r="379">
@@ -24308,7 +24308,7 @@
         <v>9.111111111111111</v>
       </c>
       <c r="H379" t="n">
-        <v>45.1</v>
+        <v>7.277777777777779</v>
       </c>
       <c r="I379" t="n">
         <v>102.88</v>
@@ -24341,7 +24341,7 @@
         <v>0.02032</v>
       </c>
       <c r="S379" t="n">
-        <v>836.4555994501958</v>
+        <v>88.29215295327433</v>
       </c>
     </row>
     <row r="380">
@@ -24371,7 +24371,7 @@
         <v>11.88888888888889</v>
       </c>
       <c r="H380" t="n">
-        <v>41.3</v>
+        <v>5.166666666666665</v>
       </c>
       <c r="I380" t="n">
         <v>101.67</v>
@@ -24404,7 +24404,7 @@
         <v>0.02032</v>
       </c>
       <c r="S380" t="n">
-        <v>569.6332697524266</v>
+        <v>63.41704430399589</v>
       </c>
     </row>
     <row r="381">
@@ -24434,7 +24434,7 @@
         <v>18.22222222222222</v>
       </c>
       <c r="H381" t="n">
-        <v>44</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="I381" t="n">
         <v>101.37</v>
@@ -24467,7 +24467,7 @@
         <v>0.02032</v>
       </c>
       <c r="S381" t="n">
-        <v>436.6741897414385</v>
+        <v>46.79588028141449</v>
       </c>
     </row>
     <row r="382">
@@ -24497,7 +24497,7 @@
         <v>16.61111111111111</v>
       </c>
       <c r="H382" t="n">
-        <v>30.6</v>
+        <v>-0.777777777777777</v>
       </c>
       <c r="I382" t="n">
         <v>101.11</v>
@@ -24530,7 +24530,7 @@
         <v>0.02032</v>
       </c>
       <c r="S382" t="n">
-        <v>232.6140811552373</v>
+        <v>30.57290330357712</v>
       </c>
     </row>
     <row r="383">
@@ -24560,7 +24560,7 @@
         <v>21.22222222222222</v>
       </c>
       <c r="H383" t="n">
-        <v>32.8</v>
+        <v>0.4444444444444429</v>
       </c>
       <c r="I383" t="n">
         <v>101.13</v>
@@ -24593,7 +24593,7 @@
         <v>0.02032</v>
       </c>
       <c r="S383" t="n">
-        <v>197.5983750599476</v>
+        <v>25.0480674435889</v>
       </c>
     </row>
     <row r="384">
@@ -24623,7 +24623,7 @@
         <v>24.72222222222222</v>
       </c>
       <c r="H384" t="n">
-        <v>38.8</v>
+        <v>3.777777777777776</v>
       </c>
       <c r="I384" t="n">
         <v>101.18</v>
@@ -24656,7 +24656,7 @@
         <v>0.02032</v>
       </c>
       <c r="S384" t="n">
-        <v>222.5434340757635</v>
+        <v>25.69938977616835</v>
       </c>
     </row>
     <row r="385">
@@ -24686,7 +24686,7 @@
         <v>25</v>
       </c>
       <c r="H385" t="n">
-        <v>41.7</v>
+        <v>5.388888888888891</v>
       </c>
       <c r="I385" t="n">
         <v>101.05</v>
@@ -24719,7 +24719,7 @@
         <v>0.02032</v>
       </c>
       <c r="S385" t="n">
-        <v>255.5724026603696</v>
+        <v>28.28992807553883</v>
       </c>
     </row>
     <row r="386">
@@ -24749,7 +24749,7 @@
         <v>22.11111111111111</v>
       </c>
       <c r="H386" t="n">
-        <v>58.2</v>
+        <v>14.55555555555556</v>
       </c>
       <c r="I386" t="n">
         <v>100.88</v>
@@ -24782,7 +24782,7 @@
         <v>0.02032</v>
       </c>
       <c r="S386" t="n">
-        <v>694.2793296262798</v>
+        <v>62.2327772124694</v>
       </c>
     </row>
     <row r="387">
@@ -24812,7 +24812,7 @@
         <v>17.38888888888889</v>
       </c>
       <c r="H387" t="n">
-        <v>60.7</v>
+        <v>15.94444444444445</v>
       </c>
       <c r="I387" t="n">
         <v>100.37</v>
@@ -24845,7 +24845,7 @@
         <v>0.02032</v>
       </c>
       <c r="S387" t="n">
-        <v>1046.586178626105</v>
+        <v>91.22695147348455</v>
       </c>
     </row>
     <row r="388">
@@ -24875,7 +24875,7 @@
         <v>19.55555555555556</v>
       </c>
       <c r="H388" t="n">
-        <v>42.7</v>
+        <v>5.944444444444446</v>
       </c>
       <c r="I388" t="n">
         <v>101.85</v>
@@ -24908,7 +24908,7 @@
         <v>0.02032</v>
       </c>
       <c r="S388" t="n">
-        <v>375.3585877860727</v>
+        <v>40.96307698727185</v>
       </c>
     </row>
     <row r="389">
@@ -24938,7 +24938,7 @@
         <v>23.38888888888889</v>
       </c>
       <c r="H389" t="n">
-        <v>45.7</v>
+        <v>7.611111111111113</v>
       </c>
       <c r="I389" t="n">
         <v>101.56</v>
@@ -24971,7 +24971,7 @@
         <v>0.02032</v>
       </c>
       <c r="S389" t="n">
-        <v>346.8545067731793</v>
+        <v>36.31487273901347</v>
       </c>
     </row>
     <row r="390">
@@ -25001,7 +25001,7 @@
         <v>21.44444444444444</v>
       </c>
       <c r="H390" t="n">
-        <v>46.5</v>
+        <v>8.055555555555555</v>
       </c>
       <c r="I390" t="n">
         <v>100.85</v>
@@ -25034,7 +25034,7 @@
         <v>0.02032</v>
       </c>
       <c r="S390" t="n">
-        <v>406.776577974295</v>
+        <v>42.1323911503777</v>
       </c>
     </row>
     <row r="391">
@@ -25064,7 +25064,7 @@
         <v>29.33333333333333</v>
       </c>
       <c r="H391" t="n">
-        <v>56</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="I391" t="n">
         <v>100.02</v>
@@ -25097,7 +25097,7 @@
         <v>0.02032</v>
       </c>
       <c r="S391" t="n">
-        <v>407.2017768422038</v>
+        <v>37.4395910731386</v>
       </c>
     </row>
     <row r="392">
@@ -25127,7 +25127,7 @@
         <v>23.5</v>
       </c>
       <c r="H392" t="n">
-        <v>60</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="I392" t="n">
         <v>100.66</v>
@@ -25160,7 +25160,7 @@
         <v>0.02032</v>
       </c>
       <c r="S392" t="n">
-        <v>694.499148692707</v>
+        <v>61.00642193155969</v>
       </c>
     </row>
     <row r="393">
@@ -25190,7 +25190,7 @@
         <v>20.94444444444445</v>
       </c>
       <c r="H393" t="n">
-        <v>61.9</v>
+        <v>16.61111111111111</v>
       </c>
       <c r="I393" t="n">
         <v>101.05</v>
@@ -25223,7 +25223,7 @@
         <v>0.02032</v>
       </c>
       <c r="S393" t="n">
-        <v>886.3576136975259</v>
+        <v>76.2571299182036</v>
       </c>
     </row>
     <row r="394">
@@ -25253,7 +25253,7 @@
         <v>26</v>
       </c>
       <c r="H394" t="n">
-        <v>59.6</v>
+        <v>15.33333333333333</v>
       </c>
       <c r="I394" t="n">
         <v>100.59</v>
@@ -25286,7 +25286,7 @@
         <v>0.02032</v>
       </c>
       <c r="S394" t="n">
-        <v>586.9820335833831</v>
+        <v>51.7917951221998</v>
       </c>
     </row>
     <row r="395">
@@ -25316,7 +25316,7 @@
         <v>18.22222222222222</v>
       </c>
       <c r="H395" t="n">
-        <v>41.1</v>
+        <v>5.055555555555556</v>
       </c>
       <c r="I395" t="n">
         <v>101.46</v>
@@ -25349,7 +25349,7 @@
         <v>0.02032</v>
       </c>
       <c r="S395" t="n">
-        <v>374.9117041215263</v>
+        <v>41.85922963670863</v>
       </c>
     </row>
     <row r="396">
@@ -25379,7 +25379,7 @@
         <v>21.61111111111111</v>
       </c>
       <c r="H396" t="n">
-        <v>43.9</v>
+        <v>6.611111111111111</v>
       </c>
       <c r="I396" t="n">
         <v>100.93</v>
@@ -25412,7 +25412,7 @@
         <v>0.02032</v>
       </c>
       <c r="S396" t="n">
-        <v>352.0708851187089</v>
+        <v>37.78179227940681</v>
       </c>
     </row>
     <row r="397">
@@ -25442,7 +25442,7 @@
         <v>18.5</v>
       </c>
       <c r="H397" t="n">
-        <v>63.7</v>
+        <v>17.61111111111111</v>
       </c>
       <c r="I397" t="n">
         <v>101.12</v>
@@ -25475,7 +25475,7 @@
         <v>0.02032</v>
       </c>
       <c r="S397" t="n">
-        <v>1120.436350323456</v>
+        <v>94.56282729346769</v>
       </c>
     </row>
     <row r="398">
@@ -25505,7 +25505,7 @@
         <v>17.77777777777778</v>
       </c>
       <c r="H398" t="n">
-        <v>63.1</v>
+        <v>17.27777777777778</v>
       </c>
       <c r="I398" t="n">
         <v>101.23</v>
@@ -25538,7 +25538,7 @@
         <v>0.02032</v>
       </c>
       <c r="S398" t="n">
-        <v>1140.770176433325</v>
+        <v>96.89190522430687</v>
       </c>
     </row>
     <row r="399">
@@ -25568,7 +25568,7 @@
         <v>20.27777777777778</v>
       </c>
       <c r="H399" t="n">
-        <v>63.1</v>
+        <v>17.27777777777778</v>
       </c>
       <c r="I399" t="n">
         <v>101.19</v>
@@ -25601,7 +25601,7 @@
         <v>0.02032</v>
       </c>
       <c r="S399" t="n">
-        <v>975.9226850198069</v>
+        <v>82.89049824113887</v>
       </c>
     </row>
     <row r="400">
@@ -25631,7 +25631,7 @@
         <v>24.94444444444445</v>
       </c>
       <c r="H400" t="n">
-        <v>63.8</v>
+        <v>17.66666666666666</v>
       </c>
       <c r="I400" t="n">
         <v>100.82</v>
@@ -25664,7 +25664,7 @@
         <v>0.02032</v>
       </c>
       <c r="S400" t="n">
-        <v>758.8370569393512</v>
+        <v>63.97712087922989</v>
       </c>
     </row>
     <row r="401">
@@ -25694,7 +25694,7 @@
         <v>26.61111111111111</v>
       </c>
       <c r="H401" t="n">
-        <v>56.6</v>
+        <v>13.66666666666667</v>
       </c>
       <c r="I401" t="n">
         <v>100.34</v>
@@ -25727,7 +25727,7 @@
         <v>0.02032</v>
       </c>
       <c r="S401" t="n">
-        <v>491.2564628740668</v>
+        <v>44.85244154335479</v>
       </c>
     </row>
     <row r="402">
@@ -25757,7 +25757,7 @@
         <v>21.83333333333333</v>
       </c>
       <c r="H402" t="n">
-        <v>51.7</v>
+        <v>10.94444444444445</v>
       </c>
       <c r="I402" t="n">
         <v>101.07</v>
@@ -25790,7 +25790,7 @@
         <v>0.02032</v>
       </c>
       <c r="S402" t="n">
-        <v>515.8485623813864</v>
+        <v>49.95938695286791</v>
       </c>
     </row>
     <row r="403">
@@ -25820,7 +25820,7 @@
         <v>26.55555555555555</v>
       </c>
       <c r="H403" t="n">
-        <v>47.3</v>
+        <v>8.499999999999998</v>
       </c>
       <c r="I403" t="n">
         <v>101.23</v>
@@ -25853,7 +25853,7 @@
         <v>0.02032</v>
       </c>
       <c r="S403" t="n">
-        <v>311.6009868620924</v>
+        <v>31.9325553196238</v>
       </c>
     </row>
     <row r="404">
@@ -25883,7 +25883,7 @@
         <v>23.33333333333334</v>
       </c>
       <c r="H404" t="n">
-        <v>57.9</v>
+        <v>14.38888888888889</v>
       </c>
       <c r="I404" t="n">
         <v>101.12</v>
@@ -25916,7 +25916,7 @@
         <v>0.02032</v>
       </c>
       <c r="S404" t="n">
-        <v>635.5431925264745</v>
+        <v>57.16301372152465</v>
       </c>
     </row>
     <row r="405">
@@ -25946,7 +25946,7 @@
         <v>27.22222222222222</v>
       </c>
       <c r="H405" t="n">
-        <v>56.8</v>
+        <v>13.77777777777778</v>
       </c>
       <c r="I405" t="n">
         <v>100.88</v>
@@ -25979,7 +25979,7 @@
         <v>0.02032</v>
       </c>
       <c r="S405" t="n">
-        <v>478.4527835324791</v>
+        <v>43.58208506756237</v>
       </c>
     </row>
     <row r="406">
@@ -26009,7 +26009,7 @@
         <v>30.44444444444444</v>
       </c>
       <c r="H406" t="n">
-        <v>42.3</v>
+        <v>5.722222222222221</v>
       </c>
       <c r="I406" t="n">
         <v>100.3</v>
@@ -26042,7 +26042,7 @@
         <v>0.02032</v>
       </c>
       <c r="S406" t="n">
-        <v>191.8468914782134</v>
+        <v>21.05520006123851</v>
       </c>
     </row>
     <row r="407">
@@ -26072,7 +26072,7 @@
         <v>28.5</v>
       </c>
       <c r="H407" t="n">
-        <v>44.8</v>
+        <v>7.11111111111111</v>
       </c>
       <c r="I407" t="n">
         <v>99.94</v>
@@ -26105,7 +26105,7 @@
         <v>0.02032</v>
       </c>
       <c r="S407" t="n">
-        <v>244.575592208544</v>
+        <v>25.92235435652201</v>
       </c>
     </row>
     <row r="408">
@@ -26135,7 +26135,7 @@
         <v>28.55555555555556</v>
       </c>
       <c r="H408" t="n">
-        <v>47.4</v>
+        <v>8.555555555555555</v>
       </c>
       <c r="I408" t="n">
         <v>100.18</v>
@@ -26168,7 +26168,7 @@
         <v>0.02032</v>
       </c>
       <c r="S408" t="n">
-        <v>278.573886891549</v>
+        <v>28.51022825920325</v>
       </c>
     </row>
     <row r="409">
@@ -26198,7 +26198,7 @@
         <v>21.77777777777778</v>
       </c>
       <c r="H409" t="n">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="I409" t="n">
         <v>100.62</v>
@@ -26231,7 +26231,7 @@
         <v>0.02032</v>
       </c>
       <c r="S409" t="n">
-        <v>735.7902676411351</v>
+        <v>65.35954190187445</v>
       </c>
     </row>
     <row r="410">
@@ -26261,7 +26261,7 @@
         <v>27.33333333333334</v>
       </c>
       <c r="H410" t="n">
-        <v>55.1</v>
+        <v>12.83333333333333</v>
       </c>
       <c r="I410" t="n">
         <v>100.47</v>
@@ -26294,7 +26294,7 @@
         <v>0.02032</v>
       </c>
       <c r="S410" t="n">
-        <v>438.1080541163589</v>
+        <v>40.71140651045665</v>
       </c>
     </row>
     <row r="411">
@@ -26324,7 +26324,7 @@
         <v>32.5</v>
       </c>
       <c r="H411" t="n">
-        <v>53</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="I411" t="n">
         <v>100.59</v>
@@ -26357,7 +26357,7 @@
         <v>0.02032</v>
       </c>
       <c r="S411" t="n">
-        <v>293.833538466697</v>
+        <v>28.00454995607652</v>
       </c>
     </row>
     <row r="412">
@@ -26387,7 +26387,7 @@
         <v>31.33333333333334</v>
       </c>
       <c r="H412" t="n">
-        <v>58.8</v>
+        <v>14.88888888888889</v>
       </c>
       <c r="I412" t="n">
         <v>100.77</v>
@@ -26420,7 +26420,7 @@
         <v>0.02032</v>
       </c>
       <c r="S412" t="n">
-        <v>414.7226838792224</v>
+        <v>36.92250305767011</v>
       </c>
     </row>
     <row r="413">
@@ -26450,7 +26450,7 @@
         <v>27.44444444444445</v>
       </c>
       <c r="H413" t="n">
-        <v>63.2</v>
+        <v>17.33333333333334</v>
       </c>
       <c r="I413" t="n">
         <v>100.67</v>
@@ -26483,7 +26483,7 @@
         <v>0.02032</v>
       </c>
       <c r="S413" t="n">
-        <v>636.831574808719</v>
+        <v>54.03223944560387</v>
       </c>
     </row>
     <row r="414">
@@ -26513,7 +26513,7 @@
         <v>29.22222222222222</v>
       </c>
       <c r="H414" t="n">
-        <v>63.5</v>
+        <v>17.5</v>
       </c>
       <c r="I414" t="n">
         <v>100.34</v>
@@ -26546,7 +26546,7 @@
         <v>0.02032</v>
       </c>
       <c r="S414" t="n">
-        <v>582.1318992954131</v>
+        <v>49.23464100670101</v>
       </c>
     </row>
     <row r="415">
@@ -26576,7 +26576,7 @@
         <v>31.33333333333334</v>
       </c>
       <c r="H415" t="n">
-        <v>68.8</v>
+        <v>20.44444444444444</v>
       </c>
       <c r="I415" t="n">
         <v>100.33</v>
@@ -26609,7 +26609,7 @@
         <v>0.02032</v>
       </c>
       <c r="S415" t="n">
-        <v>654.1644076187013</v>
+        <v>52.42124910254971</v>
       </c>
     </row>
     <row r="416">
@@ -26639,7 +26639,7 @@
         <v>31.27777777777778</v>
       </c>
       <c r="H416" t="n">
-        <v>70.3</v>
+        <v>21.27777777777778</v>
       </c>
       <c r="I416" t="n">
         <v>100.41</v>
@@ -26672,7 +26672,7 @@
         <v>0.02032</v>
       </c>
       <c r="S416" t="n">
-        <v>700.9110386390015</v>
+        <v>55.355851219334</v>
       </c>
     </row>
     <row r="417">
@@ -26702,7 +26702,7 @@
         <v>24.22222222222222</v>
       </c>
       <c r="H417" t="n">
-        <v>66.2</v>
+        <v>19</v>
       </c>
       <c r="I417" t="n">
         <v>99.8</v>
@@ -26735,7 +26735,7 @@
         <v>0.02032</v>
       </c>
       <c r="S417" t="n">
-        <v>883.1795984231638</v>
+        <v>72.63484675245854</v>
       </c>
     </row>
     <row r="418">
@@ -26765,7 +26765,7 @@
         <v>33.38888888888889</v>
       </c>
       <c r="H418" t="n">
-        <v>59.9</v>
+        <v>15.5</v>
       </c>
       <c r="I418" t="n">
         <v>99.53</v>
@@ -26798,7 +26798,7 @@
         <v>0.02032</v>
       </c>
       <c r="S418" t="n">
-        <v>388.7710536854668</v>
+        <v>34.18848258243472</v>
       </c>
     </row>
     <row r="419">
@@ -26828,7 +26828,7 @@
         <v>32.88888888888889</v>
       </c>
       <c r="H419" t="n">
-        <v>66.7</v>
+        <v>19.27777777777778</v>
       </c>
       <c r="I419" t="n">
         <v>99.46000000000001</v>
@@ -26861,7 +26861,7 @@
         <v>0.02032</v>
       </c>
       <c r="S419" t="n">
-        <v>545.6499880750688</v>
+        <v>44.64878419200873</v>
       </c>
     </row>
     <row r="420">
@@ -26891,7 +26891,7 @@
         <v>30.83333333333334</v>
       </c>
       <c r="H420" t="n">
-        <v>66.59999999999999</v>
+        <v>19.22222222222222</v>
       </c>
       <c r="I420" t="n">
         <v>99.86</v>
@@ -26924,7 +26924,7 @@
         <v>0.02032</v>
       </c>
       <c r="S420" t="n">
-        <v>610.4214653814026</v>
+        <v>49.99932602506561</v>
       </c>
     </row>
     <row r="421">
@@ -26954,7 +26954,7 @@
         <v>33.11111111111111</v>
       </c>
       <c r="H421" t="n">
-        <v>67.2</v>
+        <v>19.55555555555556</v>
       </c>
       <c r="I421" t="n">
         <v>99.97999999999999</v>
@@ -26987,7 +26987,7 @@
         <v>0.02032</v>
       </c>
       <c r="S421" t="n">
-        <v>551.0319331175803</v>
+        <v>44.86288055624069</v>
       </c>
     </row>
     <row r="422">
@@ -27017,7 +27017,7 @@
         <v>31.88888888888889</v>
       </c>
       <c r="H422" t="n">
-        <v>73.40000000000001</v>
+        <v>23</v>
       </c>
       <c r="I422" t="n">
         <v>100.21</v>
@@ -27050,7 +27050,7 @@
         <v>0.02032</v>
       </c>
       <c r="S422" t="n">
-        <v>774.1471261825076</v>
+        <v>59.3853900308744</v>
       </c>
     </row>
     <row r="423">
@@ -27080,7 +27080,7 @@
         <v>27.16666666666667</v>
       </c>
       <c r="H423" t="n">
-        <v>76</v>
+        <v>24.44444444444445</v>
       </c>
       <c r="I423" t="n">
         <v>99.95</v>
@@ -27113,7 +27113,7 @@
         <v>0.02032</v>
       </c>
       <c r="S423" t="n">
-        <v>1135.506798919983</v>
+        <v>85.08643064657164</v>
       </c>
     </row>
     <row r="424">
@@ -27143,7 +27143,7 @@
         <v>27.44444444444445</v>
       </c>
       <c r="H424" t="n">
-        <v>62.6</v>
+        <v>17</v>
       </c>
       <c r="I424" t="n">
         <v>100.34</v>
@@ -27176,7 +27176,7 @@
         <v>0.02032</v>
       </c>
       <c r="S424" t="n">
-        <v>619.5582198054102</v>
+        <v>52.90368902781106</v>
       </c>
     </row>
     <row r="425">
@@ -27206,7 +27206,7 @@
         <v>29.05555555555555</v>
       </c>
       <c r="H425" t="n">
-        <v>60.6</v>
+        <v>15.88888888888889</v>
       </c>
       <c r="I425" t="n">
         <v>100.78</v>
@@ -27239,7 +27239,7 @@
         <v>0.02032</v>
       </c>
       <c r="S425" t="n">
-        <v>514.2406857608509</v>
+        <v>44.87370972714484</v>
       </c>
     </row>
     <row r="426">
@@ -27269,7 +27269,7 @@
         <v>29.27777777777778</v>
       </c>
       <c r="H426" t="n">
-        <v>66.8</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="I426" t="n">
         <v>100.99</v>
@@ -27302,7 +27302,7 @@
         <v>0.02032</v>
       </c>
       <c r="S426" t="n">
-        <v>673.5302881514402</v>
+        <v>55.05723133740523</v>
       </c>
     </row>
     <row r="427">
@@ -27332,7 +27332,7 @@
         <v>31.16666666666666</v>
       </c>
       <c r="H427" t="n">
-        <v>70.8</v>
+        <v>21.55555555555555</v>
       </c>
       <c r="I427" t="n">
         <v>100.87</v>
@@ -27365,7 +27365,7 @@
         <v>0.02032</v>
       </c>
       <c r="S427" t="n">
-        <v>720.9198819363958</v>
+        <v>56.66443487066305</v>
       </c>
     </row>
     <row r="428">
@@ -27395,7 +27395,7 @@
         <v>25.72222222222222</v>
       </c>
       <c r="H428" t="n">
-        <v>73</v>
+        <v>22.77777777777778</v>
       </c>
       <c r="I428" t="n">
         <v>100.59</v>
@@ -27428,7 +27428,7 @@
         <v>0.02032</v>
       </c>
       <c r="S428" t="n">
-        <v>1088.412426753504</v>
+        <v>83.80118899941868</v>
       </c>
     </row>
     <row r="429">
@@ -27458,7 +27458,7 @@
         <v>26.66666666666667</v>
       </c>
       <c r="H429" t="n">
-        <v>73.3</v>
+        <v>22.94444444444444</v>
       </c>
       <c r="I429" t="n">
         <v>100.51</v>
@@ -27491,7 +27491,7 @@
         <v>0.02032</v>
       </c>
       <c r="S429" t="n">
-        <v>1042.607610284642</v>
+        <v>80.05275711491643</v>
       </c>
     </row>
     <row r="430">
@@ -27521,7 +27521,7 @@
         <v>30.66666666666667</v>
       </c>
       <c r="H430" t="n">
-        <v>69.7</v>
+        <v>20.94444444444445</v>
       </c>
       <c r="I430" t="n">
         <v>100.59</v>
@@ -27554,7 +27554,7 @@
         <v>0.02032</v>
       </c>
       <c r="S430" t="n">
-        <v>706.9900618636543</v>
+        <v>56.15983812860856</v>
       </c>
     </row>
     <row r="431">
@@ -27584,7 +27584,7 @@
         <v>28.55555555555556</v>
       </c>
       <c r="H431" t="n">
-        <v>71.59999999999999</v>
+        <v>22</v>
       </c>
       <c r="I431" t="n">
         <v>100.9</v>
@@ -27617,7 +27617,7 @@
         <v>0.02032</v>
       </c>
       <c r="S431" t="n">
-        <v>867.514412871034</v>
+        <v>67.67173021248588</v>
       </c>
     </row>
     <row r="432">
@@ -27647,7 +27647,7 @@
         <v>28.5</v>
       </c>
       <c r="H432" t="n">
-        <v>71.90000000000001</v>
+        <v>22.16666666666667</v>
       </c>
       <c r="I432" t="n">
         <v>101.01</v>
@@ -27680,7 +27680,7 @@
         <v>0.02032</v>
       </c>
       <c r="S432" t="n">
-        <v>881.6988080598833</v>
+        <v>68.58442947807357</v>
       </c>
     </row>
     <row r="433">
@@ -27710,7 +27710,7 @@
         <v>29.55555555555556</v>
       </c>
       <c r="H433" t="n">
-        <v>72.7</v>
+        <v>22.61111111111111</v>
       </c>
       <c r="I433" t="n">
         <v>100.85</v>
@@ -27743,7 +27743,7 @@
         <v>0.02032</v>
       </c>
       <c r="S433" t="n">
-        <v>858.5243185822608</v>
+        <v>66.28506498572703</v>
       </c>
     </row>
     <row r="434">
@@ -27773,7 +27773,7 @@
         <v>27.11111111111111</v>
       </c>
       <c r="H434" t="n">
-        <v>74.8</v>
+        <v>23.77777777777778</v>
       </c>
       <c r="I434" t="n">
         <v>100.82</v>
@@ -27806,7 +27806,7 @@
         <v>0.02032</v>
       </c>
       <c r="S434" t="n">
-        <v>1082.823863801476</v>
+        <v>82.01301188348624</v>
       </c>
     </row>
     <row r="435">
@@ -27836,7 +27836,7 @@
         <v>25.16666666666667</v>
       </c>
       <c r="H435" t="n">
-        <v>76.3</v>
+        <v>24.61111111111111</v>
       </c>
       <c r="I435" t="n">
         <v>100.48</v>
@@ -27869,7 +27869,7 @@
         <v>0.02032</v>
       </c>
       <c r="S435" t="n">
-        <v>1294.401097572736</v>
+        <v>96.73601293500522</v>
       </c>
     </row>
     <row r="436">
@@ -27899,7 +27899,7 @@
         <v>27.44444444444445</v>
       </c>
       <c r="H436" t="n">
-        <v>76.90000000000001</v>
+        <v>24.94444444444445</v>
       </c>
       <c r="I436" t="n">
         <v>100.39</v>
@@ -27932,7 +27932,7 @@
         <v>0.02032</v>
       </c>
       <c r="S436" t="n">
-        <v>1160.22017568085</v>
+        <v>86.25253872889452</v>
       </c>
     </row>
     <row r="437">
@@ -27962,7 +27962,7 @@
         <v>29.33333333333333</v>
       </c>
       <c r="H437" t="n">
-        <v>72.8</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="I437" t="n">
         <v>100.8</v>
@@ -27995,7 +27995,7 @@
         <v>0.02032</v>
       </c>
       <c r="S437" t="n">
-        <v>873.3631221989785</v>
+        <v>67.36824499571108</v>
       </c>
     </row>
     <row r="438">
@@ -28025,7 +28025,7 @@
         <v>30.61111111111111</v>
       </c>
       <c r="H438" t="n">
-        <v>74.90000000000001</v>
+        <v>23.83333333333334</v>
       </c>
       <c r="I438" t="n">
         <v>100.56</v>
@@ -28058,7 +28058,7 @@
         <v>0.02032</v>
       </c>
       <c r="S438" t="n">
-        <v>887.6314173013154</v>
+        <v>67.16866390025973</v>
       </c>
     </row>
     <row r="439">
@@ -28088,7 +28088,7 @@
         <v>32.05555555555556</v>
       </c>
       <c r="H439" t="n">
-        <v>76.2</v>
+        <v>24.55555555555556</v>
       </c>
       <c r="I439" t="n">
         <v>100.19</v>
@@ -28121,7 +28121,7 @@
         <v>0.02032</v>
       </c>
       <c r="S439" t="n">
-        <v>863.6994306246228</v>
+        <v>64.60485425767268</v>
       </c>
     </row>
     <row r="440">
@@ -28151,7 +28151,7 @@
         <v>32.05555555555556</v>
       </c>
       <c r="H440" t="n">
-        <v>76.40000000000001</v>
+        <v>24.66666666666667</v>
       </c>
       <c r="I440" t="n">
         <v>100.1</v>
@@ -28184,7 +28184,7 @@
         <v>0.02032</v>
       </c>
       <c r="S440" t="n">
-        <v>870.9973599196182</v>
+        <v>65.03594978676847</v>
       </c>
     </row>
     <row r="441">
@@ -28214,7 +28214,7 @@
         <v>25.16666666666667</v>
       </c>
       <c r="H441" t="n">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="I441" t="n">
         <v>100.35</v>
@@ -28247,7 +28247,7 @@
         <v>0.02032</v>
       </c>
       <c r="S441" t="n">
-        <v>904.4376341396871</v>
+        <v>73.05074589451607</v>
       </c>
     </row>
     <row r="442">
@@ -28277,7 +28277,7 @@
         <v>27.44444444444445</v>
       </c>
       <c r="H442" t="n">
-        <v>69.8</v>
+        <v>21</v>
       </c>
       <c r="I442" t="n">
         <v>100.74</v>
@@ -28310,7 +28310,7 @@
         <v>0.02032</v>
       </c>
       <c r="S442" t="n">
-        <v>855.8008855122628</v>
+        <v>67.91491193498466</v>
       </c>
     </row>
     <row r="443">
@@ -28340,7 +28340,7 @@
         <v>23.77777777777778</v>
       </c>
       <c r="H443" t="n">
-        <v>73.40000000000001</v>
+        <v>23</v>
       </c>
       <c r="I443" t="n">
         <v>100.23</v>
@@ -28373,7 +28373,7 @@
         <v>0.02032</v>
       </c>
       <c r="S443" t="n">
-        <v>1243.769474502501</v>
+        <v>95.41046249962255</v>
       </c>
     </row>
     <row r="444">
@@ -28403,7 +28403,7 @@
         <v>27.72222222222222</v>
       </c>
       <c r="H444" t="n">
-        <v>71.5</v>
+        <v>21.94444444444445</v>
       </c>
       <c r="I444" t="n">
         <v>100.45</v>
@@ -28436,7 +28436,7 @@
         <v>0.02032</v>
       </c>
       <c r="S444" t="n">
-        <v>906.7710498159672</v>
+        <v>70.80074347666358</v>
       </c>
     </row>
     <row r="445">
@@ -28466,7 +28466,7 @@
         <v>28.38888888888889</v>
       </c>
       <c r="H445" t="n">
-        <v>67.7</v>
+        <v>19.83333333333334</v>
       </c>
       <c r="I445" t="n">
         <v>100.66</v>
@@ -28499,7 +28499,7 @@
         <v>0.02032</v>
       </c>
       <c r="S445" t="n">
-        <v>738.1908302705104</v>
+        <v>59.80110972448783</v>
       </c>
     </row>
     <row r="446">
@@ -28529,7 +28529,7 @@
         <v>28</v>
       </c>
       <c r="H446" t="n">
-        <v>73.40000000000001</v>
+        <v>23</v>
       </c>
       <c r="I446" t="n">
         <v>100.52</v>
@@ -28562,7 +28562,7 @@
         <v>0.02032</v>
       </c>
       <c r="S446" t="n">
-        <v>968.3117266797599</v>
+        <v>74.27989798775064</v>
       </c>
     </row>
     <row r="447">
@@ -28592,7 +28592,7 @@
         <v>27.55555555555555</v>
       </c>
       <c r="H447" t="n">
-        <v>77.40000000000001</v>
+        <v>25.22222222222222</v>
       </c>
       <c r="I447" t="n">
         <v>100.72</v>
@@ -28625,7 +28625,7 @@
         <v>0.02032</v>
       </c>
       <c r="S447" t="n">
-        <v>1177.065084156476</v>
+        <v>87.12449526536875</v>
       </c>
     </row>
     <row r="448">
@@ -28655,7 +28655,7 @@
         <v>27.61111111111111</v>
       </c>
       <c r="H448" t="n">
-        <v>75.2</v>
+        <v>24</v>
       </c>
       <c r="I448" t="n">
         <v>100.93</v>
@@ -28688,7 +28688,7 @@
         <v>0.02032</v>
       </c>
       <c r="S448" t="n">
-        <v>1069.525328228326</v>
+        <v>80.71527717715998</v>
       </c>
     </row>
     <row r="449">
@@ -28718,7 +28718,7 @@
         <v>25.27777777777778</v>
       </c>
       <c r="H449" t="n">
-        <v>72.5</v>
+        <v>22.5</v>
       </c>
       <c r="I449" t="n">
         <v>100.32</v>
@@ -28751,7 +28751,7 @@
         <v>0.02032</v>
       </c>
       <c r="S449" t="n">
-        <v>1093.777153674745</v>
+        <v>84.60558750561124</v>
       </c>
     </row>
     <row r="450">
@@ -28781,7 +28781,7 @@
         <v>26.44444444444444</v>
       </c>
       <c r="H450" t="n">
-        <v>68.5</v>
+        <v>20.27777777777778</v>
       </c>
       <c r="I450" t="n">
         <v>100.56</v>
@@ -28814,7 +28814,7 @@
         <v>0.02032</v>
       </c>
       <c r="S450" t="n">
-        <v>857.175937420331</v>
+        <v>68.892270286589</v>
       </c>
     </row>
     <row r="451">
@@ -28844,7 +28844,7 @@
         <v>22.05555555555556</v>
       </c>
       <c r="H451" t="n">
-        <v>67</v>
+        <v>19.44444444444445</v>
       </c>
       <c r="I451" t="n">
         <v>101.09</v>
@@ -28877,7 +28877,7 @@
         <v>0.02032</v>
       </c>
       <c r="S451" t="n">
-        <v>1043.618518391602</v>
+        <v>85.13817993032853</v>
       </c>
     </row>
     <row r="452">
@@ -28907,7 +28907,7 @@
         <v>18.83333333333334</v>
       </c>
       <c r="H452" t="n">
-        <v>64</v>
+        <v>17.77777777777778</v>
       </c>
       <c r="I452" t="n">
         <v>101.02</v>
@@ -28940,7 +28940,7 @@
         <v>0.02032</v>
       </c>
       <c r="S452" t="n">
-        <v>1112.395312053994</v>
+        <v>93.58861842362536</v>
       </c>
     </row>
     <row r="453">
@@ -28970,7 +28970,7 @@
         <v>21.33333333333334</v>
       </c>
       <c r="H453" t="n">
-        <v>65.40000000000001</v>
+        <v>18.55555555555556</v>
       </c>
       <c r="I453" t="n">
         <v>100.81</v>
@@ -29003,7 +29003,7 @@
         <v>0.02032</v>
       </c>
       <c r="S453" t="n">
-        <v>1015.218551784278</v>
+        <v>84.17994955412895</v>
       </c>
     </row>
     <row r="454">
@@ -29033,7 +29033,7 @@
         <v>23.16666666666667</v>
       </c>
       <c r="H454" t="n">
-        <v>62.9</v>
+        <v>17.16666666666667</v>
       </c>
       <c r="I454" t="n">
         <v>101.21</v>
@@ -29066,7 +29066,7 @@
         <v>0.02032</v>
       </c>
       <c r="S454" t="n">
-        <v>810.3885878488339</v>
+        <v>68.97735030776386</v>
       </c>
     </row>
     <row r="455">
@@ -29096,7 +29096,7 @@
         <v>26.11111111111111</v>
       </c>
       <c r="H455" t="n">
-        <v>68.90000000000001</v>
+        <v>20.5</v>
       </c>
       <c r="I455" t="n">
         <v>101.38</v>
@@ -29129,7 +29129,7 @@
         <v>0.02032</v>
       </c>
       <c r="S455" t="n">
-        <v>889.8090443776184</v>
+        <v>71.23472957155191</v>
       </c>
     </row>
     <row r="456">
@@ -29159,7 +29159,7 @@
         <v>26.83333333333333</v>
       </c>
       <c r="H456" t="n">
-        <v>69.3</v>
+        <v>20.72222222222222</v>
       </c>
       <c r="I456" t="n">
         <v>101.1</v>
@@ -29192,7 +29192,7 @@
         <v>0.02032</v>
       </c>
       <c r="S456" t="n">
-        <v>867.8197087505708</v>
+        <v>69.2035692094337</v>
       </c>
     </row>
     <row r="457">
@@ -29222,7 +29222,7 @@
         <v>27.83333333333333</v>
       </c>
       <c r="H457" t="n">
-        <v>69.2</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="I457" t="n">
         <v>101.26</v>
@@ -29255,7 +29255,7 @@
         <v>0.02032</v>
       </c>
       <c r="S457" t="n">
-        <v>814.7867087270824</v>
+        <v>65.0378266405971</v>
       </c>
     </row>
     <row r="458">
@@ -29285,7 +29285,7 @@
         <v>24.61111111111111</v>
       </c>
       <c r="H458" t="n">
-        <v>65.7</v>
+        <v>18.72222222222222</v>
       </c>
       <c r="I458" t="n">
         <v>101.49</v>
@@ -29318,7 +29318,7 @@
         <v>0.02032</v>
       </c>
       <c r="S458" t="n">
-        <v>843.6616913330956</v>
+        <v>69.73974346692374</v>
       </c>
     </row>
     <row r="459">
@@ -29348,7 +29348,7 @@
         <v>26.5</v>
       </c>
       <c r="H459" t="n">
-        <v>67.3</v>
+        <v>19.61111111111111</v>
       </c>
       <c r="I459" t="n">
         <v>101.25</v>
@@ -29381,7 +29381,7 @@
         <v>0.02032</v>
       </c>
       <c r="S459" t="n">
-        <v>810.0680665682069</v>
+        <v>65.88654288964112</v>
       </c>
     </row>
     <row r="460">
@@ -29411,7 +29411,7 @@
         <v>26</v>
       </c>
       <c r="H460" t="n">
-        <v>69.3</v>
+        <v>20.72222222222222</v>
       </c>
       <c r="I460" t="n">
         <v>101.03</v>
@@ -29444,7 +29444,7 @@
         <v>0.02032</v>
       </c>
       <c r="S460" t="n">
-        <v>911.5977271863954</v>
+        <v>72.69461129816116</v>
       </c>
     </row>
     <row r="461">
@@ -29474,7 +29474,7 @@
         <v>26</v>
       </c>
       <c r="H461" t="n">
-        <v>68.09999999999999</v>
+        <v>20.05555555555555</v>
       </c>
       <c r="I461" t="n">
         <v>100.98</v>
@@ -29507,7 +29507,7 @@
         <v>0.02032</v>
       </c>
       <c r="S461" t="n">
-        <v>864.564617842906</v>
+        <v>69.76107719972967</v>
       </c>
     </row>
     <row r="462">
@@ -29537,7 +29537,7 @@
         <v>24.11111111111111</v>
       </c>
       <c r="H462" t="n">
-        <v>52</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="I462" t="n">
         <v>101.38</v>
@@ -29570,7 +29570,7 @@
         <v>0.02032</v>
       </c>
       <c r="S462" t="n">
-        <v>456.0432853283734</v>
+        <v>44.00295236347072</v>
       </c>
     </row>
     <row r="463">
@@ -29600,7 +29600,7 @@
         <v>26.72222222222222</v>
       </c>
       <c r="H463" t="n">
-        <v>63.2</v>
+        <v>17.33333333333334</v>
       </c>
       <c r="I463" t="n">
         <v>100.96</v>
@@ -29633,7 +29633,7 @@
         <v>0.02032</v>
       </c>
       <c r="S463" t="n">
-        <v>664.4423496385249</v>
+        <v>56.37488710300187</v>
       </c>
     </row>
     <row r="464">
@@ -29663,7 +29663,7 @@
         <v>18.5</v>
       </c>
       <c r="H464" t="n">
-        <v>61.3</v>
+        <v>16.27777777777778</v>
       </c>
       <c r="I464" t="n">
         <v>101.58</v>
@@ -29696,7 +29696,7 @@
         <v>0.02032</v>
       </c>
       <c r="S464" t="n">
-        <v>1003.44060256417</v>
+        <v>86.89395780491765</v>
       </c>
     </row>
     <row r="465">
@@ -29726,7 +29726,7 @@
         <v>22.33333333333334</v>
       </c>
       <c r="H465" t="n">
-        <v>57.4</v>
+        <v>14.11111111111111</v>
       </c>
       <c r="I465" t="n">
         <v>101.76</v>
@@ -29759,7 +29759,7 @@
         <v>0.02032</v>
       </c>
       <c r="S465" t="n">
-        <v>659.456740304477</v>
+        <v>59.65479866185694</v>
       </c>
     </row>
     <row r="466">
@@ -29789,7 +29789,7 @@
         <v>21.27777777777778</v>
       </c>
       <c r="H466" t="n">
-        <v>49.9</v>
+        <v>9.944444444444445</v>
       </c>
       <c r="I466" t="n">
         <v>101.71</v>
@@ -29822,7 +29822,7 @@
         <v>0.02032</v>
       </c>
       <c r="S466" t="n">
-        <v>488.0501734498008</v>
+        <v>48.35231873402989</v>
       </c>
     </row>
     <row r="467">
@@ -29852,7 +29852,7 @@
         <v>19.27777777777778</v>
       </c>
       <c r="H467" t="n">
-        <v>54</v>
+        <v>12.22222222222222</v>
       </c>
       <c r="I467" t="n">
         <v>101.72</v>
@@ -29885,7 +29885,7 @@
         <v>0.02032</v>
       </c>
       <c r="S467" t="n">
-        <v>676.0045588146933</v>
+        <v>63.6505687658795</v>
       </c>
     </row>
     <row r="468">
@@ -29915,7 +29915,7 @@
         <v>18.05555555555556</v>
       </c>
       <c r="H468" t="n">
-        <v>47.3</v>
+        <v>8.499999999999998</v>
       </c>
       <c r="I468" t="n">
         <v>102.16</v>
@@ -29948,7 +29948,7 @@
         <v>0.02032</v>
       </c>
       <c r="S468" t="n">
-        <v>522.9542938332995</v>
+        <v>53.59182936367707</v>
       </c>
     </row>
     <row r="469">
@@ -29978,7 +29978,7 @@
         <v>18.27777777777778</v>
       </c>
       <c r="H469" t="n">
-        <v>44</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="I469" t="n">
         <v>102.44</v>
@@ -30011,7 +30011,7 @@
         <v>0.02032</v>
       </c>
       <c r="S469" t="n">
-        <v>435.1533278754966</v>
+        <v>46.63289819665852</v>
       </c>
     </row>
     <row r="470">
@@ -30041,7 +30041,7 @@
         <v>16.11111111111111</v>
       </c>
       <c r="H470" t="n">
-        <v>47.2</v>
+        <v>8.444444444444446</v>
       </c>
       <c r="I470" t="n">
         <v>102.6</v>
@@ -30074,7 +30074,7 @@
         <v>0.02032</v>
       </c>
       <c r="S470" t="n">
-        <v>588.5216523752931</v>
+        <v>60.39105987604824</v>
       </c>
     </row>
     <row r="471">
@@ -30104,7 +30104,7 @@
         <v>17.05555555555556</v>
       </c>
       <c r="H471" t="n">
-        <v>49</v>
+        <v>9.444444444444445</v>
       </c>
       <c r="I471" t="n">
         <v>102.67</v>
@@ -30137,7 +30137,7 @@
         <v>0.02032</v>
       </c>
       <c r="S471" t="n">
-        <v>607.0568416567138</v>
+        <v>60.84214115119693</v>
       </c>
     </row>
     <row r="472">
@@ -30167,7 +30167,7 @@
         <v>18.5</v>
       </c>
       <c r="H472" t="n">
-        <v>44.1</v>
+        <v>6.722222222222223</v>
       </c>
       <c r="I472" t="n">
         <v>101.39</v>
@@ -30200,7 +30200,7 @@
         <v>0.02032</v>
       </c>
       <c r="S472" t="n">
-        <v>431.3678755589181</v>
+        <v>46.16325121041027</v>
       </c>
     </row>
     <row r="473">
@@ -30230,7 +30230,7 @@
         <v>17.22222222222222</v>
       </c>
       <c r="H473" t="n">
-        <v>47.3</v>
+        <v>8.499999999999998</v>
       </c>
       <c r="I473" t="n">
         <v>101.99</v>
@@ -30263,7 +30263,7 @@
         <v>0.02032</v>
       </c>
       <c r="S473" t="n">
-        <v>551.1864087129211</v>
+        <v>56.48502806391894</v>
       </c>
     </row>
     <row r="474">
@@ -30293,7 +30293,7 @@
         <v>20.72222222222222</v>
       </c>
       <c r="H474" t="n">
-        <v>51.7</v>
+        <v>10.94444444444445</v>
       </c>
       <c r="I474" t="n">
         <v>101.72</v>
@@ -30326,7 +30326,7 @@
         <v>0.02032</v>
       </c>
       <c r="S474" t="n">
-        <v>552.2522912051008</v>
+        <v>53.4850495357687</v>
       </c>
     </row>
     <row r="475">
@@ -30356,7 +30356,7 @@
         <v>18.72222222222222</v>
       </c>
       <c r="H475" t="n">
-        <v>38.4</v>
+        <v>3.555555555555555</v>
       </c>
       <c r="I475" t="n">
         <v>102.1</v>
@@ -30389,7 +30389,7 @@
         <v>0.02032</v>
       </c>
       <c r="S475" t="n">
-        <v>314.3614171850397</v>
+        <v>36.52014081746158</v>
       </c>
     </row>
     <row r="476">
@@ -30419,7 +30419,7 @@
         <v>20.77777777777778</v>
       </c>
       <c r="H476" t="n">
-        <v>43.2</v>
+        <v>6.222222222222224</v>
       </c>
       <c r="I476" t="n">
         <v>101.7</v>
@@ -30452,7 +30452,7 @@
         <v>0.02032</v>
       </c>
       <c r="S476" t="n">
-        <v>357.2571348222218</v>
+        <v>38.71446637653544</v>
       </c>
     </row>
     <row r="477">
@@ -30482,7 +30482,7 @@
         <v>18.11111111111111</v>
       </c>
       <c r="H477" t="n">
-        <v>39.7</v>
+        <v>4.277777777777779</v>
       </c>
       <c r="I477" t="n">
         <v>101.98</v>
@@ -30515,7 +30515,7 @@
         <v>0.02032</v>
       </c>
       <c r="S477" t="n">
-        <v>350.3511193421414</v>
+        <v>39.92315097760543</v>
       </c>
     </row>
     <row r="478">
@@ -30545,7 +30545,7 @@
         <v>22.72222222222222</v>
       </c>
       <c r="H478" t="n">
-        <v>49.7</v>
+        <v>9.833333333333336</v>
       </c>
       <c r="I478" t="n">
         <v>101.66</v>
@@ -30578,7 +30578,7 @@
         <v>0.02032</v>
       </c>
       <c r="S478" t="n">
-        <v>442.4144236917936</v>
+        <v>43.94330855714315</v>
       </c>
     </row>
     <row r="479">
@@ -30608,7 +30608,7 @@
         <v>26.11111111111111</v>
       </c>
       <c r="H479" t="n">
-        <v>50.5</v>
+        <v>10.27777777777778</v>
       </c>
       <c r="I479" t="n">
         <v>101.28</v>
@@ -30641,7 +30641,7 @@
         <v>0.02032</v>
       </c>
       <c r="S479" t="n">
-        <v>375.7902954261335</v>
+        <v>36.94749049293934</v>
       </c>
     </row>
     <row r="480">
@@ -30671,7 +30671,7 @@
         <v>24.44444444444445</v>
       </c>
       <c r="H480" t="n">
-        <v>52.5</v>
+        <v>11.38888888888889</v>
       </c>
       <c r="I480" t="n">
         <v>101.03</v>
@@ -30704,7 +30704,7 @@
         <v>0.02032</v>
       </c>
       <c r="S480" t="n">
-        <v>458.1431262439071</v>
+        <v>43.93325291238164</v>
       </c>
     </row>
     <row r="481">
@@ -30734,7 +30734,7 @@
         <v>13.72222222222222</v>
       </c>
       <c r="H481" t="n">
-        <v>45.3</v>
+        <v>7.388888888888888</v>
       </c>
       <c r="I481" t="n">
         <v>101.94</v>
@@ -30767,7 +30767,7 @@
         <v>0.02032</v>
       </c>
       <c r="S481" t="n">
-        <v>622.7595537072608</v>
+        <v>65.5564843038447</v>
       </c>
     </row>
     <row r="482">
@@ -30797,7 +30797,7 @@
         <v>7.833333333333335</v>
       </c>
       <c r="H482" t="n">
-        <v>22.1</v>
+        <v>-5.499999999999999</v>
       </c>
       <c r="I482" t="n">
         <v>102.1</v>
@@ -30830,7 +30830,7 @@
         <v>0.02032</v>
       </c>
       <c r="S482" t="n">
-        <v>250.818546110827</v>
+        <v>38.32517680990841</v>
       </c>
     </row>
     <row r="483">
@@ -30860,7 +30860,7 @@
         <v>6.833333333333332</v>
       </c>
       <c r="H483" t="n">
-        <v>21.1</v>
+        <v>-6.055555555555555</v>
       </c>
       <c r="I483" t="n">
         <v>102.88</v>
@@ -30893,7 +30893,7 @@
         <v>0.02032</v>
       </c>
       <c r="S483" t="n">
-        <v>252.6214842488939</v>
+        <v>39.33814095225821</v>
       </c>
     </row>
     <row r="484">
@@ -30923,7 +30923,7 @@
         <v>0</v>
       </c>
       <c r="H484" t="n">
-        <v>27.5</v>
+        <v>-2.5</v>
       </c>
       <c r="I484" t="n">
         <v>103.63</v>
@@ -30956,7 +30956,7 @@
         <v>0.02032</v>
       </c>
       <c r="S484" t="n">
-        <v>600.7935512576742</v>
+        <v>83.25193990917467</v>
       </c>
     </row>
     <row r="485">
@@ -30986,7 +30986,7 @@
         <v>2.444444444444444</v>
       </c>
       <c r="H485" t="n">
-        <v>18.5</v>
+        <v>-7.5</v>
       </c>
       <c r="I485" t="n">
         <v>103.28</v>
@@ -31019,7 +31019,7 @@
         <v>0.02032</v>
       </c>
       <c r="S485" t="n">
-        <v>292.1416268338895</v>
+        <v>47.84665733121914</v>
       </c>
     </row>
     <row r="486">
@@ -31049,7 +31049,7 @@
         <v>4.222222222222223</v>
       </c>
       <c r="H486" t="n">
-        <v>13.5</v>
+        <v>-10.27777777777778</v>
       </c>
       <c r="I486" t="n">
         <v>102.77</v>
@@ -31082,7 +31082,7 @@
         <v>0.02032</v>
       </c>
       <c r="S486" t="n">
-        <v>187.2023619836771</v>
+        <v>33.96420872249805</v>
       </c>
     </row>
     <row r="487">
@@ -31112,7 +31112,7 @@
         <v>11.44444444444445</v>
       </c>
       <c r="H487" t="n">
-        <v>25.6</v>
+        <v>-3.555555555555555</v>
       </c>
       <c r="I487" t="n">
         <v>101.88</v>
@@ -31145,7 +31145,7 @@
         <v>0.02032</v>
       </c>
       <c r="S487" t="n">
-        <v>242.9718863302331</v>
+        <v>34.81771489896175</v>
       </c>
     </row>
     <row r="488">
@@ -31175,7 +31175,7 @@
         <v>15.66666666666667</v>
       </c>
       <c r="H488" t="n">
-        <v>34.7</v>
+        <v>1.500000000000002</v>
       </c>
       <c r="I488" t="n">
         <v>101.99</v>
@@ -31208,7 +31208,7 @@
         <v>0.02032</v>
       </c>
       <c r="S488" t="n">
-        <v>311.3763116175692</v>
+        <v>38.29041173964809</v>
       </c>
     </row>
     <row r="489">
@@ -31238,7 +31238,7 @@
         <v>17.94444444444444</v>
       </c>
       <c r="H489" t="n">
-        <v>41.8</v>
+        <v>5.444444444444443</v>
       </c>
       <c r="I489" t="n">
         <v>101.36</v>
@@ -31271,7 +31271,7 @@
         <v>0.02032</v>
       </c>
       <c r="S489" t="n">
-        <v>395.9352743978852</v>
+        <v>43.76440740923389</v>
       </c>
     </row>
     <row r="490">
@@ -31301,7 +31301,7 @@
         <v>0.9444444444444461</v>
       </c>
       <c r="H490" t="n">
-        <v>6.6</v>
+        <v>-14.11111111111111</v>
       </c>
       <c r="I490" t="n">
         <v>103.61</v>
@@ -31334,7 +31334,7 @@
         <v>0.02032</v>
       </c>
       <c r="S490" t="n">
-        <v>148.8890221805554</v>
+        <v>31.49756198663229</v>
       </c>
     </row>
     <row r="491">
@@ -31364,7 +31364,7 @@
         <v>4.777777777777779</v>
       </c>
       <c r="H491" t="n">
-        <v>24.2</v>
+        <v>-4.333333333333334</v>
       </c>
       <c r="I491" t="n">
         <v>102.98</v>
@@ -31397,7 +31397,7 @@
         <v>0.02032</v>
       </c>
       <c r="S491" t="n">
-        <v>351.6010328076252</v>
+        <v>51.67536007900257</v>
       </c>
     </row>
     <row r="492">
@@ -31427,7 +31427,7 @@
         <v>3.499999999999999</v>
       </c>
       <c r="H492" t="n">
-        <v>7.6</v>
+        <v>-13.55555555555556</v>
       </c>
       <c r="I492" t="n">
         <v>103.1</v>
@@ -31460,7 +31460,7 @@
         <v>0.02032</v>
       </c>
       <c r="S492" t="n">
-        <v>132.9004544787863</v>
+        <v>27.47052657942266</v>
       </c>
     </row>
     <row r="493">
@@ -31490,7 +31490,7 @@
         <v>5.666666666666669</v>
       </c>
       <c r="H493" t="n">
-        <v>10.8</v>
+        <v>-11.77777777777778</v>
       </c>
       <c r="I493" t="n">
         <v>102.76</v>
@@ -31523,7 +31523,7 @@
         <v>0.02032</v>
       </c>
       <c r="S493" t="n">
-        <v>141.704959565646</v>
+        <v>27.2538581452096</v>
       </c>
     </row>
     <row r="494">
@@ -31553,7 +31553,7 @@
         <v>6.500000000000002</v>
       </c>
       <c r="H494" t="n">
-        <v>17.2</v>
+        <v>-8.222222222222223</v>
       </c>
       <c r="I494" t="n">
         <v>102.31</v>
@@ -31586,7 +31586,7 @@
         <v>0.02032</v>
       </c>
       <c r="S494" t="n">
-        <v>202.6641054910453</v>
+        <v>34.06392716376189</v>
       </c>
     </row>
     <row r="495">
@@ -31616,7 +31616,7 @@
         <v>7.666666666666665</v>
       </c>
       <c r="H495" t="n">
-        <v>24.7</v>
+        <v>-4.055555555555556</v>
       </c>
       <c r="I495" t="n">
         <v>101.65</v>
@@ -31649,7 +31649,7 @@
         <v>0.02032</v>
       </c>
       <c r="S495" t="n">
-        <v>296.8223569533066</v>
+        <v>43.22954400674112</v>
       </c>
     </row>
     <row r="496">
@@ -31679,7 +31679,7 @@
         <v>12.61111111111111</v>
       </c>
       <c r="H496" t="n">
-        <v>30.6</v>
+        <v>-0.777777777777777</v>
       </c>
       <c r="I496" t="n">
         <v>101.42</v>
@@ -31712,7 +31712,7 @@
         <v>0.02032</v>
       </c>
       <c r="S496" t="n">
-        <v>301.1867810526602</v>
+        <v>39.5855413726802</v>
       </c>
     </row>
     <row r="497">
@@ -31742,7 +31742,7 @@
         <v>14.94444444444444</v>
       </c>
       <c r="H497" t="n">
-        <v>21.4</v>
+        <v>-5.88888888888889</v>
       </c>
       <c r="I497" t="n">
         <v>100.79</v>
@@ -31775,7 +31775,7 @@
         <v>0.02032</v>
       </c>
       <c r="S497" t="n">
-        <v>150.0373362669989</v>
+        <v>23.23085143174915</v>
       </c>
     </row>
     <row r="498">
@@ -31805,7 +31805,7 @@
         <v>18.27777777777778</v>
       </c>
       <c r="H498" t="n">
-        <v>29</v>
+        <v>-1.666666666666667</v>
       </c>
       <c r="I498" t="n">
         <v>100.85</v>
@@ -31838,7 +31838,7 @@
         <v>0.02032</v>
       </c>
       <c r="S498" t="n">
-        <v>190.9281635453625</v>
+        <v>25.78111125530719</v>
       </c>
     </row>
     <row r="499">
@@ -31868,7 +31868,7 @@
         <v>1.722222222222223</v>
       </c>
       <c r="H499" t="n">
-        <v>24.1</v>
+        <v>-4.388888888888888</v>
       </c>
       <c r="I499" t="n">
         <v>102.87</v>
@@ -31901,7 +31901,7 @@
         <v>0.02032</v>
       </c>
       <c r="S499" t="n">
-        <v>433.7326648566929</v>
+        <v>63.86290548833944</v>
       </c>
     </row>
     <row r="500">
@@ -31931,7 +31931,7 @@
         <v>0.4444444444444429</v>
       </c>
       <c r="H500" t="n">
-        <v>30</v>
+        <v>-1.111111111111111</v>
       </c>
       <c r="I500" t="n">
         <v>102.68</v>
@@ -31964,7 +31964,7 @@
         <v>0.02032</v>
       </c>
       <c r="S500" t="n">
-        <v>672.6233220645721</v>
+        <v>89.29788034769732</v>
       </c>
     </row>
     <row r="501">
@@ -31994,7 +31994,7 @@
         <v>0.3888888888888905</v>
       </c>
       <c r="H501" t="n">
-        <v>31.5</v>
+        <v>-0.2777777777777778</v>
       </c>
       <c r="I501" t="n">
         <v>102.4</v>
@@ -32027,7 +32027,7 @@
         <v>0.06095999999999999</v>
       </c>
       <c r="S501" t="n">
-        <v>735.8401952782765</v>
+        <v>95.27946782598229</v>
       </c>
     </row>
     <row r="502">
@@ -32057,7 +32057,7 @@
         <v>-5.555555555555555</v>
       </c>
       <c r="H502" t="n">
-        <v>18.7</v>
+        <v>-7.388888888888889</v>
       </c>
       <c r="I502" t="n">
         <v>103.13</v>
@@ -32090,7 +32090,7 @@
         <v>0.06095999999999999</v>
       </c>
       <c r="S502" t="n">
-        <v>532.6949139036221</v>
+        <v>86.90055474612325</v>
       </c>
     </row>
     <row r="503">
@@ -32120,7 +32120,7 @@
         <v>-9.277777777777779</v>
       </c>
       <c r="H503" t="n">
-        <v>-0.2</v>
+        <v>-17.88888888888889</v>
       </c>
       <c r="I503" t="n">
         <v>104.06</v>
@@ -32153,7 +32153,7 @@
         <v>0.06095999999999999</v>
       </c>
       <c r="S503" t="n">
-        <v>198.4567870885922</v>
+        <v>49.60184121371949</v>
       </c>
     </row>
     <row r="504">
@@ -32183,7 +32183,7 @@
         <v>-6.555555555555556</v>
       </c>
       <c r="H504" t="n">
-        <v>4.8</v>
+        <v>-15.11111111111111</v>
       </c>
       <c r="I504" t="n">
         <v>103.88</v>
@@ -32216,7 +32216,7 @@
         <v>0.0508</v>
       </c>
       <c r="S504" t="n">
-        <v>229.4382387773771</v>
+        <v>50.64953691788801</v>
       </c>
     </row>
     <row r="505">
@@ -32246,7 +32246,7 @@
         <v>-2.666666666666667</v>
       </c>
       <c r="H505" t="n">
-        <v>8.300000000000001</v>
+        <v>-13.16666666666667</v>
       </c>
       <c r="I505" t="n">
         <v>103.41</v>
@@ -32279,7 +32279,7 @@
         <v>0.0508</v>
       </c>
       <c r="S505" t="n">
-        <v>217.7340845636572</v>
+        <v>44.2893645538535</v>
       </c>
     </row>
     <row r="506">
@@ -32309,7 +32309,7 @@
         <v>-4.777777777777779</v>
       </c>
       <c r="H506" t="n">
-        <v>2.1</v>
+        <v>-16.61111111111111</v>
       </c>
       <c r="I506" t="n">
         <v>104.17</v>
@@ -32342,7 +32342,7 @@
         <v>0.0508</v>
       </c>
       <c r="S506" t="n">
-        <v>165.6544595352088</v>
+        <v>39.06204940776784</v>
       </c>
     </row>
     <row r="507">
@@ -32372,7 +32372,7 @@
         <v>-3.055555555555556</v>
       </c>
       <c r="H507" t="n">
-        <v>9.9</v>
+        <v>-12.27777777777778</v>
       </c>
       <c r="I507" t="n">
         <v>103.83</v>
@@ -32405,7 +32405,7 @@
         <v>0.0508</v>
       </c>
       <c r="S507" t="n">
-        <v>249.6507552461344</v>
+        <v>48.98195532829197</v>
       </c>
     </row>
     <row r="508">
@@ -32435,7 +32435,7 @@
         <v>-3.277777777777777</v>
       </c>
       <c r="H508" t="n">
-        <v>4.5</v>
+        <v>-15.27777777777778</v>
       </c>
       <c r="I508" t="n">
         <v>103.5</v>
@@ -32468,7 +32468,7 @@
         <v>0.0508</v>
       </c>
       <c r="S508" t="n">
-        <v>175.3700532323059</v>
+        <v>38.9936359848107</v>
       </c>
     </row>
     <row r="509">
@@ -32498,7 +32498,7 @@
         <v>3.166666666666668</v>
       </c>
       <c r="H509" t="n">
-        <v>25</v>
+        <v>-3.888888888888889</v>
       </c>
       <c r="I509" t="n">
         <v>102.94</v>
@@ -32531,7 +32531,7 @@
         <v>0.01016</v>
       </c>
       <c r="S509" t="n">
-        <v>413.0534436258467</v>
+        <v>59.83204879510805</v>
       </c>
     </row>
     <row r="510">
@@ -32561,7 +32561,7 @@
         <v>-1.166666666666667</v>
       </c>
       <c r="H510" t="n">
-        <v>26.9</v>
+        <v>-2.833333333333334</v>
       </c>
       <c r="I510" t="n">
         <v>103.04</v>
@@ -32594,7 +32594,7 @@
         <v>0.01016</v>
       </c>
       <c r="S510" t="n">
-        <v>631.495169895627</v>
+        <v>88.43012091943228</v>
       </c>
     </row>
   </sheetData>
